--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5372AE5-3A73-7242-8DDE-FE03CCC6CB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5209D-9434-A842-B112-3281A3BA934D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="460" windowWidth="29000" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,12 +181,12 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,7 +1052,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$B$43</c:f>
+              <c:f>'Calculos COVID19'!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1073,7 +1073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$44:$A$60</c:f>
+              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1132,7 +1132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$B$44:$B$60</c:f>
+              <c:f>'Calculos COVID19'!$B$57:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1201,7 +1201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$C$43</c:f>
+              <c:f>'Calculos COVID19'!$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,7 +1222,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$44:$A$60</c:f>
+              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1281,7 +1281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$C$44:$C$60</c:f>
+              <c:f>'Calculos COVID19'!$C$57:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1350,7 +1350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$D$43</c:f>
+              <c:f>'Calculos COVID19'!$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1371,7 +1371,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$44:$A$60</c:f>
+              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1430,7 +1430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$D$44:$D$60</c:f>
+              <c:f>'Calculos COVID19'!$D$57:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2788,15 +2788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2824,15 +2824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3157,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3648,20 +3648,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3903,261 +3903,261 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D56" s="7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="5">
-        <v>79.778439153439152</v>
-      </c>
-      <c r="C44" s="7">
-        <v>90.542328042328052</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="5">
-        <v>29.532790398628379</v>
-      </c>
-      <c r="C45" s="7">
-        <v>37.633947706815263</v>
-      </c>
-      <c r="D45">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="5">
-        <v>19.172005914243471</v>
-      </c>
-      <c r="C46">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="5">
-        <v>9.3348891481913654</v>
-      </c>
-      <c r="C47">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="5">
-        <v>8.3893118375876998</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="5">
-        <v>7.9161816065192081</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5.8771929824561404</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="5">
-        <v>3.5069235400361229</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="5">
-        <v>2.3484848484848486</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1.9817369341363902</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1.9762845849802373</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.90702947845804982</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1.3040238450074515</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" s="5">
-        <v>0.91992665036674814</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>79.778439153439152</v>
+      </c>
+      <c r="C57" s="6">
+        <v>90.542328042328052</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="5">
-        <v>1.0146152917018962</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>29.532790398628379</v>
+      </c>
+      <c r="C58" s="6">
+        <v>37.633947706815263</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="5">
+        <v>19.172005914243471</v>
+      </c>
+      <c r="C59">
         <v>21</v>
       </c>
-      <c r="B59" s="5">
-        <v>0.50545357807927638</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>9.3348891481913654</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="5">
+        <v>8.3893118375876998</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5">
+        <v>7.9161816065192081</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="5">
+        <v>5.8771929824561404</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3.5069235400361229</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2.3484848484848486</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1.9817369341363902</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1.9762845849802373</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.90702947845804982</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1.3040238450074515</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.91992665036674814</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1.0146152917018962</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.50545357807927638</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B73" s="5">
         <v>0</v>
       </c>
-      <c r="C60">
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="D73">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:D60">
-    <sortCondition descending="1" ref="D44:D60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:D73">
+    <sortCondition descending="1" ref="D57:D73"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B20:C20"/>
@@ -4195,22 +4195,22 @@
     <hyperlink ref="A26" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A32" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A37" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A52" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
-    <hyperlink ref="A44" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
-    <hyperlink ref="A45" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A57" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
-    <hyperlink ref="A58" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A46" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A48" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A53" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
-    <hyperlink ref="A47" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
-    <hyperlink ref="A51" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A49" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
-    <hyperlink ref="A55" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
-    <hyperlink ref="A50" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
-    <hyperlink ref="A56" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A54" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
-    <hyperlink ref="A59" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
+    <hyperlink ref="A65" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A57" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
+    <hyperlink ref="A58" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
+    <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A71" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
+    <hyperlink ref="A59" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A61" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A66" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A60" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
+    <hyperlink ref="A64" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
+    <hyperlink ref="A62" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A68" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
+    <hyperlink ref="A63" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
+    <hyperlink ref="A69" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
+    <hyperlink ref="A67" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A72" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5209D-9434-A842-B112-3281A3BA934D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFFA2B9-B8AA-E44D-B192-7E66DF793F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFFA2B9-B8AA-E44D-B192-7E66DF793F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25EE6E-CD10-0948-9DE1-249BB1CB6FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -3159,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3645,6 +3645,11 @@
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>6.1137151008762991E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25EE6E-CD10-0948-9DE1-249BB1CB6FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86934029-5E76-6042-B108-BB6F00E29D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>China</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>23 March</t>
+  </si>
+  <si>
+    <t>24 March</t>
   </si>
 </sst>
 </file>
@@ -318,10 +321,10 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Spain</c:v>
@@ -342,10 +345,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -360,10 +363,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Colombia</c:v>
@@ -378,10 +381,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>800.81680280046669</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800.81680280046669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>546.42091727389629</c:v>
@@ -402,10 +405,10 @@
                   <c:v>215.83818480370206</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>211.35040745052387</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>211.35040745052387</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>174.901185770751</c:v>
@@ -420,10 +423,10 @@
                   <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>35.328544825751528</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>58.447330447330444</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35.328544825751528</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.9942938659058487</c:v>
@@ -467,10 +470,10 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Spain</c:v>
@@ -491,10 +494,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -509,10 +512,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Colombia</c:v>
@@ -527,10 +530,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>872.11201866977831</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>872.11201866977831</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>613.00900128589808</c:v>
@@ -551,10 +554,10 @@
                   <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>191</c:v>
@@ -569,10 +572,10 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5</c:v>
@@ -616,10 +619,10 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Spain</c:v>
@@ -640,10 +643,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -658,10 +661,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Colombia</c:v>
@@ -676,10 +679,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>709</c:v>
@@ -700,10 +703,10 @@
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>202</c:v>
@@ -717,11 +720,11 @@
                 <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0">
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
@@ -732,6 +735,155 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-30B0-1341-8564-275AF7CEB475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$22:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$E$22:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4A6-FA42-ADDC-2F07F0000D6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1086,13 +1238,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Belgium</c:v>
@@ -1101,16 +1253,16 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Norway</c:v>
@@ -1146,13 +1298,13 @@
                   <c:v>19.172005914243471</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.3893118375876998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9161816065192081</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9.3348891481913654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3893118375876998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9161816065192081</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.8771929824561404</c:v>
@@ -1161,16 +1313,16 @@
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90702947845804982</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.3484848484848486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1.9817369341363902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9762845849802373</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90702947845804982</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.3040238450074515</c:v>
@@ -1235,13 +1387,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Belgium</c:v>
@@ -1250,16 +1402,16 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Norway</c:v>
@@ -1295,13 +1447,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>7</c:v>
@@ -1384,13 +1536,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Belgium</c:v>
@@ -1399,16 +1551,16 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Norway</c:v>
@@ -1444,13 +1596,13 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
@@ -1491,6 +1643,155 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7493-3441-8635-D8D4141158B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$E$57:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F899-1742-8A20-7614E15055DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3159,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3199,24 +3500,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81093</v>
+        <v>81171</v>
       </c>
       <c r="C2" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2">
-        <v>3270</v>
+        <v>3277</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.50865800865801</v>
+        <v>58.564935064935064</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3593073593073592</v>
+        <v>2.3643578643578644</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3226,24 +3527,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>63927</v>
+        <v>69176</v>
       </c>
       <c r="C3" s="2">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="D3" s="2">
-        <v>6077</v>
+        <v>6820</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F18" si="0">B3/E3</f>
-        <v>1056.9940476190477</v>
+        <v>1143.7830687830688</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G18" si="1">D3/E3</f>
-        <v>100.47949735449735</v>
+        <v>112.76455026455027</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3253,24 +3554,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>33089</v>
+        <v>39885</v>
       </c>
       <c r="C4" s="2">
-        <v>4321</v>
+        <v>4749</v>
       </c>
       <c r="D4" s="2">
-        <v>2207</v>
+        <v>2808</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>709.15130732961859</v>
+        <v>854.80068581225896</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>47.299614230604377</v>
+        <v>60.180025717959715</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3280,24 +3581,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>42163</v>
+        <v>52983</v>
       </c>
       <c r="C5" s="2">
-        <v>8617</v>
+        <v>9249</v>
       </c>
       <c r="D5" s="2">
-        <v>512</v>
+        <v>685</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>128.86002444987776</v>
+        <v>161.92848410757946</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5647921760391199</v>
+        <f>D5/E5</f>
+        <v>2.0935207823960882</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3307,24 +3608,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>29056</v>
+        <v>32986</v>
       </c>
       <c r="C6" s="2">
-        <v>4183</v>
+        <v>3903</v>
       </c>
       <c r="D6" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>350.960260901075</v>
+        <v>398.42976204855654</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>1.4252929097717115</v>
+        <v>1.8963642952047348</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3334,24 +3635,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>23049</v>
+        <v>24811</v>
       </c>
       <c r="C7" s="2">
-        <v>1411</v>
+        <v>1762</v>
       </c>
       <c r="D7" s="2">
-        <v>1812</v>
+        <v>1934</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>283.99457861015281</v>
+        <v>305.70478068013801</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>22.326269098077873</v>
+        <v>23.829472646623955</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3361,24 +3662,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>19856</v>
+        <v>22304</v>
       </c>
       <c r="C8" s="2">
-        <v>3838</v>
+        <v>2448</v>
       </c>
       <c r="D8" s="2">
-        <v>860</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>296.40244812658608</v>
+        <v>332.94521570383642</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>12.837736975668012</v>
+        <v>16.420361247947454</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3388,24 +3689,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>8961</v>
+        <v>9037</v>
       </c>
       <c r="C9" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>174.10141830192345</v>
+        <v>175.5780066057898</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.1565960753837188</v>
+        <v>2.3314552166310474</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3415,24 +3716,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>8547</v>
+        <v>9877</v>
       </c>
       <c r="C10" s="2">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="D10" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>997.31621936989495</v>
+        <v>1152.5087514585764</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>13.768961493582264</v>
+        <v>14.235705950991832</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3442,24 +3743,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>6650</v>
+        <v>8077</v>
       </c>
       <c r="C11" s="2">
-        <v>967</v>
+        <v>1427</v>
       </c>
       <c r="D11" s="2">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>100.09030704394944</v>
+        <v>121.56833232992174</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>5.0421432871764003</v>
+        <v>6.351595424443107</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3469,24 +3770,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>4749</v>
+        <v>5560</v>
       </c>
       <c r="C12" s="2">
-        <v>545</v>
+        <v>811</v>
       </c>
       <c r="D12" s="2">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>276.42607683352736</v>
+        <v>323.63213038416762</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>12.39813736903376</v>
+        <v>16.065192083818395</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3496,24 +3797,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>4468</v>
+        <v>5283</v>
       </c>
       <c r="C13" s="2">
-        <v>886</v>
+        <v>809</v>
       </c>
       <c r="D13" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>506.57596371882084</v>
+        <v>598.9795918367347</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>2.3809523809523809</v>
+        <v>3.1746031746031744</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3523,24 +3824,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3743</v>
+        <v>4269</v>
       </c>
       <c r="C14" s="2">
-        <v>342</v>
+        <v>526</v>
       </c>
       <c r="D14" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>328.33333333333331</v>
+        <v>374.4736842105263</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>7.7192982456140351</v>
+        <v>10.701754385964913</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3550,24 +3851,24 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>2547</v>
+        <v>2779</v>
       </c>
       <c r="C15" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>474.47839046199698</v>
+        <v>517.69746646795829</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>1.8628912071535022</v>
+        <v>2.2354694485842024</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3575,24 +3876,24 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>2046</v>
+        <v>2286</v>
       </c>
       <c r="C16" s="2">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D16" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>202.17391304347828</v>
+        <v>225.88932806324112</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>2.4703557312252968</v>
+        <v>3.5573122529644272</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3602,24 +3903,24 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>2035</v>
+        <v>2590</v>
       </c>
       <c r="C17" s="2">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="D17" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>54.136738494280387</v>
+        <v>68.901303538175043</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.6118648576749135</v>
+        <v>0.66507049747273206</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3627,10 +3928,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="C18" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3640,7 +3941,7 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>5.6449969431424494</v>
+        <v>6.235989402893825</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
@@ -3648,9 +3949,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
@@ -3669,33 +3968,42 @@
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>885.87962962962968</v>
+        <v>800.81680280046669</v>
       </c>
       <c r="C22" s="5">
-        <v>977.81084656084658</v>
+        <v>872.11201866977831</v>
       </c>
       <c r="D22">
-        <v>1057</v>
+        <v>997</v>
+      </c>
+      <c r="E22">
+        <v>1153</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B23" s="5">
-        <v>800.81680280046669</v>
+        <v>885.87962962962968</v>
       </c>
       <c r="C23" s="5">
-        <v>872.11201866977831</v>
+        <v>977.81084656084658</v>
       </c>
       <c r="D23">
-        <v>997</v>
+        <v>1057</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3711,6 +4019,9 @@
       <c r="D24">
         <v>709</v>
       </c>
+      <c r="E24">
+        <v>855</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3725,6 +4036,9 @@
       <c r="D25">
         <v>507</v>
       </c>
+      <c r="E25">
+        <v>599</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -3739,6 +4053,9 @@
       <c r="D26">
         <v>474</v>
       </c>
+      <c r="E26">
+        <v>518</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3753,6 +4070,9 @@
       <c r="D27">
         <v>351</v>
       </c>
+      <c r="E27">
+        <v>398</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -3767,6 +4087,9 @@
       <c r="D28">
         <v>328</v>
       </c>
+      <c r="E28">
+        <v>374</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3781,33 +4104,42 @@
       <c r="D29">
         <v>296</v>
       </c>
+      <c r="E29">
+        <v>333</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5">
-        <v>253.94282897979301</v>
+        <v>211.35040745052387</v>
       </c>
       <c r="C30" s="5">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D30">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="E30">
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" s="5">
-        <v>211.35040745052387</v>
+        <v>253.94282897979301</v>
       </c>
       <c r="C31" s="5">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D31">
-        <v>276</v>
+        <v>284</v>
+      </c>
+      <c r="E31">
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3823,8 +4155,11 @@
       <c r="D32">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3837,8 +4172,11 @@
       <c r="D33">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4189,11 @@
       <c r="D34">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3865,36 +4206,45 @@
       <c r="D35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="5">
+        <v>35.328544825751528</v>
+      </c>
+      <c r="C36" s="5">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <v>58.447330447330444</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>58</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="5">
-        <v>35.328544825751528</v>
-      </c>
-      <c r="C37" s="5">
-        <v>38</v>
-      </c>
-      <c r="D37">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -3907,8 +4257,11 @@
       <c r="D38">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -3921,8 +4274,11 @@
       <c r="D56" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -3935,8 +4291,11 @@
       <c r="D57">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -3949,8 +4308,11 @@
       <c r="D58">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3963,50 +4325,62 @@
       <c r="D59">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="5">
-        <v>9.3348891481913654</v>
+        <v>8.3893118375876998</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B61" s="5">
-        <v>8.3893118375876998</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="5">
-        <v>7.9161816065192081</v>
+        <v>9.3348891481913654</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -4019,8 +4393,11 @@
       <c r="D63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -4033,13 +4410,16 @@
       <c r="D64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B65" s="5">
-        <v>2.3484848484848486</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4047,13 +4427,16 @@
       <c r="D65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B66" s="5">
-        <v>1.9817369341363902</v>
+        <v>0.90702947845804982</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4061,13 +4444,16 @@
       <c r="D66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B67" s="5">
-        <v>1.9762845849802373</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4075,13 +4461,16 @@
       <c r="D67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B68" s="5">
-        <v>0.90702947845804982</v>
+        <v>1.9817369341363902</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4089,8 +4478,11 @@
       <c r="D68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
@@ -4103,8 +4495,11 @@
       <c r="D69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4512,11 @@
       <c r="D70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -4131,8 +4529,11 @@
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -4145,8 +4546,11 @@
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -4159,10 +4563,13 @@
       <c r="D73">
         <v>0</v>
       </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:D73">
-    <sortCondition descending="1" ref="D57:D73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:E73">
+    <sortCondition descending="1" ref="E57:E73"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B20:C20"/>
@@ -4184,37 +4591,37 @@
     <hyperlink ref="A15" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{EFD81247-2449-C842-A355-C3CA98069F0C}"/>
     <hyperlink ref="A16" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{6A5FA689-4530-FC48-8476-8EB82E5F1FB4}"/>
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
-    <hyperlink ref="A36" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
+    <hyperlink ref="A37" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A24" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A34" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A27" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A30" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A31" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A29" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A33" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
-    <hyperlink ref="A23" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
+    <hyperlink ref="A22" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A35" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
-    <hyperlink ref="A31" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
+    <hyperlink ref="A30" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A25" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A28" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A26" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A32" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
-    <hyperlink ref="A37" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A65" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A36" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
+    <hyperlink ref="A67" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A57" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A58" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A71" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A59" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A61" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A66" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
-    <hyperlink ref="A60" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
+    <hyperlink ref="A60" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A68" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A62" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A64" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A62" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
-    <hyperlink ref="A68" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
+    <hyperlink ref="A61" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A66" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A63" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A69" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A67" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A65" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
     <hyperlink ref="A72" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86934029-5E76-6042-B108-BB6F00E29D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA75E01-B8B3-2F49-A035-D6062D7BFB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="28800" windowHeight="16540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="3520" yWindow="980" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>China</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>24 March</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$B$21</c:f>
+              <c:f>'Calculos COVID19'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,9 +320,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$22:$A$38</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -351,24 +354,27 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>UK</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -376,10 +382,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$B$22:$B$38</c:f>
+              <c:f>'Calculos COVID19'!$B$27:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>800.81680280046669</c:v>
                 </c:pt>
@@ -411,24 +417,27 @@
                   <c:v>253.94282897979301</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>174.901185770751</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>170.95395375947155</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>73.67053789731051</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>75.526791089705</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>35.328544825751528</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>58.447330447330444</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3.9942938659058487</c:v>
                 </c:pt>
               </c:numCache>
@@ -445,7 +454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$C$21</c:f>
+              <c:f>'Calculos COVID19'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -466,9 +475,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$22:$A$38</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -500,24 +509,27 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>UK</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -525,10 +537,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$C$22:$C$38</c:f>
+              <c:f>'Calculos COVID19'!$C$27:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>872.11201866977831</c:v>
                 </c:pt>
@@ -560,24 +572,27 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -594,7 +609,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$D$21</c:f>
+              <c:f>'Calculos COVID19'!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -615,9 +630,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$22:$A$38</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -649,24 +664,27 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>UK</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -674,10 +692,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$D$22:$D$38</c:f>
+              <c:f>'Calculos COVID19'!$D$27:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>997</c:v>
                 </c:pt>
@@ -709,24 +727,27 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0">
+                <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -743,7 +764,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$E$21</c:f>
+              <c:f>'Calculos COVID19'!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -764,9 +785,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$22:$A$38</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -798,24 +819,27 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>UK</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -823,10 +847,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$E$22:$E$38</c:f>
+              <c:f>'Calculos COVID19'!$E$27:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1153</c:v>
                 </c:pt>
@@ -858,24 +882,27 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="12" formatCode="General">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13" formatCode="General">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="14" formatCode="General">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="15" formatCode="General">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1204,7 +1231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$B$56</c:f>
+              <c:f>'Calculos COVID19'!$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1225,9 +1252,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1253,30 +1280,33 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -1284,10 +1314,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$B$57:$B$73</c:f>
+              <c:f>'Calculos COVID19'!$B$62:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>79.778439153439152</c:v>
                 </c:pt>
@@ -1313,30 +1343,33 @@
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.9762845849802373</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.90702947845804982</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.3484848484848486</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.9817369341363902</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.3040238450074515</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.91992665036674814</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.0146152917018962</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.50545357807927638</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1353,7 +1386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$C$56</c:f>
+              <c:f>'Calculos COVID19'!$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1374,9 +1407,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1402,30 +1435,33 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -1433,10 +1469,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$C$57:$C$73</c:f>
+              <c:f>'Calculos COVID19'!$C$62:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>90.542328042328052</c:v>
                 </c:pt>
@@ -1462,7 +1498,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>2</c:v>
@@ -1474,7 +1510,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>1</c:v>
@@ -1486,6 +1522,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1502,7 +1541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$D$56</c:f>
+              <c:f>'Calculos COVID19'!$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1523,9 +1562,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1551,30 +1590,33 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -1582,10 +1624,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$D$57:$D$73</c:f>
+              <c:f>'Calculos COVID19'!$D$62:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1611,7 +1653,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -1629,12 +1671,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1651,7 +1696,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$E$56</c:f>
+              <c:f>'Calculos COVID19'!$E$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1672,9 +1717,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$57:$A$73</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1700,30 +1745,33 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>S. Korea</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -1731,10 +1779,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$E$57:$E$73</c:f>
+              <c:f>'Calculos COVID19'!$E$62:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>113</c:v>
                 </c:pt>
@@ -1760,13 +1808,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -1781,9 +1829,12 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3090,13 +3141,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3126,13 +3177,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3458,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3539,11 +3590,11 @@
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F18" si="0">B3/E3</f>
+        <f t="shared" ref="F3:F19" si="0">B3/E3</f>
         <v>1143.7830687830688</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G18" si="1">D3/E3</f>
+        <f t="shared" ref="G3:G19" si="1">D3/E3</f>
         <v>112.76455026455027</v>
       </c>
       <c r="H3" s="2"/>
@@ -3949,630 +4000,725 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1591</v>
+      </c>
+      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>284.10714285714289</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857144</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5">
-        <v>800.81680280046669</v>
-      </c>
-      <c r="C22" s="5">
-        <v>872.11201866977831</v>
-      </c>
-      <c r="D22">
-        <v>997</v>
-      </c>
-      <c r="E22">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5">
-        <v>885.87962962962968</v>
-      </c>
-      <c r="C23" s="5">
-        <v>977.81084656084658</v>
-      </c>
-      <c r="D23">
-        <v>1057</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5">
-        <v>546.42091727389629</v>
-      </c>
-      <c r="C24" s="5">
-        <v>613.00900128589808</v>
-      </c>
-      <c r="D24">
-        <v>709</v>
-      </c>
-      <c r="E24">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5">
-        <v>339.22902494331066</v>
-      </c>
-      <c r="C25" s="5">
-        <v>405.89569160997729</v>
-      </c>
-      <c r="D25">
-        <v>507</v>
-      </c>
-      <c r="E25">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <v>403.12965722801783</v>
-      </c>
-      <c r="C26" s="5">
-        <v>421.5722801788375</v>
-      </c>
-      <c r="D26">
-        <v>474</v>
-      </c>
-      <c r="E26">
-        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" s="5">
-        <v>270.12924266215725</v>
+        <v>800.81680280046669</v>
       </c>
       <c r="C27" s="5">
-        <v>300</v>
+        <v>872.11201866977831</v>
       </c>
       <c r="D27">
-        <v>351</v>
+        <v>997</v>
       </c>
       <c r="E27">
-        <v>398</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B28" s="5">
-        <v>246.92982456140351</v>
+        <v>885.87962962962968</v>
       </c>
       <c r="C28" s="5">
-        <v>298</v>
+        <v>977.81084656084658</v>
       </c>
       <c r="D28">
-        <v>328</v>
-      </c>
-      <c r="E28">
-        <v>374</v>
+        <v>1057</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1144</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5">
-        <v>215.83818480370206</v>
+        <v>546.42091727389629</v>
       </c>
       <c r="C29" s="5">
-        <v>239</v>
+        <v>613.00900128589808</v>
       </c>
       <c r="D29">
-        <v>296</v>
+        <v>709</v>
       </c>
       <c r="E29">
-        <v>333</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5">
-        <v>211.35040745052387</v>
+        <v>339.22902494331066</v>
       </c>
       <c r="C30" s="5">
-        <v>245</v>
+        <v>405.89569160997729</v>
       </c>
       <c r="D30">
-        <v>276</v>
+        <v>507</v>
       </c>
       <c r="E30">
-        <v>324</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5">
-        <v>253.94282897979301</v>
+        <v>403.12965722801783</v>
       </c>
       <c r="C31" s="5">
-        <v>267</v>
+        <v>421.5722801788375</v>
       </c>
       <c r="D31">
-        <v>284</v>
+        <v>474</v>
       </c>
       <c r="E31">
-        <v>306</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B32" s="5">
-        <v>174.901185770751</v>
+        <v>270.12924266215725</v>
       </c>
       <c r="C32" s="5">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="D32">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="E32">
-        <v>226</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5">
-        <v>170.95395375947155</v>
+        <v>246.92982456140351</v>
       </c>
       <c r="C33" s="5">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="D33">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="E33">
-        <v>176</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5">
-        <v>73.67053789731051</v>
+        <v>215.83818480370206</v>
       </c>
       <c r="C34" s="5">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="D34">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="E34">
-        <v>162</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="5">
-        <v>75.526791089705</v>
+        <v>211.35040745052387</v>
       </c>
       <c r="C35" s="5">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="E35">
-        <v>122</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B36" s="5">
-        <v>35.328544825751528</v>
+        <v>253.94282897979301</v>
       </c>
       <c r="C36" s="5">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="E36">
-        <v>69</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5">
-        <v>58.447330447330444</v>
+        <v>251</v>
       </c>
       <c r="C37" s="5">
-        <v>58</v>
-      </c>
-      <c r="D37" s="5">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>59</v>
+        <v>262</v>
+      </c>
+      <c r="D37">
+        <v>282</v>
+      </c>
+      <c r="E37">
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5">
+        <v>174.901185770751</v>
+      </c>
+      <c r="C38" s="5">
+        <v>191</v>
+      </c>
+      <c r="D38">
+        <v>202</v>
+      </c>
+      <c r="E38">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5">
+        <v>170.95395375947155</v>
+      </c>
+      <c r="C39" s="5">
+        <v>173</v>
+      </c>
+      <c r="D39">
+        <v>174</v>
+      </c>
+      <c r="E39">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <v>73.67053789731051</v>
+      </c>
+      <c r="C40" s="5">
+        <v>99</v>
+      </c>
+      <c r="D40">
+        <v>129</v>
+      </c>
+      <c r="E40">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C41" s="5">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5">
+        <v>35.328544825751528</v>
+      </c>
+      <c r="C42" s="5">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>58.447330447330444</v>
+      </c>
+      <c r="C43" s="5">
+        <v>58</v>
+      </c>
+      <c r="D43" s="5">
+        <v>59</v>
+      </c>
+      <c r="E43" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B44" s="5">
         <v>3.9942938659058487</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C44" s="5">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <v>6</v>
       </c>
-      <c r="E38">
+      <c r="E44">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5">
-        <v>79.778439153439152</v>
-      </c>
-      <c r="C57" s="6">
-        <v>90.542328042328052</v>
-      </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
-      <c r="E57">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="5">
-        <v>29.532790398628379</v>
-      </c>
-      <c r="C58" s="6">
-        <v>37.633947706815263</v>
-      </c>
-      <c r="D58">
-        <v>47</v>
-      </c>
-      <c r="E58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="5">
-        <v>19.172005914243471</v>
-      </c>
-      <c r="C59">
-        <v>21</v>
-      </c>
-      <c r="D59">
-        <v>22</v>
-      </c>
-      <c r="E59">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="5">
-        <v>8.3893118375876998</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="5">
-        <v>7.9161816065192081</v>
-      </c>
-      <c r="C61">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B62" s="5">
-        <v>9.3348891481913654</v>
-      </c>
-      <c r="C62">
-        <v>11</v>
+        <v>79.778439153439152</v>
+      </c>
+      <c r="C62" s="6">
+        <v>90.542328042328052</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B63" s="5">
-        <v>5.8771929824561404</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
+        <v>29.532790398628379</v>
+      </c>
+      <c r="C63" s="6">
+        <v>37.633947706815263</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B64" s="5">
-        <v>3.5069235400361229</v>
+        <v>19.172005914243471</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5">
-        <v>1.9762845849802373</v>
+        <v>8.3893118375876998</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="5">
-        <v>0.90702947845804982</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B67" s="5">
-        <v>2.3484848484848486</v>
+        <v>9.3348891481913654</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5.8771929824561404</v>
+      </c>
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="B68" s="5">
-        <v>1.9817369341363902</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
       <c r="D68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B69" s="5">
-        <v>1.3040238450074515</v>
+        <v>3.5069235400361229</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="5">
         <v>3</v>
       </c>
-      <c r="B70" s="5">
-        <v>0.91992665036674814</v>
-      </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1.9762845849802373</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>4</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1.0146152917018962</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B72" s="5">
-        <v>0.50545357807927638</v>
+        <v>0.90702947845804982</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2.3484848484848486</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1.9817369341363902</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1.3040238450074515</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.91992665036674814</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1.0146152917018962</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.50545357807927638</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C79">
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D79">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E79">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:E73">
-    <sortCondition descending="1" ref="E57:E73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:E79">
+    <sortCondition descending="1" ref="E62:E79"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1C6950EC-FAC0-9C45-A0E5-F322505E906D}"/>
@@ -4591,38 +4737,38 @@
     <hyperlink ref="A15" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{EFD81247-2449-C842-A355-C3CA98069F0C}"/>
     <hyperlink ref="A16" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{6A5FA689-4530-FC48-8476-8EB82E5F1FB4}"/>
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
-    <hyperlink ref="A37" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
-    <hyperlink ref="A23" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A34" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
-    <hyperlink ref="A27" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A31" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
-    <hyperlink ref="A29" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
-    <hyperlink ref="A33" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
-    <hyperlink ref="A22" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
-    <hyperlink ref="A30" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
-    <hyperlink ref="A25" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A28" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A26" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
-    <hyperlink ref="A36" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A67" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
-    <hyperlink ref="A57" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
-    <hyperlink ref="A58" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
-    <hyperlink ref="A71" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A59" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A60" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A68" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
-    <hyperlink ref="A62" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
-    <hyperlink ref="A64" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A61" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
-    <hyperlink ref="A66" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
-    <hyperlink ref="A63" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
-    <hyperlink ref="A69" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A65" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
-    <hyperlink ref="A72" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
+    <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
+    <hyperlink ref="A28" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
+    <hyperlink ref="A29" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
+    <hyperlink ref="A40" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A32" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
+    <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
+    <hyperlink ref="A39" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
+    <hyperlink ref="A41" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
+    <hyperlink ref="A33" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
+    <hyperlink ref="A73" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
+    <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
+    <hyperlink ref="A76" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A77" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
+    <hyperlink ref="A64" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A74" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
+    <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
+    <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
+    <hyperlink ref="A68" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
+    <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
+    <hyperlink ref="A71" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A78" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA75E01-B8B3-2F49-A035-D6062D7BFB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10028A0A-B9ED-B546-9AC2-3883203C8448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="980" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="1220" yWindow="4020" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>China</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>25 March</t>
   </si>
 </sst>
 </file>
@@ -320,9 +326,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -360,13 +366,13 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -375,6 +381,9 @@
                   <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -382,10 +391,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$B$27:$B$44</c:f>
+              <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>800.81680280046669</c:v>
                 </c:pt>
@@ -423,13 +432,13 @@
                   <c:v>174.901185770751</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>170.95395375947155</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73.67053789731051</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>35.328544825751528</c:v>
@@ -438,6 +447,9 @@
                   <c:v>58.447330447330444</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3.9942938659058487</c:v>
                 </c:pt>
               </c:numCache>
@@ -475,9 +487,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -515,13 +527,13 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -530,6 +542,9 @@
                   <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -537,10 +552,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$C$27:$C$44</c:f>
+              <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>872.11201866977831</c:v>
                 </c:pt>
@@ -578,13 +593,13 @@
                   <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>38</c:v>
@@ -593,6 +608,9 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -630,9 +648,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -670,13 +688,13 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -685,6 +703,9 @@
                   <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -692,10 +713,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$D$27:$D$44</c:f>
+              <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>997</c:v>
                 </c:pt>
@@ -733,13 +754,13 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54</c:v>
@@ -748,6 +769,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -785,9 +809,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$27:$A$44</c:f>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Switzerland</c:v>
                 </c:pt>
@@ -825,13 +849,13 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -840,6 +864,9 @@
                   <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
                 </c:pt>
               </c:strCache>
@@ -847,10 +874,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$E$27:$E$44</c:f>
+              <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1153</c:v>
                 </c:pt>
@@ -888,13 +915,13 @@
                   <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>69</c:v>
@@ -903,6 +930,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -911,6 +941,167 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4A6-FA42-ADDC-2F07F0000D6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$F$27:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B266-AF46-828F-81A9D927F79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1252,9 +1443,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1265,10 +1456,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1289,16 +1480,16 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Germany</c:v>
@@ -1308,16 +1499,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$B$62:$B$79</c:f>
+              <c:f>'Calculos COVID19'!$B$62:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>79.778439153439152</c:v>
                 </c:pt>
@@ -1328,10 +1522,10 @@
                   <c:v>19.172005914243471</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.9161816065192081</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8.3893118375876998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9161816065192081</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3348891481913654</c:v>
@@ -1352,16 +1546,16 @@
                   <c:v>0.90702947845804982</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.3040238450074515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.3484848484848486</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.9817369341363902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3040238450074515</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.91992665036674814</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.0146152917018962</c:v>
@@ -1370,6 +1564,9 @@
                   <c:v>0.50545357807927638</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1407,9 +1604,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1420,10 +1617,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1444,16 +1641,16 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Germany</c:v>
@@ -1463,16 +1660,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$C$62:$C$79</c:f>
+              <c:f>'Calculos COVID19'!$C$62:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>90.542328042328052</c:v>
                 </c:pt>
@@ -1507,16 +1707,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>1</c:v>
@@ -1525,6 +1725,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1562,9 +1765,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1575,10 +1778,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1599,16 +1802,16 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Germany</c:v>
@@ -1618,16 +1821,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$D$62:$D$79</c:f>
+              <c:f>'Calculos COVID19'!$D$62:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1638,10 +1844,10 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -1680,6 +1886,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1717,9 +1926,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculos COVID19'!$A$62:$A$79</c:f>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Italy</c:v>
                 </c:pt>
@@ -1730,10 +1939,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1754,16 +1963,16 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Germany</c:v>
@@ -1773,16 +1982,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculos COVID19'!$E$62:$E$79</c:f>
+              <c:f>'Calculos COVID19'!$E$62:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>113</c:v>
                 </c:pt>
@@ -1835,6 +2047,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1843,6 +2058,167 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F899-1742-8A20-7614E15055DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$F$62:$F$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E31A-2C4F-B261-46EB79EF9BB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3139,16 +3515,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19627</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>175491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>175491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3175,16 +3551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79663</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549563</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3509,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3551,24 +3927,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81171</v>
+        <v>81218</v>
       </c>
       <c r="C2" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.564935064935064</v>
+        <v>58.5988455988456</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3643578643578644</v>
+        <v>2.3672438672438672</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3578,24 +3954,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>69176</v>
+        <v>74386</v>
       </c>
       <c r="C3" s="2">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="D3" s="2">
-        <v>6820</v>
+        <v>7503</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F19" si="0">B3/E3</f>
-        <v>1143.7830687830688</v>
+        <f t="shared" ref="F3:F20" si="0">B3/E3</f>
+        <v>1229.9272486772488</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>112.76455026455027</v>
+        <f t="shared" ref="G3:G20" si="1">D3/E3</f>
+        <v>124.05753968253968</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3632,51 +4008,54 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>52983</v>
+        <v>64775</v>
       </c>
       <c r="C5" s="2">
-        <v>9249</v>
+        <v>9919</v>
       </c>
       <c r="D5" s="2">
-        <v>685</v>
+        <v>910</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>161.92848410757946</v>
+        <v>197.96760391198043</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>2.0935207823960882</v>
+        <v>2.7811735941320292</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <f>E5*0.03</f>
+        <v>9.8159999999999989</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>32986</v>
+        <v>37323</v>
       </c>
       <c r="C6" s="2">
-        <v>3903</v>
+        <v>4332</v>
       </c>
       <c r="D6" s="2">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>398.42976204855654</v>
+        <v>450.81531585940326</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>1.8963642952047348</v>
+        <v>2.4882232153641741</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3686,24 +4065,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>24811</v>
+        <v>27017</v>
       </c>
       <c r="C7" s="2">
-        <v>1762</v>
+        <v>2206</v>
       </c>
       <c r="D7" s="2">
-        <v>1934</v>
+        <v>2077</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>305.70478068013801</v>
+        <v>332.88565795958601</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>23.829472646623955</v>
+        <v>25.59142434696895</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3713,24 +4092,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>22304</v>
+        <v>25233</v>
       </c>
       <c r="C8" s="2">
-        <v>2448</v>
+        <v>2929</v>
       </c>
       <c r="D8" s="2">
-        <v>1100</v>
+        <v>1331</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>332.94521570383642</v>
+        <v>376.66815942678016</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>16.420361247947454</v>
+        <v>19.868637110016422</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3740,24 +4119,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9037</v>
+        <v>9137</v>
       </c>
       <c r="C9" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>175.5780066057898</v>
+        <v>177.52088595298233</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.3314552166310474</v>
+        <v>2.4480279774625995</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3767,24 +4146,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9877</v>
+        <v>10897</v>
       </c>
       <c r="C10" s="2">
-        <v>1082</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1152.5087514585764</v>
+        <v>1271.5285880980164</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>14.235705950991832</v>
+        <v>17.852975495915985</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3794,24 +4173,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>8077</v>
+        <v>9529</v>
       </c>
       <c r="C11" s="2">
-        <v>1427</v>
+        <v>1452</v>
       </c>
       <c r="D11" s="2">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>121.56833232992174</v>
+        <v>143.42263696568332</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>6.351595424443107</v>
+        <v>6.9987959060806748</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3821,24 +4200,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>5560</v>
+        <v>6412</v>
       </c>
       <c r="C12" s="2">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="D12" s="2">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>323.63213038416762</v>
+        <v>373.22467986030267</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>16.065192083818395</v>
+        <v>20.721769499417928</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3848,24 +4227,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>5283</v>
+        <v>5588</v>
       </c>
       <c r="C13" s="2">
-        <v>809</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>598.9795918367347</v>
+        <v>633.56009070294783</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>3.1746031746031744</v>
+        <v>3.4013605442176869</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3875,24 +4254,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>4269</v>
+        <v>4937</v>
       </c>
       <c r="C14" s="2">
-        <v>526</v>
+        <v>668</v>
       </c>
       <c r="D14" s="2">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>374.4736842105263</v>
+        <v>433.07017543859649</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>10.701754385964913</v>
+        <v>15.614035087719298</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3902,24 +4281,24 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>2779</v>
+        <v>3066</v>
       </c>
       <c r="C15" s="2">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>517.69746646795829</v>
+        <v>571.16244411326375</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>2.2354694485842024</v>
+        <v>2.608047690014903</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3927,24 +4306,24 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>2286</v>
+        <v>2526</v>
       </c>
       <c r="C16" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>225.88932806324112</v>
+        <v>249.60474308300397</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>3.5573122529644272</v>
+        <v>6.1264822134387353</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3954,24 +4333,24 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>2590</v>
+        <v>3306</v>
       </c>
       <c r="C17" s="2">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>68.901303538175043</v>
+        <v>87.94892258579408</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.66507049747273206</v>
+        <v>0.79808459696727851</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4004,43 +4383,73 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1591</v>
+        <v>1724</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>284.10714285714289</v>
+        <v>307.85714285714289</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>5.7142857142857144</v>
+        <v>6.0714285714285721</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2433</v>
+      </c>
+      <c r="C20" s="2">
+        <v>186</v>
+      </c>
+      <c r="D20" s="2">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4">
+        <v>209.3</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>11.624462494027711</v>
+      </c>
+      <c r="G20" s="5">
+        <f>D20/E20</f>
+        <v>0.27233635929288103</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C21" s="2">
+        <v>186</v>
+      </c>
+      <c r="D21" s="2">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4">
+        <v>209.3</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21" si="2">B21/E21</f>
+        <v>5.6282847587195413</v>
+      </c>
+      <c r="G21" s="5">
+        <f>D21/E21</f>
+        <v>0.11944577161968466</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -4083,6 +4492,9 @@
       <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="F26" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -4100,6 +4512,9 @@
       <c r="E27">
         <v>1153</v>
       </c>
+      <c r="F27">
+        <v>1272</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -4117,6 +4532,9 @@
       <c r="E28" s="5">
         <v>1144</v>
       </c>
+      <c r="F28" s="5">
+        <v>1230</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4134,6 +4552,9 @@
       <c r="E29">
         <v>855</v>
       </c>
+      <c r="F29">
+        <v>855</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -4151,6 +4572,9 @@
       <c r="E30">
         <v>599</v>
       </c>
+      <c r="F30">
+        <v>634</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -4168,6 +4592,9 @@
       <c r="E31">
         <v>518</v>
       </c>
+      <c r="F31">
+        <v>571</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4185,8 +4612,11 @@
       <c r="E32">
         <v>398</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -4202,8 +4632,11 @@
       <c r="E33">
         <v>374</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -4219,8 +4652,11 @@
       <c r="E34">
         <v>333</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4236,8 +4672,11 @@
       <c r="E35">
         <v>324</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4253,8 +4692,11 @@
       <c r="E36">
         <v>306</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4270,8 +4712,11 @@
       <c r="E37">
         <v>284</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -4287,59 +4732,71 @@
       <c r="E38">
         <v>226</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5">
+        <v>73.67053789731051</v>
+      </c>
+      <c r="C39" s="5">
+        <v>99</v>
+      </c>
+      <c r="D39">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>162</v>
+      </c>
+      <c r="F39">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C40" s="5">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>122</v>
+      </c>
+      <c r="F40">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B41" s="5">
         <v>170.95395375947155</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C41" s="5">
         <v>173</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>174</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>176</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5">
-        <v>73.67053789731051</v>
-      </c>
-      <c r="C40" s="5">
-        <v>99</v>
-      </c>
-      <c r="D40">
-        <v>129</v>
-      </c>
-      <c r="E40">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C41" s="5">
-        <v>86</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -4355,8 +4812,11 @@
       <c r="E42">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -4372,25 +4832,51 @@
       <c r="E43" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B45" s="5">
         <v>3.9942938659058487</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C45" s="5">
         <v>5</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4406,8 +4892,11 @@
       <c r="E61" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -4423,8 +4912,11 @@
       <c r="E62">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -4440,8 +4932,11 @@
       <c r="E63">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -4457,42 +4952,51 @@
       <c r="E64">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" s="5">
-        <v>8.3893118375876998</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B66" s="5">
-        <v>7.9161816065192081</v>
+        <v>8.3893118375876998</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4508,8 +5012,11 @@
       <c r="E67">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -4525,8 +5032,11 @@
       <c r="E68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4542,8 +5052,11 @@
       <c r="E69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4559,8 +5072,11 @@
       <c r="E70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4576,8 +5092,11 @@
       <c r="E71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -4593,16 +5112,19 @@
       <c r="E72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B73" s="5">
-        <v>2.3484848484848486</v>
+        <v>1.3040238450074515</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4610,16 +5132,19 @@
       <c r="E73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B74" s="5">
-        <v>1.9817369341363902</v>
+        <v>0.91992665036674814</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4627,16 +5152,19 @@
       <c r="E74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B75" s="5">
-        <v>1.3040238450074515</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4644,16 +5172,19 @@
       <c r="E75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B76" s="5">
-        <v>0.91992665036674814</v>
+        <v>1.9817369341363902</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4661,8 +5192,11 @@
       <c r="E76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -4678,8 +5212,11 @@
       <c r="E77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -4695,8 +5232,11 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -4712,10 +5252,33 @@
       <c r="E79">
         <v>0</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:E79">
-    <sortCondition descending="1" ref="E62:E79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:F80">
+    <sortCondition descending="1" ref="F62:F80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -4740,33 +5303,33 @@
     <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A28" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A29" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A40" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A39" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A32" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
-    <hyperlink ref="A39" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
+    <hyperlink ref="A41" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A41" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A33" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A31" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A73" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A75" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A76" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A74" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A77" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A64" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A74" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A66" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A76" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A65" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A68" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
-    <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
+    <hyperlink ref="A73" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
     <hyperlink ref="A71" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
     <hyperlink ref="A78" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10028A0A-B9ED-B546-9AC2-3883203C8448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ABA96B-7700-F340-8667-7CBD7E950F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="4020" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="1700" yWindow="1480" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>China</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>25 March</t>
   </si>
+  <si>
+    <t>26 March</t>
+  </si>
 </sst>
 </file>
 
@@ -164,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +195,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -345,10 +355,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -369,10 +379,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -411,10 +421,10 @@
                   <c:v>403.12965722801783</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>270.12924266215725</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246.92982456140351</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>215.83818480370206</c:v>
@@ -435,10 +445,10 @@
                   <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>170.95395375947155</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>75.526791089705</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>170.95395375947155</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>35.328544825751528</c:v>
@@ -506,10 +516,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -530,10 +540,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -572,10 +582,10 @@
                   <c:v>421.5722801788375</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>239</c:v>
@@ -596,10 +606,10 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>38</c:v>
@@ -667,10 +677,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -691,10 +701,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -733,10 +743,10 @@
                   <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>296</c:v>
@@ -757,10 +767,10 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54</c:v>
@@ -828,10 +838,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -852,10 +862,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -894,10 +904,10 @@
                   <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>333</c:v>
@@ -918,10 +928,10 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>69</c:v>
@@ -989,10 +999,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -1013,10 +1023,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -1046,7 +1056,7 @@
                   <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>855</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>634</c:v>
@@ -1055,10 +1065,10 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>377</c:v>
@@ -1079,10 +1089,10 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>88</c:v>
@@ -1102,6 +1112,167 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B266-AF46-828F-81A9D927F79A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$G$27:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B266-AF46-828F-81A9D927F79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,7 +2331,7 @@
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26</c:v>
@@ -2219,6 +2390,167 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E31A-2C4F-B261-46EB79EF9BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$G$62:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E31A-2C4F-B261-46EB79EF9BB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3515,16 +3847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19627</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>227446</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>175491</xdr:rowOff>
+      <xdr:rowOff>48491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>175491</xdr:rowOff>
+      <xdr:rowOff>48491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3551,16 +3883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>79663</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379845</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:rowOff>80819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>549563</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18472</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:rowOff>80819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3887,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3923,109 +4255,107 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81218</v>
-      </c>
-      <c r="C2" s="2">
-        <v>47</v>
-      </c>
+        <v>81.284999999999997</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3281</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.5988455988456</v>
+        <v>5.8647186147186142E-2</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3672438672438672</v>
+        <v>2.3715728715728713E-3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>74386</v>
+        <v>80589</v>
       </c>
       <c r="C3" s="2">
-        <v>5210</v>
+        <v>6203</v>
       </c>
       <c r="D3" s="2">
-        <v>7503</v>
+        <v>8215</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1229.9272486772488</v>
+        <v>1332.4900793650795</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G20" si="1">D3/E3</f>
-        <v>124.05753968253968</v>
+        <v>135.83002645502646</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>39885</v>
+        <v>57786</v>
       </c>
       <c r="C4" s="2">
-        <v>4749</v>
+        <v>8271</v>
       </c>
       <c r="D4" s="2">
-        <v>2808</v>
+        <v>4365</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>854.80068581225896</v>
+        <v>1238.448349764252</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>60.180025717959715</v>
+        <v>93.549078439777119</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>64775</v>
+        <v>85202</v>
       </c>
       <c r="C5" s="2">
-        <v>9919</v>
+        <v>16991</v>
       </c>
       <c r="D5" s="2">
-        <v>910</v>
+        <v>1290</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>197.96760391198043</v>
+        <v>260.39731051344745</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>2.7811735941320292</v>
+        <v>3.9425427872860639</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
@@ -4034,257 +4364,257 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>37323</v>
+        <v>43938</v>
       </c>
       <c r="C6" s="2">
-        <v>4332</v>
+        <v>6615</v>
       </c>
       <c r="D6" s="2">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>450.81531585940326</v>
+        <v>530.71627008092764</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>2.4882232153641741</v>
+        <v>3.2250271771953134</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>27017</v>
+        <v>29406</v>
       </c>
       <c r="C7" s="2">
-        <v>2206</v>
+        <v>2389</v>
       </c>
       <c r="D7" s="2">
-        <v>2077</v>
+        <v>2234</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>332.88565795958601</v>
+        <v>362.32134056185316</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>25.59142434696895</v>
+        <v>27.525874815179893</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>25233</v>
+        <v>29155</v>
       </c>
       <c r="C8" s="2">
-        <v>2929</v>
+        <v>3922</v>
       </c>
       <c r="D8" s="2">
-        <v>1331</v>
+        <v>1696</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>376.66815942678016</v>
+        <v>435.21421107628009</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>19.868637110016422</v>
+        <v>25.317211524108078</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9137</v>
+        <v>9241</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>177.52088595298233</v>
+        <v>179.54148047406255</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.4480279774625995</v>
+        <v>2.5451719448222265</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>10897</v>
+        <v>11811</v>
       </c>
       <c r="C10" s="2">
-        <v>1020</v>
+        <v>914</v>
       </c>
       <c r="D10" s="2">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1271.5285880980164</v>
+        <v>1378.1796966161025</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>17.852975495915985</v>
+        <v>22.287047841306883</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>9529</v>
+        <v>11658</v>
       </c>
       <c r="C11" s="2">
-        <v>1452</v>
+        <v>2129</v>
       </c>
       <c r="D11" s="2">
-        <v>465</v>
+        <v>578</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>143.42263696568332</v>
+        <v>175.46658639373871</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>6.9987959060806748</v>
+        <v>8.6995785671282366</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>6412</v>
+        <v>7431</v>
       </c>
       <c r="C12" s="2">
-        <v>852</v>
+        <v>1019</v>
       </c>
       <c r="D12" s="2">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>373.22467986030267</v>
+        <v>432.53783469150176</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>20.721769499417928</v>
+        <v>25.261932479627475</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>5588</v>
+        <v>6909</v>
       </c>
       <c r="C13" s="2">
-        <v>305</v>
+        <v>1321</v>
       </c>
       <c r="D13" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>633.56009070294783</v>
+        <v>783.33333333333326</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>3.4013605442176869</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>4937</v>
+        <v>6235</v>
       </c>
       <c r="C14" s="2">
-        <v>668</v>
+        <v>1298</v>
       </c>
       <c r="D14" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>433.07017543859649</v>
+        <v>546.92982456140351</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>15.614035087719298</v>
+        <v>19.298245614035086</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3066</v>
+        <v>3369</v>
       </c>
       <c r="C15" s="2">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -4294,7 +4624,7 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>571.16244411326375</v>
+        <v>627.60804769001481</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
@@ -4302,130 +4632,130 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>2526</v>
+        <v>2840</v>
       </c>
       <c r="C16" s="2">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>249.60474308300397</v>
+        <v>280.63241106719369</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>6.1264822134387353</v>
+        <v>7.608695652173914</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>3306</v>
+        <v>4043</v>
       </c>
       <c r="C17" s="2">
-        <v>514</v>
+        <v>634</v>
       </c>
       <c r="D17" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>87.94892258579408</v>
+        <v>107.55520085129022</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.79808459696727851</v>
+        <v>1.037509976057462</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>306</v>
+        <v>491</v>
       </c>
       <c r="C18" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>6.235989402893825</v>
+        <v>10.006113715100875</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>6.1137151008762991E-2</v>
+        <v>0.12227430201752598</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1724</v>
+        <v>1877</v>
       </c>
       <c r="C19" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>307.85714285714289</v>
+        <v>335.17857142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>6.0714285714285721</v>
+        <v>7.3214285714285721</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2433</v>
+        <v>2985</v>
       </c>
       <c r="C20" s="2">
-        <v>186</v>
+        <v>431</v>
       </c>
       <c r="D20" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>11.624462494027711</v>
+        <v>14.261825131390347</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>0.27233635929288103</v>
+        <v>0.36789297658862874</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4495,6 +4825,9 @@
       <c r="F26" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -4515,6 +4848,9 @@
       <c r="F27">
         <v>1272</v>
       </c>
+      <c r="G27">
+        <v>1378</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -4535,6 +4871,9 @@
       <c r="F28" s="5">
         <v>1230</v>
       </c>
+      <c r="G28" s="5">
+        <v>1332</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4553,7 +4892,10 @@
         <v>855</v>
       </c>
       <c r="F29">
-        <v>855</v>
+        <v>983</v>
+      </c>
+      <c r="G29">
+        <v>1238</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4575,6 +4917,9 @@
       <c r="F30">
         <v>634</v>
       </c>
+      <c r="G30">
+        <v>783</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -4595,48 +4940,57 @@
       <c r="F31">
         <v>571</v>
       </c>
+      <c r="G31">
+        <v>628</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <v>246.92982456140351</v>
+      </c>
+      <c r="C32" s="5">
+        <v>298</v>
+      </c>
+      <c r="D32">
+        <v>328</v>
+      </c>
+      <c r="E32">
+        <v>374</v>
+      </c>
+      <c r="F32">
+        <v>433</v>
+      </c>
+      <c r="G32">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>270.12924266215725</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>300</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>351</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>398</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>451</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5">
-        <v>246.92982456140351</v>
-      </c>
-      <c r="C33" s="5">
-        <v>298</v>
-      </c>
-      <c r="D33">
-        <v>328</v>
-      </c>
-      <c r="E33">
-        <v>374</v>
-      </c>
-      <c r="F33">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -4655,8 +5009,11 @@
       <c r="F34">
         <v>377</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4675,8 +5032,11 @@
       <c r="F35">
         <v>373</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4695,8 +5055,11 @@
       <c r="F36">
         <v>333</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4715,8 +5078,11 @@
       <c r="F37">
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -4735,8 +5101,11 @@
       <c r="F38">
         <v>250</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -4755,48 +5124,57 @@
       <c r="F39">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5">
+        <v>170.95395375947155</v>
+      </c>
+      <c r="C40" s="5">
+        <v>173</v>
+      </c>
+      <c r="D40">
+        <v>174</v>
+      </c>
+      <c r="E40">
+        <v>176</v>
+      </c>
+      <c r="F40">
+        <v>178</v>
+      </c>
+      <c r="G40">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5">
         <v>75.526791089705</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C41" s="5">
         <v>86</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>100</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>122</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>198</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5">
-        <v>170.95395375947155</v>
-      </c>
-      <c r="C41" s="5">
-        <v>173</v>
-      </c>
-      <c r="D41">
-        <v>174</v>
-      </c>
-      <c r="E41">
-        <v>176</v>
-      </c>
-      <c r="F41">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -4815,8 +5193,11 @@
       <c r="F42">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,8 +5216,11 @@
       <c r="F43" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -4855,8 +5239,11 @@
       <c r="F44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -4875,8 +5262,11 @@
       <c r="F45">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4895,8 +5285,11 @@
       <c r="F61" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -4915,8 +5308,11 @@
       <c r="F62">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -4933,10 +5329,13 @@
         <v>60</v>
       </c>
       <c r="F63">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G63">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -4955,8 +5354,11 @@
       <c r="F64">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -4975,8 +5377,11 @@
       <c r="F65">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -4995,8 +5400,11 @@
       <c r="F66">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5015,8 +5423,11 @@
       <c r="F67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -5035,8 +5446,11 @@
       <c r="F68">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -5055,8 +5469,11 @@
       <c r="F69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -5075,8 +5492,11 @@
       <c r="F70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -5095,8 +5515,11 @@
       <c r="F71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -5115,8 +5538,11 @@
       <c r="F72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>19</v>
       </c>
@@ -5135,8 +5561,11 @@
       <c r="F73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -5155,8 +5584,11 @@
       <c r="F74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -5175,8 +5607,11 @@
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5195,8 +5630,11 @@
       <c r="F76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -5215,8 +5653,11 @@
       <c r="F77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -5235,8 +5676,11 @@
       <c r="F78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -5255,8 +5699,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -5275,10 +5722,13 @@
       <c r="F80">
         <v>0</v>
       </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:F80">
-    <sortCondition descending="1" ref="F62:F80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:G45">
+    <sortCondition descending="1" ref="G27:G45"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -5304,15 +5754,15 @@
     <hyperlink ref="A28" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A29" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A39" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
-    <hyperlink ref="A32" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
+    <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
-    <hyperlink ref="A41" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
+    <hyperlink ref="A40" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A41" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A33" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A32" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A31" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ABA96B-7700-F340-8667-7CBD7E950F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65686659-4C51-B14F-94BD-9FBF2C09E95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1480" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>China</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>26 March</t>
+  </si>
+  <si>
+    <t>27 March</t>
   </si>
 </sst>
 </file>
@@ -352,37 +355,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -418,37 +421,37 @@
                   <c:v>339.22902494331066</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>246.92982456140351</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>270.12924266215725</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>211.35040745052387</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>215.83818480370206</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211.35040745052387</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>253.94282897979301</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>174.901185770751</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>170.95395375947155</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>35.328544825751528</c:v>
@@ -513,37 +516,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -579,37 +582,37 @@
                   <c:v>405.89569160997729</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>38</c:v>
@@ -674,37 +677,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -740,37 +743,37 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54</c:v>
@@ -835,37 +838,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -901,37 +904,37 @@
                   <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>69</c:v>
@@ -996,37 +999,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -1062,37 +1065,37 @@
                   <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>88</c:v>
@@ -1157,37 +1160,37 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Canada</c:v>
@@ -1223,37 +1226,37 @@
                   <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
                   <c:v>108</c:v>
@@ -1273,6 +1276,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B266-AF46-828F-81A9D927F79A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$H$27:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B266-AF46-828F-81A9D927F79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1624,13 +1790,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1642,28 +1808,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -1690,13 +1856,13 @@
                   <c:v>29.532790398628379</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.9161816065192081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3893118375876998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>19.172005914243471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9161816065192081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3893118375876998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3348891481913654</c:v>
@@ -1708,28 +1874,28 @@
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9762845849802373</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.90702947845804982</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0146152917018962</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.3040238450074515</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91992665036674814</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.9817369341363902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0146152917018962</c:v>
+                  <c:v>2.3484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.50545357807927638</c:v>
@@ -1785,13 +1951,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1803,28 +1969,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -1851,13 +2017,13 @@
                   <c:v>37.633947706815263</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>11</c:v>
@@ -1869,10 +2035,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>2</c:v>
@@ -1884,13 +2050,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
                   <c:v>1</c:v>
@@ -1946,13 +2112,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -1964,28 +2130,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -2012,13 +2178,13 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -2030,10 +2196,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -2042,7 +2208,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -2051,7 +2217,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -2107,13 +2273,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2125,28 +2291,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -2173,13 +2339,13 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -2191,10 +2357,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -2268,13 +2434,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2286,28 +2452,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -2334,13 +2500,13 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
@@ -2364,10 +2530,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
@@ -2429,13 +2595,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2447,28 +2613,28 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>USA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Germany</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Canada</c:v>
@@ -2495,13 +2661,13 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
@@ -2513,28 +2679,28 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -2551,6 +2717,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E31A-2C4F-B261-46EB79EF9BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$H$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$H$62:$H$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E31A-2C4F-B261-46EB79EF9BB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3847,16 +4176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>227446</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238992</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>48491</xdr:rowOff>
+      <xdr:rowOff>2309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>48491</xdr:rowOff>
+      <xdr:rowOff>2309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3883,16 +4212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>379845</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>18472</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>630381</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4219,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4259,22 +4588,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81.284999999999997</v>
+        <v>81340</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3.2869999999999999</v>
+        <v>3292</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>5.8647186147186142E-2</v>
+        <v>58.686868686868685</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3715728715728713E-3</v>
+        <v>2.3751803751803751</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4284,24 +4613,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>80589</v>
+        <v>86498</v>
       </c>
       <c r="C3" s="2">
-        <v>6203</v>
+        <v>5909</v>
       </c>
       <c r="D3" s="2">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1332.4900793650795</v>
+        <v>1430.1917989417991</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G20" si="1">D3/E3</f>
-        <v>135.83002645502646</v>
+        <v>151.02513227513228</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4311,24 +4640,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>57786</v>
+        <v>65719</v>
       </c>
       <c r="C4" s="2">
-        <v>8271</v>
+        <v>7933</v>
       </c>
       <c r="D4" s="2">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1238.448349764252</v>
+        <v>1408.4654950707245</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>93.549078439777119</v>
+        <v>110.11573081868839</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4338,54 +4667,51 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>85202</v>
+        <v>101321</v>
       </c>
       <c r="C5" s="2">
-        <v>16991</v>
+        <v>15886</v>
       </c>
       <c r="D5" s="2">
-        <v>1290</v>
+        <v>1567</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>260.39731051344745</v>
+        <v>309.66075794621025</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>3.9425427872860639</v>
+        <v>4.7891198044009782</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <f>E5*0.03</f>
-        <v>9.8159999999999989</v>
-      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43938</v>
+        <v>50871</v>
       </c>
       <c r="C6" s="2">
-        <v>6615</v>
+        <v>6933</v>
       </c>
       <c r="D6" s="2">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>530.71627008092764</v>
+        <v>614.45826790675198</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>3.2250271771953134</v>
+        <v>4.1309336876434353</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4395,24 +4721,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>29406</v>
+        <v>32332</v>
       </c>
       <c r="C7" s="2">
-        <v>2389</v>
+        <v>2926</v>
       </c>
       <c r="D7" s="2">
-        <v>2234</v>
+        <v>2378</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>362.32134056185316</v>
+        <v>398.3735830458354</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>27.525874815179893</v>
+        <v>29.300147856086742</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4422,24 +4748,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>29155</v>
+        <v>32964</v>
       </c>
       <c r="C8" s="2">
-        <v>3922</v>
+        <v>3809</v>
       </c>
       <c r="D8" s="2">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>435.21421107628009</v>
+        <v>492.07344379758177</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>25.317211524108078</v>
+        <v>29.780564263322887</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -4449,24 +4775,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9241</v>
+        <v>9332</v>
       </c>
       <c r="C9" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>179.54148047406255</v>
+        <v>181.30950068000777</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.5451719448222265</v>
+        <v>2.7006022925976296</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4476,24 +4802,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>11811</v>
+        <v>12928</v>
       </c>
       <c r="C10" s="2">
-        <v>914</v>
+        <v>1117</v>
       </c>
       <c r="D10" s="2">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1378.1796966161025</v>
+        <v>1508.5180863477246</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>22.287047841306883</v>
+        <v>26.954492415402566</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4503,24 +4829,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>11658</v>
+        <v>14543</v>
       </c>
       <c r="C11" s="2">
-        <v>2129</v>
+        <v>2885</v>
       </c>
       <c r="D11" s="2">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>175.46658639373871</v>
+        <v>218.88922335942203</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>8.6995785671282366</v>
+        <v>11.423841059602649</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4530,24 +4856,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>7431</v>
+        <v>8603</v>
       </c>
       <c r="C12" s="2">
-        <v>1019</v>
+        <v>1172</v>
       </c>
       <c r="D12" s="2">
-        <v>434</v>
+        <v>546</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>432.53783469150176</v>
+        <v>500.75669383003492</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>25.261932479627475</v>
+        <v>31.781140861466824</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4557,24 +4883,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>6909</v>
+        <v>7657</v>
       </c>
       <c r="C13" s="2">
-        <v>1321</v>
+        <v>748</v>
       </c>
       <c r="D13" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>783.33333333333326</v>
+        <v>868.14058956916097</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
+        <v>6.5759637188208613</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -4584,24 +4910,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>6235</v>
+        <v>7284</v>
       </c>
       <c r="C14" s="2">
-        <v>1298</v>
+        <v>1049</v>
       </c>
       <c r="D14" s="2">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>546.92982456140351</v>
+        <v>638.9473684210526</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>19.298245614035086</v>
+        <v>25.350877192982455</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4636,62 +4962,62 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>2840</v>
+        <v>3069</v>
       </c>
       <c r="C16" s="2">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>280.63241106719369</v>
+        <v>303.26086956521743</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>7.608695652173914</v>
+        <v>10.375494071146246</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>4043</v>
+        <v>4689</v>
       </c>
       <c r="C17" s="2">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D17" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>107.55520085129022</v>
+        <v>124.74062250598563</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>1.037509976057462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.409949454642192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="C18" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
@@ -4701,87 +5027,73 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>10.006113715100875</v>
+        <v>10.984308131241084</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0.12227430201752598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1877</v>
+        <v>2046</v>
       </c>
       <c r="C19" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>335.17857142857144</v>
+        <v>365.35714285714289</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>7.3214285714285721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9.2857142857142865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2985</v>
+        <v>3417</v>
       </c>
       <c r="C20" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D20" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>14.261825131390347</v>
+        <v>16.325848064978498</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>0.36789297658862874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.43956043956043955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="2">
-        <v>1178</v>
-      </c>
-      <c r="C21" s="2">
-        <v>186</v>
-      </c>
-      <c r="D21" s="2">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4">
-        <v>209.3</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ref="F21" si="2">B21/E21</f>
-        <v>5.6282847587195413</v>
-      </c>
-      <c r="G21" s="5">
-        <f>D21/E21</f>
-        <v>0.11944577161968466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4790,7 +5102,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4799,14 +5111,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4828,8 +5140,11 @@
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -4851,8 +5166,11 @@
       <c r="G27">
         <v>1378</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4874,8 +5192,11 @@
       <c r="G28" s="5">
         <v>1332</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="5">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -4897,8 +5218,11 @@
       <c r="G29">
         <v>1238</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -4920,54 +5244,63 @@
       <c r="G30">
         <v>783</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="5">
+        <v>246.92982456140351</v>
+      </c>
+      <c r="C31" s="5">
+        <v>298</v>
+      </c>
+      <c r="D31">
+        <v>328</v>
+      </c>
+      <c r="E31">
+        <v>374</v>
+      </c>
+      <c r="F31">
+        <v>433</v>
+      </c>
+      <c r="G31">
+        <v>547</v>
+      </c>
+      <c r="H31">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5">
         <v>403.12965722801783</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="5">
         <v>421.5722801788375</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>474</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>518</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>571</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>628</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5">
-        <v>246.92982456140351</v>
-      </c>
-      <c r="C32" s="5">
-        <v>298</v>
-      </c>
-      <c r="D32">
-        <v>328</v>
-      </c>
-      <c r="E32">
-        <v>374</v>
-      </c>
-      <c r="F32">
-        <v>433</v>
-      </c>
-      <c r="G32">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -4989,54 +5322,63 @@
       <c r="G33">
         <v>531</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>211.35040745052387</v>
+      </c>
+      <c r="C34" s="5">
+        <v>245</v>
+      </c>
+      <c r="D34">
+        <v>276</v>
+      </c>
+      <c r="E34">
+        <v>324</v>
+      </c>
+      <c r="F34">
+        <v>373</v>
+      </c>
+      <c r="G34">
+        <v>433</v>
+      </c>
+      <c r="H34">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="5">
         <v>215.83818480370206</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C35" s="5">
         <v>239</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>296</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>333</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>377</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>435</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5">
-        <v>211.35040745052387</v>
-      </c>
-      <c r="C35" s="5">
-        <v>245</v>
-      </c>
-      <c r="D35">
-        <v>276</v>
-      </c>
-      <c r="E35">
-        <v>324</v>
-      </c>
-      <c r="F35">
-        <v>373</v>
-      </c>
-      <c r="G35">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5058,54 +5400,63 @@
       <c r="G36">
         <v>362</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5">
+        <v>174.901185770751</v>
+      </c>
+      <c r="C37" s="5">
+        <v>191</v>
+      </c>
+      <c r="D37">
+        <v>202</v>
+      </c>
+      <c r="E37">
+        <v>226</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>281</v>
+      </c>
+      <c r="H37">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>251</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <v>262</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>282</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>284</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>308</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>335</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5">
-        <v>174.901185770751</v>
-      </c>
-      <c r="C38" s="5">
-        <v>191</v>
-      </c>
-      <c r="D38">
-        <v>202</v>
-      </c>
-      <c r="E38">
-        <v>226</v>
-      </c>
-      <c r="F38">
-        <v>250</v>
-      </c>
-      <c r="G38">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -5127,54 +5478,63 @@
       <c r="G39">
         <v>260</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C40" s="5">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>122</v>
+      </c>
+      <c r="F40">
+        <v>198</v>
+      </c>
+      <c r="G40">
+        <v>175</v>
+      </c>
+      <c r="H40">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5">
         <v>170.95395375947155</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C41" s="5">
         <v>173</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>174</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>176</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>178</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C41" s="5">
-        <v>86</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>122</v>
-      </c>
-      <c r="F41">
-        <v>198</v>
-      </c>
-      <c r="G41">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5196,8 +5556,11 @@
       <c r="G42">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5219,8 +5582,11 @@
       <c r="G43" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -5242,8 +5608,11 @@
       <c r="G44">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -5265,8 +5634,11 @@
       <c r="G45">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5288,8 +5660,11 @@
       <c r="G61" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -5311,8 +5686,11 @@
       <c r="G62">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -5334,77 +5712,89 @@
       <c r="G63">
         <v>94</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64" s="5">
-        <v>19.172005914243471</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64">
         <v>21</v>
       </c>
-      <c r="D64">
-        <v>22</v>
-      </c>
-      <c r="E64">
-        <v>24</v>
-      </c>
-      <c r="F64">
-        <v>26</v>
-      </c>
       <c r="G64">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5">
-        <v>7.9161816065192081</v>
+        <v>8.3893118375876998</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <v>16</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="5">
-        <v>8.3893118375876998</v>
+        <v>19.172005914243471</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H66">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5426,8 +5816,11 @@
       <c r="G67">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -5449,8 +5842,11 @@
       <c r="G68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -5472,54 +5868,63 @@
       <c r="G69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B70" s="5">
-        <v>3</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
         <v>4</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B71" s="5">
-        <v>1.9762845849802373</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -5541,13 +5946,16 @@
       <c r="G72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B73" s="5">
-        <v>1.3040238450074515</v>
+        <v>0.91992665036674814</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5562,41 +5970,47 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74" s="5">
-        <v>0.91992665036674814</v>
+        <v>1.0146152917018962</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B75" s="5">
-        <v>2.3484848484848486</v>
+        <v>1.3040238450074515</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -5605,13 +6019,16 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5633,19 +6050,22 @@
       <c r="G76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B77" s="5">
-        <v>1.0146152917018962</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -5654,10 +6074,13 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -5679,8 +6102,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -5702,8 +6128,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -5725,10 +6154,13 @@
       <c r="G80">
         <v>0</v>
       </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:G45">
-    <sortCondition descending="1" ref="G27:G45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:H80">
+    <sortCondition descending="1" ref="H62:H80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -5756,31 +6188,31 @@
     <hyperlink ref="A39" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
-    <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
-    <hyperlink ref="A40" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
+    <hyperlink ref="A35" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
+    <hyperlink ref="A41" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A41" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
-    <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
+    <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A34" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A32" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A37" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A75" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A77" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A74" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
-    <hyperlink ref="A77" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A64" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A66" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A73" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
+    <hyperlink ref="A66" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A76" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A65" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A64" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A68" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
-    <hyperlink ref="A73" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A71" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
+    <hyperlink ref="A70" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
     <hyperlink ref="A78" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65686659-4C51-B14F-94BD-9FBF2C09E95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A1C2F0-A6DD-644D-9529-AFABEB23D588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="460" windowWidth="37020" windowHeight="17380" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="35680" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>China</t>
   </si>
@@ -133,6 +133,12 @@
   <si>
     <t>27 March</t>
   </si>
+  <si>
+    <t>28 March</t>
+  </si>
+  <si>
+    <t>29 March</t>
+  </si>
 </sst>
 </file>
 
@@ -209,10 +215,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -346,10 +352,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -373,13 +379,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -412,10 +418,10 @@
                   <c:v>800.81680280046669</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>546.42091727389629</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>546.42091727389629</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>339.22902494331066</c:v>
@@ -439,13 +445,13 @@
                   <c:v>253.94282897979301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174.901185770751</c:v>
+                  <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.67053789731051</c:v>
+                  <c:v>174.901185770751</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>75.526791089705</c:v>
@@ -507,10 +513,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -534,13 +540,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -573,10 +579,10 @@
                   <c:v>872.11201866977831</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>613.00900128589808</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>613.00900128589808</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>405.89569160997729</c:v>
@@ -600,13 +606,13 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>191</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>86</c:v>
@@ -668,10 +674,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -695,13 +701,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -734,10 +740,10 @@
                   <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>507</c:v>
@@ -761,13 +767,13 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100</c:v>
@@ -829,10 +835,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -856,13 +862,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -889,63 +895,63 @@
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
                   <c:v>1144</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>599</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>518</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>324</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>333</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -990,10 +996,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -1017,13 +1023,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -1050,63 +1056,63 @@
             <c:numRef>
               <c:f>'Calculos COVID19'!$F$27:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
                   <c:v>1230</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>634</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>433</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>571</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>377</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>333</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1151,10 +1157,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -1178,13 +1184,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -1211,63 +1217,63 @@
             <c:numRef>
               <c:f>'Calculos COVID19'!$G$27:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>1378</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
                   <c:v>1332</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1238</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>783</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>547</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>628</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>531</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>433</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>435</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>281</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -1314,10 +1320,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Austria</c:v>
@@ -1341,13 +1347,13 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweden</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>USA</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>UK</c:v>
@@ -1374,63 +1380,63 @@
             <c:numRef>
               <c:f>'Calculos COVID19'!$H$27:$H$45</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>1509</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
                   <c:v>1430</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1408</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>868</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>628</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>614</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>371</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -1439,6 +1445,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B266-AF46-828F-81A9D927F79A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$I$27:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-447C-CC44-89D9-E0CBDD21BA17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$J$27:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-447C-CC44-89D9-E0CBDD21BA17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1796,22 +2128,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -1835,10 +2167,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,22 +2194,22 @@
                   <c:v>8.3893118375876998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.172005914243471</c:v>
+                  <c:v>5.8771929824561404</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3348891481913654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8771929824561404</c:v>
+                  <c:v>19.172005914243471</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.9762845849802373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.90702947845804982</c:v>
@@ -1957,22 +2289,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -1996,10 +2328,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2023,22 +2355,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>2</c:v>
@@ -2118,22 +2450,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2157,10 +2489,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2184,22 +2516,22 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -2279,22 +2611,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2318,10 +2650,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2345,22 +2677,22 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -2440,22 +2772,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2479,10 +2811,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2506,13 +2838,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -2601,22 +2933,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2640,10 +2972,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2667,22 +2999,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -2764,22 +3096,22 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Iran</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Belgium</c:v>
+                  <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2803,10 +3135,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,22 +3162,22 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
@@ -2880,6 +3212,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E31A-2C4F-B261-46EB79EF9BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$I$62:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA2F-F041-8466-93BA4F959ADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$J$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$J$62:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA2F-F041-8466-93BA4F959ADD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4546,18 +5204,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:H80"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -4584,507 +5242,507 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81340</v>
+        <v>81439</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3292</v>
+        <v>3300</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.686868686868685</v>
+        <v>58.758297258297262</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3751803751803751</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>86498</v>
+        <v>97689</v>
       </c>
       <c r="C3" s="2">
-        <v>5909</v>
+        <v>5217</v>
       </c>
       <c r="D3" s="2">
-        <v>9134</v>
+        <v>10779</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1430.1917989417991</v>
+        <v>1615.2281746031747</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G20" si="1">D3/E3</f>
-        <v>151.02513227513228</v>
+        <f t="shared" ref="G3:G19" si="1">D3/E3</f>
+        <v>178.22420634920636</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>65719</v>
+        <v>80110</v>
       </c>
       <c r="C4" s="2">
-        <v>7933</v>
+        <v>6875</v>
       </c>
       <c r="D4" s="2">
-        <v>5138</v>
+        <v>6803</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1408.4654950707245</v>
+        <v>1716.888126875268</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>110.11573081868839</v>
+        <v>145.79939991427347</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>101321</v>
+        <v>142004</v>
       </c>
       <c r="C5" s="2">
-        <v>15886</v>
+        <v>18426</v>
       </c>
       <c r="D5" s="2">
-        <v>1567</v>
+        <v>2484</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>309.66075794621025</v>
+        <v>433.99755501222495</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>4.7891198044009782</v>
+        <v>7.5916870415647928</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>50871</v>
+        <v>62095</v>
       </c>
       <c r="C6" s="2">
-        <v>6933</v>
+        <v>4400</v>
       </c>
       <c r="D6" s="2">
-        <v>342</v>
+        <v>541</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>614.45826790675198</v>
+        <v>750.03019688368158</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>4.1309336876434353</v>
+        <v>6.5346056286991177</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>32332</v>
+        <v>38309</v>
       </c>
       <c r="C7" s="2">
-        <v>2926</v>
+        <v>2901</v>
       </c>
       <c r="D7" s="2">
-        <v>2378</v>
+        <v>2640</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>398.3735830458354</v>
+        <v>472.01823558403157</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>29.300147856086742</v>
+        <v>32.528339083292266</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>32964</v>
+        <v>40174</v>
       </c>
       <c r="C8" s="2">
-        <v>3809</v>
+        <v>2599</v>
       </c>
       <c r="D8" s="2">
-        <v>1995</v>
+        <v>2606</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>492.07344379758177</v>
+        <v>599.70144797731007</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>29.780564263322887</v>
+        <v>38.901328556500971</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9332</v>
+        <v>9583</v>
       </c>
       <c r="C9" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>181.30950068000777</v>
+        <v>186.18612784146106</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.7006022925976296</v>
+        <v>2.9531766077326598</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>12928</v>
+        <v>14829</v>
       </c>
       <c r="C10" s="2">
-        <v>1117</v>
+        <v>753</v>
       </c>
       <c r="D10" s="2">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1508.5180863477246</v>
+        <v>1730.3383897316219</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>26.954492415402566</v>
+        <v>35.00583430571762</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>14543</v>
+        <v>19522</v>
       </c>
       <c r="C11" s="2">
-        <v>2885</v>
+        <v>2433</v>
       </c>
       <c r="D11" s="2">
-        <v>759</v>
+        <v>1228</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>218.88922335942203</v>
+        <v>293.82901866345577</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>11.423841059602649</v>
+        <v>18.482841661649609</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>8603</v>
+        <v>10866</v>
       </c>
       <c r="C12" s="2">
-        <v>1172</v>
+        <v>1104</v>
       </c>
       <c r="D12" s="2">
-        <v>546</v>
+        <v>771</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>500.75669383003492</v>
+        <v>632.47962747380677</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>31.781140861466824</v>
+        <v>44.877764842840513</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>7657</v>
+        <v>8788</v>
       </c>
       <c r="C13" s="2">
-        <v>748</v>
+        <v>517</v>
       </c>
       <c r="D13" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>868.14058956916097</v>
+        <v>996.37188208616772</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>6.5759637188208613</v>
+        <v>9.7505668934240362</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>7284</v>
+        <v>10836</v>
       </c>
       <c r="C14" s="2">
-        <v>1049</v>
+        <v>1702</v>
       </c>
       <c r="D14" s="2">
-        <v>289</v>
+        <v>431</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>638.9473684210526</v>
+        <v>950.52631578947364</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>25.350877192982455</v>
+        <v>37.807017543859651</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3369</v>
+        <v>4284</v>
       </c>
       <c r="C15" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D15" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>627.60804769001481</v>
+        <v>798.06259314456031</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>2.608047690014903</v>
+        <v>4.6572280178837557</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>3069</v>
+        <v>3700</v>
       </c>
       <c r="C16" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D16" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>303.26086956521743</v>
+        <v>365.61264822134387</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>10.375494071146246</v>
+        <v>10.869565217391305</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>4689</v>
+        <v>6320</v>
       </c>
       <c r="C17" s="2">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="D17" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>124.74062250598563</v>
+        <v>168.12982176110665</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>1.409949454642192</v>
+        <v>1.7291832934291034</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>539</v>
+        <v>702</v>
       </c>
       <c r="C18" s="2">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>10.984308131241084</v>
+        <v>14.306093336050539</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.12227430201752598</v>
+        <v>0.20379050336254331</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>2046</v>
+        <v>2395</v>
       </c>
       <c r="C19" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>365.35714285714289</v>
+        <v>427.67857142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>9.2857142857142865</v>
+        <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>3417</v>
+        <v>4256</v>
       </c>
       <c r="C20" s="2">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="D20" s="2">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>16.325848064978498</v>
+        <v>20.334448160535118</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>0.43956043956043955</v>
+        <v>0.64978499761108455</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5093,7 +5751,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5102,7 +5760,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5111,14 +5769,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5143,8 +5801,14 @@
       <c r="H26" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -5169,60 +5833,78 @@
       <c r="H27">
         <v>1509</v>
       </c>
+      <c r="I27">
+        <v>1642</v>
+      </c>
+      <c r="J27">
+        <v>1730</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>546.42091727389629</v>
+      </c>
+      <c r="C28" s="5">
+        <v>613.00900128589808</v>
+      </c>
+      <c r="D28">
+        <v>709</v>
+      </c>
+      <c r="E28">
+        <v>855</v>
+      </c>
+      <c r="F28">
+        <v>983</v>
+      </c>
+      <c r="G28">
+        <v>1238</v>
+      </c>
+      <c r="H28">
+        <v>1408</v>
+      </c>
+      <c r="I28">
+        <v>1569</v>
+      </c>
+      <c r="J28">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>885.87962962962968</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C29" s="5">
         <v>977.81084656084658</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1057</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>1144</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>1230</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <v>1332</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>1430</v>
       </c>
+      <c r="I29" s="5">
+        <v>1529</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1615</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5">
-        <v>546.42091727389629</v>
-      </c>
-      <c r="C29" s="5">
-        <v>613.00900128589808</v>
-      </c>
-      <c r="D29">
-        <v>709</v>
-      </c>
-      <c r="E29">
-        <v>855</v>
-      </c>
-      <c r="F29">
-        <v>983</v>
-      </c>
-      <c r="G29">
-        <v>1238</v>
-      </c>
-      <c r="H29">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -5247,8 +5929,14 @@
       <c r="H30">
         <v>868</v>
       </c>
+      <c r="I30">
+        <v>928</v>
+      </c>
+      <c r="J30">
+        <v>996</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5273,8 +5961,14 @@
       <c r="H31">
         <v>639</v>
       </c>
+      <c r="I31">
+        <v>801</v>
+      </c>
+      <c r="J31">
+        <v>951</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -5299,8 +5993,14 @@
       <c r="H32">
         <v>628</v>
       </c>
+      <c r="I32">
+        <v>748</v>
+      </c>
+      <c r="J32">
+        <v>758</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -5325,8 +6025,14 @@
       <c r="H33">
         <v>614</v>
       </c>
+      <c r="I33">
+        <v>697</v>
+      </c>
+      <c r="J33">
+        <v>750</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -5351,8 +6057,14 @@
       <c r="H34">
         <v>501</v>
       </c>
+      <c r="I34">
+        <v>568</v>
+      </c>
+      <c r="J34">
+        <v>632</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -5377,8 +6089,14 @@
       <c r="H35">
         <v>492</v>
       </c>
+      <c r="I35">
+        <v>561</v>
+      </c>
+      <c r="J35">
+        <v>600</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5403,34 +6121,46 @@
       <c r="H36">
         <v>398</v>
       </c>
+      <c r="I36">
+        <v>436</v>
+      </c>
+      <c r="J36">
+        <v>472</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B37" s="5">
-        <v>174.901185770751</v>
+        <v>73.67053789731051</v>
       </c>
       <c r="C37" s="5">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="D37">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="E37">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="F37">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G37">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H37">
-        <v>371</v>
+        <v>310</v>
+      </c>
+      <c r="I37">
+        <v>369</v>
+      </c>
+      <c r="J37">
+        <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -5455,34 +6185,46 @@
       <c r="H38">
         <v>365</v>
       </c>
+      <c r="I38">
+        <v>393</v>
+      </c>
+      <c r="J38">
+        <v>428</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B39" s="5">
-        <v>73.67053789731051</v>
+        <v>174.901185770751</v>
       </c>
       <c r="C39" s="5">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D39">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="E39">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="F39">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="G39">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="H39">
-        <v>310</v>
+        <v>371</v>
+      </c>
+      <c r="I39">
+        <v>341</v>
+      </c>
+      <c r="J39">
+        <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -5507,8 +6249,14 @@
       <c r="H40">
         <v>219</v>
       </c>
+      <c r="I40">
+        <v>257</v>
+      </c>
+      <c r="J40">
+        <v>294</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -5533,8 +6281,14 @@
       <c r="H41">
         <v>181</v>
       </c>
+      <c r="I41">
+        <v>184</v>
+      </c>
+      <c r="J41">
+        <v>186</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5559,8 +6313,14 @@
       <c r="H42">
         <v>125</v>
       </c>
+      <c r="I42">
+        <v>148</v>
+      </c>
+      <c r="J42">
+        <v>168</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5585,8 +6345,14 @@
       <c r="H43" s="5">
         <v>59</v>
       </c>
+      <c r="I43" s="5">
+        <v>59</v>
+      </c>
+      <c r="J43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -5611,8 +6377,14 @@
       <c r="H44">
         <v>16</v>
       </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -5637,8 +6409,14 @@
       <c r="H45">
         <v>11</v>
       </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>14</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5663,8 +6441,14 @@
       <c r="H61" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -5689,8 +6473,14 @@
       <c r="H62">
         <v>151</v>
       </c>
+      <c r="I62">
+        <v>166</v>
+      </c>
+      <c r="J62">
+        <v>178</v>
+      </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -5715,8 +6505,14 @@
       <c r="H63">
         <v>110</v>
       </c>
+      <c r="I63">
+        <v>128</v>
+      </c>
+      <c r="J63">
+        <v>146</v>
+      </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -5741,8 +6537,14 @@
       <c r="H64">
         <v>32</v>
       </c>
+      <c r="I64">
+        <v>37</v>
+      </c>
+      <c r="J64">
+        <v>45</v>
+      </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -5767,34 +6569,46 @@
       <c r="H65">
         <v>30</v>
       </c>
+      <c r="I65">
+        <v>35</v>
+      </c>
+      <c r="J65">
+        <v>39</v>
+      </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B66" s="5">
-        <v>19.172005914243471</v>
+        <v>5.8771929824561404</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G66">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H66">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I66">
+        <v>31</v>
+      </c>
+      <c r="J66">
+        <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5819,34 +6633,46 @@
       <c r="H67">
         <v>27</v>
       </c>
+      <c r="I67">
+        <v>31</v>
+      </c>
+      <c r="J67">
+        <v>35</v>
+      </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B68" s="5">
-        <v>5.8771929824561404</v>
+        <v>19.172005914243471</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F68">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="I68">
+        <v>31</v>
+      </c>
+      <c r="J68">
+        <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -5871,60 +6697,78 @@
       <c r="H69">
         <v>11</v>
       </c>
+      <c r="I69">
+        <v>15</v>
+      </c>
+      <c r="J69">
+        <v>18</v>
+      </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B70" s="5">
-        <v>1.9762845849802373</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B71" s="5">
-        <v>3</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>4</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -5949,8 +6793,14 @@
       <c r="H72">
         <v>7</v>
       </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -5975,8 +6825,14 @@
       <c r="H73">
         <v>5</v>
       </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -6001,8 +6857,14 @@
       <c r="H74">
         <v>4</v>
       </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -6027,8 +6889,14 @@
       <c r="H75">
         <v>3</v>
       </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -6053,8 +6921,14 @@
       <c r="H76">
         <v>3</v>
       </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -6079,8 +6953,14 @@
       <c r="H77">
         <v>2</v>
       </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -6105,10 +6985,16 @@
       <c r="H78">
         <v>1</v>
       </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
@@ -6131,10 +7017,16 @@
       <c r="H79">
         <v>0</v>
       </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
@@ -6157,10 +7049,16 @@
       <c r="H80">
         <v>0</v>
       </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:H80">
-    <sortCondition descending="1" ref="H62:H80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:J80">
+    <sortCondition descending="1" ref="J62:J80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -6183,9 +7081,9 @@
     <hyperlink ref="A16" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{6A5FA689-4530-FC48-8476-8EB82E5F1FB4}"/>
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
     <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
-    <hyperlink ref="A28" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
-    <hyperlink ref="A29" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A39" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
+    <hyperlink ref="A28" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
+    <hyperlink ref="A37" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A35" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
@@ -6196,23 +7094,23 @@
     <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A31" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A32" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A37" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A77" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A73" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A66" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A68" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A76" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
     <hyperlink ref="A64" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
-    <hyperlink ref="A68" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
+    <hyperlink ref="A66" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A70" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A71" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
     <hyperlink ref="A78" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A1C2F0-A6DD-644D-9529-AFABEB23D588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E54D2-4462-9A42-83BF-87B96DD875AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="35680" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="6320" yWindow="1680" windowWidth="35680" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>China</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>29 March</t>
   </si>
+  <si>
+    <t>30 March</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -349,10 +352,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -370,10 +373,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -391,10 +394,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -411,67 +414,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>800.81680280046669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>546.42091727389629</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>339.22902494331066</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>246.92982456140351</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>270.12924266215725</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>211.35040745052387</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>215.83818480370206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>73.67053789731051</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>174.901185770751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.526791089705</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>170.95395375947155</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35.328544825751528</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58.447330447330444</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.9942938659058487</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -510,10 +452,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -531,10 +473,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -552,10 +494,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -572,67 +514,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>872.11201866977831</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>613.00900128589808</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>405.89569160997729</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -671,10 +552,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -692,10 +573,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -713,10 +594,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -733,67 +614,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -832,10 +652,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -853,10 +673,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -874,10 +694,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -894,67 +714,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -993,10 +752,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -1014,10 +773,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -1035,10 +794,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -1059,10 +818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
                   <c:v>1230</c:v>
@@ -1080,10 +839,10 @@
                   <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>333</c:v>
@@ -1101,10 +860,10 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
@@ -1154,10 +913,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -1175,10 +934,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -1196,10 +955,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -1220,10 +979,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1378</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
                   <c:v>1332</c:v>
@@ -1241,10 +1000,10 @@
                   <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>362</c:v>
@@ -1262,10 +1021,10 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
@@ -1317,10 +1076,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -1338,10 +1097,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -1359,10 +1118,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -1383,10 +1142,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1509</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
                   <c:v>1430</c:v>
@@ -1404,10 +1163,10 @@
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>398</c:v>
@@ -1425,10 +1184,10 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
@@ -1480,10 +1239,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -1501,10 +1260,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -1522,10 +1281,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -1546,10 +1305,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1642</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1569</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
                   <c:v>1529</c:v>
@@ -1567,10 +1326,10 @@
                   <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>436</c:v>
@@ -1588,10 +1347,10 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
@@ -1643,10 +1402,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -1664,10 +1423,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Iran</c:v>
@@ -1685,10 +1444,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -1709,10 +1468,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
                   <c:v>1615</c:v>
@@ -1730,10 +1489,10 @@
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>472</c:v>
@@ -1751,10 +1510,10 @@
                   <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
                   <c:v>59</c:v>
@@ -1771,6 +1530,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-447C-CC44-89D9-E0CBDD21BA17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$K$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$K$27:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-447C-CC44-89D9-E0CBDD21BA17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,7 +1781,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3538,6 +3460,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA2F-F041-8466-93BA4F959ADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$K$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$K$62:$K$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA2F-F041-8466-93BA4F959ADD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4870,16 +4955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>630381</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>653471</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5204,18 +5289,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="O54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5242,507 +5328,509 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81439</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>81470</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31</v>
+      </c>
       <c r="D2" s="2">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.758297258297262</v>
+        <v>58.78066378066378</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3809523809523809</v>
+        <v>2.3838383838383836</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>97689</v>
+        <v>101739</v>
       </c>
       <c r="C3" s="2">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="D3" s="2">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1615.2281746031747</v>
+        <v>1682.1924603174605</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>178.22420634920636</v>
+        <v>191.65013227513228</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>80110</v>
+        <v>87956</v>
       </c>
       <c r="C4" s="2">
-        <v>6875</v>
+        <v>7846</v>
       </c>
       <c r="D4" s="2">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1716.888126875268</v>
+        <v>1885.040720102872</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>145.79939991427347</v>
+        <v>165.36648092584656</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>142004</v>
+        <v>163479</v>
       </c>
       <c r="C5" s="2">
-        <v>18426</v>
+        <v>19988</v>
       </c>
       <c r="D5" s="2">
-        <v>2484</v>
+        <v>3148</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>433.99755501222495</v>
+        <v>499.63019559902204</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>7.5916870415647928</v>
+        <v>9.6210268948655262</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>62095</v>
+        <v>66885</v>
       </c>
       <c r="C6" s="2">
-        <v>4400</v>
+        <v>4450</v>
       </c>
       <c r="D6" s="2">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>750.03019688368158</v>
+        <v>807.88742601763488</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>6.5346056286991177</v>
+        <v>7.7907959898538461</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>38309</v>
+        <v>41495</v>
       </c>
       <c r="C7" s="2">
-        <v>2901</v>
+        <v>3186</v>
       </c>
       <c r="D7" s="2">
-        <v>2640</v>
+        <v>2757</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>472.01823558403157</v>
+        <v>511.27402661409565</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>32.528339083292266</v>
+        <v>33.969935929029077</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>40174</v>
+        <v>44550</v>
       </c>
       <c r="C8" s="2">
-        <v>2599</v>
+        <v>4376</v>
       </c>
       <c r="D8" s="2">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>599.70144797731007</v>
+        <v>665.02463054187194</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>38.901328556500971</v>
+        <v>45.141065830721004</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9583</v>
+        <v>9661</v>
       </c>
       <c r="C9" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>186.18612784146106</v>
+        <v>187.70157373227124</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.9531766077326598</v>
+        <v>3.0697493685642123</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>14829</v>
+        <v>15922</v>
       </c>
       <c r="C10" s="2">
-        <v>753</v>
+        <v>1093</v>
       </c>
       <c r="D10" s="2">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1730.3383897316219</v>
+        <v>1857.8763127187865</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>35.00583430571762</v>
+        <v>41.890315052508747</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>19522</v>
+        <v>22141</v>
       </c>
       <c r="C11" s="2">
-        <v>2433</v>
+        <v>2619</v>
       </c>
       <c r="D11" s="2">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>293.82901866345577</v>
+        <v>333.2480433473811</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>18.482841661649609</v>
+        <v>21.192052980132452</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>10866</v>
+        <v>11750</v>
       </c>
       <c r="C12" s="2">
-        <v>1104</v>
+        <v>884</v>
       </c>
       <c r="D12" s="2">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>632.47962747380677</v>
+        <v>683.93480791618163</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>44.877764842840513</v>
+        <v>50.291036088474975</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>8788</v>
+        <v>9618</v>
       </c>
       <c r="C13" s="2">
-        <v>517</v>
+        <v>830</v>
       </c>
       <c r="D13" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>996.37188208616772</v>
+        <v>1090.4761904761904</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>9.7505668934240362</v>
+        <v>12.244897959183673</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>10836</v>
+        <v>11899</v>
       </c>
       <c r="C14" s="2">
-        <v>1702</v>
+        <v>1063</v>
       </c>
       <c r="D14" s="2">
-        <v>431</v>
+        <v>513</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>950.52631578947364</v>
+        <v>1043.7719298245613</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>37.807017543859651</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4284</v>
+        <v>4445</v>
       </c>
       <c r="C15" s="2">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>798.06259314456031</v>
+        <v>828.05514157973164</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>4.6572280178837557</v>
+        <v>5.9612518628912072</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>3700</v>
+        <v>4028</v>
       </c>
       <c r="C16" s="2">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="D16" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>365.61264822134387</v>
+        <v>398.02371541501981</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>10.869565217391305</v>
+        <v>14.426877470355732</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>6320</v>
+        <v>7448</v>
       </c>
       <c r="C17" s="2">
-        <v>665</v>
+        <v>1128</v>
       </c>
       <c r="D17" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>168.12982176110665</v>
+        <v>198.13780260707634</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>1.7291832934291034</v>
+        <v>2.3676509710029259</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="C18" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>14.306093336050539</v>
+        <v>16.262482168330955</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.20379050336254331</v>
+        <v>0.28530670470756064</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>2395</v>
+        <v>2577</v>
       </c>
       <c r="C19" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>427.67857142857144</v>
+        <v>460.17857142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>12.857142857142858</v>
+        <v>13.75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4256</v>
+        <v>4630</v>
       </c>
       <c r="C20" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D20" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>20.334448160535118</v>
+        <v>22.121356903965598</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>0.64978499761108455</v>
+        <v>0.77878643096034394</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5751,7 +5839,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5760,7 +5848,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5769,14 +5857,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5807,72 +5895,81 @@
       <c r="J26" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="K26" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5">
+        <v>546.42091727389629</v>
+      </c>
+      <c r="C27" s="5">
+        <v>613.00900128589808</v>
+      </c>
+      <c r="D27">
+        <v>709</v>
+      </c>
+      <c r="E27">
+        <v>855</v>
+      </c>
+      <c r="F27">
+        <v>983</v>
+      </c>
+      <c r="G27">
+        <v>1238</v>
+      </c>
+      <c r="H27">
+        <v>1408</v>
+      </c>
+      <c r="I27">
+        <v>1569</v>
+      </c>
+      <c r="J27">
+        <v>1717</v>
+      </c>
+      <c r="K27">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>800.81680280046669</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C28" s="5">
         <v>872.11201866977831</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>997</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1153</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>1272</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>1378</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>1509</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>1642</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>1730</v>
       </c>
+      <c r="K28">
+        <v>1858</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5">
-        <v>546.42091727389629</v>
-      </c>
-      <c r="C28" s="5">
-        <v>613.00900128589808</v>
-      </c>
-      <c r="D28">
-        <v>709</v>
-      </c>
-      <c r="E28">
-        <v>855</v>
-      </c>
-      <c r="F28">
-        <v>983</v>
-      </c>
-      <c r="G28">
-        <v>1238</v>
-      </c>
-      <c r="H28">
-        <v>1408</v>
-      </c>
-      <c r="I28">
-        <v>1569</v>
-      </c>
-      <c r="J28">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -5903,8 +6000,11 @@
       <c r="J29" s="5">
         <v>1615</v>
       </c>
+      <c r="K29" s="5">
+        <v>1682</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -5935,8 +6035,11 @@
       <c r="J30">
         <v>996</v>
       </c>
+      <c r="K30">
+        <v>1090</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -5967,8 +6070,11 @@
       <c r="J31">
         <v>951</v>
       </c>
+      <c r="K31">
+        <v>1044</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -5999,8 +6105,11 @@
       <c r="J32">
         <v>758</v>
       </c>
+      <c r="K32">
+        <v>828</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -6031,72 +6140,81 @@
       <c r="J33">
         <v>750</v>
       </c>
+      <c r="K33">
+        <v>828</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5">
+        <v>215.83818480370206</v>
+      </c>
+      <c r="C34" s="5">
+        <v>239</v>
+      </c>
+      <c r="D34">
+        <v>296</v>
+      </c>
+      <c r="E34">
+        <v>333</v>
+      </c>
+      <c r="F34">
+        <v>377</v>
+      </c>
+      <c r="G34">
+        <v>435</v>
+      </c>
+      <c r="H34">
+        <v>492</v>
+      </c>
+      <c r="I34">
+        <v>561</v>
+      </c>
+      <c r="J34">
+        <v>600</v>
+      </c>
+      <c r="K34">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="5">
         <v>211.35040745052387</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C35" s="5">
         <v>245</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>276</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>324</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>373</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>433</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>501</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>568</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>632</v>
       </c>
+      <c r="K35">
+        <v>624</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="5">
-        <v>215.83818480370206</v>
-      </c>
-      <c r="C35" s="5">
-        <v>239</v>
-      </c>
-      <c r="D35">
-        <v>296</v>
-      </c>
-      <c r="E35">
-        <v>333</v>
-      </c>
-      <c r="F35">
-        <v>377</v>
-      </c>
-      <c r="G35">
-        <v>435</v>
-      </c>
-      <c r="H35">
-        <v>492</v>
-      </c>
-      <c r="I35">
-        <v>561</v>
-      </c>
-      <c r="J35">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -6127,8 +6245,11 @@
       <c r="J36">
         <v>472</v>
       </c>
+      <c r="K36">
+        <v>511</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -6159,8 +6280,11 @@
       <c r="J37">
         <v>434</v>
       </c>
+      <c r="K37">
+        <v>500</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -6191,8 +6315,11 @@
       <c r="J38">
         <v>428</v>
       </c>
+      <c r="K38">
+        <v>460</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -6223,8 +6350,11 @@
       <c r="J39">
         <v>366</v>
       </c>
+      <c r="K39">
+        <v>398</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -6255,72 +6385,81 @@
       <c r="J40">
         <v>294</v>
       </c>
+      <c r="K40">
+        <v>333</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5">
+        <v>35.328544825751528</v>
+      </c>
+      <c r="C41" s="5">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>54</v>
+      </c>
+      <c r="E41">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>88</v>
+      </c>
+      <c r="G41">
+        <v>108</v>
+      </c>
+      <c r="H41">
+        <v>125</v>
+      </c>
+      <c r="I41">
+        <v>148</v>
+      </c>
+      <c r="J41">
+        <v>168</v>
+      </c>
+      <c r="K41">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B42" s="5">
         <v>170.95395375947155</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C42" s="5">
         <v>173</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>174</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>176</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>178</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>180</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>181</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>184</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>186</v>
       </c>
+      <c r="K42">
+        <v>188</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="5">
-        <v>35.328544825751528</v>
-      </c>
-      <c r="C42" s="5">
-        <v>38</v>
-      </c>
-      <c r="D42">
-        <v>54</v>
-      </c>
-      <c r="E42">
-        <v>69</v>
-      </c>
-      <c r="F42">
-        <v>88</v>
-      </c>
-      <c r="G42">
-        <v>108</v>
-      </c>
-      <c r="H42">
-        <v>125</v>
-      </c>
-      <c r="I42">
-        <v>148</v>
-      </c>
-      <c r="J42">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6351,8 +6490,11 @@
       <c r="J43" s="5">
         <v>59</v>
       </c>
+      <c r="K43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -6383,8 +6525,11 @@
       <c r="J44">
         <v>20</v>
       </c>
+      <c r="K44">
+        <v>22</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -6415,8 +6560,11 @@
       <c r="J45">
         <v>14</v>
       </c>
+      <c r="K45">
+        <v>16</v>
+      </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -6447,8 +6595,11 @@
       <c r="J61" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="K61" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -6479,8 +6630,11 @@
       <c r="J62">
         <v>178</v>
       </c>
+      <c r="K62">
+        <v>192</v>
+      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -6511,8 +6665,11 @@
       <c r="J63">
         <v>146</v>
       </c>
+      <c r="K63">
+        <v>165</v>
+      </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -6543,8 +6700,11 @@
       <c r="J64">
         <v>45</v>
       </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -6575,8 +6735,11 @@
       <c r="J65">
         <v>39</v>
       </c>
+      <c r="K65">
+        <v>45</v>
+      </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -6607,8 +6770,11 @@
       <c r="J66">
         <v>38</v>
       </c>
+      <c r="K66">
+        <v>45</v>
+      </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -6639,8 +6805,11 @@
       <c r="J67">
         <v>35</v>
       </c>
+      <c r="K67">
+        <v>42</v>
+      </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -6671,8 +6840,11 @@
       <c r="J68">
         <v>33</v>
       </c>
+      <c r="K68">
+        <v>34</v>
+      </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -6703,8 +6875,11 @@
       <c r="J69">
         <v>18</v>
       </c>
+      <c r="K69">
+        <v>21</v>
+      </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -6735,8 +6910,11 @@
       <c r="J70">
         <v>13</v>
       </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -6767,8 +6945,11 @@
       <c r="J71">
         <v>11</v>
       </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -6799,8 +6980,11 @@
       <c r="J72">
         <v>10</v>
       </c>
+      <c r="K72">
+        <v>12</v>
+      </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -6831,8 +7015,11 @@
       <c r="J73">
         <v>8</v>
       </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -6863,8 +7050,11 @@
       <c r="J74">
         <v>7</v>
       </c>
+      <c r="K74">
+        <v>8</v>
+      </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -6895,8 +7085,11 @@
       <c r="J75">
         <v>5</v>
       </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -6927,8 +7120,11 @@
       <c r="J76">
         <v>3</v>
       </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -6959,8 +7155,11 @@
       <c r="J77">
         <v>2</v>
       </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -6991,8 +7190,11 @@
       <c r="J78">
         <v>2</v>
       </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -7023,8 +7225,11 @@
       <c r="J79">
         <v>1</v>
       </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -7055,10 +7260,13 @@
       <c r="J80">
         <v>0</v>
       </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:J80">
-    <sortCondition descending="1" ref="J62:J80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:K45">
+    <sortCondition descending="1" ref="K27:K45"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -7082,20 +7290,20 @@
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
     <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
-    <hyperlink ref="A28" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
+    <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A37" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
-    <hyperlink ref="A35" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
-    <hyperlink ref="A41" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
+    <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
+    <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
+    <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
-    <hyperlink ref="A34" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
+    <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A31" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A32" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
-    <hyperlink ref="A42" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
+    <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A77" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E54D2-4462-9A42-83BF-87B96DD875AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0055E37-6984-8C4B-B7B3-E41ABEDF6DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1680" windowWidth="35680" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="2000" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>China</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>30 March</t>
+  </si>
+  <si>
+    <t>31 March</t>
+  </si>
+  <si>
+    <t>1 April</t>
   </si>
 </sst>
 </file>
@@ -361,16 +367,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -379,10 +385,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -414,6 +420,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>546.42091727389629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.81680280046669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>885.87962962962968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>339.22902494331066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.12924266215725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403.12965722801783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.83818480370206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.35040745052387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253.94282897979301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.328544825751528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.95395375947155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.447330447330444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9942938659058487</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -461,16 +528,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -479,10 +546,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -514,6 +581,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>613.00900128589808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872.11201866977831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>977.81084656084658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.89569160997729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421.5722801788375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -561,16 +689,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -579,10 +707,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -614,6 +742,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -661,16 +850,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -679,10 +868,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -714,6 +903,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -761,16 +1011,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -779,10 +1029,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -827,16 +1077,16 @@
                   <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>634</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>433</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>377</c:v>
@@ -845,10 +1095,10 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>308</c:v>
@@ -922,16 +1172,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -940,10 +1190,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -988,16 +1238,16 @@
                   <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>783</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>547</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>435</c:v>
@@ -1006,10 +1256,10 @@
                   <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>335</c:v>
@@ -1085,16 +1335,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -1103,10 +1353,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1151,16 +1401,16 @@
                   <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>868</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>639</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>492</c:v>
@@ -1169,10 +1419,10 @@
                   <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>365</c:v>
@@ -1248,16 +1498,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -1266,10 +1516,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1314,16 +1564,16 @@
                   <c:v>1529</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>928</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>801</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>561</c:v>
@@ -1332,10 +1582,10 @@
                   <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>393</c:v>
@@ -1411,16 +1661,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -1429,10 +1679,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1477,16 +1727,16 @@
                   <c:v>1615</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>996</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>951</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>600</c:v>
@@ -1495,10 +1745,10 @@
                   <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>428</c:v>
@@ -1574,16 +1824,16 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>France</c:v>
@@ -1592,10 +1842,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1640,10 +1890,10 @@
                   <c:v>1682</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>828</c:v>
@@ -1658,10 +1908,10 @@
                   <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>460</c:v>
@@ -1693,6 +1943,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-447C-CC44-89D9-E0CBDD21BA17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$L$27:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-447C-CC44-89D9-E0CBDD21BA17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$M$27:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E83-DC4F-A378-1C5DC18C3B63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1781,7 +2357,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2044,13 +2620,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2062,10 +2638,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2083,10 +2659,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2110,13 +2686,13 @@
                   <c:v>29.532790398628379</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.8771929824561404</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.9161816065192081</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.3893118375876998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8771929824561404</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3348891481913654</c:v>
@@ -2128,10 +2704,10 @@
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9762845849802373</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.90702947845804982</c:v>
@@ -2149,10 +2725,10 @@
                   <c:v>1.9817369341363902</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.50545357807927638</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2.3484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.50545357807927638</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2205,13 +2781,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2223,10 +2799,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2244,10 +2820,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2271,13 +2847,13 @@
                   <c:v>37.633947706815263</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>11</c:v>
@@ -2289,10 +2865,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>2</c:v>
@@ -2310,10 +2886,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
                   <c:v>0</c:v>
@@ -2366,13 +2942,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2384,10 +2960,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2405,10 +2981,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2432,13 +3008,13 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -2450,10 +3026,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -2471,10 +3047,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2527,13 +3103,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2545,10 +3121,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2566,10 +3142,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2593,13 +3169,13 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -2611,10 +3187,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -2632,10 +3208,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2688,13 +3264,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2706,10 +3282,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2727,10 +3303,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2754,13 +3330,13 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
@@ -2793,10 +3369,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2849,13 +3425,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -2867,10 +3443,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -2888,10 +3464,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -2915,13 +3491,13 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
@@ -2933,10 +3509,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -2954,10 +3530,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3012,13 +3588,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -3030,10 +3606,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -3051,10 +3627,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -3078,13 +3654,13 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
@@ -3096,10 +3672,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
@@ -3117,10 +3693,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3175,13 +3751,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -3193,10 +3769,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -3214,10 +3790,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -3241,13 +3817,13 @@
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
@@ -3259,10 +3835,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8</c:v>
@@ -3338,13 +3914,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -3356,10 +3932,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -3377,10 +3953,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -3404,13 +3980,13 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35</c:v>
@@ -3422,10 +3998,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
@@ -3501,13 +4077,13 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
@@ -3519,10 +4095,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Austria</c:v>
@@ -3540,10 +4116,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Brazil</c:v>
@@ -3567,10 +4143,10 @@
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45</c:v>
@@ -3623,6 +4199,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA2F-F041-8466-93BA4F959ADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$L$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31 March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$L$62:$L$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EA2F-F041-8466-93BA4F959ADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$M$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$M$62:$M$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD4E-F848-9990-B30373527015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4919,16 +5821,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238992</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>793174</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>461819</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>184728</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4956,15 +5858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
+      <xdr:colOff>773545</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>653471</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>318653</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5289,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" topLeftCell="L51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5332,24 +6234,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81470</v>
-      </c>
-      <c r="C2" s="2">
-        <v>31</v>
-      </c>
+        <v>81554</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3304</v>
+        <v>3312</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.78066378066378</v>
+        <v>58.841269841269842</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3838383838383836</v>
+        <v>2.3896103896103895</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -5359,24 +6259,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>101739</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4050</v>
-      </c>
+        <v>110574</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>11591</v>
+        <v>13155</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1682.1924603174605</v>
+        <v>1828.2738095238096</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>191.65013227513228</v>
+        <v>217.50992063492063</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -5386,24 +6284,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>87956</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7846</v>
-      </c>
+        <v>104118</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>7716</v>
+        <v>9387</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1885.040720102872</v>
+        <v>2231.4187741105875</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>165.36648092584656</v>
+        <v>201.17873981997431</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -5413,24 +6309,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>163479</v>
+        <v>215175</v>
       </c>
       <c r="C5" s="2">
-        <v>19988</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
-        <v>3148</v>
+        <v>5110</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>499.63019559902204</v>
+        <v>657.62530562347195</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>9.6210268948655262</v>
+        <v>15.617359413202935</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -5440,24 +6336,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>66885</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4450</v>
-      </c>
+        <v>77981</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>645</v>
+        <v>931</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>807.88742601763488</v>
+        <v>941.91327455006638</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>7.7907959898538461</v>
+        <v>11.24531948302935</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5467,24 +6361,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>41495</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3186</v>
-      </c>
+        <v>47593</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>2757</v>
+        <v>3036</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>511.27402661409565</v>
+        <v>586.40956136027603</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>33.969935929029077</v>
+        <v>37.4075899457861</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5494,24 +6386,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44550</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4376</v>
-      </c>
+        <v>56989</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>3024</v>
+        <v>4032</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>665.02463054187194</v>
+        <v>850.70906105388872</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>45.141065830721004</v>
+        <v>60.188087774294672</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5521,24 +6411,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9661</v>
+        <v>9976</v>
       </c>
       <c r="C9" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>187.70157373227124</v>
+        <v>193.82164367592773</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.0697493685642123</v>
+        <v>3.2834660967553915</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5548,24 +6438,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>15922</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1093</v>
-      </c>
+        <v>17768</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1857.8763127187865</v>
+        <v>2073.278879813302</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>41.890315052508747</v>
+        <v>56.942823803967329</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5575,24 +6463,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>22141</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2619</v>
-      </c>
+        <v>29474</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1408</v>
+        <v>2352</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>333.2480433473811</v>
+        <v>443.61830222757379</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>21.192052980132452</v>
+        <v>35.400361228175797</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5602,24 +6488,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>11750</v>
-      </c>
-      <c r="C12" s="2">
-        <v>884</v>
-      </c>
+        <v>13614</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>864</v>
+        <v>1173</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>683.93480791618163</v>
+        <v>792.43306169965081</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>50.291036088474975</v>
+        <v>68.277066356228175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5629,24 +6513,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9618</v>
-      </c>
-      <c r="C13" s="2">
-        <v>830</v>
-      </c>
+        <v>10711</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1090.4761904761904</v>
+        <v>1214.3990929705215</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>12.244897959183673</v>
+        <v>16.553287981859409</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -5656,24 +6538,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>11899</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1063</v>
-      </c>
+        <v>13964</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>513</v>
+        <v>828</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1043.7719298245613</v>
+        <v>1224.9122807017543</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>72.631578947368425</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -5683,24 +6563,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4445</v>
-      </c>
-      <c r="C15" s="2">
-        <v>161</v>
-      </c>
+        <v>4877</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>828.05514157973164</v>
+        <v>908.53204172876303</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>5.9612518628912072</v>
+        <v>8.1967213114754092</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5708,129 +6586,121 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>4028</v>
-      </c>
-      <c r="C16" s="2">
-        <v>328</v>
-      </c>
+        <v>4947</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>398.02371541501981</v>
+        <v>488.83399209486169</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>14.426877470355732</v>
+        <v>23.616600790513836</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>7448</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1128</v>
-      </c>
+        <v>9731</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>198.13780260707634</v>
+        <v>258.87204043628623</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>2.3676509710029259</v>
+        <v>3.4317637669592975</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>798</v>
-      </c>
-      <c r="C18" s="2">
-        <v>96</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>16.262482168330955</v>
+        <v>21.703688608110863</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.28530670470756064</v>
+        <v>0.34644385571632363</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>2577</v>
-      </c>
-      <c r="C19" s="2">
-        <v>182</v>
-      </c>
+        <v>3107</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>460.17857142857144</v>
+        <v>554.82142857142856</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>13.75</v>
+        <v>18.571428571428573</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4630</v>
+        <v>6931</v>
       </c>
       <c r="C20" s="2">
-        <v>374</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>22.121356903965598</v>
+        <v>33.115145723841373</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>0.77878643096034394</v>
+        <v>1.1657907310081221</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5839,7 +6709,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5848,7 +6718,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5857,14 +6727,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5898,8 +6768,14 @@
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="L26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -5933,8 +6809,14 @@
       <c r="K27">
         <v>1885</v>
       </c>
+      <c r="L27">
+        <v>2056</v>
+      </c>
+      <c r="M27">
+        <v>2231</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -5968,8 +6850,14 @@
       <c r="K28">
         <v>1858</v>
       </c>
+      <c r="L28">
+        <v>1938</v>
+      </c>
+      <c r="M28">
+        <v>2073</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6003,148 +6891,178 @@
       <c r="K29" s="5">
         <v>1682</v>
       </c>
+      <c r="L29" s="5">
+        <v>1749</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1828</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5">
+        <v>246.92982456140351</v>
+      </c>
+      <c r="C30" s="5">
+        <v>298</v>
+      </c>
+      <c r="D30">
+        <v>328</v>
+      </c>
+      <c r="E30">
+        <v>374</v>
+      </c>
+      <c r="F30">
+        <v>433</v>
+      </c>
+      <c r="G30">
+        <v>547</v>
+      </c>
+      <c r="H30">
+        <v>639</v>
+      </c>
+      <c r="I30">
+        <v>801</v>
+      </c>
+      <c r="J30">
+        <v>951</v>
+      </c>
+      <c r="K30">
+        <v>1044</v>
+      </c>
+      <c r="L30">
+        <v>1121</v>
+      </c>
+      <c r="M30">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5">
         <v>339.22902494331066</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>405.89569160997729</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>507</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>599</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>634</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>783</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>868</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>928</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>996</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>1090</v>
       </c>
+      <c r="L31">
+        <v>1154</v>
+      </c>
+      <c r="M31">
+        <v>1214</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="5">
-        <v>246.92982456140351</v>
-      </c>
-      <c r="C31" s="5">
-        <v>298</v>
-      </c>
-      <c r="D31">
-        <v>328</v>
-      </c>
-      <c r="E31">
-        <v>374</v>
-      </c>
-      <c r="F31">
-        <v>433</v>
-      </c>
-      <c r="G31">
-        <v>547</v>
-      </c>
-      <c r="H31">
-        <v>639</v>
-      </c>
-      <c r="I31">
-        <v>801</v>
-      </c>
-      <c r="J31">
-        <v>951</v>
-      </c>
-      <c r="K31">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B32" s="5">
-        <v>403.12965722801783</v>
+        <v>270.12924266215725</v>
       </c>
       <c r="C32" s="5">
-        <v>421.5722801788375</v>
+        <v>300</v>
       </c>
       <c r="D32">
-        <v>474</v>
+        <v>351</v>
       </c>
       <c r="E32">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="F32">
-        <v>571</v>
+        <v>451</v>
       </c>
       <c r="G32">
-        <v>628</v>
+        <v>531</v>
       </c>
       <c r="H32">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="I32">
-        <v>748</v>
+        <v>697</v>
       </c>
       <c r="J32">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="K32">
         <v>828</v>
       </c>
+      <c r="L32">
+        <v>867</v>
+      </c>
+      <c r="M32">
+        <v>942</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5">
-        <v>270.12924266215725</v>
+        <v>403.12965722801783</v>
       </c>
       <c r="C33" s="5">
-        <v>300</v>
+        <v>421.5722801788375</v>
       </c>
       <c r="D33">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="E33">
-        <v>398</v>
+        <v>518</v>
       </c>
       <c r="F33">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="G33">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="H33">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="I33">
-        <v>697</v>
+        <v>748</v>
       </c>
       <c r="J33">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="K33">
         <v>828</v>
       </c>
+      <c r="L33">
+        <v>865</v>
+      </c>
+      <c r="M33">
+        <v>909</v>
+      </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -6178,8 +7096,14 @@
       <c r="K34">
         <v>665</v>
       </c>
+      <c r="L34">
+        <v>778</v>
+      </c>
+      <c r="M34">
+        <v>851</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -6213,78 +7137,96 @@
       <c r="K35">
         <v>624</v>
       </c>
+      <c r="L35">
+        <v>733</v>
+      </c>
+      <c r="M35">
+        <v>792</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5">
+        <v>73.67053789731051</v>
+      </c>
+      <c r="C36" s="5">
+        <v>99</v>
+      </c>
+      <c r="D36">
+        <v>129</v>
+      </c>
+      <c r="E36">
+        <v>162</v>
+      </c>
+      <c r="F36">
+        <v>198</v>
+      </c>
+      <c r="G36">
+        <v>260</v>
+      </c>
+      <c r="H36">
+        <v>310</v>
+      </c>
+      <c r="I36">
+        <v>369</v>
+      </c>
+      <c r="J36">
+        <v>434</v>
+      </c>
+      <c r="K36">
+        <v>500</v>
+      </c>
+      <c r="L36">
+        <v>576</v>
+      </c>
+      <c r="M36">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <v>253.94282897979301</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>267</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>284</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>306</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>333</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>362</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>398</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>436</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>472</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>511</v>
       </c>
+      <c r="L37">
+        <v>550</v>
+      </c>
+      <c r="M37">
+        <v>586</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="5">
-        <v>73.67053789731051</v>
-      </c>
-      <c r="C37" s="5">
-        <v>99</v>
-      </c>
-      <c r="D37">
-        <v>129</v>
-      </c>
-      <c r="E37">
-        <v>162</v>
-      </c>
-      <c r="F37">
-        <v>198</v>
-      </c>
-      <c r="G37">
-        <v>260</v>
-      </c>
-      <c r="H37">
-        <v>310</v>
-      </c>
-      <c r="I37">
-        <v>369</v>
-      </c>
-      <c r="J37">
-        <v>434</v>
-      </c>
-      <c r="K37">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -6318,8 +7260,14 @@
       <c r="K38">
         <v>460</v>
       </c>
+      <c r="L38">
+        <v>511</v>
+      </c>
+      <c r="M38">
+        <v>555</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -6353,8 +7301,14 @@
       <c r="K39">
         <v>398</v>
       </c>
+      <c r="L39">
+        <v>438</v>
+      </c>
+      <c r="M39">
+        <v>489</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -6388,8 +7342,14 @@
       <c r="K40">
         <v>333</v>
       </c>
+      <c r="L40">
+        <v>379</v>
+      </c>
+      <c r="M40">
+        <v>444</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -6423,8 +7383,14 @@
       <c r="K41">
         <v>198</v>
       </c>
+      <c r="L41">
+        <v>229</v>
+      </c>
+      <c r="M41">
+        <v>259</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -6458,8 +7424,14 @@
       <c r="K42">
         <v>188</v>
       </c>
+      <c r="L42">
+        <v>192</v>
+      </c>
+      <c r="M42">
+        <v>194</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6493,8 +7465,14 @@
       <c r="K43" s="5">
         <v>59</v>
       </c>
+      <c r="L43" s="5">
+        <v>59</v>
+      </c>
+      <c r="M43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -6528,8 +7506,14 @@
       <c r="K44">
         <v>22</v>
       </c>
+      <c r="L44">
+        <v>27</v>
+      </c>
+      <c r="M44">
+        <v>33</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -6563,8 +7547,14 @@
       <c r="K45">
         <v>16</v>
       </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>22</v>
+      </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -6598,8 +7588,14 @@
       <c r="K61" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="L61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -6633,8 +7629,14 @@
       <c r="K62">
         <v>192</v>
       </c>
+      <c r="L62">
+        <v>205</v>
+      </c>
+      <c r="M62">
+        <v>218</v>
+      </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -6668,113 +7670,137 @@
       <c r="K63">
         <v>165</v>
       </c>
+      <c r="L63">
+        <v>181</v>
+      </c>
+      <c r="M63">
+        <v>201</v>
+      </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="5">
+        <v>5.8771929824561404</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>31</v>
+      </c>
+      <c r="J64">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>45</v>
+      </c>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B65" s="5">
         <v>7.9161816065192081</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>16</v>
-      </c>
-      <c r="F64">
-        <v>21</v>
-      </c>
-      <c r="G64">
-        <v>25</v>
-      </c>
-      <c r="H64">
-        <v>32</v>
-      </c>
-      <c r="I64">
-        <v>37</v>
-      </c>
-      <c r="J64">
-        <v>45</v>
-      </c>
-      <c r="K64">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="5">
-        <v>8.3893118375876998</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>16</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
       <c r="H65">
+        <v>32</v>
+      </c>
+      <c r="I65">
+        <v>37</v>
+      </c>
+      <c r="J65">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>50</v>
+      </c>
+      <c r="L65">
+        <v>60</v>
+      </c>
+      <c r="M65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8.3893118375876998</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="H66">
         <v>30</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>35</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>39</v>
-      </c>
-      <c r="K65">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="5">
-        <v>5.8771929824561404</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66">
-        <v>16</v>
-      </c>
-      <c r="G66">
-        <v>19</v>
-      </c>
-      <c r="H66">
-        <v>25</v>
-      </c>
-      <c r="I66">
-        <v>31</v>
-      </c>
-      <c r="J66">
-        <v>38</v>
       </c>
       <c r="K66">
         <v>45</v>
       </c>
+      <c r="L66">
+        <v>53</v>
+      </c>
+      <c r="M66">
+        <v>60</v>
+      </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -6808,8 +7834,14 @@
       <c r="K67">
         <v>42</v>
       </c>
+      <c r="L67">
+        <v>51</v>
+      </c>
+      <c r="M67">
+        <v>57</v>
+      </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -6843,8 +7875,14 @@
       <c r="K68">
         <v>34</v>
       </c>
+      <c r="L68">
+        <v>36</v>
+      </c>
+      <c r="M68">
+        <v>37</v>
+      </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -6878,78 +7916,96 @@
       <c r="K69">
         <v>21</v>
       </c>
+      <c r="L69">
+        <v>27</v>
+      </c>
+      <c r="M69">
+        <v>35</v>
+      </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B70" s="5">
-        <v>3</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
         <v>4</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J70">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K70">
         <v>14</v>
       </c>
+      <c r="L70">
+        <v>18</v>
+      </c>
+      <c r="M70">
+        <v>24</v>
+      </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B71" s="5">
-        <v>1.9762845849802373</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K71">
         <v>14</v>
       </c>
+      <c r="L71">
+        <v>16</v>
+      </c>
+      <c r="M71">
+        <v>19</v>
+      </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -6983,8 +8039,14 @@
       <c r="K72">
         <v>12</v>
       </c>
+      <c r="L72">
+        <v>15</v>
+      </c>
+      <c r="M72">
+        <v>17</v>
+      </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -7018,8 +8080,14 @@
       <c r="K73">
         <v>10</v>
       </c>
+      <c r="L73">
+        <v>12</v>
+      </c>
+      <c r="M73">
+        <v>16</v>
+      </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -7053,8 +8121,14 @@
       <c r="K74">
         <v>8</v>
       </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
+      <c r="M74">
+        <v>11</v>
+      </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -7088,8 +8162,14 @@
       <c r="K75">
         <v>6</v>
       </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>8</v>
+      </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -7123,31 +8203,37 @@
       <c r="K76">
         <v>3</v>
       </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B77" s="5">
-        <v>2.3484848484848486</v>
+        <v>0.50545357807927638</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -7158,31 +8244,37 @@
       <c r="K77">
         <v>2</v>
       </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B78" s="5">
-        <v>0.50545357807927638</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -7193,8 +8285,14 @@
       <c r="K78">
         <v>2</v>
       </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -7228,8 +8326,14 @@
       <c r="K79">
         <v>1</v>
       </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -7263,10 +8367,16 @@
       <c r="K80">
         <v>0</v>
       </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:K45">
-    <sortCondition descending="1" ref="K27:K45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:M80">
+    <sortCondition descending="1" ref="M62:M80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -7291,35 +8401,35 @@
     <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
-    <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A36" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A36" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A32" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
+    <hyperlink ref="A37" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A32" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A31" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A33" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A77" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A78" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A73" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A68" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A66" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A76" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A64" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A65" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
-    <hyperlink ref="A66" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
+    <hyperlink ref="A64" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A71" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
-    <hyperlink ref="A78" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
+    <hyperlink ref="A70" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A77" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0055E37-6984-8C4B-B7B3-E41ABEDF6DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A799B94C-23AD-9E4D-9555-3DFF1D963066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>China</t>
   </si>
@@ -148,6 +148,9 @@
   <si>
     <t>1 April</t>
   </si>
+  <si>
+    <t>2 April</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,67 +423,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>546.42091727389629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800.81680280046669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>246.92982456140351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>339.22902494331066</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>270.12924266215725</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>215.83818480370206</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211.35040745052387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>73.67053789731051</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>174.901185770751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.526791089705</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.328544825751528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>170.95395375947155</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58.447330447330444</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.9942938659058487</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -581,67 +523,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>613.00900128589808</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>872.11201866977831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>405.89569160997729</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -742,67 +623,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -903,67 +723,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2269,6 +2028,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E83-DC4F-A378-1C5DC18C3B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$N$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$N$27:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5C6-A949-A65C-BC20F3E0365B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,7 +2280,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2623,19 +2546,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -2644,10 +2567,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -2656,10 +2579,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -2676,67 +2599,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$62:$B$80</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>79.778439153439152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.532790398628379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8771929824561404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9161816065192081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3893118375876998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3348891481913654</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.172005914243471</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5069235400361229</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9762845849802373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90702947845804982</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91992665036674814</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0146152917018962</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3040238450074515</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9817369341363902</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50545357807927638</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2784,19 +2646,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -2805,10 +2667,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -2817,10 +2679,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -2837,67 +2699,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$62:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>90.542328042328052</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.633947706815263</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2945,19 +2746,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -2966,10 +2767,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -2978,10 +2779,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -2998,67 +2799,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$62:$D$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3106,19 +2846,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3127,10 +2867,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3139,10 +2879,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3159,67 +2899,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$62:$E$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3267,19 +2946,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3288,10 +2967,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3300,10 +2979,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3333,19 +3012,19 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -3366,10 +3045,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -3428,19 +3107,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3449,10 +3128,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3461,10 +3140,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3503,10 +3182,10 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
@@ -3515,10 +3194,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
@@ -3527,10 +3206,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -3591,19 +3270,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3612,10 +3291,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3624,10 +3303,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3657,19 +3336,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
@@ -3678,10 +3357,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -3690,10 +3369,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -3754,19 +3433,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3775,10 +3454,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3787,10 +3466,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3820,19 +3499,19 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
@@ -3841,10 +3520,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -3853,10 +3532,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -3917,19 +3596,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -3938,10 +3617,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -3950,10 +3629,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -3983,19 +3662,19 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11</c:v>
@@ -4004,10 +3683,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
@@ -4016,10 +3695,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -4080,19 +3759,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -4101,10 +3780,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -4113,10 +3792,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -4146,19 +3825,19 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
@@ -4167,10 +3846,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8</c:v>
@@ -4179,10 +3858,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -4243,19 +3922,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -4264,10 +3943,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -4276,10 +3955,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -4309,19 +3988,19 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18</c:v>
@@ -4330,10 +4009,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
@@ -4406,19 +4085,19 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sweden</c:v>
@@ -4427,10 +4106,10 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Germany</c:v>
@@ -4439,10 +4118,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>China</c:v>
@@ -4472,19 +4151,19 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>24</c:v>
@@ -4493,10 +4172,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>11</c:v>
@@ -4525,6 +4204,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD4E-F848-9990-B30373527015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$N$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$N$62:$N$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49A5-594C-9693-80E0DEA28A21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4613,7 +4456,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6191,10 +6034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6234,22 +6077,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81554</v>
+        <v>81589</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3312</v>
+        <v>3318</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.841269841269842</v>
+        <v>58.866522366522368</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.3896103896103895</v>
+        <v>2.393939393939394</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6259,22 +6102,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>110574</v>
+        <v>115242</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1828.2738095238096</v>
+        <v>1905.4563492063494</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>217.50992063492063</v>
+        <v>230.0760582010582</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6284,22 +6127,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>104118</v>
+        <v>112065</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>2231.4187741105875</v>
+        <v>2401.735962280326</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>201.17873981997431</v>
+        <v>221.77453921988857</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -6309,24 +6152,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>215175</v>
+        <v>245066</v>
       </c>
       <c r="C5" s="2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2">
-        <v>5110</v>
+        <v>6075</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>657.62530562347195</v>
+        <v>748.97921760391205</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>15.617359413202935</v>
+        <v>18.566625916870418</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6336,22 +6179,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>77981</v>
+        <v>84794</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>941.91327455006638</v>
+        <v>1024.2058219591738</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>11.24531948302935</v>
+        <v>13.371180094214276</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6361,22 +6204,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>47593</v>
+        <v>50468</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3036</v>
+        <v>3160</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>586.40956136027603</v>
+        <v>621.83341547560372</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>37.4075899457861</v>
+        <v>38.935436175455891</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6386,22 +6229,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>56989</v>
+        <v>59105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>850.70906105388872</v>
+        <v>882.29586505448583</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>60.188087774294672</v>
+        <v>80.414987311539036</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6411,24 +6254,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9976</v>
+        <v>10062</v>
       </c>
       <c r="C9" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>193.82164367592773</v>
+        <v>195.49251991451331</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.2834660967553915</v>
+        <v>3.3806100641150185</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6438,22 +6281,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>17768</v>
+        <v>18827</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2073.278879813302</v>
+        <v>2196.8494749124852</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>56.942823803967329</v>
+        <v>62.543757292882148</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6463,22 +6306,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>29474</v>
+        <v>33718</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>443.61830222757379</v>
+        <v>507.49548464780253</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>35.400361228175797</v>
+        <v>43.96447922937989</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6488,22 +6331,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>13614</v>
+        <v>14697</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1173</v>
+        <v>1339</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>792.43306169965081</v>
+        <v>855.4714784633295</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>68.277066356228175</v>
+        <v>77.939464493597214</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6513,22 +6356,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>10711</v>
+        <v>11129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1214.3990929705215</v>
+        <v>1261.7913832199547</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>16.553287981859409</v>
+        <v>17.913832199546484</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6538,22 +6381,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>13964</v>
+        <v>15348</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>828</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1224.9122807017543</v>
+        <v>1346.3157894736842</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>72.631578947368425</v>
+        <v>88.68421052631578</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6563,22 +6406,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4877</v>
+        <v>5147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>908.53204172876303</v>
+        <v>958.83010432190758</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>8.1967213114754092</v>
+        <v>9.3144560357675115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6586,121 +6429,119 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>4947</v>
+        <v>5568</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>488.83399209486169</v>
+        <v>550.19762845849812</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>23.616600790513836</v>
+        <v>30.434782608695656</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>9731</v>
+        <v>11283</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>258.87204043628623</v>
+        <v>300.15961691939344</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>3.4317637669592975</v>
+        <v>4.6022878425113056</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1065</v>
+        <v>1161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>21.703688608110863</v>
+        <v>23.660077440391277</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.34644385571632363</v>
+        <v>0.38720195638883226</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>3107</v>
+        <v>3386</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>554.82142857142856</v>
+        <v>604.64285714285722</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>18.571428571428573</v>
+        <v>21.964285714285715</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>6931</v>
-      </c>
-      <c r="C20" s="2">
-        <v>51</v>
-      </c>
+        <v>8044</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>33.115145723841373</v>
+        <v>38.432871476349732</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>1.1657907310081221</v>
+        <v>1.5480172001911132</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6709,7 +6550,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6718,7 +6559,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6727,14 +6568,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6774,8 +6615,11 @@
       <c r="M26" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="N26" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -6815,8 +6659,11 @@
       <c r="M27">
         <v>2231</v>
       </c>
+      <c r="N27">
+        <v>2402</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -6856,8 +6703,11 @@
       <c r="M28">
         <v>2073</v>
       </c>
+      <c r="N28">
+        <v>2197</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6897,8 +6747,11 @@
       <c r="M29" s="5">
         <v>1828</v>
       </c>
+      <c r="N29" s="5">
+        <v>1905</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -6938,8 +6791,11 @@
       <c r="M30">
         <v>1225</v>
       </c>
+      <c r="N30">
+        <v>1346</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -6979,8 +6835,11 @@
       <c r="M31">
         <v>1214</v>
       </c>
+      <c r="N31">
+        <v>1262</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -7020,8 +6879,11 @@
       <c r="M32">
         <v>942</v>
       </c>
+      <c r="N32">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -7061,8 +6923,11 @@
       <c r="M33">
         <v>909</v>
       </c>
+      <c r="N33">
+        <v>959</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -7102,8 +6967,11 @@
       <c r="M34">
         <v>851</v>
       </c>
+      <c r="N34">
+        <v>882</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7143,8 +7011,11 @@
       <c r="M35">
         <v>792</v>
       </c>
+      <c r="N35">
+        <v>855</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -7184,8 +7055,11 @@
       <c r="M36">
         <v>658</v>
       </c>
+      <c r="N36">
+        <v>749</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -7225,8 +7099,11 @@
       <c r="M37">
         <v>586</v>
       </c>
+      <c r="N37">
+        <v>622</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -7266,8 +7143,11 @@
       <c r="M38">
         <v>555</v>
       </c>
+      <c r="N38">
+        <v>605</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -7307,8 +7187,11 @@
       <c r="M39">
         <v>489</v>
       </c>
+      <c r="N39">
+        <v>550</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -7348,8 +7231,11 @@
       <c r="M40">
         <v>444</v>
       </c>
+      <c r="N40">
+        <v>507</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -7389,8 +7275,11 @@
       <c r="M41">
         <v>259</v>
       </c>
+      <c r="N41">
+        <v>300</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -7430,8 +7319,11 @@
       <c r="M42">
         <v>194</v>
       </c>
+      <c r="N42">
+        <v>195</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -7471,8 +7363,11 @@
       <c r="M43" s="5">
         <v>59</v>
       </c>
+      <c r="N43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -7512,8 +7407,11 @@
       <c r="M44">
         <v>33</v>
       </c>
+      <c r="N44">
+        <v>38</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -7553,8 +7451,11 @@
       <c r="M45">
         <v>22</v>
       </c>
+      <c r="N45">
+        <v>24</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -7594,8 +7495,11 @@
       <c r="M61" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="N61" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -7635,8 +7539,11 @@
       <c r="M62">
         <v>218</v>
       </c>
+      <c r="N62">
+        <v>230</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -7676,8 +7583,11 @@
       <c r="M63">
         <v>201</v>
       </c>
+      <c r="N63">
+        <v>222</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -7717,90 +7627,99 @@
       <c r="M64">
         <v>73</v>
       </c>
+      <c r="N64">
+        <v>89</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5">
-        <v>7.9161816065192081</v>
+        <v>8.3893118375876998</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <v>16</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
       <c r="H65">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I65">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J65">
+        <v>39</v>
+      </c>
+      <c r="K65">
         <v>45</v>
       </c>
-      <c r="K65">
-        <v>50</v>
-      </c>
       <c r="L65">
+        <v>53</v>
+      </c>
+      <c r="M65">
         <v>60</v>
       </c>
-      <c r="M65">
-        <v>68</v>
+      <c r="N65">
+        <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B66" s="5">
-        <v>8.3893118375876998</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>16</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I66">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J66">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L66">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M66">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="N66">
+        <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -7840,90 +7759,99 @@
       <c r="M67">
         <v>57</v>
       </c>
+      <c r="N67">
+        <v>63</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3.5069235400361229</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>5</v>
       </c>
-      <c r="B68" s="5">
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>15</v>
+      </c>
+      <c r="J68">
+        <v>18</v>
+      </c>
+      <c r="K68">
+        <v>21</v>
+      </c>
+      <c r="L68">
+        <v>27</v>
+      </c>
+      <c r="M68">
+        <v>35</v>
+      </c>
+      <c r="N68">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="5">
         <v>19.172005914243471</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>21</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>22</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>24</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>26</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>28</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>29</v>
       </c>
-      <c r="I68">
+      <c r="I69">
         <v>31</v>
       </c>
-      <c r="J68">
+      <c r="J69">
         <v>33</v>
       </c>
-      <c r="K68">
+      <c r="K69">
         <v>34</v>
       </c>
-      <c r="L68">
+      <c r="L69">
         <v>36</v>
       </c>
-      <c r="M68">
+      <c r="M69">
         <v>37</v>
       </c>
+      <c r="N69">
+        <v>39</v>
+      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="5">
-        <v>3.5069235400361229</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69">
-        <v>9</v>
-      </c>
-      <c r="H69">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>15</v>
-      </c>
-      <c r="J69">
-        <v>18</v>
-      </c>
-      <c r="K69">
-        <v>21</v>
-      </c>
-      <c r="L69">
-        <v>27</v>
-      </c>
-      <c r="M69">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7963,8 +7891,11 @@
       <c r="M70">
         <v>24</v>
       </c>
+      <c r="N70">
+        <v>30</v>
+      </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -8004,90 +7935,99 @@
       <c r="M71">
         <v>19</v>
       </c>
+      <c r="N71">
+        <v>22</v>
+      </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B72" s="5">
-        <v>0.90702947845804982</v>
+        <v>0.91992665036674814</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
         <v>6</v>
       </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-      <c r="I72">
+      <c r="J72">
         <v>8</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>10</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>12</v>
       </c>
-      <c r="L72">
-        <v>15</v>
-      </c>
       <c r="M72">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="N72">
+        <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B73" s="5">
-        <v>0.91992665036674814</v>
+        <v>0.90702947845804982</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="N73">
+        <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -8127,8 +8067,11 @@
       <c r="M74">
         <v>11</v>
       </c>
+      <c r="N74">
+        <v>13</v>
+      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -8168,40 +8111,43 @@
       <c r="M75">
         <v>8</v>
       </c>
+      <c r="N75">
+        <v>9</v>
+      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B76" s="5">
-        <v>1.9817369341363902</v>
+        <v>0.50545357807927638</v>
       </c>
       <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="D76">
+      <c r="J76">
         <v>2</v>
       </c>
-      <c r="E76">
+      <c r="K76">
         <v>2</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -8209,40 +8155,43 @@
       <c r="M76">
         <v>3</v>
       </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B77" s="5">
-        <v>0.50545357807927638</v>
+        <v>1.9817369341363902</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -8250,8 +8199,11 @@
       <c r="M77">
         <v>3</v>
       </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8291,8 +8243,11 @@
       <c r="M78">
         <v>2</v>
       </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -8332,8 +8287,11 @@
       <c r="M79">
         <v>1</v>
       </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -8373,10 +8331,13 @@
       <c r="M80">
         <v>0</v>
       </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:M80">
-    <sortCondition descending="1" ref="M62:M80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:N80">
+    <sortCondition descending="1" ref="N62:N80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -8417,19 +8378,19 @@
     <hyperlink ref="A78" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A73" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A72" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A68" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
-    <hyperlink ref="A66" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A76" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A69" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
+    <hyperlink ref="A77" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
-    <hyperlink ref="A69" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A65" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
-    <hyperlink ref="A72" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
+    <hyperlink ref="A68" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
+    <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A73" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A64" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
     <hyperlink ref="A70" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
-    <hyperlink ref="A77" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
+    <hyperlink ref="A76" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A799B94C-23AD-9E4D-9555-3DFF1D963066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8C0115-614D-2E44-89F1-8EA8E15B967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>China</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>2 April</t>
+  </si>
+  <si>
+    <t>3 April</t>
   </si>
 </sst>
 </file>
@@ -6034,10 +6037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7455,7 +7458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -7498,8 +7501,11 @@
       <c r="N61" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="O61" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -7543,7 +7549,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/git-demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8C0115-614D-2E44-89F1-8EA8E15B967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2803D203-BD7E-C84F-AC11-D33962FB8815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>China</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>3 April</t>
+  </si>
+  <si>
+    <t>4 April</t>
   </si>
 </sst>
 </file>
@@ -376,16 +379,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -394,10 +397,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -426,6 +429,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>546.42091727389629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.81680280046669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>885.87962962962968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.83818480370206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>339.22902494331066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270.12924266215725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403.12965722801783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211.35040745052387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>253.94282897979301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.328544825751528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.95395375947155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.447330447330444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9942938659058487</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -476,16 +540,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -494,10 +558,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -526,6 +590,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>613.00900128589808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872.11201866977831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>977.81084656084658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405.89569160997729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>421.5722801788375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -576,16 +701,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -594,10 +719,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -626,6 +751,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -676,16 +862,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -694,10 +880,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -726,6 +912,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -776,16 +1023,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -794,10 +1041,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -842,16 +1089,16 @@
                   <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>634</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>373</c:v>
@@ -860,10 +1107,10 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>250</c:v>
@@ -937,16 +1184,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -955,10 +1202,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1003,16 +1250,16 @@
                   <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>783</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>531</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>433</c:v>
@@ -1021,10 +1268,10 @@
                   <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>281</c:v>
@@ -1100,16 +1347,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1118,10 +1365,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1166,16 +1413,16 @@
                   <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>868</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>614</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>501</c:v>
@@ -1184,10 +1431,10 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>371</c:v>
@@ -1263,16 +1510,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1281,10 +1528,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1329,16 +1576,16 @@
                   <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>928</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>697</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>568</c:v>
@@ -1347,10 +1594,10 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>341</c:v>
@@ -1426,16 +1673,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1444,10 +1691,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1492,16 +1739,16 @@
                   <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>632</c:v>
@@ -1510,10 +1757,10 @@
                   <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>366</c:v>
@@ -1589,16 +1836,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1607,10 +1854,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1655,16 +1902,16 @@
                   <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>665</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>624</c:v>
@@ -1673,10 +1920,10 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>398</c:v>
@@ -1752,16 +1999,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1770,10 +2017,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1818,16 +2065,16 @@
                   <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1154</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>867</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>733</c:v>
@@ -1836,10 +2083,10 @@
                   <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>438</c:v>
@@ -1915,16 +2162,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1933,10 +2180,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1981,16 +2228,16 @@
                   <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1214</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>942</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>792</c:v>
@@ -1999,10 +2246,10 @@
                   <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>489</c:v>
@@ -2079,16 +2326,16 @@
                   <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2097,10 +2344,10 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2145,16 +2392,16 @@
                   <c:v>1346</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1262</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>882</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>855</c:v>
@@ -2163,10 +2410,10 @@
                   <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>550</c:v>
@@ -2195,6 +2442,334 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F5C6-A949-A65C-BC20F3E0365B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$O$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$O$27:$O$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5C6-A949-A65C-BC20F3E0365B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$P$27:$P$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A9B-4F49-9A10-922792B45746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2283,7 +2858,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2540,10 +3115,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -2602,6 +3177,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$62:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>29.532790398628379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.778439153439152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8771929824561404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3893118375876998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9161816065192081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3348891481913654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5069235400361229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.172005914243471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90702947845804982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0146152917018962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3040238450074515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50545357807927638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9817369341363902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2640,10 +3276,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -2702,6 +3338,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$62:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.633947706815263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.542328042328052</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2740,10 +3437,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -2802,6 +3499,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$62:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2840,10 +3598,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -2902,6 +3660,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$62:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2940,10 +3759,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3006,10 +3825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -3101,10 +3920,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3167,10 +3986,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19</c:v>
@@ -3264,10 +4083,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3330,10 +4149,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
@@ -3427,10 +4246,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3493,10 +4312,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31</c:v>
@@ -3590,10 +4409,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3656,10 +4475,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38</c:v>
@@ -3753,10 +4572,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3819,10 +4638,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -3916,10 +4735,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -3982,10 +4801,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>62</c:v>
@@ -4079,10 +4898,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -4145,10 +4964,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>73</c:v>
@@ -4243,10 +5062,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Belgium</c:v>
@@ -4309,10 +5128,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>89</c:v>
@@ -4371,6 +5190,334 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49A5-594C-9693-80E0DEA28A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$O$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$O$62:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49A5-594C-9693-80E0DEA28A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$P$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$P$62:$P$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-745C-0240-9237-39A9863FA866}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4459,7 +5606,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5667,16 +6814,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>793174</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123537</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>184728</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5703,16 +6850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>773545</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115453</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>318653</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>491835</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6037,10 +7184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6080,22 +7227,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81589</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>81669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
       <c r="D2" s="2">
-        <v>3318</v>
+        <v>3329</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.866522366522368</v>
+        <v>58.924242424242422</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.393939393939394</v>
+        <v>2.4018759018759019</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6105,22 +7254,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>115242</v>
+        <v>124632</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>13915</v>
+        <v>15362</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>1905.4563492063494</v>
+        <v>2060.7142857142858</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>230.0760582010582</v>
+        <v>254.00132275132276</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6130,22 +7279,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>112065</v>
+        <v>126168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>10348</v>
+        <v>11947</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>2401.735962280326</v>
+        <v>2703.9862837548221</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>221.77453921988857</v>
+        <v>256.0437205315045</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -6155,24 +7304,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>245066</v>
-      </c>
-      <c r="C5" s="2">
-        <v>189</v>
-      </c>
+        <v>311357</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>6075</v>
+        <v>8452</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>748.97921760391205</v>
+        <v>951.58007334963327</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>18.566625916870418</v>
+        <v>25.831295843520785</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6182,22 +7329,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>84794</v>
+        <v>96092</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>1107</v>
+        <v>1444</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1024.2058219591738</v>
+        <v>1160.6715786930788</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>13.371180094214276</v>
+        <v>17.441720014494503</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6207,22 +7354,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>50468</v>
+        <v>55743</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3160</v>
+        <v>3452</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>621.83341547560372</v>
+        <v>686.82848693937899</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>38.935436175455891</v>
+        <v>42.533267619517005</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6232,22 +7379,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>59105</v>
+        <v>89953</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>5387</v>
+        <v>7560</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>882.29586505448583</v>
+        <v>1342.7825048514705</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>80.414987311539036</v>
+        <v>112.85266457680251</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6257,24 +7404,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10062</v>
+        <v>10237</v>
       </c>
       <c r="C9" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>195.49251991451331</v>
+        <v>198.89255877210024</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.3806100641150185</v>
+        <v>3.5554692053623471</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6284,22 +7431,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>18827</v>
+        <v>20505</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>536</v>
+        <v>666</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2196.8494749124852</v>
+        <v>2392.648774795799</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>62.543757292882148</v>
+        <v>77.712952158693113</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6309,22 +7456,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>33718</v>
+        <v>41903</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>2921</v>
+        <v>4313</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>507.49548464780253</v>
+        <v>630.68934376881396</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>43.96447922937989</v>
+        <v>64.915713425647198</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6334,22 +7481,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>14697</v>
+        <v>16627</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1339</v>
+        <v>1651</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>855.4714784633295</v>
+        <v>967.81140861466827</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>77.939464493597214</v>
+        <v>96.100116414435391</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6359,22 +7506,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>11129</v>
+        <v>11781</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1261.7913832199547</v>
+        <v>1335.7142857142858</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>17.913832199546484</v>
+        <v>21.088435374149658</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6384,22 +7531,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>15348</v>
+        <v>18431</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>1011</v>
+        <v>1283</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1346.3157894736842</v>
+        <v>1616.7543859649122</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>88.68421052631578</v>
+        <v>112.54385964912281</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6409,22 +7556,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5147</v>
+        <v>5550</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>958.83010432190758</v>
+        <v>1033.9046199701936</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>9.3144560357675115</v>
+        <v>11.549925484351713</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6432,119 +7579,119 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>5568</v>
+        <v>6443</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>550.19762845849812</v>
+        <v>636.66007905138349</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>30.434782608695656</v>
+        <v>36.857707509881429</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>11283</v>
+        <v>13912</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>300.15961691939344</v>
+        <v>370.09843043362594</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>4.6022878425113056</v>
+        <v>6.1452513966480442</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1161</v>
+        <v>1406</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>23.660077440391277</v>
+        <v>28.652944772773587</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.38720195638883226</v>
+        <v>0.65212961076013853</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>3386</v>
+        <v>4077</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>604.64285714285722</v>
+        <v>728.03571428571433</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>21.964285714285715</v>
+        <v>28.750000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>8044</v>
+        <v>10360</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>38.432871476349732</v>
+        <v>49.498327759197323</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>1.5480172001911132</v>
+        <v>2.1261347348303867</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6553,7 +7700,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6562,7 +7709,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6571,14 +7718,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6621,8 +7768,14 @@
       <c r="N26" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="O26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -6665,8 +7818,14 @@
       <c r="N27">
         <v>2402</v>
       </c>
+      <c r="O27">
+        <v>2555</v>
+      </c>
+      <c r="P27">
+        <v>2704</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -6709,8 +7868,14 @@
       <c r="N28">
         <v>2197</v>
       </c>
+      <c r="O28">
+        <v>2288</v>
+      </c>
+      <c r="P28">
+        <v>2393</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6753,8 +7918,14 @@
       <c r="N29" s="5">
         <v>1905</v>
       </c>
+      <c r="O29" s="5">
+        <v>1981</v>
+      </c>
+      <c r="P29" s="5">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -6797,184 +7968,214 @@
       <c r="N30">
         <v>1346</v>
       </c>
+      <c r="O30">
+        <v>1471</v>
+      </c>
+      <c r="P30">
+        <v>1617</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>215.83818480370206</v>
+      </c>
+      <c r="C31" s="5">
+        <v>239</v>
+      </c>
+      <c r="D31">
+        <v>296</v>
+      </c>
+      <c r="E31">
+        <v>333</v>
+      </c>
+      <c r="F31">
+        <v>377</v>
+      </c>
+      <c r="G31">
+        <v>435</v>
+      </c>
+      <c r="H31">
+        <v>492</v>
+      </c>
+      <c r="I31">
+        <v>561</v>
+      </c>
+      <c r="J31">
+        <v>600</v>
+      </c>
+      <c r="K31">
+        <v>665</v>
+      </c>
+      <c r="L31">
+        <v>778</v>
+      </c>
+      <c r="M31">
+        <v>851</v>
+      </c>
+      <c r="N31">
+        <v>882</v>
+      </c>
+      <c r="O31">
+        <v>960</v>
+      </c>
+      <c r="P31">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5">
         <v>339.22902494331066</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="5">
         <v>405.89569160997729</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>507</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>599</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>634</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>783</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>868</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>928</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>996</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>1090</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>1154</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>1214</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>1262</v>
       </c>
+      <c r="O32">
+        <v>1307</v>
+      </c>
+      <c r="P32">
+        <v>1336</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>270.12924266215725</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>300</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>351</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>398</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>451</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>531</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>614</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>697</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>750</v>
-      </c>
-      <c r="K32">
-        <v>828</v>
-      </c>
-      <c r="L32">
-        <v>867</v>
-      </c>
-      <c r="M32">
-        <v>942</v>
-      </c>
-      <c r="N32">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="5">
-        <v>403.12965722801783</v>
-      </c>
-      <c r="C33" s="5">
-        <v>421.5722801788375</v>
-      </c>
-      <c r="D33">
-        <v>474</v>
-      </c>
-      <c r="E33">
-        <v>518</v>
-      </c>
-      <c r="F33">
-        <v>571</v>
-      </c>
-      <c r="G33">
-        <v>628</v>
-      </c>
-      <c r="H33">
-        <v>628</v>
-      </c>
-      <c r="I33">
-        <v>748</v>
-      </c>
-      <c r="J33">
-        <v>758</v>
       </c>
       <c r="K33">
         <v>828</v>
       </c>
       <c r="L33">
+        <v>867</v>
+      </c>
+      <c r="M33">
+        <v>942</v>
+      </c>
+      <c r="N33">
+        <v>1024</v>
+      </c>
+      <c r="O33">
+        <v>1101</v>
+      </c>
+      <c r="P33">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="5">
+        <v>403.12965722801783</v>
+      </c>
+      <c r="C34" s="5">
+        <v>421.5722801788375</v>
+      </c>
+      <c r="D34">
+        <v>474</v>
+      </c>
+      <c r="E34">
+        <v>518</v>
+      </c>
+      <c r="F34">
+        <v>571</v>
+      </c>
+      <c r="G34">
+        <v>628</v>
+      </c>
+      <c r="H34">
+        <v>628</v>
+      </c>
+      <c r="I34">
+        <v>748</v>
+      </c>
+      <c r="J34">
+        <v>758</v>
+      </c>
+      <c r="K34">
+        <v>828</v>
+      </c>
+      <c r="L34">
         <v>865</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>909</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>959</v>
       </c>
+      <c r="O34">
+        <v>1000</v>
+      </c>
+      <c r="P34">
+        <v>1034</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5">
-        <v>215.83818480370206</v>
-      </c>
-      <c r="C34" s="5">
-        <v>239</v>
-      </c>
-      <c r="D34">
-        <v>296</v>
-      </c>
-      <c r="E34">
-        <v>333</v>
-      </c>
-      <c r="F34">
-        <v>377</v>
-      </c>
-      <c r="G34">
-        <v>435</v>
-      </c>
-      <c r="H34">
-        <v>492</v>
-      </c>
-      <c r="I34">
-        <v>561</v>
-      </c>
-      <c r="J34">
-        <v>600</v>
-      </c>
-      <c r="K34">
-        <v>665</v>
-      </c>
-      <c r="L34">
-        <v>778</v>
-      </c>
-      <c r="M34">
-        <v>851</v>
-      </c>
-      <c r="N34">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7017,8 +8218,14 @@
       <c r="N35">
         <v>855</v>
       </c>
+      <c r="O35">
+        <v>915</v>
+      </c>
+      <c r="P35">
+        <v>968</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -7061,96 +8268,114 @@
       <c r="N36">
         <v>749</v>
       </c>
+      <c r="O36">
+        <v>847</v>
+      </c>
+      <c r="P36">
+        <v>952</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="5">
+        <v>251</v>
+      </c>
+      <c r="C37" s="5">
+        <v>262</v>
+      </c>
+      <c r="D37">
+        <v>282</v>
+      </c>
+      <c r="E37">
+        <v>284</v>
+      </c>
+      <c r="F37">
+        <v>308</v>
+      </c>
+      <c r="G37">
+        <v>335</v>
+      </c>
+      <c r="H37">
+        <v>365</v>
+      </c>
+      <c r="I37">
+        <v>393</v>
+      </c>
+      <c r="J37">
+        <v>428</v>
+      </c>
+      <c r="K37">
+        <v>460</v>
+      </c>
+      <c r="L37">
+        <v>511</v>
+      </c>
+      <c r="M37">
+        <v>555</v>
+      </c>
+      <c r="N37">
+        <v>605</v>
+      </c>
+      <c r="O37">
+        <v>671</v>
+      </c>
+      <c r="P37">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>253.94282897979301</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <v>267</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>284</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>306</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>333</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>362</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>398</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>436</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>472</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>511</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>550</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>586</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>622</v>
       </c>
+      <c r="O38">
+        <v>655</v>
+      </c>
+      <c r="P38">
+        <v>687</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="5">
-        <v>251</v>
-      </c>
-      <c r="C38" s="5">
-        <v>262</v>
-      </c>
-      <c r="D38">
-        <v>282</v>
-      </c>
-      <c r="E38">
-        <v>284</v>
-      </c>
-      <c r="F38">
-        <v>308</v>
-      </c>
-      <c r="G38">
-        <v>335</v>
-      </c>
-      <c r="H38">
-        <v>365</v>
-      </c>
-      <c r="I38">
-        <v>393</v>
-      </c>
-      <c r="J38">
-        <v>428</v>
-      </c>
-      <c r="K38">
-        <v>460</v>
-      </c>
-      <c r="L38">
-        <v>511</v>
-      </c>
-      <c r="M38">
-        <v>555</v>
-      </c>
-      <c r="N38">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -7193,8 +8418,14 @@
       <c r="N39">
         <v>550</v>
       </c>
+      <c r="O39">
+        <v>606</v>
+      </c>
+      <c r="P39">
+        <v>637</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -7237,8 +8468,14 @@
       <c r="N40">
         <v>507</v>
       </c>
+      <c r="O40">
+        <v>574</v>
+      </c>
+      <c r="P40">
+        <v>631</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -7281,8 +8518,14 @@
       <c r="N41">
         <v>300</v>
       </c>
+      <c r="O41">
+        <v>329</v>
+      </c>
+      <c r="P41">
+        <v>370</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -7325,8 +8568,14 @@
       <c r="N42">
         <v>195</v>
       </c>
+      <c r="O42">
+        <v>197</v>
+      </c>
+      <c r="P42">
+        <v>199</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -7369,8 +8618,14 @@
       <c r="N43" s="5">
         <v>59</v>
       </c>
+      <c r="O43" s="5">
+        <v>59</v>
+      </c>
+      <c r="P43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -7413,8 +8668,14 @@
       <c r="N44">
         <v>38</v>
       </c>
+      <c r="O44">
+        <v>44</v>
+      </c>
+      <c r="P44">
+        <v>49</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -7457,8 +8718,14 @@
       <c r="N45">
         <v>24</v>
       </c>
+      <c r="O45">
+        <v>26</v>
+      </c>
+      <c r="P45">
+        <v>29</v>
+      </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -7504,96 +8771,111 @@
       <c r="O61" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="P61" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="5">
+        <v>29.532790398628379</v>
+      </c>
+      <c r="C62" s="6">
+        <v>37.633947706815263</v>
+      </c>
+      <c r="D62">
+        <v>47</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>72</v>
+      </c>
+      <c r="G62">
+        <v>94</v>
+      </c>
+      <c r="H62">
+        <v>110</v>
+      </c>
+      <c r="I62">
+        <v>128</v>
+      </c>
+      <c r="J62">
+        <v>146</v>
+      </c>
+      <c r="K62">
+        <v>165</v>
+      </c>
+      <c r="L62">
+        <v>181</v>
+      </c>
+      <c r="M62">
+        <v>201</v>
+      </c>
+      <c r="N62">
+        <v>222</v>
+      </c>
+      <c r="O62">
+        <v>240</v>
+      </c>
+      <c r="P62">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B63" s="5">
         <v>79.778439153439152</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C63" s="6">
         <v>90.542328042328052</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>100</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>113</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>124</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>136</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>151</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>166</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>178</v>
       </c>
-      <c r="K62">
+      <c r="K63">
         <v>192</v>
       </c>
-      <c r="L62">
+      <c r="L63">
         <v>205</v>
       </c>
-      <c r="M62">
+      <c r="M63">
         <v>218</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <v>230</v>
       </c>
+      <c r="O63">
+        <v>243</v>
+      </c>
+      <c r="P63">
+        <v>254</v>
+      </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="5">
-        <v>29.532790398628379</v>
-      </c>
-      <c r="C63" s="6">
-        <v>37.633947706815263</v>
-      </c>
-      <c r="D63">
-        <v>47</v>
-      </c>
-      <c r="E63">
-        <v>60</v>
-      </c>
-      <c r="F63">
-        <v>72</v>
-      </c>
-      <c r="G63">
-        <v>94</v>
-      </c>
-      <c r="H63">
-        <v>110</v>
-      </c>
-      <c r="I63">
-        <v>128</v>
-      </c>
-      <c r="J63">
-        <v>146</v>
-      </c>
-      <c r="K63">
-        <v>165</v>
-      </c>
-      <c r="L63">
-        <v>181</v>
-      </c>
-      <c r="M63">
-        <v>201</v>
-      </c>
-      <c r="N63">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -7636,8 +8918,14 @@
       <c r="N64">
         <v>89</v>
       </c>
+      <c r="O64">
+        <v>100</v>
+      </c>
+      <c r="P64">
+        <v>113</v>
+      </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -7680,8 +8968,14 @@
       <c r="N65">
         <v>80</v>
       </c>
+      <c r="O65">
+        <v>97</v>
+      </c>
+      <c r="P65">
+        <v>113</v>
+      </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -7724,8 +9018,14 @@
       <c r="N66">
         <v>78</v>
       </c>
+      <c r="O66">
+        <v>87</v>
+      </c>
+      <c r="P66">
+        <v>96</v>
+      </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -7768,8 +9068,14 @@
       <c r="N67">
         <v>63</v>
       </c>
+      <c r="O67">
+        <v>69</v>
+      </c>
+      <c r="P67">
+        <v>78</v>
+      </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -7812,8 +9118,14 @@
       <c r="N68">
         <v>44</v>
       </c>
+      <c r="O68">
+        <v>54</v>
+      </c>
+      <c r="P68">
+        <v>65</v>
+      </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -7856,8 +9168,14 @@
       <c r="N69">
         <v>39</v>
       </c>
+      <c r="O69">
+        <v>41</v>
+      </c>
+      <c r="P69">
+        <v>43</v>
+      </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7900,8 +9218,14 @@
       <c r="N70">
         <v>30</v>
       </c>
+      <c r="O70">
+        <v>35</v>
+      </c>
+      <c r="P70">
+        <v>37</v>
+      </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -7944,8 +9268,14 @@
       <c r="N71">
         <v>22</v>
       </c>
+      <c r="O71">
+        <v>25</v>
+      </c>
+      <c r="P71">
+        <v>29</v>
+      </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -7988,8 +9318,16 @@
       <c r="N72">
         <v>19</v>
       </c>
+      <c r="O72">
+        <v>23</v>
+      </c>
+      <c r="P72" s="5">
+        <v>26</v>
+      </c>
+      <c r="AD72" s="5"/>
+      <c r="AR72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -8032,8 +9370,14 @@
       <c r="N73">
         <v>18</v>
       </c>
+      <c r="O73">
+        <v>19</v>
+      </c>
+      <c r="P73">
+        <v>21</v>
+      </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -8076,8 +9420,14 @@
       <c r="N74">
         <v>13</v>
       </c>
+      <c r="O74">
+        <v>15</v>
+      </c>
+      <c r="P74">
+        <v>17</v>
+      </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -8120,8 +9470,14 @@
       <c r="N75">
         <v>9</v>
       </c>
+      <c r="O75">
+        <v>11</v>
+      </c>
+      <c r="P75">
+        <v>12</v>
+      </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -8164,8 +9520,14 @@
       <c r="N76">
         <v>5</v>
       </c>
+      <c r="O76">
+        <v>6</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -8208,8 +9570,14 @@
       <c r="N77">
         <v>3</v>
       </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8252,8 +9620,14 @@
       <c r="N78">
         <v>2</v>
       </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -8296,8 +9670,14 @@
       <c r="N79">
         <v>2</v>
       </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -8340,10 +9720,16 @@
       <c r="N80">
         <v>0</v>
       </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:N80">
-    <sortCondition descending="1" ref="N62:N80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:P80">
+    <sortCondition descending="1" ref="P62:P80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -8369,21 +9755,21 @@
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A36" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
-    <hyperlink ref="A32" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A37" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
-    <hyperlink ref="A34" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
+    <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
+    <hyperlink ref="A38" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
-    <hyperlink ref="A31" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
+    <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A33" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A34" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A78" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
-    <hyperlink ref="A62" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
-    <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
+    <hyperlink ref="A63" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
+    <hyperlink ref="A62" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A72" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A69" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2803D203-BD7E-C84F-AC11-D33962FB8815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448EDB22-3972-8F4D-91D8-39BE37427E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="2160" yWindow="860" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>China</t>
   </si>
@@ -157,12 +157,15 @@
   <si>
     <t>4 April</t>
   </si>
+  <si>
+    <t>5 April</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +196,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +233,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,6 +248,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -403,10 +415,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -469,10 +481,10 @@
                   <c:v>253.94282897979301</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>174.901185770751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>35.328544825751528</c:v>
@@ -564,10 +576,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -630,10 +642,10 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>38</c:v>
@@ -725,10 +737,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -791,10 +803,10 @@
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>54</c:v>
@@ -886,10 +898,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -952,10 +964,10 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>69</c:v>
@@ -1047,10 +1059,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1113,10 +1125,10 @@
                   <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>88</c:v>
@@ -1208,10 +1220,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1274,10 +1286,10 @@
                   <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>108</c:v>
@@ -1371,10 +1383,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1437,10 +1449,10 @@
                   <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>125</c:v>
@@ -1534,10 +1546,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1600,10 +1612,10 @@
                   <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>148</c:v>
@@ -1697,10 +1709,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1763,10 +1775,10 @@
                   <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>168</c:v>
@@ -1860,10 +1872,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1926,10 +1938,10 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>198</c:v>
@@ -2023,10 +2035,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2089,10 +2101,10 @@
                   <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>229</c:v>
@@ -2186,10 +2198,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2252,10 +2264,10 @@
                   <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>259</c:v>
@@ -2350,10 +2362,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2416,10 +2428,10 @@
                   <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>300</c:v>
@@ -2514,10 +2526,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2580,10 +2592,10 @@
                   <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>329</c:v>
@@ -2678,10 +2690,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2744,10 +2756,10 @@
                   <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>370</c:v>
@@ -2770,6 +2782,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A9B-4F49-9A10-922792B45746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$Q$27:$Q$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F2-1D4B-805D-75838CA8D2D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5518,6 +5694,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-745C-0240-9237-39A9863FA866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$Q$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$Q$62:$Q$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F9A-6044-8D24-42FC698CD13B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7186,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="Q48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AH73" sqref="AH73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7199,7 +7539,7 @@
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -7222,15 +7562,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81669</v>
+        <v>81639</v>
       </c>
       <c r="C2" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>3329</v>
@@ -7240,7 +7580,7 @@
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.924242424242422</v>
+        <v>58.902597402597401</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
@@ -7249,157 +7589,166 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>124632</v>
+        <v>128948</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2060.7142857142858</v>
+        <v>2132.0767195767198</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>254.00132275132276</v>
+        <v>262.68187830687833</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>126168</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>131646</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.3860000000000001</v>
+      </c>
       <c r="D4" s="2">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>2703.9862837548221</v>
+        <v>2821.3887698242606</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>256.0437205315045</v>
+        <v>270.9172738962709</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>311357</v>
+        <v>336673</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>8452</v>
+        <v>9616</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>951.58007334963327</v>
+        <v>1028.9517114914427</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>25.831295843520785</v>
+        <v>29.388753056234719</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>96092</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>100123</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
       <c r="D6" s="2">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1160.6715786930788</v>
+        <v>1209.3610339412971</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>17.441720014494503</v>
+        <v>19.132745500664331</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>55743</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>60500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.274</v>
+      </c>
       <c r="D7" s="2">
-        <v>3452</v>
+        <v>3739</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>686.82848693937899</v>
+        <v>745.44110399211434</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>42.533267619517005</v>
+        <v>46.069492360768855</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>89953</v>
+        <v>92839</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1342.7825048514705</v>
+        <v>1385.8635617256307</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>112.85266457680251</v>
+        <v>120.58516196447232</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -7425,273 +7774,279 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>20505</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>21282</v>
+      </c>
+      <c r="C10" s="2">
+        <v>182</v>
+      </c>
       <c r="D10" s="2">
-        <v>666</v>
+        <v>734</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2392.648774795799</v>
+        <v>2483.313885647608</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>77.712952158693113</v>
+        <v>85.647607934655767</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>41903</v>
+        <v>47806</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>630.68934376881396</v>
+        <v>719.53642384105967</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>64.915713425647198</v>
+        <v>74.262492474413008</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>16627</v>
+        <v>17851</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1651</v>
+        <v>1766</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>967.81140861466827</v>
+        <v>1039.0570430733412</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>96.100116414435391</v>
+        <v>102.79394644935972</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>11781</v>
+        <v>12051</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1335.7142857142858</v>
+        <v>1366.3265306122448</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>21.088435374149658</v>
+        <v>23.129251700680271</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>18431</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>20814</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.123</v>
+      </c>
       <c r="D14" s="2">
-        <v>1283</v>
+        <v>1632</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1616.7543859649122</v>
+        <v>1825.7894736842104</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>112.54385964912281</v>
+        <v>143.15789473684211</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5550</v>
+        <v>5687</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1033.9046199701936</v>
+        <v>1059.4262295081967</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>11.549925484351713</v>
+        <v>13.226527570789864</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>6443</v>
+        <v>6830</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>636.66007905138349</v>
+        <v>674.901185770751</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>36.857707509881429</v>
+        <v>39.624505928853758</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>13912</v>
+        <v>15512</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>370.09843043362594</v>
+        <v>412.66294227188081</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>6.1452513966480442</v>
+        <v>7.4487895716945989</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1406</v>
+        <v>1485</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>28.652944772773587</v>
+        <v>30.262889749337681</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.65212961076013853</v>
+        <v>0.71326676176890158</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>4077</v>
+        <v>4369</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>728.03571428571433</v>
+        <v>780.17857142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>28.750000000000004</v>
+        <v>31.964285714285715</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>10360</v>
+        <v>11254</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>49.498327759197323</v>
+        <v>53.769708552317248</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>2.1261347348303867</v>
+        <v>2.3268036311514573</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7700,7 +8055,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7709,7 +8064,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7718,14 +8073,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -7774,8 +8129,11 @@
       <c r="P26" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="Q26" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -7824,8 +8182,11 @@
       <c r="P27">
         <v>2704</v>
       </c>
+      <c r="Q27">
+        <v>2821</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -7874,8 +8235,11 @@
       <c r="P28">
         <v>2393</v>
       </c>
+      <c r="Q28">
+        <v>2483</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -7924,8 +8288,11 @@
       <c r="P29" s="5">
         <v>2061</v>
       </c>
+      <c r="Q29" s="5">
+        <v>2132</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -7974,8 +8341,11 @@
       <c r="P30">
         <v>1617</v>
       </c>
+      <c r="Q30">
+        <v>1826</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -8024,8 +8394,11 @@
       <c r="P31">
         <v>1343</v>
       </c>
+      <c r="Q31">
+        <v>1386</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -8074,8 +8447,11 @@
       <c r="P32">
         <v>1336</v>
       </c>
+      <c r="Q32">
+        <v>1366</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8124,8 +8500,11 @@
       <c r="P33">
         <v>1161</v>
       </c>
+      <c r="Q33">
+        <v>1209</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -8174,8 +8553,11 @@
       <c r="P34">
         <v>1034</v>
       </c>
+      <c r="Q34">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -8224,8 +8606,11 @@
       <c r="P35">
         <v>968</v>
       </c>
+      <c r="Q35">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -8274,8 +8659,11 @@
       <c r="P36">
         <v>952</v>
       </c>
+      <c r="Q36">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -8324,8 +8712,11 @@
       <c r="P37">
         <v>728</v>
       </c>
+      <c r="Q37">
+        <v>780</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -8374,108 +8765,117 @@
       <c r="P38">
         <v>687</v>
       </c>
+      <c r="Q38">
+        <v>745</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C39" s="5">
+        <v>86</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>122</v>
+      </c>
+      <c r="F39">
+        <v>198</v>
+      </c>
+      <c r="G39">
+        <v>175</v>
+      </c>
+      <c r="H39">
+        <v>219</v>
+      </c>
+      <c r="I39">
+        <v>257</v>
+      </c>
+      <c r="J39">
+        <v>294</v>
+      </c>
+      <c r="K39">
+        <v>333</v>
+      </c>
+      <c r="L39">
+        <v>379</v>
+      </c>
+      <c r="M39">
+        <v>444</v>
+      </c>
+      <c r="N39">
+        <v>507</v>
+      </c>
+      <c r="O39">
+        <v>574</v>
+      </c>
+      <c r="P39">
+        <v>631</v>
+      </c>
+      <c r="Q39">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5">
         <v>174.901185770751</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C40" s="5">
         <v>191</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>202</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>226</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>250</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>281</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>371</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>341</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>366</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>398</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>438</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>489</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>550</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>606</v>
       </c>
-      <c r="P39">
+      <c r="P40">
         <v>637</v>
       </c>
+      <c r="Q40">
+        <v>675</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C40" s="5">
-        <v>86</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>122</v>
-      </c>
-      <c r="F40">
-        <v>198</v>
-      </c>
-      <c r="G40">
-        <v>175</v>
-      </c>
-      <c r="H40">
-        <v>219</v>
-      </c>
-      <c r="I40">
-        <v>257</v>
-      </c>
-      <c r="J40">
-        <v>294</v>
-      </c>
-      <c r="K40">
-        <v>333</v>
-      </c>
-      <c r="L40">
-        <v>379</v>
-      </c>
-      <c r="M40">
-        <v>444</v>
-      </c>
-      <c r="N40">
-        <v>507</v>
-      </c>
-      <c r="O40">
-        <v>574</v>
-      </c>
-      <c r="P40">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -8524,8 +8924,11 @@
       <c r="P41">
         <v>370</v>
       </c>
+      <c r="Q41">
+        <v>413</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -8574,8 +8977,11 @@
       <c r="P42">
         <v>199</v>
       </c>
+      <c r="Q42">
+        <v>199</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -8624,8 +9030,11 @@
       <c r="P43" s="5">
         <v>59</v>
       </c>
+      <c r="Q43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -8674,8 +9083,11 @@
       <c r="P44">
         <v>49</v>
       </c>
+      <c r="Q44">
+        <v>54</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -8724,8 +9136,11 @@
       <c r="P45">
         <v>29</v>
       </c>
+      <c r="Q45">
+        <v>30</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -8774,8 +9189,11 @@
       <c r="P61" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="Q61" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -8824,8 +9242,11 @@
       <c r="P62">
         <v>256</v>
       </c>
+      <c r="Q62">
+        <v>271</v>
+      </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8874,8 +9295,11 @@
       <c r="P63">
         <v>254</v>
       </c>
+      <c r="Q63">
+        <v>263</v>
+      </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -8923,6 +9347,9 @@
       </c>
       <c r="P64">
         <v>113</v>
+      </c>
+      <c r="Q64">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -8974,6 +9401,9 @@
       <c r="P65">
         <v>113</v>
       </c>
+      <c r="Q65">
+        <v>121</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -9024,6 +9454,9 @@
       <c r="P66">
         <v>96</v>
       </c>
+      <c r="Q66">
+        <v>103</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -9074,6 +9507,9 @@
       <c r="P67">
         <v>78</v>
       </c>
+      <c r="Q67">
+        <v>86</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -9124,6 +9560,9 @@
       <c r="P68">
         <v>65</v>
       </c>
+      <c r="Q68">
+        <v>74</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -9174,6 +9613,9 @@
       <c r="P69">
         <v>43</v>
       </c>
+      <c r="Q69">
+        <v>46</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -9224,6 +9666,9 @@
       <c r="P70">
         <v>37</v>
       </c>
+      <c r="Q70">
+        <v>40</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -9274,6 +9719,9 @@
       <c r="P71">
         <v>29</v>
       </c>
+      <c r="Q71">
+        <v>32</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -9323,6 +9771,9 @@
       </c>
       <c r="P72" s="5">
         <v>26</v>
+      </c>
+      <c r="Q72">
+        <v>29</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -9376,6 +9827,9 @@
       <c r="P73">
         <v>21</v>
       </c>
+      <c r="Q73">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -9426,6 +9880,9 @@
       <c r="P74">
         <v>17</v>
       </c>
+      <c r="Q74">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -9476,6 +9933,9 @@
       <c r="P75">
         <v>12</v>
       </c>
+      <c r="Q75">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -9526,6 +9986,9 @@
       <c r="P76">
         <v>6</v>
       </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -9576,6 +10039,9 @@
       <c r="P77">
         <v>4</v>
       </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -9626,6 +10092,9 @@
       <c r="P78">
         <v>2</v>
       </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -9676,6 +10145,9 @@
       <c r="P79">
         <v>2</v>
       </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -9726,10 +10198,13 @@
       <c r="P80">
         <v>1</v>
       </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:P80">
-    <sortCondition descending="1" ref="P62:P80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:Q80">
+    <sortCondition descending="1" ref="Q62:Q80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -9760,12 +10235,12 @@
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A40" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A39" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A34" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A40" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A78" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A63" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448EDB22-3972-8F4D-91D8-39BE37427E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40752CA-74CF-3C42-BA63-8C9DF44440D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="860" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos COVID19" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,11 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -7526,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH73" sqref="AH73"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7563,80 +7563,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81639</v>
+        <v>81740</v>
       </c>
       <c r="C2" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.902597402597401</v>
+        <v>58.975468975468978</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4018759018759019</v>
+        <v>2.4033189033189033</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>128948</v>
+        <v>132547</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2132.0767195767198</v>
+        <v>2191.5839947089949</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>262.68187830687833</v>
+        <v>273.19775132275134</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>131646</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.3860000000000001</v>
-      </c>
+        <v>136675</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>2821.3887698242606</v>
+        <v>2929.1684526360909</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>270.9172738962709</v>
+        <v>285.91941705957998</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -7645,67 +7643,65 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>336673</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>367385</v>
+      </c>
+      <c r="C5" s="2">
+        <v>381</v>
+      </c>
       <c r="D5" s="2">
-        <v>9616</v>
+        <v>10876</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1028.9517114914427</v>
+        <v>1122.8147921760392</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>29.388753056234719</v>
+        <v>33.239608801955988</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>100123</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9</v>
-      </c>
+        <v>103375</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1209.3610339412971</v>
+        <v>1248.6411402343276</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>19.132745500664331</v>
+        <v>21.862543785481336</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>60500</v>
       </c>
-      <c r="C7" s="2">
-        <v>2.274</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>3739</v>
       </c>
@@ -7724,171 +7720,167 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>92839</v>
+        <v>98010</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1385.8635617256307</v>
+        <v>1463.0541871921184</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>120.58516196447232</v>
+        <v>133.01985370950888</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10237</v>
+        <v>10331</v>
       </c>
       <c r="C9" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>198.89255877210024</v>
+        <v>200.71886535846124</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.5554692053623471</v>
+        <v>3.7303283466096757</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>21282</v>
-      </c>
-      <c r="C10" s="2">
-        <v>182</v>
-      </c>
+        <v>21657</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2483.313885647608</v>
+        <v>2527.0711785297549</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>85.647607934655767</v>
+        <v>89.264877479579923</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>47806</v>
+        <v>51608</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>719.53642384105967</v>
+        <v>776.76098735701385</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>74.262492474413008</v>
+        <v>80.86995785671283</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>17851</v>
+        <v>18803</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1766</v>
+        <v>1867</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1039.0570430733412</v>
+        <v>1094.4703143189756</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>102.79394644935972</v>
+        <v>108.67287543655414</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>12051</v>
+        <v>12297</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1366.3265306122448</v>
+        <v>1394.2176870748299</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>23.129251700680271</v>
+        <v>24.943310657596371</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>20814</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.123</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
         <v>1632</v>
       </c>
@@ -7907,143 +7899,145 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5687</v>
+        <v>5865</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1059.4262295081967</v>
+        <v>1092.5856929955289</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>13.226527570789864</v>
+        <v>14.157973174366616</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>6830</v>
+        <v>7206</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>674.901185770751</v>
+        <v>712.0553359683795</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>39.624505928853758</v>
+        <v>47.134387351778656</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>15512</v>
+        <v>16667</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>412.66294227188081</v>
+        <v>443.38919925512101</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>7.4487895716945989</v>
+        <v>8.5927108273476982</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1485</v>
+        <v>1579</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>30.262889749337681</v>
+        <v>32.178520480945586</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.71326676176890158</v>
+        <v>0.93743631546769923</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>4369</v>
+        <v>4681</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>780.17857142857144</v>
+        <v>835.89285714285722</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>31.964285714285715</v>
+        <v>33.392857142857146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>11254</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>12232</v>
+      </c>
+      <c r="C20" s="2">
+        <v>49</v>
+      </c>
       <c r="D20" s="2">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>53.769708552317248</v>
+        <v>58.44242713807931</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>2.3268036311514573</v>
+        <v>2.7042522694696607</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -8077,8 +8071,8 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40752CA-74CF-3C42-BA63-8C9DF44440D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29DC62-1D29-F542-98E7-1C6B75BD2B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>China</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>5 April</t>
+  </si>
+  <si>
+    <t>6 April</t>
   </si>
 </sst>
 </file>
@@ -400,22 +403,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -466,22 +469,22 @@
                   <c:v>270.12924266215725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>403.12965722801783</c:v>
+                  <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>211.35040745052387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.67053789731051</c:v>
+                  <c:v>403.12965722801783</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>174.901185770751</c:v>
@@ -561,22 +564,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -627,22 +630,22 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421.5722801788375</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>421.5722801788375</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>191</c:v>
@@ -722,22 +725,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -788,22 +791,22 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>474</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>202</c:v>
@@ -883,22 +886,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -949,22 +952,22 @@
                   <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>518</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>162</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>226</c:v>
@@ -1044,22 +1047,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1110,22 +1113,22 @@
                   <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>250</c:v>
@@ -1205,22 +1208,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1271,22 +1274,22 @@
                   <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>628</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>281</c:v>
@@ -1368,22 +1371,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1434,22 +1437,22 @@
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>628</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>310</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>371</c:v>
@@ -1531,22 +1534,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1597,22 +1600,22 @@
                   <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>748</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>369</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>341</c:v>
@@ -1694,22 +1697,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1760,22 +1763,22 @@
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>758</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>434</c:v>
+                  <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>366</c:v>
@@ -1857,22 +1860,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -1923,22 +1926,22 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>828</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>398</c:v>
@@ -2020,22 +2023,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2086,22 +2089,22 @@
                   <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>865</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>576</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>438</c:v>
@@ -2183,22 +2186,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2249,22 +2252,22 @@
                   <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>909</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>658</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>489</c:v>
@@ -2347,22 +2350,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2413,22 +2416,22 @@
                   <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>959</c:v>
+                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>749</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>550</c:v>
@@ -2511,22 +2514,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2577,22 +2580,22 @@
                   <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>847</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>606</c:v>
@@ -2675,22 +2678,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2741,22 +2744,22 @@
                   <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1034</c:v>
+                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>952</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>637</c:v>
@@ -2839,22 +2842,22 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Norway</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>USA</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sweden</c:v>
@@ -2905,22 +2908,22 @@
                   <c:v>1209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1059</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1029</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>675</c:v>
@@ -2946,6 +2949,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A4F2-1D4B-805D-75838CA8D2D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$R$27:$R$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58D3-AE4C-AC9C-7A2DB6E006B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3312,10 +3479,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -3339,10 +3506,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -3378,10 +3545,10 @@
                   <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19.172005914243471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9762845849802373</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
@@ -3405,10 +3572,10 @@
                   <c:v>1.9817369341363902</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.3484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3473,10 +3640,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -3500,10 +3667,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -3539,10 +3706,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>4</c:v>
@@ -3566,10 +3733,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
                   <c:v>0</c:v>
@@ -3634,10 +3801,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -3661,10 +3828,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -3700,10 +3867,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -3727,10 +3894,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3795,10 +3962,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -3822,10 +3989,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -3861,10 +4028,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
@@ -3888,10 +4055,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3956,10 +4123,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -3983,10 +4150,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4022,10 +4189,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
@@ -4049,10 +4216,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4117,10 +4284,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4144,10 +4311,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4183,10 +4350,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
@@ -4210,10 +4377,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4280,10 +4447,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4307,10 +4474,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4346,10 +4513,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
@@ -4373,10 +4540,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4443,10 +4610,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4470,10 +4637,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4509,10 +4676,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12</c:v>
@@ -4536,10 +4703,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4606,10 +4773,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4633,10 +4800,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4672,10 +4839,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
@@ -4699,10 +4866,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4769,10 +4936,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4796,10 +4963,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4835,10 +5002,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14</c:v>
@@ -4862,10 +5029,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4932,10 +5099,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -4959,10 +5126,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -4998,10 +5165,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16</c:v>
@@ -5025,10 +5192,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5095,10 +5262,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -5122,10 +5289,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -5161,10 +5328,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19</c:v>
@@ -5188,10 +5355,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5259,10 +5426,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -5286,10 +5453,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -5325,10 +5492,10 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22</c:v>
@@ -5423,10 +5590,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -5450,10 +5617,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -5489,10 +5656,10 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>25</c:v>
@@ -5587,10 +5754,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -5614,10 +5781,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -5653,10 +5820,10 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>29</c:v>
@@ -5751,10 +5918,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Denmark</c:v>
@@ -5778,10 +5945,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -5817,10 +5984,10 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32</c:v>
@@ -5858,6 +6025,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F9A-6044-8D24-42FC698CD13B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$R$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$R$62:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C6F-7346-A3B7-696B797AA1E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7526,8 +7857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="O52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7946,7 +8277,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -7969,7 +8300,7 @@
         <v>8.5927108273476982</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -7992,7 +8323,7 @@
         <v>0.93743631546769923</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
@@ -8015,7 +8346,7 @@
         <v>33.392857142857146</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -8040,7 +8371,7 @@
         <v>2.7042522694696607</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8049,7 +8380,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8058,7 +8389,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8067,14 +8398,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -8126,8 +8457,11 @@
       <c r="Q26" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="R26" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -8179,8 +8513,11 @@
       <c r="Q27">
         <v>2821</v>
       </c>
+      <c r="R27">
+        <v>2929</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -8232,8 +8569,11 @@
       <c r="Q28">
         <v>2483</v>
       </c>
+      <c r="R28">
+        <v>2527</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -8285,8 +8625,11 @@
       <c r="Q29" s="5">
         <v>2132</v>
       </c>
+      <c r="R29" s="5">
+        <v>2192</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -8338,8 +8681,11 @@
       <c r="Q30">
         <v>1826</v>
       </c>
+      <c r="R30">
+        <v>1826</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -8391,8 +8737,11 @@
       <c r="Q31">
         <v>1386</v>
       </c>
+      <c r="R31">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -8444,8 +8793,11 @@
       <c r="Q32">
         <v>1366</v>
       </c>
+      <c r="R32">
+        <v>1394</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8497,61 +8849,67 @@
       <c r="Q33">
         <v>1209</v>
       </c>
+      <c r="R33">
+        <v>1249</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5">
-        <v>403.12965722801783</v>
+        <v>73.67053789731051</v>
       </c>
       <c r="C34" s="5">
-        <v>421.5722801788375</v>
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>474</v>
+        <v>129</v>
       </c>
       <c r="E34">
-        <v>518</v>
+        <v>162</v>
       </c>
       <c r="F34">
-        <v>571</v>
+        <v>198</v>
       </c>
       <c r="G34">
-        <v>628</v>
+        <v>260</v>
       </c>
       <c r="H34">
-        <v>628</v>
+        <v>310</v>
       </c>
       <c r="I34">
-        <v>748</v>
+        <v>369</v>
       </c>
       <c r="J34">
-        <v>758</v>
+        <v>434</v>
       </c>
       <c r="K34">
-        <v>828</v>
+        <v>500</v>
       </c>
       <c r="L34">
-        <v>865</v>
+        <v>576</v>
       </c>
       <c r="M34">
-        <v>909</v>
+        <v>658</v>
       </c>
       <c r="N34">
-        <v>959</v>
+        <v>749</v>
       </c>
       <c r="O34">
-        <v>1000</v>
+        <v>847</v>
       </c>
       <c r="P34">
-        <v>1034</v>
+        <v>952</v>
       </c>
       <c r="Q34">
-        <v>1059</v>
+        <v>1029</v>
+      </c>
+      <c r="R34">
+        <v>1123</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -8603,61 +8961,67 @@
       <c r="Q35">
         <v>1039</v>
       </c>
+      <c r="R35">
+        <v>1094</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5">
-        <v>73.67053789731051</v>
+        <v>403.12965722801783</v>
       </c>
       <c r="C36" s="5">
-        <v>99</v>
+        <v>421.5722801788375</v>
       </c>
       <c r="D36">
-        <v>129</v>
+        <v>474</v>
       </c>
       <c r="E36">
-        <v>162</v>
+        <v>518</v>
       </c>
       <c r="F36">
-        <v>198</v>
+        <v>571</v>
       </c>
       <c r="G36">
-        <v>260</v>
+        <v>628</v>
       </c>
       <c r="H36">
-        <v>310</v>
+        <v>628</v>
       </c>
       <c r="I36">
-        <v>369</v>
+        <v>748</v>
       </c>
       <c r="J36">
-        <v>434</v>
+        <v>758</v>
       </c>
       <c r="K36">
-        <v>500</v>
+        <v>828</v>
       </c>
       <c r="L36">
-        <v>576</v>
+        <v>865</v>
       </c>
       <c r="M36">
-        <v>658</v>
+        <v>909</v>
       </c>
       <c r="N36">
-        <v>749</v>
+        <v>959</v>
       </c>
       <c r="O36">
-        <v>847</v>
+        <v>1000</v>
       </c>
       <c r="P36">
-        <v>952</v>
+        <v>1034</v>
       </c>
       <c r="Q36">
-        <v>1029</v>
+        <v>1059</v>
+      </c>
+      <c r="R36">
+        <v>1093</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -8709,114 +9073,123 @@
       <c r="Q37">
         <v>780</v>
       </c>
+      <c r="R37">
+        <v>836</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C38" s="5">
+        <v>86</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>122</v>
+      </c>
+      <c r="F38">
+        <v>198</v>
+      </c>
+      <c r="G38">
+        <v>175</v>
+      </c>
+      <c r="H38">
+        <v>219</v>
+      </c>
+      <c r="I38">
+        <v>257</v>
+      </c>
+      <c r="J38">
+        <v>294</v>
+      </c>
+      <c r="K38">
+        <v>333</v>
+      </c>
+      <c r="L38">
+        <v>379</v>
+      </c>
+      <c r="M38">
+        <v>444</v>
+      </c>
+      <c r="N38">
+        <v>507</v>
+      </c>
+      <c r="O38">
+        <v>574</v>
+      </c>
+      <c r="P38">
+        <v>631</v>
+      </c>
+      <c r="Q38">
+        <v>720</v>
+      </c>
+      <c r="R38">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>253.94282897979301</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C39" s="5">
         <v>267</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>284</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>306</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>333</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>362</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>398</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>436</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>472</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>511</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>550</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>586</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>622</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>655</v>
       </c>
-      <c r="P38">
+      <c r="P39">
         <v>687</v>
       </c>
-      <c r="Q38">
+      <c r="Q39">
         <v>745</v>
       </c>
+      <c r="R39">
+        <v>745</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C39" s="5">
-        <v>86</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>122</v>
-      </c>
-      <c r="F39">
-        <v>198</v>
-      </c>
-      <c r="G39">
-        <v>175</v>
-      </c>
-      <c r="H39">
-        <v>219</v>
-      </c>
-      <c r="I39">
-        <v>257</v>
-      </c>
-      <c r="J39">
-        <v>294</v>
-      </c>
-      <c r="K39">
-        <v>333</v>
-      </c>
-      <c r="L39">
-        <v>379</v>
-      </c>
-      <c r="M39">
-        <v>444</v>
-      </c>
-      <c r="N39">
-        <v>507</v>
-      </c>
-      <c r="O39">
-        <v>574</v>
-      </c>
-      <c r="P39">
-        <v>631</v>
-      </c>
-      <c r="Q39">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -8868,8 +9241,11 @@
       <c r="Q40">
         <v>675</v>
       </c>
+      <c r="R40">
+        <v>712</v>
+      </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -8921,8 +9297,11 @@
       <c r="Q41">
         <v>413</v>
       </c>
+      <c r="R41">
+        <v>443</v>
+      </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -8974,8 +9353,11 @@
       <c r="Q42">
         <v>199</v>
       </c>
+      <c r="R42">
+        <v>201</v>
+      </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -9027,8 +9409,11 @@
       <c r="Q43" s="5">
         <v>59</v>
       </c>
+      <c r="R43" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -9080,8 +9465,11 @@
       <c r="Q44">
         <v>54</v>
       </c>
+      <c r="R44">
+        <v>58</v>
+      </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -9133,8 +9521,11 @@
       <c r="Q45">
         <v>30</v>
       </c>
+      <c r="R45">
+        <v>32</v>
+      </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -9186,8 +9577,11 @@
       <c r="Q61" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="R61" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -9239,8 +9633,11 @@
       <c r="Q62">
         <v>271</v>
       </c>
+      <c r="R62">
+        <v>286</v>
+      </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -9292,8 +9689,11 @@
       <c r="Q63">
         <v>263</v>
       </c>
+      <c r="R63">
+        <v>273</v>
+      </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -9343,6 +9743,9 @@
         <v>113</v>
       </c>
       <c r="Q64">
+        <v>143</v>
+      </c>
+      <c r="R64">
         <v>143</v>
       </c>
     </row>
@@ -9398,6 +9801,9 @@
       <c r="Q65">
         <v>121</v>
       </c>
+      <c r="R65">
+        <v>133</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -9451,6 +9857,9 @@
       <c r="Q66">
         <v>103</v>
       </c>
+      <c r="R66">
+        <v>109</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -9504,6 +9913,9 @@
       <c r="Q67">
         <v>86</v>
       </c>
+      <c r="R67">
+        <v>89</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -9557,111 +9969,120 @@
       <c r="Q68">
         <v>74</v>
       </c>
+      <c r="R68">
+        <v>81</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B69" s="5">
-        <v>19.172005914243471</v>
+        <v>1.9762845849802373</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>11</v>
+      </c>
+      <c r="K69">
+        <v>14</v>
+      </c>
+      <c r="L69">
+        <v>18</v>
+      </c>
+      <c r="M69">
         <v>24</v>
       </c>
-      <c r="F69">
-        <v>26</v>
-      </c>
-      <c r="G69">
-        <v>28</v>
-      </c>
-      <c r="H69">
-        <v>29</v>
-      </c>
-      <c r="I69">
-        <v>31</v>
-      </c>
-      <c r="J69">
-        <v>33</v>
-      </c>
-      <c r="K69">
-        <v>34</v>
-      </c>
-      <c r="L69">
-        <v>36</v>
-      </c>
-      <c r="M69">
+      <c r="N69">
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <v>35</v>
+      </c>
+      <c r="P69">
         <v>37</v>
       </c>
-      <c r="N69">
-        <v>39</v>
-      </c>
-      <c r="O69">
-        <v>41</v>
-      </c>
-      <c r="P69">
-        <v>43</v>
-      </c>
       <c r="Q69">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="R69">
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B70" s="5">
-        <v>1.9762845849802373</v>
+        <v>19.172005914243471</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J70">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="K70">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N70">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O70">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P70">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q70">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="R70">
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
@@ -9716,6 +10137,9 @@
       <c r="Q71">
         <v>32</v>
       </c>
+      <c r="R71">
+        <v>33</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -9768,6 +10192,9 @@
       </c>
       <c r="Q72">
         <v>29</v>
+      </c>
+      <c r="R72">
+        <v>33</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -9824,6 +10251,9 @@
       <c r="Q73">
         <v>23</v>
       </c>
+      <c r="R73">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -9877,6 +10307,9 @@
       <c r="Q74">
         <v>19</v>
       </c>
+      <c r="R74">
+        <v>22</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -9930,6 +10363,9 @@
       <c r="Q75">
         <v>13</v>
       </c>
+      <c r="R75">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -9983,6 +10419,9 @@
       <c r="Q76">
         <v>7</v>
       </c>
+      <c r="R76">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -10036,46 +10475,49 @@
       <c r="Q77">
         <v>4</v>
       </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="5">
         <v>0</v>
       </c>
-      <c r="B78" s="5">
-        <v>2.3484848484848486</v>
-      </c>
       <c r="C78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -10088,47 +10530,50 @@
       </c>
       <c r="Q78">
         <v>2</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B79" s="5">
-        <v>0</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -10140,6 +10585,9 @@
         <v>2</v>
       </c>
       <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
         <v>2</v>
       </c>
     </row>
@@ -10195,10 +10643,13 @@
       <c r="Q80">
         <v>1</v>
       </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:Q80">
-    <sortCondition descending="1" ref="Q62:Q80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:R80">
+    <sortCondition descending="1" ref="R62:R80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -10223,25 +10674,25 @@
     <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A36" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A34" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A38" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A39" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A39" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A38" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A34" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A36" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A40" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A78" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A79" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A63" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A62" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A72" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A69" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A70" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A77" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
@@ -10250,7 +10701,7 @@
     <hyperlink ref="A73" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A64" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
-    <hyperlink ref="A70" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
+    <hyperlink ref="A69" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
     <hyperlink ref="A76" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29DC62-1D29-F542-98E7-1C6B75BD2B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF11466-024B-A944-965F-D43FB2930DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7857,8 +7857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7898,24 +7898,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81740</v>
+        <v>81802</v>
       </c>
       <c r="C2" s="2">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>58.975468975468978</v>
+        <v>59.020202020202021</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4033189033189033</v>
+        <v>2.4047619047619047</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7925,22 +7925,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>132547</v>
+        <v>135586</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2191.5839947089949</v>
+        <v>2241.8320105820108</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>273.19775132275134</v>
+        <v>283.1845238095238</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -7950,22 +7950,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>136675</v>
+        <v>141942</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>2929.1684526360909</v>
+        <v>3042.0488641234465</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>285.91941705957998</v>
+        <v>301.00728675525079</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -7978,24 +7978,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>367385</v>
+        <v>400412</v>
       </c>
       <c r="C5" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
-        <v>10876</v>
+        <v>12854</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1122.8147921760392</v>
+        <v>1223.7530562347188</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>33.239608801955988</v>
+        <v>39.284841075794624</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -8005,22 +8005,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>103375</v>
+        <v>107663</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1248.6411402343276</v>
+        <v>1300.4348351250151</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>21.862543785481336</v>
+        <v>24.350767000845511</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -8030,22 +8030,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>60500</v>
+        <v>62589</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3739</v>
+        <v>3872</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>745.44110399211434</v>
+        <v>771.18038442582554</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>46.069492360768855</v>
+        <v>47.708230655495321</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -8055,22 +8055,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>98010</v>
+        <v>109069</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1463.0541871921184</v>
+        <v>1628.1385281385283</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>133.01985370950888</v>
+        <v>154.17226451709212</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8080,24 +8080,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10331</v>
+        <v>10384</v>
       </c>
       <c r="C9" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>200.71886535846124</v>
+        <v>201.7485914124733</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.7303283466096757</v>
+        <v>3.8857586943850788</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8109,22 +8109,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>21657</v>
+        <v>22253</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>765</v>
+        <v>821</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2527.0711785297549</v>
+        <v>2596.6161026837804</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>89.264877479579923</v>
+        <v>95.799299883313878</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8134,22 +8134,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>51608</v>
+        <v>55242</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>776.76098735701385</v>
+        <v>831.45695364238418</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>80.86995785671283</v>
+        <v>92.700180614087898</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8159,22 +8159,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>18803</v>
+        <v>19580</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1867</v>
+        <v>2101</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1094.4703143189756</v>
+        <v>1139.6973224679859</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>108.67287543655414</v>
+        <v>122.29336437718277</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8184,22 +8184,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>12297</v>
+        <v>12639</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1394.2176870748299</v>
+        <v>1432.9931972789116</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>24.943310657596371</v>
+        <v>27.551020408163264</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8209,22 +8209,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>20814</v>
+        <v>22194</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>1632</v>
+        <v>2035</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1825.7894736842104</v>
+        <v>1946.8421052631579</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>143.15789473684211</v>
+        <v>178.50877192982455</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8234,22 +8234,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5865</v>
+        <v>6086</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1092.5856929955289</v>
+        <v>1133.7555886736213</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>14.157973174366616</v>
+        <v>16.579731743666169</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -8257,22 +8257,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>7206</v>
+        <v>7693</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>712.0553359683795</v>
+        <v>760.17786561264825</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>47.134387351778656</v>
+        <v>58.399209486166015</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8282,22 +8282,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>16667</v>
+        <v>17897</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>443.38919925512101</v>
+        <v>476.11066773077943</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>8.5927108273476982</v>
+        <v>10.135674381484437</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -8305,22 +8305,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1579</v>
+        <v>1780</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>32.178520480945586</v>
+        <v>36.274709598532709</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.93743631546769923</v>
+        <v>1.0189525168127165</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -8328,22 +8328,22 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>4681</v>
+        <v>5071</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>835.89285714285722</v>
+        <v>905.53571428571433</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>33.392857142857146</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -8351,24 +8351,22 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>12232</v>
-      </c>
-      <c r="C20" s="2">
-        <v>49</v>
-      </c>
+        <v>14034</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>566</v>
+        <v>686</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>58.44242713807931</v>
+        <v>67.052078356426179</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>2.7042522694696607</v>
+        <v>3.2775919732441472</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF11466-024B-A944-965F-D43FB2930DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72930E-13C6-5544-A446-914E3B850067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>China</t>
   </si>
@@ -163,6 +163,12 @@
   <si>
     <t>6 April</t>
   </si>
+  <si>
+    <t>7 April</t>
+  </si>
+  <si>
+    <t>8 April</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,10 +254,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -418,10 +424,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -430,10 +436,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -484,10 +490,10 @@
                   <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>174.901185770751</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>35.328544825751528</c:v>
@@ -496,10 +502,10 @@
                   <c:v>170.95395375947155</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>58.447330447330444</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.9942938659058487</c:v>
@@ -579,10 +585,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -591,10 +597,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -645,10 +651,10 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>38</c:v>
@@ -657,10 +663,10 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5</c:v>
@@ -740,10 +746,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -752,10 +758,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -806,10 +812,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>54</c:v>
@@ -817,11 +823,11 @@
                 <c:pt idx="15">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
@@ -901,10 +907,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -913,10 +919,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -967,10 +973,10 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>69</c:v>
@@ -978,11 +984,11 @@
                 <c:pt idx="15">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
@@ -1062,10 +1068,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1074,10 +1080,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1128,10 +1134,10 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>88</c:v>
@@ -1139,11 +1145,11 @@
                 <c:pt idx="15">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
@@ -1223,10 +1229,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1235,10 +1241,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1289,10 +1295,10 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>108</c:v>
@@ -1300,11 +1306,11 @@
                 <c:pt idx="15">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>10</c:v>
@@ -1386,10 +1392,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1398,10 +1404,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1452,10 +1458,10 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>125</c:v>
@@ -1463,11 +1469,11 @@
                 <c:pt idx="15">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11</c:v>
@@ -1549,10 +1555,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1561,10 +1567,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1615,10 +1621,10 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>148</c:v>
@@ -1626,11 +1632,11 @@
                 <c:pt idx="15">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>12</c:v>
@@ -1712,10 +1718,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1724,10 +1730,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1778,10 +1784,10 @@
                   <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>168</c:v>
@@ -1789,11 +1795,11 @@
                 <c:pt idx="15">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14</c:v>
@@ -1875,10 +1881,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -1887,10 +1893,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -1941,10 +1947,10 @@
                   <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>198</c:v>
@@ -1952,11 +1958,11 @@
                 <c:pt idx="15">
                   <c:v>188</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
@@ -2038,10 +2044,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2050,10 +2056,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2104,10 +2110,10 @@
                   <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>229</c:v>
@@ -2115,11 +2121,11 @@
                 <c:pt idx="15">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>18</c:v>
@@ -2201,10 +2207,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2213,10 +2219,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2267,10 +2273,10 @@
                   <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>259</c:v>
@@ -2278,11 +2284,11 @@
                 <c:pt idx="15">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>22</c:v>
@@ -2365,10 +2371,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2377,10 +2383,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2431,10 +2437,10 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>300</c:v>
@@ -2442,11 +2448,11 @@
                 <c:pt idx="15">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>24</c:v>
@@ -2529,10 +2535,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2541,10 +2547,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2595,10 +2601,10 @@
                   <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>329</c:v>
@@ -2606,11 +2612,11 @@
                 <c:pt idx="15">
                   <c:v>197</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>26</c:v>
@@ -2693,10 +2699,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2705,10 +2711,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2759,10 +2765,10 @@
                   <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>370</c:v>
@@ -2770,11 +2776,11 @@
                 <c:pt idx="15">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>29</c:v>
@@ -2857,10 +2863,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -2869,10 +2875,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -2923,10 +2929,10 @@
                   <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>413</c:v>
@@ -2934,11 +2940,11 @@
                 <c:pt idx="15">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>30</c:v>
@@ -3021,10 +3027,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Canada</c:v>
@@ -3033,10 +3039,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Colombia</c:v>
@@ -3087,10 +3093,10 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>443</c:v>
@@ -3098,11 +3104,11 @@
                 <c:pt idx="15">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0">
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>32</c:v>
@@ -3113,6 +3119,333 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-58D3-AE4C-AC9C-7A2DB6E006B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$S$27:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C332-3148-8852-800A87B58F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$T$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$T$27:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C332-3148-8852-800A87B58F24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3473,10 +3806,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -3485,10 +3818,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -3539,10 +3872,10 @@
                   <c:v>7.9161816065192081</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.5069235400361229</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.3348891481913654</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9762845849802373</c:v>
@@ -3551,10 +3884,10 @@
                   <c:v>19.172005914243471</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91992665036674814</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.90702947845804982</c:v>
@@ -3634,10 +3967,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -3646,10 +3979,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -3700,10 +4033,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>2</c:v>
@@ -3712,10 +4045,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>2</c:v>
@@ -3795,10 +4128,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -3807,10 +4140,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -3861,10 +4194,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -3873,10 +4206,10 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -3956,10 +4289,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -3968,10 +4301,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4022,10 +4355,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -4034,10 +4367,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
@@ -4117,10 +4450,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4129,10 +4462,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4183,10 +4516,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -4195,10 +4528,10 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
@@ -4278,10 +4611,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4290,10 +4623,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4344,10 +4677,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -4356,10 +4689,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
@@ -4441,10 +4774,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4453,10 +4786,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4507,10 +4840,10 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -4519,10 +4852,10 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7</c:v>
@@ -4604,10 +4937,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4616,10 +4949,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4670,10 +5003,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -4682,10 +5015,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8</c:v>
@@ -4767,10 +5100,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4779,10 +5112,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4833,10 +5166,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>11</c:v>
@@ -4845,10 +5178,10 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10</c:v>
@@ -4930,10 +5263,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -4942,10 +5275,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -4996,10 +5329,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14</c:v>
@@ -5008,10 +5341,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
@@ -5093,10 +5426,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5105,10 +5438,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5159,10 +5492,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18</c:v>
@@ -5171,10 +5504,10 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15</c:v>
@@ -5256,10 +5589,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5268,10 +5601,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5322,10 +5655,10 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24</c:v>
@@ -5334,10 +5667,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17</c:v>
@@ -5420,10 +5753,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5432,10 +5765,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5486,10 +5819,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>30</c:v>
@@ -5498,10 +5831,10 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>18</c:v>
@@ -5584,10 +5917,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5596,10 +5929,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5650,10 +5983,10 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>35</c:v>
@@ -5662,10 +5995,10 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19</c:v>
@@ -5748,10 +6081,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5760,10 +6093,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5814,10 +6147,10 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>37</c:v>
@@ -5825,11 +6158,11 @@
                 <c:pt idx="8">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0">
-                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21</c:v>
@@ -5912,10 +6245,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -5924,10 +6257,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -5978,10 +6311,10 @@
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -5990,10 +6323,10 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23</c:v>
@@ -6076,10 +6409,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Sweden</c:v>
@@ -6088,10 +6421,10 @@
                   <c:v>Iran</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Austria</c:v>
@@ -6142,10 +6475,10 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>47</c:v>
@@ -6189,6 +6522,333 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C6F-7346-A3B7-696B797AA1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$S$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$S$62:$S$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD3A-1840-9705-988C2ECD3937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$T$62:$T$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD3A-1840-9705-988C2ECD3937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7485,16 +8145,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123537</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>364837</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>71582</xdr:rowOff>
+      <xdr:rowOff>198582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>587663</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>71582</xdr:rowOff>
+      <xdr:rowOff>198582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7521,16 +8181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>115453</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>648853</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>87746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>491835</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>34638</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>199735</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>110838</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7857,8 +8517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7894,78 +8554,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81802</v>
+        <v>81865</v>
       </c>
       <c r="C2" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.020202020202021</v>
+        <v>59.065656565656568</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4047619047619047</v>
+        <v>2.406204906204906</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>135586</v>
+        <v>139422</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2241.8320105820108</v>
+        <v>2305.2579365079368</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>283.1845238095238</v>
+        <v>292.14616402116405</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>141942</v>
+        <v>148220</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3042.0488641234465</v>
+        <v>3176.5966566652382</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>301.00728675525079</v>
+        <v>317.01671667381055</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -7974,130 +8634,128 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>400412</v>
-      </c>
-      <c r="C5" s="2">
-        <v>77</v>
-      </c>
+        <v>434927</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>12854</v>
+        <v>14788</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1223.7530562347188</v>
+        <v>1329.2389975550122</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>39.284841075794624</v>
+        <v>45.195599022004892</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>107663</v>
+        <v>113296</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1300.4348351250151</v>
+        <v>1368.4744534364052</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>24.350767000845511</v>
+        <v>28.372991907235171</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>62589</v>
+        <v>64586</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3872</v>
+        <v>3993</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>771.18038442582554</v>
+        <v>795.78610152784631</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>47.708230655495321</v>
+        <v>49.199112863479549</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>109069</v>
+        <v>112950</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1628.1385281385283</v>
+        <v>1686.0725481415138</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>154.17226451709212</v>
+        <v>162.24809673085537</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10384</v>
+        <v>10423</v>
       </c>
       <c r="C9" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>201.7485914124733</v>
+        <v>202.50631435787838</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8857586943850788</v>
+        <v>3.9634738682727804</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8105,271 +8763,271 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>22253</v>
+        <v>23280</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>821</v>
+        <v>895</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2596.6161026837804</v>
+        <v>2716.4527421236871</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>95.799299883313878</v>
+        <v>104.4340723453909</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>55242</v>
+        <v>60733</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>831.45695364238418</v>
+        <v>914.10295003010242</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>92.700180614087898</v>
+        <v>106.81818181818183</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>19580</v>
+        <v>20549</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>2101</v>
+        <v>2248</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1139.6973224679859</v>
+        <v>1196.1001164144354</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>122.29336437718277</v>
+        <v>130.84982537834691</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>12639</v>
+        <v>12942</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1432.9931972789116</v>
+        <v>1467.3469387755101</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>27.551020408163264</v>
+        <v>30.952380952380953</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>22194</v>
+        <v>23403</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>2035</v>
+        <v>2240</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1946.8421052631579</v>
+        <v>2052.894736842105</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>178.50877192982455</v>
+        <v>196.49122807017542</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6086</v>
+        <v>6042</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1133.7555886736213</v>
+        <v>1125.558867362146</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>16.579731743666169</v>
+        <v>18.81520119225037</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>7693</v>
+        <v>8419</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>760.17786561264825</v>
+        <v>831.91699604743087</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>58.399209486166015</v>
+        <v>67.885375494071155</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>17897</v>
+        <v>19438</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>476.11066773077943</v>
+        <v>517.10561319499857</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>10.135674381484437</v>
+        <v>11.359404096834263</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1780</v>
+        <v>2054</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>36.274709598532709</v>
+        <v>41.858569390666396</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>1.0189525168127165</v>
+        <v>1.1208477684939882</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>5071</v>
+        <v>5402</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>905.53571428571433</v>
+        <v>964.64285714285722</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>36.25</v>
+        <v>38.928571428571431</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>14034</v>
+        <v>16188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>686</v>
+        <v>820</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>67.052078356426179</v>
+        <v>77.343526039178215</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>3.2775919732441472</v>
+        <v>3.9178213091256566</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8378,7 +9036,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8387,7 +9045,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8396,14 +9054,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -8458,8 +9116,14 @@
       <c r="R26" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="S26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -8514,8 +9178,14 @@
       <c r="R27">
         <v>2929</v>
       </c>
+      <c r="S27">
+        <v>3042</v>
+      </c>
+      <c r="T27">
+        <v>3177</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -8570,8 +9240,14 @@
       <c r="R28">
         <v>2527</v>
       </c>
+      <c r="S28">
+        <v>2597</v>
+      </c>
+      <c r="T28">
+        <v>2716</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -8626,8 +9302,14 @@
       <c r="R29" s="5">
         <v>2192</v>
       </c>
+      <c r="S29" s="5">
+        <v>2242</v>
+      </c>
+      <c r="T29" s="5">
+        <v>2305</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -8682,8 +9364,14 @@
       <c r="R30">
         <v>1826</v>
       </c>
+      <c r="S30">
+        <v>1947</v>
+      </c>
+      <c r="T30">
+        <v>2053</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -8738,8 +9426,14 @@
       <c r="R31">
         <v>1463</v>
       </c>
+      <c r="S31">
+        <v>1628</v>
+      </c>
+      <c r="T31">
+        <v>1686</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -8794,8 +9488,14 @@
       <c r="R32">
         <v>1394</v>
       </c>
+      <c r="S32">
+        <v>1433</v>
+      </c>
+      <c r="T32">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8850,8 +9550,14 @@
       <c r="R33">
         <v>1249</v>
       </c>
+      <c r="S33">
+        <v>1300</v>
+      </c>
+      <c r="T33">
+        <v>1368</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -8906,8 +9612,14 @@
       <c r="R34">
         <v>1123</v>
       </c>
+      <c r="S34">
+        <v>1224</v>
+      </c>
+      <c r="T34">
+        <v>1329</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -8962,8 +9674,14 @@
       <c r="R35">
         <v>1094</v>
       </c>
+      <c r="S35">
+        <v>1140</v>
+      </c>
+      <c r="T35">
+        <v>1196</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -9018,8 +9736,14 @@
       <c r="R36">
         <v>1093</v>
       </c>
+      <c r="S36">
+        <v>1134</v>
+      </c>
+      <c r="T36">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -9074,8 +9798,14 @@
       <c r="R37">
         <v>836</v>
       </c>
+      <c r="S37">
+        <v>906</v>
+      </c>
+      <c r="T37">
+        <v>965</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -9130,120 +9860,138 @@
       <c r="R38">
         <v>777</v>
       </c>
+      <c r="S38">
+        <v>831</v>
+      </c>
+      <c r="T38">
+        <v>914</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5">
+        <v>174.901185770751</v>
+      </c>
+      <c r="C39" s="5">
+        <v>191</v>
+      </c>
+      <c r="D39">
+        <v>202</v>
+      </c>
+      <c r="E39">
+        <v>226</v>
+      </c>
+      <c r="F39">
+        <v>250</v>
+      </c>
+      <c r="G39">
+        <v>281</v>
+      </c>
+      <c r="H39">
+        <v>371</v>
+      </c>
+      <c r="I39">
+        <v>341</v>
+      </c>
+      <c r="J39">
+        <v>366</v>
+      </c>
+      <c r="K39">
+        <v>398</v>
+      </c>
+      <c r="L39">
+        <v>438</v>
+      </c>
+      <c r="M39">
+        <v>489</v>
+      </c>
+      <c r="N39">
+        <v>550</v>
+      </c>
+      <c r="O39">
+        <v>606</v>
+      </c>
+      <c r="P39">
+        <v>637</v>
+      </c>
+      <c r="Q39">
+        <v>675</v>
+      </c>
+      <c r="R39">
+        <v>712</v>
+      </c>
+      <c r="S39">
+        <v>760</v>
+      </c>
+      <c r="T39">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5">
         <v>253.94282897979301</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C40" s="5">
         <v>267</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>284</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>306</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>333</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>362</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>398</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>436</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>472</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>511</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>550</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>586</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>622</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>655</v>
       </c>
-      <c r="P39">
+      <c r="P40">
         <v>687</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <v>745</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <v>745</v>
       </c>
+      <c r="S40">
+        <v>771</v>
+      </c>
+      <c r="T40">
+        <v>796</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="5">
-        <v>174.901185770751</v>
-      </c>
-      <c r="C40" s="5">
-        <v>191</v>
-      </c>
-      <c r="D40">
-        <v>202</v>
-      </c>
-      <c r="E40">
-        <v>226</v>
-      </c>
-      <c r="F40">
-        <v>250</v>
-      </c>
-      <c r="G40">
-        <v>281</v>
-      </c>
-      <c r="H40">
-        <v>371</v>
-      </c>
-      <c r="I40">
-        <v>341</v>
-      </c>
-      <c r="J40">
-        <v>366</v>
-      </c>
-      <c r="K40">
-        <v>398</v>
-      </c>
-      <c r="L40">
-        <v>438</v>
-      </c>
-      <c r="M40">
-        <v>489</v>
-      </c>
-      <c r="N40">
-        <v>550</v>
-      </c>
-      <c r="O40">
-        <v>606</v>
-      </c>
-      <c r="P40">
-        <v>637</v>
-      </c>
-      <c r="Q40">
-        <v>675</v>
-      </c>
-      <c r="R40">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -9298,8 +10046,14 @@
       <c r="R41">
         <v>443</v>
       </c>
+      <c r="S41">
+        <v>476</v>
+      </c>
+      <c r="T41">
+        <v>517</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -9354,120 +10108,138 @@
       <c r="R42">
         <v>201</v>
       </c>
+      <c r="S42">
+        <v>202</v>
+      </c>
+      <c r="T42">
+        <v>203</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>22</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>33</v>
+      </c>
+      <c r="N43">
+        <v>38</v>
+      </c>
+      <c r="O43">
+        <v>44</v>
+      </c>
+      <c r="P43">
+        <v>49</v>
+      </c>
+      <c r="Q43">
+        <v>54</v>
+      </c>
+      <c r="R43">
+        <v>58</v>
+      </c>
+      <c r="S43">
+        <v>67</v>
+      </c>
+      <c r="T43">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B44" s="5">
         <v>58.447330447330444</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C44" s="5">
         <v>58</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>59</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>59</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>59</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <v>59</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H44" s="5">
         <v>59</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I44" s="5">
         <v>59</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J44" s="5">
         <v>59</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K44" s="5">
         <v>59</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="5">
         <v>59</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M44" s="5">
         <v>59</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N44" s="5">
         <v>59</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O44" s="5">
         <v>59</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P44" s="5">
         <v>59</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q44" s="5">
         <v>59</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R44" s="5">
         <v>59</v>
       </c>
+      <c r="S44" s="5">
+        <v>59</v>
+      </c>
+      <c r="T44" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="5">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="G44">
-        <v>14</v>
-      </c>
-      <c r="H44">
-        <v>16</v>
-      </c>
-      <c r="I44">
-        <v>19</v>
-      </c>
-      <c r="J44">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>22</v>
-      </c>
-      <c r="L44">
-        <v>27</v>
-      </c>
-      <c r="M44">
-        <v>33</v>
-      </c>
-      <c r="N44">
-        <v>38</v>
-      </c>
-      <c r="O44">
-        <v>44</v>
-      </c>
-      <c r="P44">
-        <v>49</v>
-      </c>
-      <c r="Q44">
-        <v>54</v>
-      </c>
-      <c r="R44">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -9522,8 +10294,14 @@
       <c r="R45">
         <v>32</v>
       </c>
+      <c r="S45">
+        <v>36</v>
+      </c>
+      <c r="T45">
+        <v>42</v>
+      </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -9578,8 +10356,14 @@
       <c r="R61" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="S61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -9634,8 +10418,14 @@
       <c r="R62">
         <v>286</v>
       </c>
+      <c r="S62">
+        <v>301</v>
+      </c>
+      <c r="T62">
+        <v>317</v>
+      </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -9690,8 +10480,14 @@
       <c r="R63">
         <v>273</v>
       </c>
+      <c r="S63">
+        <v>283</v>
+      </c>
+      <c r="T63">
+        <v>292</v>
+      </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -9745,6 +10541,12 @@
       </c>
       <c r="R64">
         <v>143</v>
+      </c>
+      <c r="S64">
+        <v>179</v>
+      </c>
+      <c r="T64">
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -9802,6 +10604,12 @@
       <c r="R65">
         <v>133</v>
       </c>
+      <c r="S65">
+        <v>154</v>
+      </c>
+      <c r="T65">
+        <v>162</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -9858,117 +10666,135 @@
       <c r="R66">
         <v>109</v>
       </c>
+      <c r="S66">
+        <v>122</v>
+      </c>
+      <c r="T66">
+        <v>131</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" s="5">
-        <v>9.3348891481913654</v>
+        <v>3.5069235400361229</v>
       </c>
       <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
         <v>11</v>
       </c>
-      <c r="D67">
-        <v>14</v>
-      </c>
-      <c r="E67">
-        <v>14</v>
-      </c>
-      <c r="F67">
+      <c r="I67">
+        <v>15</v>
+      </c>
+      <c r="J67">
         <v>18</v>
       </c>
-      <c r="G67">
-        <v>22</v>
-      </c>
-      <c r="H67">
+      <c r="K67">
+        <v>21</v>
+      </c>
+      <c r="L67">
         <v>27</v>
       </c>
-      <c r="I67">
-        <v>31</v>
-      </c>
-      <c r="J67">
+      <c r="M67">
         <v>35</v>
       </c>
-      <c r="K67">
-        <v>42</v>
-      </c>
-      <c r="L67">
-        <v>51</v>
-      </c>
-      <c r="M67">
-        <v>57</v>
-      </c>
       <c r="N67">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="O67">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P67">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="Q67">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="R67">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="S67">
+        <v>93</v>
+      </c>
+      <c r="T67">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="5">
-        <v>3.5069235400361229</v>
+        <v>9.3348891481913654</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H68">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J68">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K68">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L68">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N68">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="O68">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P68">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q68">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="R68">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="S68">
+        <v>96</v>
+      </c>
+      <c r="T68">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
@@ -10026,6 +10852,12 @@
       <c r="R69">
         <v>47</v>
       </c>
+      <c r="S69">
+        <v>58</v>
+      </c>
+      <c r="T69">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -10082,117 +10914,135 @@
       <c r="R70">
         <v>46</v>
       </c>
+      <c r="S70">
+        <v>48</v>
+      </c>
+      <c r="T70">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B71" s="5">
+        <v>0.91992665036674814</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="C71">
+      <c r="G71">
         <v>4</v>
       </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71">
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
         <v>6</v>
       </c>
-      <c r="F71">
-        <v>6</v>
-      </c>
-      <c r="G71">
-        <v>7</v>
-      </c>
-      <c r="H71">
-        <v>9</v>
-      </c>
-      <c r="I71">
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="L71">
         <v>12</v>
       </c>
-      <c r="J71">
-        <v>13</v>
-      </c>
-      <c r="K71">
-        <v>14</v>
-      </c>
-      <c r="L71">
+      <c r="M71">
         <v>16</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>19</v>
       </c>
-      <c r="N71">
-        <v>22</v>
-      </c>
       <c r="O71">
-        <v>25</v>
-      </c>
-      <c r="P71">
+        <v>23</v>
+      </c>
+      <c r="P71" s="5">
+        <v>26</v>
+      </c>
+      <c r="Q71">
         <v>29</v>
-      </c>
-      <c r="Q71">
-        <v>32</v>
       </c>
       <c r="R71">
         <v>33</v>
+      </c>
+      <c r="S71">
+        <v>39</v>
+      </c>
+      <c r="T71">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="5">
         <v>3</v>
       </c>
-      <c r="B72" s="5">
-        <v>0.91992665036674814</v>
-      </c>
       <c r="C72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L72">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O72">
-        <v>23</v>
-      </c>
-      <c r="P72" s="5">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="P72">
+        <v>29</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R72">
         <v>33</v>
+      </c>
+      <c r="S72">
+        <v>36</v>
+      </c>
+      <c r="T72">
+        <v>39</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -10252,6 +11102,12 @@
       <c r="R73">
         <v>25</v>
       </c>
+      <c r="S73">
+        <v>28</v>
+      </c>
+      <c r="T73">
+        <v>31</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -10308,6 +11164,12 @@
       <c r="R74">
         <v>22</v>
       </c>
+      <c r="S74">
+        <v>24</v>
+      </c>
+      <c r="T74">
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -10364,6 +11226,12 @@
       <c r="R75">
         <v>14</v>
       </c>
+      <c r="S75">
+        <v>17</v>
+      </c>
+      <c r="T75">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -10420,6 +11288,12 @@
       <c r="R76">
         <v>9</v>
       </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>11</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -10476,6 +11350,12 @@
       <c r="R77">
         <v>4</v>
       </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -10532,6 +11412,12 @@
       <c r="R78">
         <v>3</v>
       </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+      <c r="T78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -10588,6 +11474,12 @@
       <c r="R79">
         <v>2</v>
       </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -10644,10 +11536,16 @@
       <c r="R80">
         <v>1</v>
       </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:R80">
-    <sortCondition descending="1" ref="R62:R80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:T80">
+    <sortCondition descending="1" ref="T62:T80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -10669,12 +11567,12 @@
     <hyperlink ref="A15" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{EFD81247-2449-C842-A355-C3CA98069F0C}"/>
     <hyperlink ref="A16" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{6A5FA689-4530-FC48-8476-8EB82E5F1FB4}"/>
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
-    <hyperlink ref="A43" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
+    <hyperlink ref="A44" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A34" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
-    <hyperlink ref="A39" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
+    <hyperlink ref="A40" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
@@ -10683,18 +11581,18 @@
     <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A36" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A40" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A79" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A63" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A62" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A72" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A71" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A70" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A77" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
-    <hyperlink ref="A67" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
-    <hyperlink ref="A68" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
+    <hyperlink ref="A68" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
+    <hyperlink ref="A67" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
     <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A73" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A64" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72930E-13C6-5544-A446-914E3B850067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C144556-A5AD-A84E-BACD-107402E2DBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>China</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>8 April</t>
   </si>
+  <si>
+    <t>9 April</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,10 +257,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -406,10 +409,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -472,10 +475,10 @@
                   <c:v>339.22902494331066</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>270.12924266215725</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>211.35040745052387</c:v>
@@ -567,10 +570,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -633,10 +636,10 @@
                   <c:v>405.89569160997729</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>245</c:v>
@@ -728,10 +731,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -794,10 +797,10 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>276</c:v>
@@ -889,10 +892,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -955,10 +958,10 @@
                   <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -1050,10 +1053,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1116,10 +1119,10 @@
                   <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>373</c:v>
@@ -1211,10 +1214,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1277,10 +1280,10 @@
                   <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>433</c:v>
@@ -1374,10 +1377,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1440,10 +1443,10 @@
                   <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>501</c:v>
@@ -1537,10 +1540,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1603,10 +1606,10 @@
                   <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>568</c:v>
@@ -1700,10 +1703,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1766,10 +1769,10 @@
                   <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>632</c:v>
@@ -1863,10 +1866,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -1929,10 +1932,10 @@
                   <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>624</c:v>
@@ -2026,10 +2029,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2092,10 +2095,10 @@
                   <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>733</c:v>
@@ -2189,10 +2192,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2255,10 +2258,10 @@
                   <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>792</c:v>
@@ -2353,10 +2356,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2419,10 +2422,10 @@
                   <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>855</c:v>
@@ -2517,10 +2520,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2583,10 +2586,10 @@
                   <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>915</c:v>
@@ -2681,10 +2684,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2747,10 +2750,10 @@
                   <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1161</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>968</c:v>
@@ -2845,10 +2848,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -2911,10 +2914,10 @@
                   <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1039</c:v>
@@ -3009,10 +3012,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -3075,10 +3078,10 @@
                   <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1094</c:v>
@@ -3173,10 +3176,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -3239,10 +3242,10 @@
                   <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1140</c:v>
@@ -3336,10 +3339,10 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Netherlands</c:v>
@@ -3402,10 +3405,10 @@
                   <c:v>1467</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1196</c:v>
@@ -3446,6 +3449,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C332-3148-8852-800A87B58F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$U$27:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C332-3148-8852-800A87B58F24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3836,10 +4002,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -3902,10 +4068,10 @@
                   <c:v>0.50545357807927638</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1.9817369341363902</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.3484848484848486</c:v>
@@ -3997,10 +4163,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4063,10 +4229,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
                   <c:v>2</c:v>
@@ -4158,10 +4324,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4224,10 +4390,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -4319,10 +4485,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4385,10 +4551,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -4480,10 +4646,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4546,10 +4712,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -4641,10 +4807,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4707,10 +4873,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -4804,10 +4970,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -4870,10 +5036,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -4967,10 +5133,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5033,10 +5199,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5130,10 +5296,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5196,10 +5362,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5293,10 +5459,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5359,10 +5525,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5456,10 +5622,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5522,10 +5688,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5619,10 +5785,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5685,10 +5851,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5783,10 +5949,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -5849,10 +6015,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5947,10 +6113,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6013,10 +6179,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -6111,10 +6277,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6177,10 +6343,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -6275,10 +6441,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6341,10 +6507,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -6439,10 +6605,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6505,10 +6671,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -6603,10 +6769,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6669,10 +6835,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -6766,10 +6932,10 @@
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>S. Korea</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Brazil</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>China</c:v>
@@ -6849,6 +7015,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD3A-1840-9705-988C2ECD3937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$U$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD3A-1840-9705-988C2ECD3937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8145,16 +8474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>364837</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>720437</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>198582</xdr:rowOff>
+      <xdr:rowOff>33482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>587663</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>117763</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>198582</xdr:rowOff>
+      <xdr:rowOff>33482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8181,16 +8510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>648853</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>87746</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>39253</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>49646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>199735</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>110838</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>415635</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>72738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8517,8 +8846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="Q51" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8554,78 +8883,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81865</v>
+        <v>81907</v>
       </c>
       <c r="C2" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.065656565656568</v>
+        <v>59.095959595959599</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.406204906204906</v>
+        <v>2.4069264069264071</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>139422</v>
+        <v>143626</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2305.2579365079368</v>
+        <v>2374.7685185185187</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>292.14616402116405</v>
+        <v>302.23214285714289</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>148220</v>
+        <v>153222</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3176.5966566652382</v>
+        <v>3283.7976853836267</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>317.01671667381055</v>
+        <v>331.05443634804976</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -8634,128 +8963,128 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>434927</v>
+        <v>468566</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1329.2389975550122</v>
+        <v>1432.0476772616137</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>45.195599022004892</v>
+        <v>51.011613691931544</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>113296</v>
+        <v>118235</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1368.4744534364052</v>
+        <v>1428.1314168377821</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>28.372991907235171</v>
+        <v>31.489310303176708</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>64586</v>
+        <v>66220</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>3993</v>
+        <v>4110</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>795.78610152784631</v>
+        <v>815.91917200591433</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>49.199112863479549</v>
+        <v>50.640709709216367</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>112950</v>
+        <v>117749</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1686.0725481415138</v>
+        <v>1757.7101059859681</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>162.24809673085537</v>
+        <v>182.26600985221677</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10423</v>
+        <v>10450</v>
       </c>
       <c r="C9" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>202.50631435787838</v>
+        <v>203.03089178162037</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.9634738682727804</v>
+        <v>4.0411890421604824</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8763,271 +9092,273 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>23280</v>
+        <v>24051</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>895</v>
+        <v>948</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2716.4527421236871</v>
+        <v>2806.4177362893815</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>104.4340723453909</v>
+        <v>110.61843640606767</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>60733</v>
+        <v>65077</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>914.10295003010242</v>
+        <v>979.48524984948824</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>106.81818181818183</v>
+        <v>120.07826610475618</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>20549</v>
+        <v>21762</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>2248</v>
+        <v>2396</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1196.1001164144354</v>
+        <v>1266.7054714784633</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>130.84982537834691</v>
+        <v>139.46449359720606</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>12942</v>
+        <v>13244</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1467.3469387755101</v>
+        <v>1501.5873015873015</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>30.952380952380953</v>
+        <v>33.446712018140587</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>23403</v>
+        <v>24983</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>2240</v>
+        <v>2523</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2052.894736842105</v>
+        <v>2191.4912280701756</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>196.49122807017542</v>
+        <v>221.31578947368419</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6042</v>
+        <v>6219</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1125.558867362146</v>
+        <v>1158.532041728763</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>18.81520119225037</v>
+        <v>20.119225037257824</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>8419</v>
+        <v>9141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>831.91699604743087</v>
+        <v>903.26086956521749</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>67.885375494071155</v>
+        <v>78.359683794466406</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>19438</v>
+        <v>20765</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>517.10561319499857</v>
+        <v>552.40755520085122</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>11.359404096834263</v>
+        <v>13.540835328544825</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>2054</v>
+        <v>2223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>41.858569390666396</v>
+        <v>45.302628897493378</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>1.1208477684939882</v>
+        <v>1.4061544732015487</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>5402</v>
+        <v>5635</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>964.64285714285722</v>
+        <v>1006.2500000000001</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>38.928571428571431</v>
+        <v>42.321428571428577</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>16188</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>18176</v>
+      </c>
+      <c r="C20" s="2">
+        <v>31</v>
+      </c>
       <c r="D20" s="2">
-        <v>820</v>
+        <v>957</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>77.343526039178215</v>
+        <v>86.841853798375539</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>3.9178213091256566</v>
+        <v>4.5723841376015288</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9036,7 +9367,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9045,7 +9376,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9054,14 +9385,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -9122,8 +9453,11 @@
       <c r="T26" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="U26" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -9184,8 +9518,11 @@
       <c r="T27">
         <v>3177</v>
       </c>
+      <c r="U27">
+        <v>3284</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -9246,8 +9583,11 @@
       <c r="T28">
         <v>2716</v>
       </c>
+      <c r="U28">
+        <v>2806</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -9308,8 +9648,11 @@
       <c r="T29" s="5">
         <v>2305</v>
       </c>
+      <c r="U29" s="5">
+        <v>2375</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -9370,8 +9713,11 @@
       <c r="T30">
         <v>2053</v>
       </c>
+      <c r="U30">
+        <v>2191</v>
+      </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -9432,8 +9778,11 @@
       <c r="T31">
         <v>1686</v>
       </c>
+      <c r="U31">
+        <v>1758</v>
+      </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -9494,132 +9843,141 @@
       <c r="T32">
         <v>1467</v>
       </c>
+      <c r="U32">
+        <v>1502</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>73.67053789731051</v>
+      </c>
+      <c r="C33" s="5">
+        <v>99</v>
+      </c>
+      <c r="D33">
+        <v>129</v>
+      </c>
+      <c r="E33">
+        <v>162</v>
+      </c>
+      <c r="F33">
+        <v>198</v>
+      </c>
+      <c r="G33">
+        <v>260</v>
+      </c>
+      <c r="H33">
+        <v>310</v>
+      </c>
+      <c r="I33">
+        <v>369</v>
+      </c>
+      <c r="J33">
+        <v>434</v>
+      </c>
+      <c r="K33">
+        <v>500</v>
+      </c>
+      <c r="L33">
+        <v>576</v>
+      </c>
+      <c r="M33">
+        <v>658</v>
+      </c>
+      <c r="N33">
+        <v>749</v>
+      </c>
+      <c r="O33">
+        <v>847</v>
+      </c>
+      <c r="P33">
+        <v>952</v>
+      </c>
+      <c r="Q33">
+        <v>1029</v>
+      </c>
+      <c r="R33">
+        <v>1123</v>
+      </c>
+      <c r="S33">
+        <v>1224</v>
+      </c>
+      <c r="T33">
+        <v>1329</v>
+      </c>
+      <c r="U33">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>270.12924266215725</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>300</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>351</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>398</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>451</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>531</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>614</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>697</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>750</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>828</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>867</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>942</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>1024</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>1101</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <v>1161</v>
       </c>
-      <c r="Q33">
+      <c r="Q34">
         <v>1209</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>1249</v>
       </c>
-      <c r="S33">
+      <c r="S34">
         <v>1300</v>
       </c>
-      <c r="T33">
+      <c r="T34">
         <v>1368</v>
       </c>
+      <c r="U34">
+        <v>1428</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
-        <v>73.67053789731051</v>
-      </c>
-      <c r="C34" s="5">
-        <v>99</v>
-      </c>
-      <c r="D34">
-        <v>129</v>
-      </c>
-      <c r="E34">
-        <v>162</v>
-      </c>
-      <c r="F34">
-        <v>198</v>
-      </c>
-      <c r="G34">
-        <v>260</v>
-      </c>
-      <c r="H34">
-        <v>310</v>
-      </c>
-      <c r="I34">
-        <v>369</v>
-      </c>
-      <c r="J34">
-        <v>434</v>
-      </c>
-      <c r="K34">
-        <v>500</v>
-      </c>
-      <c r="L34">
-        <v>576</v>
-      </c>
-      <c r="M34">
-        <v>658</v>
-      </c>
-      <c r="N34">
-        <v>749</v>
-      </c>
-      <c r="O34">
-        <v>847</v>
-      </c>
-      <c r="P34">
-        <v>952</v>
-      </c>
-      <c r="Q34">
-        <v>1029</v>
-      </c>
-      <c r="R34">
-        <v>1123</v>
-      </c>
-      <c r="S34">
-        <v>1224</v>
-      </c>
-      <c r="T34">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -9680,8 +10038,11 @@
       <c r="T35">
         <v>1196</v>
       </c>
+      <c r="U35">
+        <v>1267</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -9742,8 +10103,11 @@
       <c r="T36">
         <v>1126</v>
       </c>
+      <c r="U36">
+        <v>1159</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -9804,8 +10168,11 @@
       <c r="T37">
         <v>965</v>
       </c>
+      <c r="U37">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -9866,8 +10233,11 @@
       <c r="T38">
         <v>914</v>
       </c>
+      <c r="U38">
+        <v>979</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -9928,8 +10298,11 @@
       <c r="T39">
         <v>832</v>
       </c>
+      <c r="U39">
+        <v>903</v>
+      </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -9990,8 +10363,11 @@
       <c r="T40">
         <v>796</v>
       </c>
+      <c r="U40">
+        <v>816</v>
+      </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -10052,8 +10428,11 @@
       <c r="T41">
         <v>517</v>
       </c>
+      <c r="U41">
+        <v>552</v>
+      </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -10114,8 +10493,11 @@
       <c r="T42">
         <v>203</v>
       </c>
+      <c r="U42">
+        <v>203</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -10176,8 +10558,11 @@
       <c r="T43">
         <v>77</v>
       </c>
+      <c r="U43">
+        <v>87</v>
+      </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -10238,8 +10623,11 @@
       <c r="T44" s="5">
         <v>59</v>
       </c>
+      <c r="U44" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -10300,8 +10688,11 @@
       <c r="T45">
         <v>42</v>
       </c>
+      <c r="U45">
+        <v>45</v>
+      </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -10362,8 +10753,11 @@
       <c r="T61" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="U61" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -10424,8 +10818,11 @@
       <c r="T62">
         <v>317</v>
       </c>
+      <c r="U62">
+        <v>331</v>
+      </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -10486,8 +10883,11 @@
       <c r="T63">
         <v>292</v>
       </c>
+      <c r="U63">
+        <v>302</v>
+      </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10547,6 +10947,9 @@
       </c>
       <c r="T64">
         <v>196</v>
+      </c>
+      <c r="U64">
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -10610,6 +11013,9 @@
       <c r="T65">
         <v>162</v>
       </c>
+      <c r="U65">
+        <v>182</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -10672,6 +11078,9 @@
       <c r="T66">
         <v>131</v>
       </c>
+      <c r="U66">
+        <v>139</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -10734,6 +11143,9 @@
       <c r="T67">
         <v>107</v>
       </c>
+      <c r="U67">
+        <v>120</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -10796,6 +11208,9 @@
       <c r="T68">
         <v>104</v>
       </c>
+      <c r="U68">
+        <v>111</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -10858,6 +11273,9 @@
       <c r="T69">
         <v>68</v>
       </c>
+      <c r="U69">
+        <v>78</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -10920,6 +11338,9 @@
       <c r="T70">
         <v>49</v>
       </c>
+      <c r="U70">
+        <v>51</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -10982,6 +11403,9 @@
       <c r="T71">
         <v>45</v>
       </c>
+      <c r="U71">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -11043,6 +11467,9 @@
       </c>
       <c r="T72">
         <v>39</v>
+      </c>
+      <c r="U72">
+        <v>42</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -11108,6 +11535,9 @@
       <c r="T73">
         <v>31</v>
       </c>
+      <c r="U73">
+        <v>33</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -11170,6 +11600,9 @@
       <c r="T74">
         <v>28</v>
       </c>
+      <c r="U74">
+        <v>31</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -11232,6 +11665,9 @@
       <c r="T75">
         <v>19</v>
       </c>
+      <c r="U75">
+        <v>20</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -11294,128 +11730,137 @@
       <c r="T76">
         <v>11</v>
       </c>
+      <c r="U76">
+        <v>14</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>1.9817369341363902</v>
+        <v>0</v>
       </c>
       <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>2</v>
       </c>
-      <c r="D77">
+      <c r="O77">
         <v>2</v>
       </c>
-      <c r="E77">
+      <c r="P77">
         <v>2</v>
       </c>
-      <c r="F77">
+      <c r="Q77">
         <v>2</v>
       </c>
-      <c r="G77">
+      <c r="R77">
         <v>3</v>
       </c>
-      <c r="H77">
+      <c r="S77">
         <v>3</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>4</v>
-      </c>
-      <c r="Q77">
-        <v>4</v>
-      </c>
-      <c r="R77">
-        <v>4</v>
-      </c>
-      <c r="S77">
-        <v>4</v>
       </c>
       <c r="T77">
         <v>4</v>
+      </c>
+      <c r="U77">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B78" s="5">
-        <v>0</v>
+        <v>1.9817369341363902</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T78">
+        <v>4</v>
+      </c>
+      <c r="U78">
         <v>4</v>
       </c>
     </row>
@@ -11480,6 +11925,9 @@
       <c r="T79">
         <v>2</v>
       </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -11542,10 +11990,13 @@
       <c r="T80">
         <v>1</v>
       </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:T80">
-    <sortCondition descending="1" ref="T62:T80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:U80">
+    <sortCondition descending="1" ref="U62:U80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -11570,8 +12021,8 @@
     <hyperlink ref="A44" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A34" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
-    <hyperlink ref="A33" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
+    <hyperlink ref="A33" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A34" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A40" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
@@ -11590,7 +12041,7 @@
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A70" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
-    <hyperlink ref="A77" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
+    <hyperlink ref="A78" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A68" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A67" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
     <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C144556-A5AD-A84E-BACD-107402E2DBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C071882-B3C2-084B-9B3D-C10D4FF15467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>China</t>
   </si>
@@ -172,6 +172,9 @@
   <si>
     <t>9 April</t>
   </si>
+  <si>
+    <t>10 April</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,10 +260,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -421,10 +424,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -487,10 +490,10 @@
                   <c:v>403.12965722801783</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>174.901185770751</c:v>
@@ -582,10 +585,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -648,10 +651,10 @@
                   <c:v>421.5722801788375</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>191</c:v>
@@ -743,10 +746,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -809,10 +812,10 @@
                   <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>202</c:v>
@@ -904,10 +907,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -970,10 +973,10 @@
                   <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>226</c:v>
@@ -1065,10 +1068,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1131,10 +1134,10 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>250</c:v>
@@ -1226,10 +1229,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1292,10 +1295,10 @@
                   <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>281</c:v>
@@ -1389,10 +1392,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1455,10 +1458,10 @@
                   <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>371</c:v>
@@ -1552,10 +1555,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1618,10 +1621,10 @@
                   <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>341</c:v>
@@ -1715,10 +1718,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1781,10 +1784,10 @@
                   <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>366</c:v>
@@ -1878,10 +1881,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -1944,10 +1947,10 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>398</c:v>
@@ -2041,10 +2044,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2107,10 +2110,10 @@
                   <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>438</c:v>
@@ -2204,10 +2207,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2270,10 +2273,10 @@
                   <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>489</c:v>
@@ -2368,10 +2371,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2434,10 +2437,10 @@
                   <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>550</c:v>
@@ -2532,10 +2535,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2598,10 +2601,10 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>606</c:v>
@@ -2696,10 +2699,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2762,10 +2765,10 @@
                   <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>637</c:v>
@@ -2860,10 +2863,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -2926,10 +2929,10 @@
                   <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>675</c:v>
@@ -3024,10 +3027,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -3090,10 +3093,10 @@
                   <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>712</c:v>
@@ -3188,10 +3191,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -3254,10 +3257,10 @@
                   <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>760</c:v>
@@ -3351,10 +3354,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -3417,10 +3420,10 @@
                   <c:v>1126</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>832</c:v>
@@ -3514,10 +3517,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Sweden</c:v>
@@ -3580,10 +3583,10 @@
                   <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>903</c:v>
@@ -3612,6 +3615,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C332-3148-8852-800A87B58F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$V$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$V$27:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C332-3148-8852-800A87B58F24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3981,10 +4147,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4047,10 +4213,10 @@
                   <c:v>1.9762845849802373</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>19.172005914243471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91992665036674814</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
@@ -4142,10 +4308,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4208,10 +4374,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>4</c:v>
@@ -4303,10 +4469,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4369,10 +4535,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -4464,10 +4630,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4530,10 +4696,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -4625,10 +4791,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4691,10 +4857,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -4786,10 +4952,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -4852,10 +5018,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
@@ -4949,10 +5115,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5015,10 +5181,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9</c:v>
@@ -5112,10 +5278,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5178,10 +5344,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12</c:v>
@@ -5275,10 +5441,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5341,10 +5507,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13</c:v>
@@ -5438,10 +5604,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5504,10 +5670,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14</c:v>
@@ -5601,10 +5767,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5667,10 +5833,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
@@ -5764,10 +5930,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5830,10 +5996,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19</c:v>
@@ -5928,10 +6094,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -5994,10 +6160,10 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22</c:v>
@@ -6092,10 +6258,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6158,10 +6324,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25</c:v>
@@ -6256,10 +6422,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6321,11 +6487,11 @@
                 <c:pt idx="7">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0">
-                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>29</c:v>
@@ -6420,10 +6586,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6486,10 +6652,10 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>32</c:v>
@@ -6584,10 +6750,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6650,10 +6816,10 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>33</c:v>
@@ -6748,10 +6914,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6814,10 +6980,10 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36</c:v>
@@ -6911,10 +7077,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -6977,10 +7143,10 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>39</c:v>
@@ -7074,10 +7240,10 @@
                   <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Iran</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Denmark</c:v>
@@ -7178,6 +7344,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DD3A-1840-9705-988C2ECD3937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$V$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$V$62:$V$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD3A-1840-9705-988C2ECD3937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8474,15 +8803,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>720437</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>771237</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>117763</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>168563</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>33482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8846,8 +9175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q51" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:U80"/>
+    <sheetView tabSelected="1" topLeftCell="R47" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8856,7 +9185,9 @@
     <col min="3" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -8883,15 +9214,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>81907</v>
       </c>
-      <c r="C2" s="2">
-        <v>42</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>3336</v>
       </c>
@@ -8910,51 +9239,51 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>143626</v>
+        <v>147577</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2374.7685185185187</v>
+        <v>2440.0958994708994</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>302.23214285714289</v>
+        <v>311.65674603174602</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>153222</v>
+        <v>158273</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3283.7976853836267</v>
+        <v>3392.0488641234465</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>331.05443634804976</v>
+        <v>344.64209172738964</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -8963,117 +9292,115 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>468566</v>
+        <v>502876</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1432.0476772616137</v>
+        <v>1536.9070904645478</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>51.011613691931544</v>
+        <v>57.295232273838636</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>118235</v>
+        <v>122171</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1428.1314168377821</v>
+        <v>1475.6733905060996</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>31.489310303176708</v>
+        <v>33.047469501147482</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>66220</v>
+        <v>68192</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>4110</v>
+        <v>4232</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>815.91917200591433</v>
+        <v>840.21685559388868</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>50.640709709216367</v>
+        <v>52.143913257762449</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>117749</v>
+        <v>124869</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1757.7101059859681</v>
+        <v>1863.9946260635918</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>182.26600985221677</v>
+        <v>196.99955217196597</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>10450</v>
       </c>
-      <c r="C9" s="2">
-        <v>27</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
@@ -9084,7 +9411,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.0411890421604824</v>
+        <v>4.0217602486885564</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9092,273 +9419,271 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>24051</v>
+        <v>24551</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>948</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2806.4177362893815</v>
+        <v>2864.7607934655775</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>110.61843640606767</v>
+        <v>117.03617269544924</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>65077</v>
+        <v>73758</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>979.48524984948824</v>
+        <v>1110.1444912703191</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>120.07826610475618</v>
+        <v>134.8284166164961</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>21762</v>
+        <v>23097</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>2396</v>
+        <v>2511</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1266.7054714784633</v>
+        <v>1344.4121071012805</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>139.46449359720606</v>
+        <v>146.15832363213039</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>13244</v>
+        <v>13560</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1501.5873015873015</v>
+        <v>1537.4149659863945</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>33.446712018140587</v>
+        <v>36.167800453514737</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>24983</v>
+        <v>26667</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>2523</v>
+        <v>3019</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2191.4912280701756</v>
+        <v>2339.2105263157896</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>221.31578947368419</v>
+        <v>264.82456140350877</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6219</v>
+        <v>6406</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1158.532041728763</v>
+        <v>1193.3681073025334</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>20.119225037257824</v>
+        <v>21.050670640834575</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>9141</v>
+        <v>9685</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>903.26086956521749</v>
+        <v>957.01581027667987</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>78.359683794466406</v>
+        <v>85.968379446640327</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>20765</v>
+        <v>22148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>552.40755520085122</v>
+        <v>589.19925512104282</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>13.540835328544825</v>
+        <v>15.137004522479382</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>2223</v>
+        <v>2473</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>45.302628897493378</v>
+        <v>50.397391481556959</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>1.4061544732015487</v>
+        <v>1.6303240269003465</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>5635</v>
+        <v>5819</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1006.2500000000001</v>
+        <v>1039.1071428571429</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>42.321428571428577</v>
+        <v>44.107142857142861</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>18176</v>
-      </c>
-      <c r="C20" s="2">
-        <v>31</v>
-      </c>
+        <v>19789</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>957</v>
+        <v>1068</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>86.841853798375539</v>
+        <v>94.548494983277592</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>4.5723841376015288</v>
+        <v>5.1027233635929283</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9367,7 +9692,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9376,7 +9701,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9385,14 +9710,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -9456,8 +9781,11 @@
       <c r="U26" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="V26" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -9521,8 +9849,11 @@
       <c r="U27">
         <v>3284</v>
       </c>
+      <c r="V27">
+        <v>3392</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -9586,8 +9917,11 @@
       <c r="U28">
         <v>2806</v>
       </c>
+      <c r="V28">
+        <v>2865</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -9651,8 +9985,11 @@
       <c r="U29" s="5">
         <v>2375</v>
       </c>
+      <c r="V29" s="5">
+        <v>2440</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -9716,8 +10053,11 @@
       <c r="U30">
         <v>2191</v>
       </c>
+      <c r="V30">
+        <v>2339</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -9781,8 +10121,11 @@
       <c r="U31">
         <v>1758</v>
       </c>
+      <c r="V31">
+        <v>1864</v>
+      </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -9846,8 +10189,11 @@
       <c r="U32">
         <v>1502</v>
       </c>
+      <c r="V32">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -9911,8 +10257,11 @@
       <c r="U33">
         <v>1432</v>
       </c>
+      <c r="V33">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -9976,8 +10325,11 @@
       <c r="U34">
         <v>1428</v>
       </c>
+      <c r="V34">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -10041,8 +10393,11 @@
       <c r="U35">
         <v>1267</v>
       </c>
+      <c r="V35">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -10106,138 +10461,147 @@
       <c r="U36">
         <v>1159</v>
       </c>
+      <c r="V36">
+        <v>1193</v>
+      </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C37" s="5">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>122</v>
+      </c>
+      <c r="F37">
+        <v>198</v>
+      </c>
+      <c r="G37">
+        <v>175</v>
+      </c>
+      <c r="H37">
+        <v>219</v>
+      </c>
+      <c r="I37">
+        <v>257</v>
+      </c>
+      <c r="J37">
+        <v>294</v>
+      </c>
+      <c r="K37">
+        <v>333</v>
+      </c>
+      <c r="L37">
+        <v>379</v>
+      </c>
+      <c r="M37">
+        <v>444</v>
+      </c>
+      <c r="N37">
+        <v>507</v>
+      </c>
+      <c r="O37">
+        <v>574</v>
+      </c>
+      <c r="P37">
+        <v>631</v>
+      </c>
+      <c r="Q37">
+        <v>720</v>
+      </c>
+      <c r="R37">
+        <v>777</v>
+      </c>
+      <c r="S37">
+        <v>831</v>
+      </c>
+      <c r="T37">
+        <v>914</v>
+      </c>
+      <c r="U37">
+        <v>979</v>
+      </c>
+      <c r="V37">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>251</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <v>262</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>282</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>284</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>308</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>335</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>365</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>393</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>428</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>460</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>511</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>555</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>605</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>671</v>
       </c>
-      <c r="P37">
+      <c r="P38">
         <v>728</v>
       </c>
-      <c r="Q37">
+      <c r="Q38">
         <v>780</v>
       </c>
-      <c r="R37">
+      <c r="R38">
         <v>836</v>
       </c>
-      <c r="S37">
+      <c r="S38">
         <v>906</v>
       </c>
-      <c r="T37">
+      <c r="T38">
         <v>965</v>
       </c>
-      <c r="U37">
+      <c r="U38">
         <v>1006</v>
       </c>
+      <c r="V38">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C38" s="5">
-        <v>86</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>122</v>
-      </c>
-      <c r="F38">
-        <v>198</v>
-      </c>
-      <c r="G38">
-        <v>175</v>
-      </c>
-      <c r="H38">
-        <v>219</v>
-      </c>
-      <c r="I38">
-        <v>257</v>
-      </c>
-      <c r="J38">
-        <v>294</v>
-      </c>
-      <c r="K38">
-        <v>333</v>
-      </c>
-      <c r="L38">
-        <v>379</v>
-      </c>
-      <c r="M38">
-        <v>444</v>
-      </c>
-      <c r="N38">
-        <v>507</v>
-      </c>
-      <c r="O38">
-        <v>574</v>
-      </c>
-      <c r="P38">
-        <v>631</v>
-      </c>
-      <c r="Q38">
-        <v>720</v>
-      </c>
-      <c r="R38">
-        <v>777</v>
-      </c>
-      <c r="S38">
-        <v>831</v>
-      </c>
-      <c r="T38">
-        <v>914</v>
-      </c>
-      <c r="U38">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -10301,8 +10665,11 @@
       <c r="U39">
         <v>903</v>
       </c>
+      <c r="V39">
+        <v>957</v>
+      </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -10366,8 +10733,11 @@
       <c r="U40">
         <v>816</v>
       </c>
+      <c r="V40">
+        <v>840</v>
+      </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -10431,8 +10801,11 @@
       <c r="U41">
         <v>552</v>
       </c>
+      <c r="V41">
+        <v>589</v>
+      </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -10496,8 +10869,11 @@
       <c r="U42">
         <v>203</v>
       </c>
+      <c r="V42">
+        <v>203</v>
+      </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -10561,8 +10937,11 @@
       <c r="U43">
         <v>87</v>
       </c>
+      <c r="V43">
+        <v>95</v>
+      </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -10626,8 +11005,11 @@
       <c r="U44" s="5">
         <v>59</v>
       </c>
+      <c r="V44" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -10691,8 +11073,11 @@
       <c r="U45">
         <v>45</v>
       </c>
+      <c r="V45">
+        <v>50</v>
+      </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -10756,8 +11141,11 @@
       <c r="U61" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="V61" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -10821,8 +11209,11 @@
       <c r="U62">
         <v>331</v>
       </c>
+      <c r="V62">
+        <v>345</v>
+      </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -10886,8 +11277,11 @@
       <c r="U63">
         <v>302</v>
       </c>
+      <c r="V63">
+        <v>312</v>
+      </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10950,6 +11344,9 @@
       </c>
       <c r="U64">
         <v>221</v>
+      </c>
+      <c r="V64">
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -11016,6 +11413,9 @@
       <c r="U65">
         <v>182</v>
       </c>
+      <c r="V65">
+        <v>197</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -11081,6 +11481,9 @@
       <c r="U66">
         <v>139</v>
       </c>
+      <c r="V66">
+        <v>146</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -11146,6 +11549,9 @@
       <c r="U67">
         <v>120</v>
       </c>
+      <c r="V67">
+        <v>135</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -11211,6 +11617,9 @@
       <c r="U68">
         <v>111</v>
       </c>
+      <c r="V68">
+        <v>117</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -11276,135 +11685,144 @@
       <c r="U69">
         <v>78</v>
       </c>
+      <c r="V69">
+        <v>86</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.91992665036674814</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
         <v>5</v>
       </c>
-      <c r="B70" s="5">
-        <v>19.172005914243471</v>
-      </c>
-      <c r="C70">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>22</v>
-      </c>
-      <c r="E70">
-        <v>24</v>
-      </c>
-      <c r="F70">
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
+      <c r="M70">
+        <v>16</v>
+      </c>
+      <c r="N70">
+        <v>19</v>
+      </c>
+      <c r="O70">
+        <v>23</v>
+      </c>
+      <c r="P70" s="5">
         <v>26</v>
       </c>
-      <c r="G70">
-        <v>28</v>
-      </c>
-      <c r="H70">
+      <c r="Q70">
         <v>29</v>
       </c>
-      <c r="I70">
-        <v>31</v>
-      </c>
-      <c r="J70">
+      <c r="R70">
         <v>33</v>
       </c>
-      <c r="K70">
-        <v>34</v>
-      </c>
-      <c r="L70">
-        <v>36</v>
-      </c>
-      <c r="M70">
-        <v>37</v>
-      </c>
-      <c r="N70">
+      <c r="S70">
         <v>39</v>
       </c>
-      <c r="O70">
-        <v>41</v>
-      </c>
-      <c r="P70">
-        <v>43</v>
-      </c>
-      <c r="Q70">
-        <v>46</v>
-      </c>
-      <c r="R70">
-        <v>46</v>
-      </c>
-      <c r="S70">
-        <v>48</v>
-      </c>
       <c r="T70">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U70">
         <v>51</v>
+      </c>
+      <c r="V70">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" s="5">
-        <v>0.91992665036674814</v>
+        <v>19.172005914243471</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L71">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N71">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O71">
-        <v>23</v>
-      </c>
-      <c r="P71" s="5">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="P71">
+        <v>43</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="R71">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="S71">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T71">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="U71">
         <v>51</v>
+      </c>
+      <c r="V71">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
@@ -11470,6 +11888,9 @@
       </c>
       <c r="U72">
         <v>42</v>
+      </c>
+      <c r="V72">
+        <v>44</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -11538,6 +11959,9 @@
       <c r="U73">
         <v>33</v>
       </c>
+      <c r="V73">
+        <v>36</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -11603,6 +12027,9 @@
       <c r="U74">
         <v>31</v>
       </c>
+      <c r="V74">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -11668,6 +12095,9 @@
       <c r="U75">
         <v>20</v>
       </c>
+      <c r="V75">
+        <v>21</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -11733,6 +12163,9 @@
       <c r="U76">
         <v>14</v>
       </c>
+      <c r="V76">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -11798,6 +12231,9 @@
       <c r="U77">
         <v>5</v>
       </c>
+      <c r="V77">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -11863,6 +12299,9 @@
       <c r="U78">
         <v>4</v>
       </c>
+      <c r="V78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -11928,6 +12367,9 @@
       <c r="U79">
         <v>2</v>
       </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -11993,10 +12435,13 @@
       <c r="U80">
         <v>1</v>
       </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:U80">
-    <sortCondition descending="1" ref="U62:U80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:V80">
+    <sortCondition descending="1" ref="V62:V80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -12027,7 +12472,7 @@
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A38" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A37" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
@@ -12037,9 +12482,9 @@
     <hyperlink ref="A79" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A63" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A62" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
-    <hyperlink ref="A71" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
+    <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
     <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
-    <hyperlink ref="A70" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
+    <hyperlink ref="A71" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A78" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A68" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C071882-B3C2-084B-9B3D-C10D4FF15467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E5842-74BD-494B-AEDC-E4592A06C169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>China</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>10 April</t>
   </si>
+  <si>
+    <t>11 April</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +257,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,6 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -409,10 +419,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -475,10 +485,10 @@
                   <c:v>215.83818480370206</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>339.22902494331066</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73.67053789731051</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>270.12924266215725</c:v>
@@ -570,10 +580,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -636,10 +646,10 @@
                   <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>405.89569160997729</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>300</c:v>
@@ -731,10 +741,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -797,10 +807,10 @@
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>351</c:v>
@@ -892,10 +902,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -958,10 +968,10 @@
                   <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>398</c:v>
@@ -1053,10 +1063,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1119,10 +1129,10 @@
                   <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>451</c:v>
@@ -1214,10 +1224,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1280,10 +1290,10 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>531</c:v>
@@ -1377,10 +1387,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1443,10 +1453,10 @@
                   <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>614</c:v>
@@ -1540,10 +1550,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1606,10 +1616,10 @@
                   <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>697</c:v>
@@ -1703,10 +1713,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1769,10 +1779,10 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>750</c:v>
@@ -1866,10 +1876,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -1932,10 +1942,10 @@
                   <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>828</c:v>
@@ -2029,10 +2039,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2095,10 +2105,10 @@
                   <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1154</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>867</c:v>
@@ -2192,10 +2202,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2258,10 +2268,10 @@
                   <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1214</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>942</c:v>
@@ -2356,10 +2366,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2422,10 +2432,10 @@
                   <c:v>882</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1262</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1024</c:v>
@@ -2520,10 +2530,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2586,10 +2596,10 @@
                   <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1101</c:v>
@@ -2684,10 +2694,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2750,10 +2760,10 @@
                   <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1161</c:v>
@@ -2848,10 +2858,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -2914,10 +2924,10 @@
                   <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1209</c:v>
@@ -3012,10 +3022,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -3078,10 +3088,10 @@
                   <c:v>1463</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1249</c:v>
@@ -3176,10 +3186,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -3242,10 +3252,10 @@
                   <c:v>1628</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1433</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1300</c:v>
@@ -3339,10 +3349,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -3405,10 +3415,10 @@
                   <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1368</c:v>
@@ -3502,10 +3512,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -3568,10 +3578,10 @@
                   <c:v>1758</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1432</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1428</c:v>
@@ -3665,10 +3675,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
@@ -3778,6 +3788,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C332-3148-8852-800A87B58F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$W$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$W$27:$W$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34C2-A44A-93EB-83FBC4FA48EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7507,6 +7680,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DD3A-1840-9705-988C2ECD3937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$W$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$W$62:$W$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B7C-9C4E-85DA-26C64BF5B6F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8839,16 +9175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>39253</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>585353</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>49646</xdr:rowOff>
+      <xdr:rowOff>62346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>415635</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>136235</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>72738</xdr:rowOff>
+      <xdr:rowOff>85438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9175,8 +9511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R47" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9218,22 +9554,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81907</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>81953</v>
+      </c>
+      <c r="C2" s="2">
+        <v>99</v>
+      </c>
       <c r="D2" s="2">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.095959595959599</v>
+        <v>59.129148629148631</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4069264069264071</v>
+        <v>2.4090909090909092</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -9243,22 +9581,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>147577</v>
+        <v>152271</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>18849</v>
+        <v>19468</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2440.0958994708994</v>
+        <v>2517.7083333333335</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>311.65674603174602</v>
+        <v>321.89153439153444</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -9268,22 +9606,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>158273</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>163027</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2992</v>
+      </c>
       <c r="D4" s="2">
-        <v>16081</v>
+        <v>16606</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3392.0488641234465</v>
+        <v>3493.9348478354054</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>344.64209172738964</v>
+        <v>355.89369909987141</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -9296,22 +9636,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>502876</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>533115</v>
+      </c>
+      <c r="C5" s="2">
+        <v>236</v>
+      </c>
       <c r="D5" s="2">
-        <v>18747</v>
+        <v>20580</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1536.9070904645478</v>
+        <v>1629.3245721271394</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>57.295232273838636</v>
+        <v>62.897310513447437</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -9321,22 +9663,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>122171</v>
+        <v>125452</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2736</v>
+        <v>2871</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1475.6733905060996</v>
+        <v>1515.3037806498369</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>33.047469501147482</v>
+        <v>34.678101219954101</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9346,22 +9688,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>68192</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>70029</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1657</v>
+      </c>
       <c r="D7" s="2">
-        <v>4232</v>
+        <v>4357</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>840.21685559388868</v>
+        <v>862.85115820601288</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>52.143913257762449</v>
+        <v>53.684080827994087</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9371,22 +9715,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>124869</v>
+        <v>129654</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>13197</v>
+        <v>13832</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1863.9946260635918</v>
+        <v>1935.4231974921631</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>196.99955217196597</v>
+        <v>206.47857889237201</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9396,22 +9740,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10450</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>10480</v>
+      </c>
+      <c r="C9" s="2">
+        <v>32</v>
+      </c>
       <c r="D9" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>203.03089178162037</v>
+        <v>203.61375558577814</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.0217602486885564</v>
+        <v>4.0994754225762584</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9423,22 +9769,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>24551</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>25107</v>
+      </c>
+      <c r="C10" s="2">
+        <v>193</v>
+      </c>
       <c r="D10" s="2">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2864.7607934655775</v>
+        <v>2929.6382730455075</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>117.03617269544924</v>
+        <v>120.88681446907817</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9448,22 +9796,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>73758</v>
+        <v>78991</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>8958</v>
+        <v>9875</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1110.1444912703191</v>
+        <v>1188.9072847682119</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>134.8284166164961</v>
+        <v>148.63034316676701</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9473,22 +9821,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>23097</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>24413</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1174</v>
+      </c>
       <c r="D12" s="2">
-        <v>2511</v>
+        <v>2643</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1344.4121071012805</v>
+        <v>1421.0128055878929</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>146.15832363213039</v>
+        <v>153.84167636786961</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9498,22 +9848,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>13560</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>13806</v>
+      </c>
+      <c r="C13" s="2">
+        <v>139</v>
+      </c>
       <c r="D13" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1537.4149659863945</v>
+        <v>1565.3061224489795</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>36.167800453514737</v>
+        <v>38.208616780045354</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9523,22 +9875,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>26667</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>28018</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1629</v>
+      </c>
       <c r="D14" s="2">
-        <v>3019</v>
+        <v>3346</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2339.2105263157896</v>
+        <v>2457.719298245614</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>264.82456140350877</v>
+        <v>293.50877192982455</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9548,22 +9902,24 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6406</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>6409</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
       <c r="D15" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1193.3681073025334</v>
+        <v>1193.9269746646796</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>21.050670640834575</v>
+        <v>22.168405365126674</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -9571,119 +9927,125 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>9685</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>10151</v>
+      </c>
+      <c r="C16" s="2">
+        <v>332</v>
+      </c>
       <c r="D16" s="2">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>957.01581027667987</v>
+        <v>1003.0632411067195</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>85.968379446640327</v>
+        <v>87.64822134387353</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>22148</v>
+        <v>23318</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>589.19925512104282</v>
+        <v>620.32455440276669</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>15.137004522479382</v>
+        <v>17.371641393987762</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>2473</v>
+        <v>2709</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>50.397391481556959</v>
+        <v>55.206847360912981</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>1.6303240269003465</v>
+        <v>2.037905033625433</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>5819</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>5996</v>
+      </c>
+      <c r="C19" s="2">
+        <v>178</v>
+      </c>
       <c r="D19" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1039.1071428571429</v>
+        <v>1070.7142857142858</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>44.107142857142861</v>
+        <v>46.428571428571431</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>19789</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>20962</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
       <c r="D20" s="2">
-        <v>1068</v>
+        <v>1140</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>94.548494983277592</v>
+        <v>100.15289058767318</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>5.1027233635929283</v>
+        <v>5.4467271858576201</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9692,7 +10054,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9701,7 +10063,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9710,14 +10072,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -9784,8 +10146,11 @@
       <c r="V26" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="W26" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -9852,8 +10217,11 @@
       <c r="V27">
         <v>3392</v>
       </c>
+      <c r="W27">
+        <v>3494</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -9920,8 +10288,11 @@
       <c r="V28">
         <v>2865</v>
       </c>
+      <c r="W28">
+        <v>2930</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -9988,8 +10359,11 @@
       <c r="V29" s="5">
         <v>2440</v>
       </c>
+      <c r="W29" s="5">
+        <v>2518</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -10056,8 +10430,11 @@
       <c r="V30">
         <v>2339</v>
       </c>
+      <c r="W30">
+        <v>2458</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -10124,144 +10501,153 @@
       <c r="V31">
         <v>1864</v>
       </c>
+      <c r="W31">
+        <v>1935</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5">
-        <v>339.22902494331066</v>
+        <v>73.67053789731051</v>
       </c>
       <c r="C32" s="5">
-        <v>405.89569160997729</v>
+        <v>99</v>
       </c>
       <c r="D32">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="E32">
-        <v>599</v>
+        <v>162</v>
       </c>
       <c r="F32">
-        <v>634</v>
+        <v>198</v>
       </c>
       <c r="G32">
-        <v>783</v>
+        <v>260</v>
       </c>
       <c r="H32">
-        <v>868</v>
+        <v>310</v>
       </c>
       <c r="I32">
-        <v>928</v>
+        <v>369</v>
       </c>
       <c r="J32">
-        <v>996</v>
+        <v>434</v>
       </c>
       <c r="K32">
-        <v>1090</v>
+        <v>500</v>
       </c>
       <c r="L32">
-        <v>1154</v>
+        <v>576</v>
       </c>
       <c r="M32">
-        <v>1214</v>
+        <v>658</v>
       </c>
       <c r="N32">
-        <v>1262</v>
+        <v>749</v>
       </c>
       <c r="O32">
-        <v>1307</v>
+        <v>847</v>
       </c>
       <c r="P32">
-        <v>1336</v>
+        <v>952</v>
       </c>
       <c r="Q32">
-        <v>1366</v>
+        <v>1029</v>
       </c>
       <c r="R32">
-        <v>1394</v>
+        <v>1123</v>
       </c>
       <c r="S32">
-        <v>1433</v>
+        <v>1224</v>
       </c>
       <c r="T32">
-        <v>1467</v>
+        <v>1329</v>
       </c>
       <c r="U32">
-        <v>1502</v>
+        <v>1432</v>
       </c>
       <c r="V32">
         <v>1537</v>
       </c>
+      <c r="W32">
+        <v>1629</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B33" s="5">
-        <v>73.67053789731051</v>
+        <v>339.22902494331066</v>
       </c>
       <c r="C33" s="5">
-        <v>99</v>
+        <v>405.89569160997729</v>
       </c>
       <c r="D33">
-        <v>129</v>
+        <v>507</v>
       </c>
       <c r="E33">
-        <v>162</v>
+        <v>599</v>
       </c>
       <c r="F33">
-        <v>198</v>
+        <v>634</v>
       </c>
       <c r="G33">
-        <v>260</v>
+        <v>783</v>
       </c>
       <c r="H33">
-        <v>310</v>
+        <v>868</v>
       </c>
       <c r="I33">
-        <v>369</v>
+        <v>928</v>
       </c>
       <c r="J33">
-        <v>434</v>
+        <v>996</v>
       </c>
       <c r="K33">
-        <v>500</v>
+        <v>1090</v>
       </c>
       <c r="L33">
-        <v>576</v>
+        <v>1154</v>
       </c>
       <c r="M33">
-        <v>658</v>
+        <v>1214</v>
       </c>
       <c r="N33">
-        <v>749</v>
+        <v>1262</v>
       </c>
       <c r="O33">
-        <v>847</v>
+        <v>1307</v>
       </c>
       <c r="P33">
-        <v>952</v>
+        <v>1336</v>
       </c>
       <c r="Q33">
-        <v>1029</v>
+        <v>1366</v>
       </c>
       <c r="R33">
-        <v>1123</v>
+        <v>1394</v>
       </c>
       <c r="S33">
-        <v>1224</v>
+        <v>1433</v>
       </c>
       <c r="T33">
-        <v>1329</v>
+        <v>1467</v>
       </c>
       <c r="U33">
-        <v>1432</v>
+        <v>1502</v>
       </c>
       <c r="V33">
         <v>1537</v>
       </c>
+      <c r="W33">
+        <v>1565</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -10328,8 +10714,11 @@
       <c r="V34">
         <v>1476</v>
       </c>
+      <c r="W34">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -10396,8 +10785,11 @@
       <c r="V35">
         <v>1344</v>
       </c>
+      <c r="W35">
+        <v>1421</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -10464,8 +10856,11 @@
       <c r="V36">
         <v>1193</v>
       </c>
+      <c r="W36">
+        <v>1194</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -10532,8 +10927,11 @@
       <c r="V37">
         <v>1110</v>
       </c>
+      <c r="W37">
+        <v>1189</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -10600,8 +10998,11 @@
       <c r="V38">
         <v>1039</v>
       </c>
+      <c r="W38">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -10668,8 +11069,11 @@
       <c r="V39">
         <v>957</v>
       </c>
+      <c r="W39">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -10736,8 +11140,11 @@
       <c r="V40">
         <v>840</v>
       </c>
+      <c r="W40">
+        <v>863</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -10804,8 +11211,11 @@
       <c r="V41">
         <v>589</v>
       </c>
+      <c r="W41">
+        <v>620</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -10872,8 +11282,11 @@
       <c r="V42">
         <v>203</v>
       </c>
+      <c r="W42">
+        <v>204</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -10940,8 +11353,11 @@
       <c r="V43">
         <v>95</v>
       </c>
+      <c r="W43">
+        <v>100</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -11008,8 +11424,11 @@
       <c r="V44" s="5">
         <v>59</v>
       </c>
+      <c r="W44" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -11076,8 +11495,11 @@
       <c r="V45">
         <v>50</v>
       </c>
+      <c r="W45">
+        <v>55</v>
+      </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -11144,8 +11566,11 @@
       <c r="V61" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="W61" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -11212,8 +11637,11 @@
       <c r="V62">
         <v>345</v>
       </c>
+      <c r="W62">
+        <v>356</v>
+      </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -11280,8 +11708,11 @@
       <c r="V63">
         <v>312</v>
       </c>
+      <c r="W63">
+        <v>322</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -11347,6 +11778,9 @@
       </c>
       <c r="V64">
         <v>265</v>
+      </c>
+      <c r="W64">
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -11416,6 +11850,9 @@
       <c r="V65">
         <v>197</v>
       </c>
+      <c r="W65">
+        <v>206</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -11484,6 +11921,9 @@
       <c r="V66">
         <v>146</v>
       </c>
+      <c r="W66">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -11552,6 +11992,9 @@
       <c r="V67">
         <v>135</v>
       </c>
+      <c r="W67">
+        <v>149</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -11620,6 +12063,9 @@
       <c r="V68">
         <v>117</v>
       </c>
+      <c r="W68">
+        <v>121</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -11688,6 +12134,9 @@
       <c r="V69">
         <v>86</v>
       </c>
+      <c r="W69">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -11756,6 +12205,9 @@
       <c r="V70">
         <v>57</v>
       </c>
+      <c r="W70">
+        <v>63</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -11824,6 +12276,9 @@
       <c r="V71">
         <v>52</v>
       </c>
+      <c r="W71">
+        <v>54</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -11891,6 +12346,9 @@
       </c>
       <c r="V72">
         <v>44</v>
+      </c>
+      <c r="W72">
+        <v>46</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -11962,6 +12420,9 @@
       <c r="V73">
         <v>36</v>
       </c>
+      <c r="W73">
+        <v>38</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -12030,6 +12491,9 @@
       <c r="V74">
         <v>33</v>
       </c>
+      <c r="W74">
+        <v>35</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -12098,6 +12562,9 @@
       <c r="V75">
         <v>21</v>
       </c>
+      <c r="W75">
+        <v>22</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -12166,6 +12633,9 @@
       <c r="V76">
         <v>15</v>
       </c>
+      <c r="W76">
+        <v>17</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -12234,6 +12704,9 @@
       <c r="V77">
         <v>5</v>
       </c>
+      <c r="W77">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -12302,6 +12775,9 @@
       <c r="V78">
         <v>4</v>
       </c>
+      <c r="W78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -12370,6 +12846,9 @@
       <c r="V79">
         <v>2</v>
       </c>
+      <c r="W79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -12438,10 +12917,13 @@
       <c r="V80">
         <v>2</v>
       </c>
+      <c r="W80">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:V80">
-    <sortCondition descending="1" ref="V62:V80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:W80">
+    <sortCondition descending="1" ref="W62:W80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -12466,7 +12948,7 @@
     <hyperlink ref="A44" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
     <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
-    <hyperlink ref="A33" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
+    <hyperlink ref="A32" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A34" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
     <hyperlink ref="A40" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
@@ -12474,7 +12956,7 @@
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A37" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
-    <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A36" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E5842-74BD-494B-AEDC-E4592A06C169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BAEB18-CDC4-634B-8DF7-43D638F69CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>China</t>
   </si>
@@ -178,6 +178,9 @@
   <si>
     <t>11 April</t>
   </si>
+  <si>
+    <t>12 April</t>
+  </si>
 </sst>
 </file>
 
@@ -223,18 +226,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,7 +254,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,11 +266,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -410,10 +406,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -431,10 +427,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -476,10 +472,10 @@
                   <c:v>800.81680280046669</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>246.92982456140351</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>215.83818480370206</c:v>
@@ -497,10 +493,10 @@
                   <c:v>211.35040745052387</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>251</c:v>
@@ -571,10 +567,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -592,10 +588,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -637,10 +633,10 @@
                   <c:v>872.11201866977831</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>239</c:v>
@@ -658,10 +654,10 @@
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>262</c:v>
@@ -732,10 +728,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -753,10 +749,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -798,10 +794,10 @@
                   <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>296</c:v>
@@ -819,10 +815,10 @@
                   <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>282</c:v>
@@ -893,10 +889,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -914,10 +910,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -958,11 +954,11 @@
                 <c:pt idx="1">
                   <c:v>1153</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>333</c:v>
@@ -980,10 +976,10 @@
                   <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>284</c:v>
@@ -1054,10 +1050,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1075,10 +1071,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1119,11 +1115,11 @@
                 <c:pt idx="1">
                   <c:v>1272</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1230</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>377</c:v>
@@ -1141,10 +1137,10 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>308</c:v>
@@ -1215,10 +1211,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1236,10 +1232,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1280,11 +1276,11 @@
                 <c:pt idx="1">
                   <c:v>1378</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>435</c:v>
@@ -1302,10 +1298,10 @@
                   <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>335</c:v>
@@ -1378,10 +1374,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1399,10 +1395,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1443,11 +1439,11 @@
                 <c:pt idx="1">
                   <c:v>1509</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>492</c:v>
@@ -1465,10 +1461,10 @@
                   <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>365</c:v>
@@ -1541,10 +1537,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1562,10 +1558,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1606,11 +1602,11 @@
                 <c:pt idx="1">
                   <c:v>1642</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1529</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>561</c:v>
@@ -1628,10 +1624,10 @@
                   <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>393</c:v>
@@ -1704,10 +1700,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1725,10 +1721,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1769,11 +1765,11 @@
                 <c:pt idx="1">
                   <c:v>1730</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>600</c:v>
@@ -1791,10 +1787,10 @@
                   <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>428</c:v>
@@ -1867,10 +1863,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -1888,10 +1884,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -1932,11 +1928,11 @@
                 <c:pt idx="1">
                   <c:v>1858</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1682</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>665</c:v>
@@ -1954,10 +1950,10 @@
                   <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>460</c:v>
@@ -2030,10 +2026,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2051,10 +2047,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2095,11 +2091,11 @@
                 <c:pt idx="1">
                   <c:v>1938</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>778</c:v>
@@ -2117,10 +2113,10 @@
                   <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>511</c:v>
@@ -2193,10 +2189,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2214,10 +2210,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2258,11 +2254,11 @@
                 <c:pt idx="1">
                   <c:v>2073</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>851</c:v>
@@ -2280,10 +2276,10 @@
                   <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>555</c:v>
@@ -2357,10 +2353,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2378,10 +2374,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2422,11 +2418,11 @@
                 <c:pt idx="1">
                   <c:v>2197</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1346</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>882</c:v>
@@ -2444,10 +2440,10 @@
                   <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>605</c:v>
@@ -2521,10 +2517,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2542,10 +2538,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2586,11 +2582,11 @@
                 <c:pt idx="1">
                   <c:v>2288</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1471</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>960</c:v>
@@ -2608,10 +2604,10 @@
                   <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>671</c:v>
@@ -2685,10 +2681,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2706,10 +2702,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2750,11 +2746,11 @@
                 <c:pt idx="1">
                   <c:v>2393</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2061</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1343</c:v>
@@ -2772,10 +2768,10 @@
                   <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>728</c:v>
@@ -2849,10 +2845,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -2870,10 +2866,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -2914,11 +2910,11 @@
                 <c:pt idx="1">
                   <c:v>2483</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1386</c:v>
@@ -2936,10 +2932,10 @@
                   <c:v>1039</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>780</c:v>
@@ -3013,10 +3009,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3034,10 +3030,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3078,11 +3074,11 @@
                 <c:pt idx="1">
                   <c:v>2527</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1463</c:v>
@@ -3100,10 +3096,10 @@
                   <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>836</c:v>
@@ -3177,10 +3173,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3198,10 +3194,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3242,11 +3238,11 @@
                 <c:pt idx="1">
                   <c:v>2597</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1628</c:v>
@@ -3264,10 +3260,10 @@
                   <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1134</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>906</c:v>
@@ -3340,10 +3336,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3361,10 +3357,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3405,11 +3401,11 @@
                 <c:pt idx="1">
                   <c:v>2716</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1686</c:v>
@@ -3427,10 +3423,10 @@
                   <c:v>1196</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>965</c:v>
@@ -3503,10 +3499,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3524,10 +3520,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3568,11 +3564,11 @@
                 <c:pt idx="1">
                   <c:v>2806</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2191</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1758</c:v>
@@ -3590,10 +3586,10 @@
                   <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1006</c:v>
@@ -3666,10 +3662,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3687,10 +3683,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3731,11 +3727,11 @@
                 <c:pt idx="1">
                   <c:v>2865</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2339</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1864</c:v>
@@ -3753,10 +3749,10 @@
                   <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1039</c:v>
@@ -3829,10 +3825,10 @@
                   <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>France</c:v>
@@ -3850,10 +3846,10 @@
                   <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Denmark</c:v>
@@ -3894,11 +3890,11 @@
                 <c:pt idx="1">
                   <c:v>2930</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="2">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>2518</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1935</c:v>
@@ -3916,10 +3912,10 @@
                   <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1071</c:v>
@@ -3951,6 +3947,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-34C2-A44A-93EB-83FBC4FA48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$X$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$X$27:$X$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34C2-A44A-93EB-83FBC4FA48EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4308,10 +4467,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -4374,10 +4533,10 @@
                   <c:v>8.3893118375876998</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.5069235400361229</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7.9161816065192081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5069235400361229</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.3348891481913654</c:v>
@@ -4469,10 +4628,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -4535,10 +4694,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>11</c:v>
@@ -4630,10 +4789,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -4696,10 +4855,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
@@ -4791,10 +4950,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -4857,10 +5016,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
@@ -4952,10 +5111,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5018,10 +5177,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18</c:v>
@@ -5113,10 +5272,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5179,10 +5338,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22</c:v>
@@ -5276,10 +5435,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5342,10 +5501,10 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27</c:v>
@@ -5439,10 +5598,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5505,10 +5664,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>31</c:v>
@@ -5602,10 +5761,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5668,10 +5827,10 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35</c:v>
@@ -5765,10 +5924,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5831,10 +5990,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42</c:v>
@@ -5928,10 +6087,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -5994,10 +6153,10 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51</c:v>
@@ -6091,10 +6250,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6157,10 +6316,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>57</c:v>
@@ -6255,10 +6414,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6321,10 +6480,10 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>63</c:v>
@@ -6419,10 +6578,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6485,10 +6644,10 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>69</c:v>
@@ -6583,10 +6742,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6649,10 +6808,10 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>78</c:v>
@@ -6747,10 +6906,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6813,10 +6972,10 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>86</c:v>
@@ -6911,10 +7070,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -6977,10 +7136,10 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>89</c:v>
@@ -7075,10 +7234,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -7141,10 +7300,10 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96</c:v>
@@ -7238,10 +7397,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -7304,10 +7463,10 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>104</c:v>
@@ -7401,10 +7560,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -7467,10 +7626,10 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>111</c:v>
@@ -7564,10 +7723,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -7630,10 +7789,10 @@
                   <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>117</c:v>
@@ -7727,10 +7886,10 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Switzerland</c:v>
@@ -7793,10 +7952,10 @@
                   <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>121</c:v>
@@ -7843,6 +8002,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B7C-9C4E-85DA-26C64BF5B6F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$X$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$X$62:$X$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B7C-9C4E-85DA-26C64BF5B6F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9511,8 +9833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z52" sqref="Z52"/>
+    <sheetView tabSelected="1" topLeftCell="O48" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9550,80 +9872,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>81953</v>
+        <v>82160</v>
       </c>
       <c r="C2" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.129148629148631</v>
+        <v>59.278499278499275</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4090909090909092</v>
+        <v>2.4105339105339105</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>152271</v>
+        <v>156363</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>19468</v>
+        <v>19899</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2517.7083333333335</v>
+        <v>2585.3670634920636</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>321.89153439153444</v>
+        <v>329.01785714285717</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>163027</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2992</v>
-      </c>
+        <v>166831</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>16606</v>
+        <v>17209</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3493.9348478354054</v>
+        <v>3575.4607801114448</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>355.89369909987141</v>
+        <v>368.81697385340766</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -9632,132 +9952,130 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>533115</v>
+        <v>560433</v>
       </c>
       <c r="C5" s="2">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2">
-        <v>20580</v>
+        <v>22115</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1629.3245721271394</v>
+        <v>1712.8147921760392</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>62.897310513447437</v>
+        <v>67.58863080684597</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>125452</v>
+        <v>127854</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2871</v>
+        <v>3022</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1515.3037806498369</v>
+        <v>1544.3169464911221</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>34.678101219954101</v>
+        <v>36.501992994322983</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>70029</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1657</v>
-      </c>
+        <v>71686</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>4357</v>
+        <v>4474</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>862.85115820601288</v>
+        <v>883.26761951700348</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>53.684080827994087</v>
+        <v>55.125677673730905</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>129654</v>
+        <v>132591</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>13832</v>
+        <v>14393</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>1935.4231974921631</v>
+        <v>1979.2655620241828</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>206.47857889237201</v>
+        <v>214.85296312882522</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10480</v>
+        <v>10537</v>
       </c>
       <c r="C9" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>203.61375558577814</v>
+        <v>204.72119681367786</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.0994754225762584</v>
+        <v>4.2160481834078105</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9765,287 +10083,273 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>25107</v>
-      </c>
-      <c r="C10" s="2">
-        <v>193</v>
-      </c>
+        <v>25415</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>1036</v>
+        <v>1106</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>2929.6382730455075</v>
+        <v>2965.5775962660441</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>120.88681446907817</v>
+        <v>129.05484247374562</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>78991</v>
+        <v>84279</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>9875</v>
+        <v>10612</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1188.9072847682119</v>
+        <v>1268.4978928356413</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>148.63034316676701</v>
+        <v>159.72305839855508</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>24413</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1174</v>
-      </c>
+        <v>25587</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>2643</v>
+        <v>2737</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1421.0128055878929</v>
+        <v>1489.348079161816</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>153.84167636786961</v>
+        <v>159.31315483119909</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>13806</v>
-      </c>
-      <c r="C13" s="2">
-        <v>139</v>
-      </c>
+        <v>13945</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1565.3061224489795</v>
+        <v>1581.0657596371882</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>38.208616780045354</v>
+        <v>39.682539682539684</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>28018</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1629</v>
-      </c>
+        <v>29647</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>3346</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2457.719298245614</v>
+        <v>2600.614035087719</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>293.50877192982455</v>
+        <v>315.78947368421052</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6409</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50</v>
-      </c>
+        <v>6525</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1193.9269746646796</v>
+        <v>1215.5365126676602</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>22.168405365126674</v>
+        <v>23.845007451564829</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>10151</v>
-      </c>
-      <c r="C16" s="2">
-        <v>332</v>
-      </c>
+        <v>10483</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>1003.0632411067195</v>
+        <v>1035.8695652173915</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>87.64822134387353</v>
+        <v>88.833992094861671</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>23318</v>
+        <v>24383</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>620.32455440276669</v>
+        <v>648.65655759510503</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>17.371641393987762</v>
+        <v>19.074221867517956</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>2709</v>
+        <v>2776</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>55.206847360912981</v>
+        <v>56.572243733442022</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>2.037905033625433</v>
+        <v>2.2213164866517219</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>5996</v>
-      </c>
-      <c r="C19" s="2">
-        <v>178</v>
-      </c>
+        <v>6174</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1070.7142857142858</v>
+        <v>1102.5</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>46.428571428571431</v>
+        <v>48.75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>20962</v>
+        <v>22318</v>
       </c>
       <c r="C20" s="2">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>100.15289058767318</v>
+        <v>106.63162924032488</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>5.4467271858576201</v>
+        <v>5.8767319636884849</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10054,7 +10358,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -10063,7 +10367,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -10072,14 +10376,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -10149,8 +10453,11 @@
       <c r="W26" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="X26" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -10220,8 +10527,11 @@
       <c r="W27">
         <v>3494</v>
       </c>
+      <c r="X27">
+        <v>3575</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -10291,150 +10601,159 @@
       <c r="W28">
         <v>2930</v>
       </c>
+      <c r="X28">
+        <v>2966</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5">
+        <v>246.92982456140351</v>
+      </c>
+      <c r="C29" s="5">
+        <v>298</v>
+      </c>
+      <c r="D29">
+        <v>328</v>
+      </c>
+      <c r="E29">
+        <v>374</v>
+      </c>
+      <c r="F29">
+        <v>433</v>
+      </c>
+      <c r="G29">
+        <v>547</v>
+      </c>
+      <c r="H29">
+        <v>639</v>
+      </c>
+      <c r="I29">
+        <v>801</v>
+      </c>
+      <c r="J29">
+        <v>951</v>
+      </c>
+      <c r="K29">
+        <v>1044</v>
+      </c>
+      <c r="L29">
+        <v>1121</v>
+      </c>
+      <c r="M29">
+        <v>1225</v>
+      </c>
+      <c r="N29">
+        <v>1346</v>
+      </c>
+      <c r="O29">
+        <v>1471</v>
+      </c>
+      <c r="P29">
+        <v>1617</v>
+      </c>
+      <c r="Q29">
+        <v>1826</v>
+      </c>
+      <c r="R29">
+        <v>1826</v>
+      </c>
+      <c r="S29">
+        <v>1947</v>
+      </c>
+      <c r="T29">
+        <v>2053</v>
+      </c>
+      <c r="U29">
+        <v>2191</v>
+      </c>
+      <c r="V29">
+        <v>2339</v>
+      </c>
+      <c r="W29">
+        <v>2458</v>
+      </c>
+      <c r="X29">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>885.87962962962968</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C30" s="5">
         <v>977.81084656084658</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>1057</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>1144</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>1230</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>1332</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>1430</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I30" s="5">
         <v>1529</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>1615</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K30" s="5">
         <v>1682</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="5">
         <v>1749</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M30" s="5">
         <v>1828</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N30" s="5">
         <v>1905</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O30" s="5">
         <v>1981</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P30" s="5">
         <v>2061</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q30" s="5">
         <v>2132</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R30" s="5">
         <v>2192</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S30" s="5">
         <v>2242</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T30" s="5">
         <v>2305</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U30" s="5">
         <v>2375</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V30" s="5">
         <v>2440</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W30" s="5">
         <v>2518</v>
       </c>
+      <c r="X30" s="5">
+        <v>2585</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5">
-        <v>246.92982456140351</v>
-      </c>
-      <c r="C30" s="5">
-        <v>298</v>
-      </c>
-      <c r="D30">
-        <v>328</v>
-      </c>
-      <c r="E30">
-        <v>374</v>
-      </c>
-      <c r="F30">
-        <v>433</v>
-      </c>
-      <c r="G30">
-        <v>547</v>
-      </c>
-      <c r="H30">
-        <v>639</v>
-      </c>
-      <c r="I30">
-        <v>801</v>
-      </c>
-      <c r="J30">
-        <v>951</v>
-      </c>
-      <c r="K30">
-        <v>1044</v>
-      </c>
-      <c r="L30">
-        <v>1121</v>
-      </c>
-      <c r="M30">
-        <v>1225</v>
-      </c>
-      <c r="N30">
-        <v>1346</v>
-      </c>
-      <c r="O30">
-        <v>1471</v>
-      </c>
-      <c r="P30">
-        <v>1617</v>
-      </c>
-      <c r="Q30">
-        <v>1826</v>
-      </c>
-      <c r="R30">
-        <v>1826</v>
-      </c>
-      <c r="S30">
-        <v>1947</v>
-      </c>
-      <c r="T30">
-        <v>2053</v>
-      </c>
-      <c r="U30">
-        <v>2191</v>
-      </c>
-      <c r="V30">
-        <v>2339</v>
-      </c>
-      <c r="W30">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -10504,8 +10823,11 @@
       <c r="W31">
         <v>1935</v>
       </c>
+      <c r="X31">
+        <v>1979</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -10575,8 +10897,11 @@
       <c r="W32">
         <v>1629</v>
       </c>
+      <c r="X32">
+        <v>1713</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -10646,8 +10971,11 @@
       <c r="W33">
         <v>1565</v>
       </c>
+      <c r="X33">
+        <v>1581</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -10717,8 +11045,11 @@
       <c r="W34">
         <v>1515</v>
       </c>
+      <c r="X34">
+        <v>1544</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -10788,150 +11119,159 @@
       <c r="W35">
         <v>1421</v>
       </c>
+      <c r="X35">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5">
+        <v>75.526791089705</v>
+      </c>
+      <c r="C36" s="5">
+        <v>86</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>122</v>
+      </c>
+      <c r="F36">
+        <v>198</v>
+      </c>
+      <c r="G36">
+        <v>175</v>
+      </c>
+      <c r="H36">
+        <v>219</v>
+      </c>
+      <c r="I36">
+        <v>257</v>
+      </c>
+      <c r="J36">
+        <v>294</v>
+      </c>
+      <c r="K36">
+        <v>333</v>
+      </c>
+      <c r="L36">
+        <v>379</v>
+      </c>
+      <c r="M36">
+        <v>444</v>
+      </c>
+      <c r="N36">
+        <v>507</v>
+      </c>
+      <c r="O36">
+        <v>574</v>
+      </c>
+      <c r="P36">
+        <v>631</v>
+      </c>
+      <c r="Q36">
+        <v>720</v>
+      </c>
+      <c r="R36">
+        <v>777</v>
+      </c>
+      <c r="S36">
+        <v>831</v>
+      </c>
+      <c r="T36">
+        <v>914</v>
+      </c>
+      <c r="U36">
+        <v>979</v>
+      </c>
+      <c r="V36">
+        <v>1110</v>
+      </c>
+      <c r="W36">
+        <v>1189</v>
+      </c>
+      <c r="X36">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <v>403.12965722801783</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>421.5722801788375</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>474</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>518</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>571</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>628</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>628</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>748</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>758</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>828</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>865</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>909</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>959</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>1000</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <v>1034</v>
       </c>
-      <c r="Q36">
+      <c r="Q37">
         <v>1059</v>
       </c>
-      <c r="R36">
+      <c r="R37">
         <v>1093</v>
       </c>
-      <c r="S36">
+      <c r="S37">
         <v>1134</v>
       </c>
-      <c r="T36">
+      <c r="T37">
         <v>1126</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>1159</v>
       </c>
-      <c r="V36">
+      <c r="V37">
         <v>1193</v>
       </c>
-      <c r="W36">
+      <c r="W37">
         <v>1194</v>
       </c>
+      <c r="X37">
+        <v>1216</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="5">
-        <v>75.526791089705</v>
-      </c>
-      <c r="C37" s="5">
-        <v>86</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>122</v>
-      </c>
-      <c r="F37">
-        <v>198</v>
-      </c>
-      <c r="G37">
-        <v>175</v>
-      </c>
-      <c r="H37">
-        <v>219</v>
-      </c>
-      <c r="I37">
-        <v>257</v>
-      </c>
-      <c r="J37">
-        <v>294</v>
-      </c>
-      <c r="K37">
-        <v>333</v>
-      </c>
-      <c r="L37">
-        <v>379</v>
-      </c>
-      <c r="M37">
-        <v>444</v>
-      </c>
-      <c r="N37">
-        <v>507</v>
-      </c>
-      <c r="O37">
-        <v>574</v>
-      </c>
-      <c r="P37">
-        <v>631</v>
-      </c>
-      <c r="Q37">
-        <v>720</v>
-      </c>
-      <c r="R37">
-        <v>777</v>
-      </c>
-      <c r="S37">
-        <v>831</v>
-      </c>
-      <c r="T37">
-        <v>914</v>
-      </c>
-      <c r="U37">
-        <v>979</v>
-      </c>
-      <c r="V37">
-        <v>1110</v>
-      </c>
-      <c r="W37">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -11001,8 +11341,11 @@
       <c r="W38">
         <v>1071</v>
       </c>
+      <c r="X38">
+        <v>1103</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -11072,8 +11415,11 @@
       <c r="W39">
         <v>1003</v>
       </c>
+      <c r="X39">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -11143,8 +11489,11 @@
       <c r="W40">
         <v>863</v>
       </c>
+      <c r="X40">
+        <v>883</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -11214,8 +11563,11 @@
       <c r="W41">
         <v>620</v>
       </c>
+      <c r="X41">
+        <v>649</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -11285,8 +11637,11 @@
       <c r="W42">
         <v>204</v>
       </c>
+      <c r="X42">
+        <v>205</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -11356,8 +11711,11 @@
       <c r="W43">
         <v>100</v>
       </c>
+      <c r="X43">
+        <v>107</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -11427,8 +11785,11 @@
       <c r="W44" s="5">
         <v>59</v>
       </c>
+      <c r="X44" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -11498,8 +11859,11 @@
       <c r="W45">
         <v>55</v>
       </c>
+      <c r="X45">
+        <v>57</v>
+      </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -11569,8 +11933,11 @@
       <c r="W61" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="X61" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -11640,8 +12007,11 @@
       <c r="W62">
         <v>356</v>
       </c>
+      <c r="X62">
+        <v>369</v>
+      </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -11711,8 +12081,11 @@
       <c r="W63">
         <v>322</v>
       </c>
+      <c r="X63">
+        <v>329</v>
+      </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -11781,6 +12154,9 @@
       </c>
       <c r="W64">
         <v>294</v>
+      </c>
+      <c r="X64">
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -11853,147 +12229,156 @@
       <c r="W65">
         <v>206</v>
       </c>
+      <c r="X65">
+        <v>215</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="5">
-        <v>7.9161816065192081</v>
+        <v>3.5069235400361229</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
+      <c r="K66">
         <v>21</v>
       </c>
-      <c r="G66">
-        <v>25</v>
-      </c>
-      <c r="H66">
-        <v>32</v>
-      </c>
-      <c r="I66">
-        <v>37</v>
-      </c>
-      <c r="J66">
-        <v>45</v>
-      </c>
-      <c r="K66">
-        <v>50</v>
-      </c>
       <c r="L66">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="M66">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N66">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O66">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="P66">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q66">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="R66">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="S66">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="T66">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="U66">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="V66">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="W66">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="X66">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" s="5">
-        <v>3.5069235400361229</v>
+        <v>7.9161816065192081</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I67">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J67">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N67">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="O67">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P67">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="Q67">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="R67">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="S67">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="T67">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="U67">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="V67">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="W67">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="X67">
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
@@ -12066,6 +12451,9 @@
       <c r="W68">
         <v>121</v>
       </c>
+      <c r="X68">
+        <v>129</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -12137,6 +12525,9 @@
       <c r="W69">
         <v>88</v>
       </c>
+      <c r="X69">
+        <v>89</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -12208,6 +12599,9 @@
       <c r="W70">
         <v>63</v>
       </c>
+      <c r="X70">
+        <v>68</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -12279,6 +12673,9 @@
       <c r="W71">
         <v>54</v>
       </c>
+      <c r="X71">
+        <v>55</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -12349,6 +12746,9 @@
       </c>
       <c r="W72">
         <v>46</v>
+      </c>
+      <c r="X72">
+        <v>49</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
@@ -12423,6 +12823,9 @@
       <c r="W73">
         <v>38</v>
       </c>
+      <c r="X73">
+        <v>40</v>
+      </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -12494,6 +12897,9 @@
       <c r="W74">
         <v>35</v>
       </c>
+      <c r="X74">
+        <v>37</v>
+      </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -12565,6 +12971,9 @@
       <c r="W75">
         <v>22</v>
       </c>
+      <c r="X75">
+        <v>24</v>
+      </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -12636,6 +13045,9 @@
       <c r="W76">
         <v>17</v>
       </c>
+      <c r="X76">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -12707,6 +13119,9 @@
       <c r="W77">
         <v>5</v>
       </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -12778,6 +13193,9 @@
       <c r="W78">
         <v>4</v>
       </c>
+      <c r="X78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -12849,6 +13267,9 @@
       <c r="W79">
         <v>2</v>
       </c>
+      <c r="X79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -12920,10 +13341,13 @@
       <c r="W80">
         <v>2</v>
       </c>
+      <c r="X80">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:W80">
-    <sortCondition descending="1" ref="W62:W80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:X80">
+    <sortCondition descending="1" ref="X62:X80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -12946,7 +13370,7 @@
     <hyperlink ref="A16" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{6A5FA689-4530-FC48-8476-8EB82E5F1FB4}"/>
     <hyperlink ref="A17" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{768069AF-3C8F-EA44-BDE0-CFAD42D2AE89}"/>
     <hyperlink ref="A44" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{2749059A-A8E1-B840-90D7-560A71410172}"/>
-    <hyperlink ref="A29" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
+    <hyperlink ref="A30" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{C8A2C7E3-BCB6-5C46-B9C3-444096AF307B}"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{57A3EA1C-224C-3F47-BBF4-F96842A83158}"/>
     <hyperlink ref="A32" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{DCFC442A-AD43-4641-B367-D34C694F68A8}"/>
     <hyperlink ref="A34" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{AB6442DB-502D-BF47-BD97-FD78208EA473}"/>
@@ -12954,11 +13378,11 @@
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
+    <hyperlink ref="A36" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A33" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A36" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A37" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
     <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A79" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
@@ -12970,8 +13394,8 @@
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A78" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A68" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
-    <hyperlink ref="A67" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
-    <hyperlink ref="A66" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
+    <hyperlink ref="A66" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
+    <hyperlink ref="A67" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
     <hyperlink ref="A73" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
     <hyperlink ref="A64" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
     <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3373AE-6F93-CA4D-85BB-55B88897A3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F60949E-B938-6142-AA21-0B1EFF55734F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -10162,7 +10162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AN65" sqref="AN65"/>
     </sheetView>
   </sheetViews>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A885958-F0C2-A241-8142-EE3A07D821EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7FCEE-C2C7-2B42-8BB2-1E4CC8A081D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>China</t>
   </si>
@@ -187,6 +187,9 @@
   <si>
     <t>14 April</t>
   </si>
+  <si>
+    <t>15 April</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,10 +275,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -468,67 +471,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>546.42091727389629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800.81680280046669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>246.92982456140351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>885.87962962962968</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>215.83818480370206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73.67053789731051</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>339.22902494331066</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270.12924266215725</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211.35040745052387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.526791089705</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>174.901185770751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>253.94282897979301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.328544825751528</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>170.95395375947155</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9942938659058487</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58.447330447330444</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -629,67 +571,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>613.00900128589808</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>872.11201866977831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>977.81084656084658</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>405.89569160997729</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -790,67 +671,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -951,67 +771,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0">
-                  <c:v>59</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4531,7 +4290,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4850,67 +4609,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$62:$B$80</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>29.532790398628379</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8771929824561404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.778439153439152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3893118375876998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5069235400361229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9161816065192081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3348891481913654</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9762845849802373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91992665036674814</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.172005914243471</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90702947845804982</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0146152917018962</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3040238450074515</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50545357807927638</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9817369341363902</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3484848484848486</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5011,67 +4709,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$62:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>37.633947706815263</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>90.542328042328052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5172,67 +4809,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$62:$D$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5333,67 +4909,6 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$62:$E$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8913,7 +8428,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10121,16 +9636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>273821</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>686571</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>65232</xdr:rowOff>
+      <xdr:rowOff>75815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>496647</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83897</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>65233</xdr:rowOff>
+      <xdr:rowOff>75816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10493,20 +10008,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:Z80"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -10533,7 +10057,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -10558,53 +10082,57 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>162488</v>
+        <v>165155</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>21067</v>
+        <v>21645</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2686.6402116402119</v>
+        <v>2730.737433862434</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>348.33002645502648</v>
+        <v>357.88690476190476</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>174060</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>180659</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2157</v>
+      </c>
       <c r="D4" s="2">
-        <v>18255</v>
+        <v>18812</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3730.3900557222464</v>
+        <v>3871.8174024860696</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>391.23446206600948</v>
+        <v>403.17188169738534</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -10613,126 +10141,136 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>613886</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>644089</v>
+      </c>
+      <c r="C5" s="2">
+        <v>717</v>
+      </c>
       <c r="D5" s="2">
-        <v>26047</v>
+        <v>28529</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1876.1797066014672</v>
+        <v>1968.487163814181</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>79.60574572127139</v>
+        <v>87.191320293398533</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>132210</v>
+        <v>134753</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>3495</v>
+        <v>3804</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1596.9319966179489</v>
+        <v>1627.6482666988766</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>42.21524338688247</v>
+        <v>45.947578209928729</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>74877</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>76389</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1606</v>
+      </c>
       <c r="D7" s="2">
-        <v>4683</v>
+        <v>4777</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>922.58501724987684</v>
+        <v>941.21488417939872</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>57.700837851158205</v>
+        <v>58.859043863972403</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>143303</v>
+        <v>147863</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>15729</v>
+        <v>17167</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>2139.1700253769222</v>
+        <v>2207.2398865502314</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>234.79623824451411</v>
+        <v>256.26212867592182</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10564</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>10591</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22</v>
+      </c>
       <c r="D9" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>205.24577423741985</v>
+        <v>205.77035166116184</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.3131921507674376</v>
+        <v>4.3714785311832136</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10740,271 +10278,303 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>25936</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>26336</v>
+      </c>
+      <c r="C10" s="2">
+        <v>86</v>
+      </c>
       <c r="D10" s="2">
-        <v>1174</v>
+        <v>1239</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>3026.3710618436403</v>
+        <v>3073.0455075845975</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>136.98949824970828</v>
+        <v>144.57409568261377</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>93873</v>
+        <v>98476</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>12107</v>
+        <v>12868</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1412.8988561107767</v>
+        <v>1482.1794099939796</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>182.22456351595426</v>
+        <v>193.67850692354006</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>27419</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>28153</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1061</v>
+      </c>
       <c r="D12" s="2">
-        <v>2945</v>
+        <v>3134</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1595.9837019790455</v>
+        <v>1638.7077997671711</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>171.42025611175785</v>
+        <v>182.42142025611176</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>14226</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>14412</v>
+      </c>
+      <c r="C13" s="2">
+        <v>62</v>
+      </c>
       <c r="D13" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1612.9251700680272</v>
+        <v>1634.0136054421769</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>43.537414965986393</v>
+        <v>44.557823129251702</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>31119</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>33573</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1236</v>
+      </c>
       <c r="D14" s="2">
-        <v>4157</v>
+        <v>4440</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2729.7368421052629</v>
+        <v>2945</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>364.64912280701753</v>
+        <v>389.4736842105263</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6623</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>6798</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
       <c r="D15" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1233.7928464977645</v>
+        <v>1266.3934426229507</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>25.894187779433679</v>
-      </c>
+        <v>27.943368107302533</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>11445</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>11927</v>
+      </c>
+      <c r="C16" s="2">
+        <v>613</v>
+      </c>
       <c r="D16" s="2">
-        <v>1033</v>
+        <v>1203</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>1130.9288537549407</v>
+        <v>1178.5573122529645</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>102.07509881422925</v>
+        <v>118.87351778656128</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>27063</v>
+        <v>28379</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>903</v>
+        <v>1010</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>719.95211492418184</v>
+        <v>754.96142591114653</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>24.02234636871508</v>
-      </c>
+        <v>26.868848097898375</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>2979</v>
+        <v>3105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>60.70919095170165</v>
+        <v>63.276951294069697</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>2.5881393927043002</v>
-      </c>
+        <v>2.6696555940493174</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>6511</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>6681</v>
+      </c>
+      <c r="C19" s="2">
+        <v>198</v>
+      </c>
       <c r="D19" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1162.6785714285716</v>
+        <v>1193.0357142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>53.392857142857146</v>
-      </c>
+        <v>55.178571428571431</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>25262</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>28610</v>
+      </c>
+      <c r="C20" s="2">
+        <v>405</v>
+      </c>
       <c r="D20" s="2">
-        <v>1532</v>
+        <v>1757</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>120.69756330625896</v>
+        <v>136.69374104156711</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>7.3196368848542761</v>
-      </c>
+        <v>8.3946488294314374</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11013,7 +10583,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11022,7 +10592,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11031,14 +10601,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -11117,8 +10687,11 @@
       <c r="Z26" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="AA26" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -11198,7 +10771,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -11278,7 +10851,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -11358,7 +10931,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -11438,7 +11011,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -11518,7 +11091,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7FCEE-C2C7-2B42-8BB2-1E4CC8A081D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939CF2-79CD-AB48-91DF-0101D47A2FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>China</t>
   </si>
@@ -190,6 +190,15 @@
   <si>
     <t>15 April</t>
   </si>
+  <si>
+    <t>Next day</t>
+  </si>
+  <si>
+    <t>Next Day</t>
+  </si>
+  <si>
+    <t>16 April</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +436,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -442,10 +451,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -471,6 +480,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$27:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>546.42091727389629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.81680280046669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>885.87962962962968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.83818480370206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.67053789731051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.35040745052387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.12924266215725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>339.22902494331066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403.12965722801783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>253.94282897979301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.328544825751528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.95395375947155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9942938659058487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.447330447330444</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -527,13 +597,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -542,10 +612,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -571,6 +641,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$27:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>613.00900128589808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872.11201866977831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977.81084656084658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.89569160997729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>421.5722801788375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -627,13 +758,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -642,10 +773,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -671,6 +802,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$27:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -727,13 +919,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -742,10 +934,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -771,6 +963,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$27:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -827,13 +1080,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -842,10 +1095,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -893,13 +1146,13 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>634</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>198</c:v>
@@ -908,10 +1161,10 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>333</c:v>
@@ -988,13 +1241,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1003,10 +1256,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1054,13 +1307,13 @@
                   <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>783</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>433</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>175</c:v>
@@ -1069,10 +1322,10 @@
                   <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>362</c:v>
@@ -1151,13 +1404,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1166,10 +1419,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1217,13 +1470,13 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>868</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>501</c:v>
+                  <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>219</c:v>
@@ -1232,10 +1485,10 @@
                   <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>398</c:v>
@@ -1314,13 +1567,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1329,10 +1582,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1380,13 +1633,13 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>928</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>568</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>257</c:v>
@@ -1395,10 +1648,10 @@
                   <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>436</c:v>
@@ -1477,13 +1730,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1492,10 +1745,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1543,13 +1796,13 @@
                   <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>996</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>632</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>294</c:v>
@@ -1558,10 +1811,10 @@
                   <c:v>758</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>472</c:v>
@@ -1640,13 +1893,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1655,10 +1908,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1706,13 +1959,13 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1090</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>624</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>333</c:v>
@@ -1721,10 +1974,10 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>511</c:v>
@@ -1803,13 +2056,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1818,10 +2071,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -1869,13 +2122,13 @@
                   <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1154</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>733</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>379</c:v>
@@ -1884,10 +2137,10 @@
                   <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>550</c:v>
@@ -1966,13 +2219,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -1981,10 +2234,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2032,13 +2285,13 @@
                   <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1214</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>792</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>444</c:v>
@@ -2047,10 +2300,10 @@
                   <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>586</c:v>
@@ -2130,13 +2383,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2145,10 +2398,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2196,13 +2449,13 @@
                   <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1262</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>855</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>507</c:v>
@@ -2211,10 +2464,10 @@
                   <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>622</c:v>
@@ -2294,13 +2547,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2309,10 +2562,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2360,13 +2613,13 @@
                   <c:v>847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1307</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>915</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>574</c:v>
@@ -2375,10 +2628,10 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>655</c:v>
@@ -2458,13 +2711,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2473,10 +2726,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2524,13 +2777,13 @@
                   <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1336</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>968</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>631</c:v>
@@ -2539,10 +2792,10 @@
                   <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>687</c:v>
@@ -2622,13 +2875,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2637,10 +2890,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2688,13 +2941,13 @@
                   <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1366</c:v>
+                  <c:v>1039</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1039</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>720</c:v>
@@ -2703,10 +2956,10 @@
                   <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>745</c:v>
@@ -2786,13 +3039,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2801,10 +3054,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -2852,13 +3105,13 @@
                   <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1394</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1249</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1094</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>777</c:v>
@@ -2867,10 +3120,10 @@
                   <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>745</c:v>
@@ -2950,13 +3203,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -2965,10 +3218,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3016,13 +3269,13 @@
                   <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1433</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1140</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>831</c:v>
@@ -3031,10 +3284,10 @@
                   <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>771</c:v>
@@ -3113,13 +3366,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3128,10 +3381,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3179,13 +3432,13 @@
                   <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1467</c:v>
+                  <c:v>1196</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1196</c:v>
+                  <c:v>1467</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>914</c:v>
@@ -3194,10 +3447,10 @@
                   <c:v>1126</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>796</c:v>
@@ -3276,13 +3529,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3291,10 +3544,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3342,13 +3595,13 @@
                   <c:v>1432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1502</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1267</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>979</c:v>
@@ -3357,10 +3610,10 @@
                   <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>816</c:v>
@@ -3439,13 +3692,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3454,10 +3707,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3505,13 +3758,13 @@
                   <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1537</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1344</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1110</c:v>
@@ -3520,10 +3773,10 @@
                   <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>840</c:v>
@@ -3602,13 +3855,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3617,10 +3870,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3668,13 +3921,13 @@
                   <c:v>1629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1565</c:v>
+                  <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1421</c:v>
+                  <c:v>1565</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1189</c:v>
@@ -3683,10 +3936,10 @@
                   <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>863</c:v>
@@ -3765,13 +4018,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3780,10 +4033,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3831,13 +4084,13 @@
                   <c:v>1713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1581</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1489</c:v>
+                  <c:v>1581</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1268</c:v>
@@ -3846,10 +4099,10 @@
                   <c:v>1216</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>883</c:v>
@@ -3928,13 +4181,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -3943,10 +4196,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -3994,13 +4247,13 @@
                   <c:v>1794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1592</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1545</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1334</c:v>
@@ -4009,10 +4262,10 @@
                   <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>903</c:v>
@@ -4092,13 +4345,13 @@
                   <c:v>USA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Austria</c:v>
+                  <c:v>Netherlands</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>UK</c:v>
@@ -4107,10 +4360,10 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Iran</c:v>
@@ -4158,13 +4411,13 @@
                   <c:v>1876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1613</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1596</c:v>
+                  <c:v>1613</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1413</c:v>
@@ -4173,10 +4426,10 @@
                   <c:v>1234</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1163</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>923</c:v>
@@ -4202,6 +4455,334 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B052-2342-8456-482F3BE0C94A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AA$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AA$27:$AA$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3871.8174024860696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3073.0455075845975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2730.737433862434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2207.2398865502314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1968.487163814181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1638.7077997671711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1627.6482666988766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1634.0136054421769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1482.1794099939796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1266.3934426229507</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1178.5573122529645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1193.0357142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>941.21488417939872</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>754.96142591114653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205.77035166116184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.69374104156711</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.276951294069697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.375901875901874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2BE-E84F-995C-F8F5E9B84FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AB$27:$AB$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3963.7376768109734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3119.2532088681446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3053.4210526315787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2793.3366402116403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2463.4572324227497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2070.8129584352077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700.4656577415599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1663.2201956758061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1641.2698412698412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1551.6706803130644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1286.3263785394931</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1239.1304347826087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1228.3928571428571</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>961.00295712173488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800.90449587656281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>206.62521857392656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.59818442427138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.885469737110256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.427849927849927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ECB-8747-8052-E472D01C305C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4290,7 +4871,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4547,10 +5128,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -4580,16 +5161,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -4609,6 +5190,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$B$62:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.8771929824561404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.532790398628379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.778439153439152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3893118375876998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5069235400361229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9161816065192081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3348891481913654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9762845849802373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91992665036674814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.172005914243471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0146152917018962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90702947845804982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50545357807927638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3040238450074515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9817369341363902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3484848484848486</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4647,10 +5289,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -4680,16 +5322,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -4709,6 +5351,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$C$62:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.633947706815263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.542328042328052</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4747,10 +5450,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -4780,16 +5483,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -4809,6 +5512,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$D$62:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4847,10 +5611,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -4880,16 +5644,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -4909,6 +5673,67 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculos COVID19'!$E$62:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4947,10 +5772,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -4980,16 +5805,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5013,10 +5838,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>124</c:v>
@@ -5046,16 +5871,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5108,10 +5933,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5141,16 +5966,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5174,10 +5999,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>136</c:v>
@@ -5207,16 +6032,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5271,10 +6096,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5304,16 +6129,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5337,10 +6162,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>151</c:v>
@@ -5370,16 +6195,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5434,10 +6259,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5467,16 +6292,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5500,10 +6325,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>166</c:v>
@@ -5533,16 +6358,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -5597,10 +6422,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5630,16 +6455,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5663,10 +6488,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>178</c:v>
@@ -5696,16 +6521,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -5760,10 +6585,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5793,16 +6618,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5826,10 +6651,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>192</c:v>
@@ -5859,16 +6684,16 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -5923,10 +6748,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -5956,16 +6781,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -5989,10 +6814,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>205</c:v>
@@ -6022,16 +6847,16 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -6086,10 +6911,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6119,16 +6944,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6152,10 +6977,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>218</c:v>
@@ -6185,16 +7010,16 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -6250,10 +7075,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6283,16 +7108,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6316,10 +7141,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>230</c:v>
@@ -6349,16 +7174,16 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -6414,10 +7239,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6447,16 +7272,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6480,10 +7305,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>243</c:v>
@@ -6513,16 +7338,16 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -6578,10 +7403,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6611,16 +7436,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6644,10 +7469,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>254</c:v>
@@ -6677,16 +7502,16 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -6742,10 +7567,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6775,16 +7600,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6808,10 +7633,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>263</c:v>
@@ -6841,16 +7666,16 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -6906,10 +7731,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -6939,16 +7764,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -6972,10 +7797,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>273</c:v>
@@ -7005,16 +7830,16 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -7070,10 +7895,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7103,16 +7928,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7136,10 +7961,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>283</c:v>
@@ -7169,16 +7994,16 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -7233,10 +8058,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7266,16 +8091,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7299,10 +8124,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>292</c:v>
@@ -7332,16 +8157,16 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
@@ -7396,10 +8221,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7429,16 +8254,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7462,10 +8287,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>302</c:v>
@@ -7495,16 +8320,16 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>31</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
@@ -7559,10 +8384,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7592,16 +8417,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7625,10 +8450,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>312</c:v>
@@ -7658,16 +8483,16 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
@@ -7722,10 +8547,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7755,16 +8580,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7788,10 +8613,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>322</c:v>
@@ -7821,16 +8646,16 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
@@ -7885,10 +8710,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -7918,16 +8743,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -7951,10 +8776,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>329</c:v>
@@ -7984,16 +8809,16 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
@@ -8048,10 +8873,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -8081,16 +8906,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -8114,10 +8939,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>338</c:v>
@@ -8147,16 +8972,16 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
@@ -8212,10 +9037,10 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Italy</c:v>
@@ -8245,16 +9070,16 @@
                   <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Germany</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Brazil</c:v>
@@ -8278,10 +9103,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>348</c:v>
@@ -8311,16 +9136,16 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7</c:v>
@@ -8340,6 +9165,334 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7E0-1E48-923A-9129B127D88C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AA$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AA$62:$AA$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>389.4736842105263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>403.17188169738534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357.88690476190476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.26212867592182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193.67850692354006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.42142025611176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.57409568261377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.87351778656128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.191320293398533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.859043863972403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.178571428571431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.947578209928729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.557823129251702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.868848097898375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.943368107302533</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3946488294314374</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3714785311832136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6696555940493174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4112554112554112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4591-DD40-ABB3-32232264C5EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AB$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AB$62:$AB$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>426.05263157894734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.95199314187744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.56746031746036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.50261233019853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.63756773028297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.9569266589057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.47491248541422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131.71936758893281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.7976772616137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.992607195662892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.321428571428577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.943109071143851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.485260770975053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.790369779196592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.315946348733231</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3024366937410417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4686224985428407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9345832484206236</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4112554112554112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9D5-2144-8303-B30BD2275342}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8428,7 +9581,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9636,16 +10789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>686571</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75815</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>802988</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>83897</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>75816</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>200314</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9672,16 +10825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>479520</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>189345</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>426603</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>30402</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>11354</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>802985</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>53688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10008,15 +11161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" topLeftCell="AA52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
@@ -10061,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>82295</v>
+        <v>82367</v>
       </c>
       <c r="C2" s="2">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>3342</v>
@@ -10074,7 +11227,7 @@
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.375901875901874</v>
+        <v>59.427849927849927</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
@@ -10089,22 +11242,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>165155</v>
+        <v>168941</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>21645</v>
+        <v>22170</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2730.737433862434</v>
+        <v>2793.3366402116403</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>357.88690476190476</v>
+        <v>366.56746031746036</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -10115,24 +11268,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>180659</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2157</v>
-      </c>
+        <v>184948</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>18812</v>
+        <v>19315</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3871.8174024860696</v>
+        <v>3963.7376768109734</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>403.17188169738534</v>
+        <v>413.95199314187744</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -10145,24 +11296,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>644089</v>
+        <v>677570</v>
       </c>
       <c r="C5" s="2">
         <v>717</v>
       </c>
       <c r="D5" s="2">
-        <v>28529</v>
+        <v>34617</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1968.487163814181</v>
+        <f>B5/E5</f>
+        <v>2070.8129584352077</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>87.191320293398533</v>
+        <v>105.7976772616137</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -10173,22 +11324,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>134753</v>
+        <v>137698</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>3804</v>
+        <v>4052</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1627.6482666988766</v>
+        <v>1663.2201956758061</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>45.947578209928729</v>
+        <v>48.943109071143851</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -10199,24 +11350,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>76389</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1606</v>
-      </c>
+        <v>77995</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>4777</v>
+        <v>4869</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>941.21488417939872</v>
+        <v>961.00295712173488</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>58.859043863972403</v>
+        <v>59.992607195662892</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10227,22 +11376,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>147863</v>
+        <v>165027</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>17167</v>
+        <v>17920</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>2207.2398865502314</v>
+        <v>2463.4572324227497</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>256.26212867592182</v>
+        <v>267.50261233019853</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10253,24 +11402,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10591</v>
+        <v>10635</v>
       </c>
       <c r="C9" s="2">
         <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>205.77035166116184</v>
+        <v>206.62521857392656</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.3714785311832136</v>
+        <v>4.4686224985428407</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10282,24 +11431,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>26336</v>
-      </c>
-      <c r="C10" s="2">
-        <v>86</v>
-      </c>
+        <v>26732</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>1239</v>
+        <v>1281</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>3073.0455075845975</v>
+        <v>3119.2532088681446</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>144.57409568261377</v>
+        <v>149.47491248541422</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10310,22 +11457,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>98476</v>
+        <v>103093</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>12868</v>
+        <v>13729</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1482.1794099939796</v>
+        <v>1551.6706803130644</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>193.67850692354006</v>
+        <v>206.63756773028297</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10336,24 +11483,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>28153</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1061</v>
-      </c>
+        <v>29214</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>3134</v>
+        <v>3315</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1638.7077997671711</v>
+        <v>1700.4656577415599</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>182.42142025611176</v>
+        <v>192.9569266589057</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10364,24 +11509,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>14412</v>
-      </c>
-      <c r="C13" s="2">
-        <v>62</v>
-      </c>
+        <v>14476</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1634.0136054421769</v>
+        <v>1641.2698412698412</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>44.557823129251702</v>
+        <v>46.485260770975053</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10392,24 +11535,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>33573</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1236</v>
-      </c>
+        <v>34809</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>4440</v>
+        <v>4857</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>2945</v>
+        <v>3053.4210526315787</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>389.4736842105263</v>
+        <v>426.05263157894734</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10420,24 +11561,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6798</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
+        <v>6905</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1266.3934426229507</v>
+        <v>1286.3263785394931</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>27.943368107302533</v>
+        <v>28.315946348733231</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -10447,134 +11586,128 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>11927</v>
-      </c>
-      <c r="C16" s="2">
-        <v>613</v>
-      </c>
+        <v>12540</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>1203</v>
+        <v>1333</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>1178.5573122529645</v>
+        <v>1239.1304347826087</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>118.87351778656128</v>
+        <v>131.71936758893281</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>28379</v>
+        <v>30106</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>1010</v>
+        <v>1195</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>754.96142591114653</v>
+        <v>800.90449587656281</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>26.868848097898375</v>
+        <v>31.790369779196592</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>3105</v>
+        <v>3233</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>63.276951294069697</v>
+        <v>65.885469737110256</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>2.6696555940493174</v>
+        <v>2.9345832484206236</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>6681</v>
-      </c>
-      <c r="C19" s="2">
-        <v>198</v>
-      </c>
+        <v>6879</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1193.0357142857144</v>
+        <v>1228.3928571428571</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>55.178571428571431</v>
+        <v>57.321428571428577</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>28610</v>
-      </c>
-      <c r="C20" s="2">
-        <v>405</v>
-      </c>
+        <v>30683</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>1757</v>
+        <v>1947</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>136.69374104156711</v>
+        <v>146.59818442427138</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>8.3946488294314374</v>
+        <v>9.3024366937410417</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10583,7 +11716,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -10592,7 +11725,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -10601,14 +11734,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -10690,8 +11823,14 @@
       <c r="AA26" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="AB26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -10770,8 +11909,19 @@
       <c r="Z27">
         <v>3730</v>
       </c>
+      <c r="AA27" s="6">
+        <v>3871.8174024860696</v>
+      </c>
+      <c r="AB27" s="6">
+        <f>VLOOKUP(A27,$A$2:$G$20,6,FALSE)</f>
+        <v>3963.7376768109734</v>
+      </c>
+      <c r="AC27" s="6">
+        <f>VLOOKUP(A27,$A$2:$G$20,6,FALSE)</f>
+        <v>3963.7376768109734</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -10850,8 +12000,19 @@
       <c r="Z28">
         <v>3026</v>
       </c>
+      <c r="AA28" s="6">
+        <v>3073.0455075845975</v>
+      </c>
+      <c r="AB28" s="6">
+        <f>VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
+        <v>3119.2532088681446</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" ref="AC28:AC45" si="2">VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
+        <v>3119.2532088681446</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -10930,8 +12091,19 @@
       <c r="Z29">
         <v>2730</v>
       </c>
+      <c r="AA29" s="6">
+        <v>2945</v>
+      </c>
+      <c r="AB29" s="6">
+        <f>VLOOKUP(A29,$A$2:$G$20,6,FALSE)</f>
+        <v>3053.4210526315787</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" si="2"/>
+        <v>3053.4210526315787</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -11010,8 +12182,19 @@
       <c r="Z30" s="5">
         <v>2687</v>
       </c>
+      <c r="AA30" s="6">
+        <v>2730.737433862434</v>
+      </c>
+      <c r="AB30" s="6">
+        <f>VLOOKUP(A30,$A$2:$G$20,6,FALSE)</f>
+        <v>2793.3366402116403</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="2"/>
+        <v>2793.3366402116403</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -11090,8 +12273,19 @@
       <c r="Z31">
         <v>2139</v>
       </c>
+      <c r="AA31" s="6">
+        <v>2207.2398865502314</v>
+      </c>
+      <c r="AB31" s="6">
+        <f>VLOOKUP(A31,$A$2:$G$20,6,FALSE)</f>
+        <v>2463.4572324227497</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="2"/>
+        <v>2463.4572324227497</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -11170,88 +12364,110 @@
       <c r="Z32">
         <v>1876</v>
       </c>
+      <c r="AA32" s="6">
+        <v>1968.487163814181</v>
+      </c>
+      <c r="AB32" s="6">
+        <f>VLOOKUP(A32,$A$2:$G$20,6,FALSE)</f>
+        <v>2070.8129584352077</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="2"/>
+        <v>2070.8129584352077</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="5">
-        <v>339.22902494331066</v>
+        <v>211.35040745052387</v>
       </c>
       <c r="C33" s="5">
-        <v>405.89569160997729</v>
+        <v>245</v>
       </c>
       <c r="D33">
-        <v>507</v>
+        <v>276</v>
       </c>
       <c r="E33">
-        <v>599</v>
+        <v>324</v>
       </c>
       <c r="F33">
-        <v>634</v>
+        <v>373</v>
       </c>
       <c r="G33">
-        <v>783</v>
+        <v>433</v>
       </c>
       <c r="H33">
-        <v>868</v>
+        <v>501</v>
       </c>
       <c r="I33">
-        <v>928</v>
+        <v>568</v>
       </c>
       <c r="J33">
-        <v>996</v>
+        <v>632</v>
       </c>
       <c r="K33">
-        <v>1090</v>
+        <v>624</v>
       </c>
       <c r="L33">
-        <v>1154</v>
+        <v>733</v>
       </c>
       <c r="M33">
-        <v>1214</v>
+        <v>792</v>
       </c>
       <c r="N33">
-        <v>1262</v>
+        <v>855</v>
       </c>
       <c r="O33">
-        <v>1307</v>
+        <v>915</v>
       </c>
       <c r="P33">
-        <v>1336</v>
+        <v>968</v>
       </c>
       <c r="Q33">
-        <v>1366</v>
+        <v>1039</v>
       </c>
       <c r="R33">
-        <v>1394</v>
+        <v>1094</v>
       </c>
       <c r="S33">
-        <v>1433</v>
+        <v>1140</v>
       </c>
       <c r="T33">
-        <v>1467</v>
+        <v>1196</v>
       </c>
       <c r="U33">
-        <v>1502</v>
+        <v>1267</v>
       </c>
       <c r="V33">
-        <v>1537</v>
+        <v>1344</v>
       </c>
       <c r="W33">
-        <v>1565</v>
+        <v>1421</v>
       </c>
       <c r="X33">
-        <v>1581</v>
+        <v>1489</v>
       </c>
       <c r="Y33">
-        <v>1592</v>
+        <v>1545</v>
       </c>
       <c r="Z33">
-        <v>1613</v>
+        <v>1596</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>1638.7077997671711</v>
+      </c>
+      <c r="AB33" s="6">
+        <f>VLOOKUP(A33,$A$2:$G$20,6,FALSE)</f>
+        <v>1700.4656577415599</v>
+      </c>
+      <c r="AC33" s="6">
+        <f t="shared" si="2"/>
+        <v>1700.4656577415599</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -11330,88 +12546,110 @@
       <c r="Z34">
         <v>1597</v>
       </c>
+      <c r="AA34" s="6">
+        <v>1627.6482666988766</v>
+      </c>
+      <c r="AB34" s="6">
+        <f>VLOOKUP(A34,$A$2:$G$20,6,FALSE)</f>
+        <v>1663.2201956758061</v>
+      </c>
+      <c r="AC34" s="6">
+        <f t="shared" si="2"/>
+        <v>1663.2201956758061</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="5">
-        <v>211.35040745052387</v>
+        <v>339.22902494331066</v>
       </c>
       <c r="C35" s="5">
-        <v>245</v>
+        <v>405.89569160997729</v>
       </c>
       <c r="D35">
-        <v>276</v>
+        <v>507</v>
       </c>
       <c r="E35">
-        <v>324</v>
+        <v>599</v>
       </c>
       <c r="F35">
-        <v>373</v>
+        <v>634</v>
       </c>
       <c r="G35">
-        <v>433</v>
+        <v>783</v>
       </c>
       <c r="H35">
-        <v>501</v>
+        <v>868</v>
       </c>
       <c r="I35">
-        <v>568</v>
+        <v>928</v>
       </c>
       <c r="J35">
-        <v>632</v>
+        <v>996</v>
       </c>
       <c r="K35">
-        <v>624</v>
+        <v>1090</v>
       </c>
       <c r="L35">
-        <v>733</v>
+        <v>1154</v>
       </c>
       <c r="M35">
-        <v>792</v>
+        <v>1214</v>
       </c>
       <c r="N35">
-        <v>855</v>
+        <v>1262</v>
       </c>
       <c r="O35">
-        <v>915</v>
+        <v>1307</v>
       </c>
       <c r="P35">
-        <v>968</v>
+        <v>1336</v>
       </c>
       <c r="Q35">
-        <v>1039</v>
+        <v>1366</v>
       </c>
       <c r="R35">
-        <v>1094</v>
+        <v>1394</v>
       </c>
       <c r="S35">
-        <v>1140</v>
+        <v>1433</v>
       </c>
       <c r="T35">
-        <v>1196</v>
+        <v>1467</v>
       </c>
       <c r="U35">
-        <v>1267</v>
+        <v>1502</v>
       </c>
       <c r="V35">
-        <v>1344</v>
+        <v>1537</v>
       </c>
       <c r="W35">
-        <v>1421</v>
+        <v>1565</v>
       </c>
       <c r="X35">
-        <v>1489</v>
+        <v>1581</v>
       </c>
       <c r="Y35">
-        <v>1545</v>
+        <v>1592</v>
       </c>
       <c r="Z35">
-        <v>1596</v>
+        <v>1613</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>1634.0136054421769</v>
+      </c>
+      <c r="AB35" s="6">
+        <f>VLOOKUP(A35,$A$2:$G$20,6,FALSE)</f>
+        <v>1641.2698412698412</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" si="2"/>
+        <v>1641.2698412698412</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -11490,8 +12728,19 @@
       <c r="Z36">
         <v>1413</v>
       </c>
+      <c r="AA36" s="6">
+        <v>1482.1794099939796</v>
+      </c>
+      <c r="AB36" s="6">
+        <f>VLOOKUP(A36,$A$2:$G$20,6,FALSE)</f>
+        <v>1551.6706803130644</v>
+      </c>
+      <c r="AC36" s="6">
+        <f t="shared" si="2"/>
+        <v>1551.6706803130644</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -11570,168 +12819,201 @@
       <c r="Z37">
         <v>1234</v>
       </c>
+      <c r="AA37" s="6">
+        <v>1266.3934426229507</v>
+      </c>
+      <c r="AB37" s="6">
+        <f>VLOOKUP(A37,$A$2:$G$20,6,FALSE)</f>
+        <v>1286.3263785394931</v>
+      </c>
+      <c r="AC37" s="6">
+        <f t="shared" si="2"/>
+        <v>1286.3263785394931</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5">
+        <v>174.901185770751</v>
+      </c>
+      <c r="C38" s="5">
+        <v>191</v>
+      </c>
+      <c r="D38">
+        <v>202</v>
+      </c>
+      <c r="E38">
+        <v>226</v>
+      </c>
+      <c r="F38">
+        <v>250</v>
+      </c>
+      <c r="G38">
+        <v>281</v>
+      </c>
+      <c r="H38">
+        <v>371</v>
+      </c>
+      <c r="I38">
+        <v>341</v>
+      </c>
+      <c r="J38">
+        <v>366</v>
+      </c>
+      <c r="K38">
+        <v>398</v>
+      </c>
+      <c r="L38">
+        <v>438</v>
+      </c>
+      <c r="M38">
+        <v>489</v>
+      </c>
+      <c r="N38">
+        <v>550</v>
+      </c>
+      <c r="O38">
+        <v>606</v>
+      </c>
+      <c r="P38">
+        <v>637</v>
+      </c>
+      <c r="Q38">
+        <v>675</v>
+      </c>
+      <c r="R38">
+        <v>712</v>
+      </c>
+      <c r="S38">
+        <v>760</v>
+      </c>
+      <c r="T38">
+        <v>832</v>
+      </c>
+      <c r="U38">
+        <v>903</v>
+      </c>
+      <c r="V38">
+        <v>957</v>
+      </c>
+      <c r="W38">
+        <v>1003</v>
+      </c>
+      <c r="X38">
+        <v>1036</v>
+      </c>
+      <c r="Y38">
+        <v>1082</v>
+      </c>
+      <c r="Z38">
+        <v>1131</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>1178.5573122529645</v>
+      </c>
+      <c r="AB38" s="6">
+        <f>VLOOKUP(A38,$A$2:$G$20,6,FALSE)</f>
+        <v>1239.1304347826087</v>
+      </c>
+      <c r="AC38" s="6">
+        <f t="shared" si="2"/>
+        <v>1239.1304347826087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>251</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C39" s="5">
         <v>262</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>282</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>284</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>308</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>335</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>365</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>393</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>428</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>460</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>511</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>555</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>605</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>671</v>
       </c>
-      <c r="P38">
+      <c r="P39">
         <v>728</v>
       </c>
-      <c r="Q38">
+      <c r="Q39">
         <v>780</v>
       </c>
-      <c r="R38">
+      <c r="R39">
         <v>836</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>906</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>965</v>
       </c>
-      <c r="U38">
+      <c r="U39">
         <v>1006</v>
       </c>
-      <c r="V38">
+      <c r="V39">
         <v>1039</v>
       </c>
-      <c r="W38">
+      <c r="W39">
         <v>1071</v>
       </c>
-      <c r="X38">
+      <c r="X39">
         <v>1103</v>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <v>1128</v>
       </c>
-      <c r="Z38">
+      <c r="Z39">
         <v>1163</v>
       </c>
+      <c r="AA39" s="6">
+        <v>1193.0357142857144</v>
+      </c>
+      <c r="AB39" s="6">
+        <f>VLOOKUP(A39,$A$2:$G$20,6,FALSE)</f>
+        <v>1228.3928571428571</v>
+      </c>
+      <c r="AC39" s="6">
+        <f t="shared" si="2"/>
+        <v>1228.3928571428571</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="5">
-        <v>174.901185770751</v>
-      </c>
-      <c r="C39" s="5">
-        <v>191</v>
-      </c>
-      <c r="D39">
-        <v>202</v>
-      </c>
-      <c r="E39">
-        <v>226</v>
-      </c>
-      <c r="F39">
-        <v>250</v>
-      </c>
-      <c r="G39">
-        <v>281</v>
-      </c>
-      <c r="H39">
-        <v>371</v>
-      </c>
-      <c r="I39">
-        <v>341</v>
-      </c>
-      <c r="J39">
-        <v>366</v>
-      </c>
-      <c r="K39">
-        <v>398</v>
-      </c>
-      <c r="L39">
-        <v>438</v>
-      </c>
-      <c r="M39">
-        <v>489</v>
-      </c>
-      <c r="N39">
-        <v>550</v>
-      </c>
-      <c r="O39">
-        <v>606</v>
-      </c>
-      <c r="P39">
-        <v>637</v>
-      </c>
-      <c r="Q39">
-        <v>675</v>
-      </c>
-      <c r="R39">
-        <v>712</v>
-      </c>
-      <c r="S39">
-        <v>760</v>
-      </c>
-      <c r="T39">
-        <v>832</v>
-      </c>
-      <c r="U39">
-        <v>903</v>
-      </c>
-      <c r="V39">
-        <v>957</v>
-      </c>
-      <c r="W39">
-        <v>1003</v>
-      </c>
-      <c r="X39">
-        <v>1036</v>
-      </c>
-      <c r="Y39">
-        <v>1082</v>
-      </c>
-      <c r="Z39">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -11810,8 +13092,19 @@
       <c r="Z40">
         <v>923</v>
       </c>
+      <c r="AA40" s="6">
+        <v>941.21488417939872</v>
+      </c>
+      <c r="AB40" s="6">
+        <f>VLOOKUP(A40,$A$2:$G$20,6,FALSE)</f>
+        <v>961.00295712173488</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" si="2"/>
+        <v>961.00295712173488</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -11890,8 +13183,19 @@
       <c r="Z41">
         <v>720</v>
       </c>
+      <c r="AA41" s="6">
+        <v>754.96142591114653</v>
+      </c>
+      <c r="AB41" s="6">
+        <f>VLOOKUP(A41,$A$2:$G$20,6,FALSE)</f>
+        <v>800.90449587656281</v>
+      </c>
+      <c r="AC41" s="6">
+        <f t="shared" si="2"/>
+        <v>800.90449587656281</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -11970,8 +13274,19 @@
       <c r="Z42">
         <v>205</v>
       </c>
+      <c r="AA42" s="6">
+        <v>205.77035166116184</v>
+      </c>
+      <c r="AB42" s="6">
+        <f>VLOOKUP(A42,$A$2:$G$20,6,FALSE)</f>
+        <v>206.62521857392656</v>
+      </c>
+      <c r="AC42" s="6">
+        <f t="shared" si="2"/>
+        <v>206.62521857392656</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -12050,8 +13365,19 @@
       <c r="Z43">
         <v>121</v>
       </c>
+      <c r="AA43" s="6">
+        <v>136.69374104156711</v>
+      </c>
+      <c r="AB43" s="6">
+        <f>VLOOKUP(A43,$A$2:$G$20,6,FALSE)</f>
+        <v>146.59818442427138</v>
+      </c>
+      <c r="AC43" s="6">
+        <f t="shared" si="2"/>
+        <v>146.59818442427138</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -12130,8 +13456,19 @@
       <c r="Z44">
         <v>61</v>
       </c>
+      <c r="AA44" s="6">
+        <v>63.276951294069697</v>
+      </c>
+      <c r="AB44" s="6">
+        <f>VLOOKUP(A44,$A$2:$G$20,6,FALSE)</f>
+        <v>65.885469737110256</v>
+      </c>
+      <c r="AC44" s="6">
+        <f t="shared" si="2"/>
+        <v>65.885469737110256</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -12210,8 +13547,19 @@
       <c r="Z45" s="5">
         <v>59</v>
       </c>
+      <c r="AA45" s="6">
+        <v>59.375901875901874</v>
+      </c>
+      <c r="AB45" s="6">
+        <f>VLOOKUP(A45,$A$2:$G$20,6,FALSE)</f>
+        <v>59.427849927849927</v>
+      </c>
+      <c r="AC45" s="6">
+        <f t="shared" si="2"/>
+        <v>59.427849927849927</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -12290,168 +13638,199 @@
       <c r="Z61" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="AA61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="5">
+        <v>5.8771929824561404</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>19</v>
+      </c>
+      <c r="H62">
+        <v>25</v>
+      </c>
+      <c r="I62">
+        <v>31</v>
+      </c>
+      <c r="J62">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>45</v>
+      </c>
+      <c r="L62">
+        <v>62</v>
+      </c>
+      <c r="M62">
+        <v>73</v>
+      </c>
+      <c r="N62">
+        <v>89</v>
+      </c>
+      <c r="O62">
+        <v>100</v>
+      </c>
+      <c r="P62">
+        <v>113</v>
+      </c>
+      <c r="Q62">
+        <v>143</v>
+      </c>
+      <c r="R62">
+        <v>143</v>
+      </c>
+      <c r="S62">
+        <v>179</v>
+      </c>
+      <c r="T62">
+        <v>196</v>
+      </c>
+      <c r="U62">
+        <v>221</v>
+      </c>
+      <c r="V62">
+        <v>265</v>
+      </c>
+      <c r="W62">
+        <v>294</v>
+      </c>
+      <c r="X62">
+        <v>316</v>
+      </c>
+      <c r="Y62">
+        <v>342</v>
+      </c>
+      <c r="Z62">
+        <v>365</v>
+      </c>
+      <c r="AA62" s="6">
+        <v>389.4736842105263</v>
+      </c>
+      <c r="AB62" s="6">
+        <f>VLOOKUP(A62,$A$2:$G$20,7,FALSE)</f>
+        <v>426.05263157894734</v>
+      </c>
+      <c r="AC62" s="6">
+        <f>VLOOKUP(A62,$A$2:$G$20,7,FALSE)</f>
+        <v>426.05263157894734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B63" s="5">
         <v>29.532790398628379</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C63" s="6">
         <v>37.633947706815263</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>47</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>60</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>72</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>94</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>110</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>128</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>146</v>
       </c>
-      <c r="K62">
+      <c r="K63">
         <v>165</v>
       </c>
-      <c r="L62">
+      <c r="L63">
         <v>181</v>
       </c>
-      <c r="M62">
+      <c r="M63">
         <v>201</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <v>222</v>
       </c>
-      <c r="O62">
+      <c r="O63">
         <v>240</v>
       </c>
-      <c r="P62">
+      <c r="P63">
         <v>256</v>
       </c>
-      <c r="Q62">
+      <c r="Q63">
         <v>271</v>
       </c>
-      <c r="R62">
+      <c r="R63">
         <v>286</v>
       </c>
-      <c r="S62">
+      <c r="S63">
         <v>301</v>
       </c>
-      <c r="T62">
+      <c r="T63">
         <v>317</v>
       </c>
-      <c r="U62">
+      <c r="U63">
         <v>331</v>
       </c>
-      <c r="V62">
+      <c r="V63">
         <v>345</v>
       </c>
-      <c r="W62">
+      <c r="W63">
         <v>356</v>
       </c>
-      <c r="X62">
+      <c r="X63">
         <v>369</v>
       </c>
-      <c r="Y62">
+      <c r="Y63">
         <v>381</v>
       </c>
-      <c r="Z62">
+      <c r="Z63">
         <v>391</v>
       </c>
+      <c r="AA63" s="6">
+        <v>403.17188169738534</v>
+      </c>
+      <c r="AB63" s="6">
+        <f>VLOOKUP(A63,$A$2:$G$20,7,FALSE)</f>
+        <v>413.95199314187744</v>
+      </c>
+      <c r="AC63" s="6">
+        <f t="shared" ref="AC63:AC80" si="3">VLOOKUP(A63,$A$2:$G$20,7,FALSE)</f>
+        <v>413.95199314187744</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="5">
-        <v>5.8771929824561404</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>11</v>
-      </c>
-      <c r="F63">
-        <v>16</v>
-      </c>
-      <c r="G63">
-        <v>19</v>
-      </c>
-      <c r="H63">
-        <v>25</v>
-      </c>
-      <c r="I63">
-        <v>31</v>
-      </c>
-      <c r="J63">
-        <v>38</v>
-      </c>
-      <c r="K63">
-        <v>45</v>
-      </c>
-      <c r="L63">
-        <v>62</v>
-      </c>
-      <c r="M63">
-        <v>73</v>
-      </c>
-      <c r="N63">
-        <v>89</v>
-      </c>
-      <c r="O63">
-        <v>100</v>
-      </c>
-      <c r="P63">
-        <v>113</v>
-      </c>
-      <c r="Q63">
-        <v>143</v>
-      </c>
-      <c r="R63">
-        <v>143</v>
-      </c>
-      <c r="S63">
-        <v>179</v>
-      </c>
-      <c r="T63">
-        <v>196</v>
-      </c>
-      <c r="U63">
-        <v>221</v>
-      </c>
-      <c r="V63">
-        <v>265</v>
-      </c>
-      <c r="W63">
-        <v>294</v>
-      </c>
-      <c r="X63">
-        <v>316</v>
-      </c>
-      <c r="Y63">
-        <v>342</v>
-      </c>
-      <c r="Z63">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -12529,6 +13908,17 @@
       </c>
       <c r="Z64">
         <v>348</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>357.88690476190476</v>
+      </c>
+      <c r="AB64" s="6">
+        <f>VLOOKUP(A64,$A$2:$G$20,7,FALSE)</f>
+        <v>366.56746031746036</v>
+      </c>
+      <c r="AC64" s="6">
+        <f t="shared" si="3"/>
+        <v>366.56746031746036</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -12610,6 +14000,17 @@
       <c r="Z65">
         <v>235</v>
       </c>
+      <c r="AA65" s="6">
+        <v>256.26212867592182</v>
+      </c>
+      <c r="AB65" s="6">
+        <f>VLOOKUP(A65,$A$2:$G$20,7,FALSE)</f>
+        <v>267.50261233019853</v>
+      </c>
+      <c r="AC65" s="6">
+        <f t="shared" si="3"/>
+        <v>267.50261233019853</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -12690,6 +14091,17 @@
       <c r="Z66">
         <v>198</v>
       </c>
+      <c r="AA66" s="6">
+        <v>193.67850692354006</v>
+      </c>
+      <c r="AB66" s="6">
+        <f>VLOOKUP(A66,$A$2:$G$20,7,FALSE)</f>
+        <v>206.63756773028297</v>
+      </c>
+      <c r="AC66" s="6">
+        <f t="shared" si="3"/>
+        <v>206.63756773028297</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -12770,6 +14182,17 @@
       <c r="Z67">
         <v>171</v>
       </c>
+      <c r="AA67" s="6">
+        <v>182.42142025611176</v>
+      </c>
+      <c r="AB67" s="6">
+        <f>VLOOKUP(A67,$A$2:$G$20,7,FALSE)</f>
+        <v>192.9569266589057</v>
+      </c>
+      <c r="AC67" s="6">
+        <f t="shared" si="3"/>
+        <v>192.9569266589057</v>
+      </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -12850,6 +14273,17 @@
       <c r="Z68">
         <v>137</v>
       </c>
+      <c r="AA68" s="6">
+        <v>144.57409568261377</v>
+      </c>
+      <c r="AB68" s="6">
+        <f>VLOOKUP(A68,$A$2:$G$20,7,FALSE)</f>
+        <v>149.47491248541422</v>
+      </c>
+      <c r="AC68" s="6">
+        <f t="shared" si="3"/>
+        <v>149.47491248541422</v>
+      </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -12930,6 +14364,17 @@
       <c r="Z69">
         <v>102</v>
       </c>
+      <c r="AA69" s="6">
+        <v>118.87351778656128</v>
+      </c>
+      <c r="AB69" s="6">
+        <f>VLOOKUP(A69,$A$2:$G$20,7,FALSE)</f>
+        <v>131.71936758893281</v>
+      </c>
+      <c r="AC69" s="6">
+        <f t="shared" si="3"/>
+        <v>131.71936758893281</v>
+      </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -13010,6 +14455,17 @@
       <c r="Z70">
         <v>80</v>
       </c>
+      <c r="AA70" s="6">
+        <v>87.191320293398533</v>
+      </c>
+      <c r="AB70" s="6">
+        <f>VLOOKUP(A70,$A$2:$G$20,7,FALSE)</f>
+        <v>105.7976772616137</v>
+      </c>
+      <c r="AC70" s="6">
+        <f t="shared" si="3"/>
+        <v>105.7976772616137</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -13090,6 +14546,17 @@
       <c r="Z71">
         <v>58</v>
       </c>
+      <c r="AA71" s="6">
+        <v>58.859043863972403</v>
+      </c>
+      <c r="AB71" s="6">
+        <f>VLOOKUP(A71,$A$2:$G$20,7,FALSE)</f>
+        <v>59.992607195662892</v>
+      </c>
+      <c r="AC71" s="6">
+        <f t="shared" si="3"/>
+        <v>59.992607195662892</v>
+      </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -13169,328 +14636,383 @@
       </c>
       <c r="Z72">
         <v>53</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>55.178571428571431</v>
+      </c>
+      <c r="AB72" s="6">
+        <f>VLOOKUP(A72,$A$2:$G$20,7,FALSE)</f>
+        <v>57.321428571428577</v>
+      </c>
+      <c r="AC72" s="6">
+        <f t="shared" si="3"/>
+        <v>57.321428571428577</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AR72" s="5"/>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1.0146152917018962</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>8</v>
+      </c>
+      <c r="L73">
+        <v>9</v>
+      </c>
+      <c r="M73">
         <v>11</v>
       </c>
-      <c r="B73" s="5">
-        <v>0.90702947845804982</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-      <c r="I73">
-        <v>8</v>
-      </c>
-      <c r="J73">
-        <v>10</v>
-      </c>
-      <c r="K73">
-        <v>12</v>
-      </c>
-      <c r="L73">
+      <c r="N73">
+        <v>13</v>
+      </c>
+      <c r="O73">
         <v>15</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>17</v>
       </c>
-      <c r="N73">
-        <v>18</v>
-      </c>
-      <c r="O73">
+      <c r="Q73">
         <v>19</v>
       </c>
-      <c r="P73">
-        <v>21</v>
-      </c>
-      <c r="Q73">
-        <v>23</v>
-      </c>
       <c r="R73">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S73">
+        <v>24</v>
+      </c>
+      <c r="T73">
         <v>28</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>31</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>33</v>
       </c>
-      <c r="V73">
-        <v>36</v>
-      </c>
       <c r="W73">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X73">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y73">
+        <v>39</v>
+      </c>
+      <c r="Z73">
         <v>42</v>
       </c>
-      <c r="Z73">
-        <v>44</v>
+      <c r="AA73" s="6">
+        <v>45.947578209928729</v>
+      </c>
+      <c r="AB73" s="6">
+        <f>VLOOKUP(A73,$A$2:$G$20,7,FALSE)</f>
+        <v>48.943109071143851</v>
+      </c>
+      <c r="AC73" s="6">
+        <f t="shared" si="3"/>
+        <v>48.943109071143851</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B74" s="5">
-        <v>1.0146152917018962</v>
+        <v>0.90702947845804982</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N74">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O74">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P74">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q74">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R74">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S74">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T74">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U74">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V74">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W74">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X74">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y74">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z74">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>44.557823129251702</v>
+      </c>
+      <c r="AB74" s="6">
+        <f>VLOOKUP(A74,$A$2:$G$20,7,FALSE)</f>
+        <v>46.485260770975053</v>
+      </c>
+      <c r="AC74" s="6">
+        <f t="shared" si="3"/>
+        <v>46.485260770975053</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B75" s="5">
-        <v>1.3040238450074515</v>
+        <v>0.50545357807927638</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="E75">
+      <c r="J75">
         <v>2</v>
       </c>
-      <c r="F75">
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
         <v>3</v>
       </c>
-      <c r="G75">
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="J75">
+      <c r="N75">
         <v>5</v>
       </c>
-      <c r="K75">
+      <c r="O75">
         <v>6</v>
       </c>
-      <c r="L75">
+      <c r="P75">
+        <v>6</v>
+      </c>
+      <c r="Q75">
         <v>7</v>
       </c>
-      <c r="M75">
-        <v>8</v>
-      </c>
-      <c r="N75">
+      <c r="R75">
         <v>9</v>
       </c>
-      <c r="O75">
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
         <v>11</v>
       </c>
-      <c r="P75">
-        <v>12</v>
-      </c>
-      <c r="Q75">
-        <v>13</v>
-      </c>
-      <c r="R75">
+      <c r="U75">
         <v>14</v>
       </c>
-      <c r="S75">
+      <c r="V75">
+        <v>15</v>
+      </c>
+      <c r="W75">
         <v>17</v>
       </c>
-      <c r="T75">
+      <c r="X75">
         <v>19</v>
       </c>
-      <c r="U75">
-        <v>20</v>
-      </c>
-      <c r="V75">
+      <c r="Y75">
         <v>21</v>
       </c>
-      <c r="W75">
-        <v>22</v>
-      </c>
-      <c r="X75">
+      <c r="Z75">
         <v>24</v>
       </c>
-      <c r="Y75">
-        <v>25</v>
-      </c>
-      <c r="Z75">
-        <v>26</v>
+      <c r="AA75" s="6">
+        <v>26.868848097898375</v>
+      </c>
+      <c r="AB75" s="6">
+        <f>VLOOKUP(A75,$A$2:$G$20,7,FALSE)</f>
+        <v>31.790369779196592</v>
+      </c>
+      <c r="AC75" s="6">
+        <f t="shared" si="3"/>
+        <v>31.790369779196592</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B76" s="5">
-        <v>0.50545357807927638</v>
+        <v>1.3040238450074515</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q76">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R76">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S76">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T76">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V76">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W76">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X76">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y76">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z76">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="AA76" s="6">
+        <v>27.943368107302533</v>
+      </c>
+      <c r="AB76" s="6">
+        <f>VLOOKUP(A76,$A$2:$G$20,7,FALSE)</f>
+        <v>28.315946348733231</v>
+      </c>
+      <c r="AC76" s="6">
+        <f t="shared" si="3"/>
+        <v>28.315946348733231</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
@@ -13572,6 +15094,17 @@
       <c r="Z77">
         <v>7</v>
       </c>
+      <c r="AA77" s="6">
+        <v>8.3946488294314374</v>
+      </c>
+      <c r="AB77" s="6">
+        <f>VLOOKUP(A77,$A$2:$G$20,7,FALSE)</f>
+        <v>9.3024366937410417</v>
+      </c>
+      <c r="AC77" s="6">
+        <f t="shared" si="3"/>
+        <v>9.3024366937410417</v>
+      </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -13652,6 +15185,17 @@
       <c r="Z78">
         <v>4</v>
       </c>
+      <c r="AA78" s="6">
+        <v>4.3714785311832136</v>
+      </c>
+      <c r="AB78" s="6">
+        <f>VLOOKUP(A78,$A$2:$G$20,7,FALSE)</f>
+        <v>4.4686224985428407</v>
+      </c>
+      <c r="AC78" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4686224985428407</v>
+      </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -13732,6 +15276,17 @@
       <c r="Z79">
         <v>3</v>
       </c>
+      <c r="AA79" s="6">
+        <v>2.6696555940493174</v>
+      </c>
+      <c r="AB79" s="6">
+        <f>VLOOKUP(A79,$A$2:$G$20,7,FALSE)</f>
+        <v>2.9345832484206236</v>
+      </c>
+      <c r="AC79" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9345832484206236</v>
+      </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -13812,10 +15367,21 @@
       <c r="Z80">
         <v>2</v>
       </c>
+      <c r="AA80" s="6">
+        <v>2.4112554112554112</v>
+      </c>
+      <c r="AB80" s="6">
+        <f>VLOOKUP(A80,$A$2:$G$20,7,FALSE)</f>
+        <v>2.4112554112554112</v>
+      </c>
+      <c r="AC80" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4112554112554112</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:Z80">
-    <sortCondition descending="1" ref="Z62:Z80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:AB80">
+    <sortCondition descending="1" ref="AB62:AB80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -13847,28 +15413,28 @@
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
     <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A36" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
-    <hyperlink ref="A35" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
-    <hyperlink ref="A33" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
+    <hyperlink ref="A33" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
+    <hyperlink ref="A35" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
     <hyperlink ref="A29" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
     <hyperlink ref="A37" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A39" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
     <hyperlink ref="A80" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A64" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
-    <hyperlink ref="A62" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
+    <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>
-    <hyperlink ref="A74" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
+    <hyperlink ref="A73" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{523B8969-55CC-FF4F-9FA9-106BC6D662B5}"/>
     <hyperlink ref="A71" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{517487C3-ADE3-274F-9F6E-78AC36F61827}"/>
     <hyperlink ref="A65" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{DF895D66-8035-D84B-8A55-69D49041CA73}"/>
     <hyperlink ref="A78" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{95A2796E-E8D5-9244-B105-B3F8CF8E3BB3}"/>
     <hyperlink ref="A68" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{92D1F4A4-B981-3C45-A55A-E63BE05C7D4F}"/>
     <hyperlink ref="A66" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{9E857743-3BA1-D547-A532-A53EF891F862}"/>
     <hyperlink ref="A67" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{AC91BAEF-3072-5948-8933-952BC3477BC0}"/>
-    <hyperlink ref="A73" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
-    <hyperlink ref="A63" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
-    <hyperlink ref="A75" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
+    <hyperlink ref="A74" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{76C0B263-3E56-DD44-BF90-D7A725F4C11B}"/>
+    <hyperlink ref="A62" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{F788A2F0-F76C-0A46-84F6-32311CDCE6EB}"/>
+    <hyperlink ref="A76" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{1FA4FB2B-21FB-A240-B716-855DE4CC3FCA}"/>
     <hyperlink ref="A69" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{52773F30-B0DE-FE41-B798-80BFDD6B52F9}"/>
-    <hyperlink ref="A76" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
+    <hyperlink ref="A75" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{03FEC42E-DDC8-9B40-8CF7-F008D15BED91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId49"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939CF2-79CD-AB48-91DF-0101D47A2FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E67C8-2B84-5943-9181-1EB8F1CA6D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>China</t>
   </si>
@@ -199,6 +199,9 @@
   <si>
     <t>16 April</t>
   </si>
+  <si>
+    <t>17 April</t>
+  </si>
 </sst>
 </file>
 
@@ -284,10 +287,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -421,10 +424,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -448,10 +451,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -487,10 +490,10 @@
                   <c:v>546.42091727389629</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>246.92982456140351</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>800.81680280046669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>246.92982456140351</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>885.87962962962968</c:v>
@@ -514,10 +517,10 @@
                   <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>174.901185770751</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>403.12965722801783</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>174.901185770751</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>251</c:v>
@@ -582,10 +585,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -609,10 +612,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -648,10 +651,10 @@
                   <c:v>613.00900128589808</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>872.11201866977831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>977.81084656084658</c:v>
@@ -675,10 +678,10 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>421.5722801788375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>262</c:v>
@@ -743,10 +746,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -770,10 +773,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -809,10 +812,10 @@
                   <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1057</c:v>
@@ -836,10 +839,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>282</c:v>
@@ -904,10 +907,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -931,10 +934,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -970,10 +973,10 @@
                   <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1144</c:v>
@@ -997,10 +1000,10 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>284</c:v>
@@ -1065,10 +1068,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1092,10 +1095,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1131,10 +1134,10 @@
                   <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1272</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1230</c:v>
@@ -1158,10 +1161,10 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>308</c:v>
@@ -1226,10 +1229,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1253,10 +1256,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1292,10 +1295,10 @@
                   <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1332</c:v>
@@ -1319,10 +1322,10 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>335</c:v>
@@ -1389,10 +1392,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1416,10 +1419,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1455,10 +1458,10 @@
                   <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1509</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1430</c:v>
@@ -1482,10 +1485,10 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>365</c:v>
@@ -1552,10 +1555,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1579,10 +1582,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1618,10 +1621,10 @@
                   <c:v>1569</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1529</c:v>
@@ -1645,10 +1648,10 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>393</c:v>
@@ -1715,10 +1718,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1742,10 +1745,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1781,10 +1784,10 @@
                   <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1730</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1615</c:v>
@@ -1808,10 +1811,10 @@
                   <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>428</c:v>
@@ -1878,10 +1881,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -1905,10 +1908,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -1944,10 +1947,10 @@
                   <c:v>1885</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1858</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1682</c:v>
@@ -1971,10 +1974,10 @@
                   <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>460</c:v>
@@ -2041,10 +2044,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2068,10 +2071,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2107,10 +2110,10 @@
                   <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1938</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1749</c:v>
@@ -2134,10 +2137,10 @@
                   <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>511</c:v>
@@ -2204,10 +2207,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2231,10 +2234,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2270,10 +2273,10 @@
                   <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2073</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1828</c:v>
@@ -2297,10 +2300,10 @@
                   <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>555</c:v>
@@ -2368,10 +2371,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2395,10 +2398,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2434,10 +2437,10 @@
                   <c:v>2402</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1346</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1905</c:v>
@@ -2461,10 +2464,10 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>605</c:v>
@@ -2532,10 +2535,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2559,10 +2562,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2598,10 +2601,10 @@
                   <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1471</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>1981</c:v>
@@ -2625,10 +2628,10 @@
                   <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>671</c:v>
@@ -2696,10 +2699,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2723,10 +2726,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2762,10 +2765,10 @@
                   <c:v>2704</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2061</c:v>
@@ -2789,10 +2792,10 @@
                   <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>728</c:v>
@@ -2860,10 +2863,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -2887,10 +2890,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -2926,10 +2929,10 @@
                   <c:v>2821</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2483</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2132</c:v>
@@ -2953,10 +2956,10 @@
                   <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>780</c:v>
@@ -3024,10 +3027,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3051,10 +3054,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3090,10 +3093,10 @@
                   <c:v>2929</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2527</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2192</c:v>
@@ -3117,10 +3120,10 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>836</c:v>
@@ -3188,10 +3191,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3215,10 +3218,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3254,10 +3257,10 @@
                   <c:v>3042</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2597</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2242</c:v>
@@ -3281,10 +3284,10 @@
                   <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1134</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>906</c:v>
@@ -3351,10 +3354,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3378,10 +3381,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3417,10 +3420,10 @@
                   <c:v>3177</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2716</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2305</c:v>
@@ -3444,10 +3447,10 @@
                   <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>965</c:v>
@@ -3514,10 +3517,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3541,10 +3544,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3580,10 +3583,10 @@
                   <c:v>3284</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2806</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2191</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2375</c:v>
@@ -3607,10 +3610,10 @@
                   <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1006</c:v>
@@ -3677,10 +3680,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3704,10 +3707,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3743,10 +3746,10 @@
                   <c:v>3392</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2339</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2440</c:v>
@@ -3770,10 +3773,10 @@
                   <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1193</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1039</c:v>
@@ -3840,10 +3843,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -3867,10 +3870,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -3906,10 +3909,10 @@
                   <c:v>3494</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2930</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2518</c:v>
@@ -3933,10 +3936,10 @@
                   <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1071</c:v>
@@ -4003,10 +4006,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -4030,10 +4033,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -4069,10 +4072,10 @@
                   <c:v>3575</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2601</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2585</c:v>
@@ -4096,10 +4099,10 @@
                   <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1216</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1103</c:v>
@@ -4166,10 +4169,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -4193,10 +4196,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -4232,10 +4235,10 @@
                   <c:v>3645</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2683</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2638</c:v>
@@ -4259,10 +4262,10 @@
                   <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1230</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1128</c:v>
@@ -4330,10 +4333,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -4357,10 +4360,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -4396,10 +4399,10 @@
                   <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2730</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
                   <c:v>2687</c:v>
@@ -4423,10 +4426,10 @@
                   <c:v>1413</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1234</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1163</c:v>
@@ -4494,10 +4497,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -4521,10 +4524,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -4560,10 +4563,10 @@
                   <c:v>3871.8174024860696</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3073.0455075845975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2945</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2730.737433862434</c:v>
@@ -4587,10 +4590,10 @@
                   <c:v>1482.1794099939796</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1178.5573122529645</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1266.3934426229507</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1178.5573122529645</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1193.0357142857144</c:v>
@@ -4658,10 +4661,10 @@
                   <c:v>Spain</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Belgium</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Italy</c:v>
@@ -4685,10 +4688,10 @@
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Denmark</c:v>
@@ -4724,10 +4727,10 @@
                   <c:v>3963.7376768109734</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3053.4210526315787</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3119.2532088681446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3053.4210526315787</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2793.3366402116403</c:v>
@@ -4751,10 +4754,10 @@
                   <c:v>1551.6706803130644</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1239.1304347826087</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1286.3263785394931</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1239.1304347826087</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1228.3928571428571</c:v>
@@ -4783,6 +4786,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4ECB-8747-8052-E472D01C305C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AC$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AC$27:$AC$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4089.9914273467643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3159.6266044340723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2851.0912698412699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2208.8222122704883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2169.9908312958437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1772.3515715948779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1707.8995047711076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1654.7619047619048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1635.9422034918725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1305.9288537549407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1292.2876304023844</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1263.0357142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>979.47264662395276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>849.34823091247665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>206.97493685642121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163.50215002388916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.083554106378642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.68181818181818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B4-6846-A3B1-AC4150AACE2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5179,10 +5346,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5245,10 +5412,10 @@
                   <c:v>1.9817369341363902</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2.3484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3484848484848486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5340,10 +5507,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5406,10 +5573,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5501,10 +5668,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5567,10 +5734,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5662,10 +5829,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5728,10 +5895,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5823,10 +5990,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5889,10 +6056,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,10 +6151,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6050,10 +6217,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6147,10 +6314,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6213,10 +6380,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,10 +6477,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6376,10 +6543,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6473,10 +6640,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6539,10 +6706,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6636,10 +6803,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6702,10 +6869,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6799,10 +6966,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6865,10 +7032,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,10 +7129,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7028,10 +7195,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,10 +7293,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7192,10 +7359,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7290,10 +7457,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7356,10 +7523,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7454,10 +7621,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7520,10 +7687,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7618,10 +7785,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7684,10 +7851,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7782,10 +7949,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7848,10 +8015,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7946,10 +8113,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8012,10 +8179,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8109,10 +8276,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8175,10 +8342,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8272,10 +8439,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8338,10 +8505,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8435,10 +8602,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8598,10 +8765,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8761,10 +8928,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8924,10 +9091,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9088,10 +9255,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9154,10 +9321,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9252,10 +9419,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9318,10 +9485,10 @@
                   <c:v>4.3714785311832136</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2.4112554112554112</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2.6696555940493174</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4112554112554112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9416,10 +9583,10 @@
                   <c:v>S. Korea</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>China</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9482,10 +9649,10 @@
                   <c:v>4.4686224985428407</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2.4112554112554112</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2.9345832484206236</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4112554112554112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9493,6 +9660,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E9D5-2144-8303-B30BD2275342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AC$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$62:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculos COVID19'!$AC$62:$AC$80</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>452.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428.67552507501074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.07473544973544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.86251679355132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219.3859121011439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.33876600698488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154.84247374562426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.33992094861662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.56356968215159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.089206505667818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.566735112936342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.866213151927433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.849694067571157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.992548435171383</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.372670807453416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5074800854866917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3419913419913421</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1179947014469125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D88-0A46-B508-CF9646F95AA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11161,8 +11492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3BD7B-3B40-A94B-99F4-AAD0A2BEB996}">
   <dimension ref="A1:AR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AE56" sqref="AE56"/>
+    <sheetView tabSelected="1" topLeftCell="AD57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AS67" sqref="AS67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11210,80 +11541,80 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>82367</v>
+        <v>82719</v>
       </c>
       <c r="C2" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>3342</v>
+        <v>4632</v>
       </c>
       <c r="E2" s="3">
         <v>1386</v>
       </c>
       <c r="F2" s="5">
         <f>B2/E2</f>
-        <v>59.427849927849927</v>
+        <v>59.68181818181818</v>
       </c>
       <c r="G2" s="5">
         <f>D2/E2</f>
-        <v>2.4112554112554112</v>
+        <v>3.3419913419913421</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>168941</v>
+        <v>172434</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>22170</v>
+        <v>22745</v>
       </c>
       <c r="E3" s="4">
         <v>60.48</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F20" si="0">B3/E3</f>
-        <v>2793.3366402116403</v>
+        <v>2851.0912698412699</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G19" si="1">D3/E3</f>
-        <v>366.56746031746036</v>
+        <v>376.07473544973544</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>184948</v>
+        <v>190839</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>19315</v>
+        <v>20002</v>
       </c>
       <c r="E4" s="4">
         <v>46.66</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>3963.7376768109734</v>
+        <v>4089.9914273467643</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>413.95199314187744</v>
+        <v>428.67552507501074</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -11292,134 +11623,134 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>677570</v>
+        <v>710021</v>
       </c>
       <c r="C5" s="2">
-        <v>717</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2">
-        <v>34617</v>
+        <v>37158</v>
       </c>
       <c r="E5" s="4">
         <v>327.2</v>
       </c>
       <c r="F5" s="5">
         <f>B5/E5</f>
-        <v>2070.8129584352077</v>
+        <v>2169.9908312958437</v>
       </c>
       <c r="G5" s="5">
         <f>D5/E5</f>
-        <v>105.7976772616137</v>
+        <v>113.56356968215159</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>137698</v>
+        <v>141397</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>4052</v>
+        <v>4352</v>
       </c>
       <c r="E6" s="4">
         <v>82.79</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1663.2201956758061</v>
+        <v>1707.8995047711076</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>48.943109071143851</v>
+        <v>52.566735112936342</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>77995</v>
+        <v>79494</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>4869</v>
+        <v>4958</v>
       </c>
       <c r="E7" s="4">
         <v>81.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>961.00295712173488</v>
+        <v>979.47264662395276</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>59.992607195662892</v>
+        <v>61.089206505667818</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>165027</v>
+        <v>147969</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>17920</v>
+        <v>18681</v>
       </c>
       <c r="E8" s="4">
         <v>66.989999999999995</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>2463.4572324227497</v>
+        <v>2208.8222122704883</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>267.50261233019853</v>
+        <v>278.86251679355132</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>10635</v>
+        <v>10653</v>
       </c>
       <c r="C9" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E9" s="4">
         <v>51.47</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>206.62521857392656</v>
+        <v>206.97493685642121</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>4.4686224985428407</v>
+        <v>4.5074800854866917</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11427,287 +11758,289 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>26732</v>
+        <v>27078</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>1281</v>
+        <v>1327</v>
       </c>
       <c r="E10" s="4">
         <v>8.57</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>3119.2532088681446</v>
+        <v>3159.6266044340723</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>149.47491248541422</v>
+        <v>154.84247374562426</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>103093</v>
+        <v>108692</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>13729</v>
+        <v>14576</v>
       </c>
       <c r="E11" s="4">
         <v>66.44</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1551.6706803130644</v>
+        <v>1635.9422034918725</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>206.63756773028297</v>
+        <v>219.3859121011439</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>29214</v>
+        <v>30449</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>3315</v>
+        <v>3459</v>
       </c>
       <c r="E12" s="4">
         <v>17.18</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>1700.4656577415599</v>
+        <v>1772.3515715948779</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>192.9569266589057</v>
+        <v>201.33876600698488</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>14476</v>
+        <v>14595</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="E13" s="4">
         <v>8.82</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1641.2698412698412</v>
+        <v>1654.7619047619048</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>46.485260770975053</v>
+        <v>48.866213151927433</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>34809</v>
+        <v>36138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>4857</v>
+        <v>5163</v>
       </c>
       <c r="E14" s="4">
         <v>11.4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>3053.4210526315787</v>
+        <v>3170</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>426.05263157894734</v>
+        <v>452.89473684210526</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6905</v>
+        <v>6937</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E15" s="4">
         <v>5.3680000000000003</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1286.3263785394931</v>
+        <v>1292.2876304023844</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>28.315946348733231</v>
+        <v>29.992548435171383</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>12540</v>
+        <v>13216</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="E16" s="4">
         <v>10.119999999999999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>1239.1304347826087</v>
+        <v>1305.9288537549407</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>131.71936758893281</v>
+        <v>138.33992094861662</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>30106</v>
+        <v>31927</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="E17" s="4">
         <v>37.590000000000003</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>800.90449587656281</v>
+        <v>849.34823091247665</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>31.790369779196592</v>
+        <v>34.849694067571157</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>3233</v>
+        <v>3439</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E18" s="4">
         <v>49.07</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>65.885469737110256</v>
+        <v>70.083554106378642</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>2.9345832484206236</v>
+        <v>3.1179947014469125</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>6879</v>
+        <v>7073</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E19" s="4">
         <v>5.6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1228.3928571428571</v>
+        <v>1263.0357142857144</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>57.321428571428577</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>30683</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>34221</v>
+      </c>
+      <c r="C20" s="2">
+        <v>539</v>
+      </c>
       <c r="D20" s="2">
-        <v>1947</v>
+        <v>2171</v>
       </c>
       <c r="E20" s="4">
         <v>209.3</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>146.59818442427138</v>
+        <v>163.50215002388916</v>
       </c>
       <c r="G20" s="5">
         <f>D20/E20</f>
-        <v>9.3024366937410417</v>
+        <v>10.372670807453416</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11716,7 +12049,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11725,7 +12058,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11734,14 +12067,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -11827,10 +12160,13 @@
         <v>54</v>
       </c>
       <c r="AC26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD26" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -11913,197 +12249,206 @@
         <v>3871.8174024860696</v>
       </c>
       <c r="AB27" s="6">
-        <f>VLOOKUP(A27,$A$2:$G$20,6,FALSE)</f>
         <v>3963.7376768109734</v>
       </c>
       <c r="AC27" s="6">
         <f>VLOOKUP(A27,$A$2:$G$20,6,FALSE)</f>
-        <v>3963.7376768109734</v>
+        <v>4089.9914273467643</v>
+      </c>
+      <c r="AD27" s="6">
+        <f>VLOOKUP(A27,$A$2:$G$20,6,FALSE)</f>
+        <v>4089.9914273467643</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5">
+        <v>246.92982456140351</v>
+      </c>
+      <c r="C28" s="5">
+        <v>298</v>
+      </c>
+      <c r="D28">
+        <v>328</v>
+      </c>
+      <c r="E28">
+        <v>374</v>
+      </c>
+      <c r="F28">
+        <v>433</v>
+      </c>
+      <c r="G28">
+        <v>547</v>
+      </c>
+      <c r="H28">
+        <v>639</v>
+      </c>
+      <c r="I28">
+        <v>801</v>
+      </c>
+      <c r="J28">
+        <v>951</v>
+      </c>
+      <c r="K28">
+        <v>1044</v>
+      </c>
+      <c r="L28">
+        <v>1121</v>
+      </c>
+      <c r="M28">
+        <v>1225</v>
+      </c>
+      <c r="N28">
+        <v>1346</v>
+      </c>
+      <c r="O28">
+        <v>1471</v>
+      </c>
+      <c r="P28">
+        <v>1617</v>
+      </c>
+      <c r="Q28">
+        <v>1826</v>
+      </c>
+      <c r="R28">
+        <v>1826</v>
+      </c>
+      <c r="S28">
+        <v>1947</v>
+      </c>
+      <c r="T28">
+        <v>2053</v>
+      </c>
+      <c r="U28">
+        <v>2191</v>
+      </c>
+      <c r="V28">
+        <v>2339</v>
+      </c>
+      <c r="W28">
+        <v>2458</v>
+      </c>
+      <c r="X28">
+        <v>2601</v>
+      </c>
+      <c r="Y28">
+        <v>2683</v>
+      </c>
+      <c r="Z28">
+        <v>2730</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>2945</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>3053.4210526315787</v>
+      </c>
+      <c r="AC28" s="6">
+        <f>VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
+        <v>3170</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" ref="AD28:AD45" si="2">VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>800.81680280046669</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C29" s="5">
         <v>872.11201866977831</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>997</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>1153</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1272</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1378</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>1509</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>1642</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>1730</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>1858</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>1938</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>2073</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>2197</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>2288</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>2393</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>2483</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>2527</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>2597</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>2716</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>2806</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>2865</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>2930</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>2966</v>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <v>2997</v>
       </c>
-      <c r="Z28">
+      <c r="Z29">
         <v>3026</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA29" s="6">
         <v>3073.0455075845975</v>
       </c>
-      <c r="AB28" s="6">
-        <f>VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
+      <c r="AB29" s="6">
         <v>3119.2532088681446</v>
       </c>
-      <c r="AC28" s="6">
-        <f t="shared" ref="AC28:AC45" si="2">VLOOKUP(A28,$A$2:$G$20,6,FALSE)</f>
-        <v>3119.2532088681446</v>
+      <c r="AC29" s="6">
+        <f>VLOOKUP(A29,$A$2:$G$20,6,FALSE)</f>
+        <v>3159.6266044340723</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="2"/>
+        <v>3159.6266044340723</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="5">
-        <v>246.92982456140351</v>
-      </c>
-      <c r="C29" s="5">
-        <v>298</v>
-      </c>
-      <c r="D29">
-        <v>328</v>
-      </c>
-      <c r="E29">
-        <v>374</v>
-      </c>
-      <c r="F29">
-        <v>433</v>
-      </c>
-      <c r="G29">
-        <v>547</v>
-      </c>
-      <c r="H29">
-        <v>639</v>
-      </c>
-      <c r="I29">
-        <v>801</v>
-      </c>
-      <c r="J29">
-        <v>951</v>
-      </c>
-      <c r="K29">
-        <v>1044</v>
-      </c>
-      <c r="L29">
-        <v>1121</v>
-      </c>
-      <c r="M29">
-        <v>1225</v>
-      </c>
-      <c r="N29">
-        <v>1346</v>
-      </c>
-      <c r="O29">
-        <v>1471</v>
-      </c>
-      <c r="P29">
-        <v>1617</v>
-      </c>
-      <c r="Q29">
-        <v>1826</v>
-      </c>
-      <c r="R29">
-        <v>1826</v>
-      </c>
-      <c r="S29">
-        <v>1947</v>
-      </c>
-      <c r="T29">
-        <v>2053</v>
-      </c>
-      <c r="U29">
-        <v>2191</v>
-      </c>
-      <c r="V29">
-        <v>2339</v>
-      </c>
-      <c r="W29">
-        <v>2458</v>
-      </c>
-      <c r="X29">
-        <v>2601</v>
-      </c>
-      <c r="Y29">
-        <v>2683</v>
-      </c>
-      <c r="Z29">
-        <v>2730</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>2945</v>
-      </c>
-      <c r="AB29" s="6">
-        <f>VLOOKUP(A29,$A$2:$G$20,6,FALSE)</f>
-        <v>3053.4210526315787</v>
-      </c>
-      <c r="AC29" s="6">
-        <f t="shared" si="2"/>
-        <v>3053.4210526315787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -12186,15 +12531,18 @@
         <v>2730.737433862434</v>
       </c>
       <c r="AB30" s="6">
+        <v>2793.3366402116403</v>
+      </c>
+      <c r="AC30" s="6">
         <f>VLOOKUP(A30,$A$2:$G$20,6,FALSE)</f>
-        <v>2793.3366402116403</v>
-      </c>
-      <c r="AC30" s="6">
+        <v>2851.0912698412699</v>
+      </c>
+      <c r="AD30" s="6">
         <f t="shared" si="2"/>
-        <v>2793.3366402116403</v>
+        <v>2851.0912698412699</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -12277,15 +12625,18 @@
         <v>2207.2398865502314</v>
       </c>
       <c r="AB31" s="6">
+        <v>2463.4572324227497</v>
+      </c>
+      <c r="AC31" s="6">
         <f>VLOOKUP(A31,$A$2:$G$20,6,FALSE)</f>
-        <v>2463.4572324227497</v>
-      </c>
-      <c r="AC31" s="6">
+        <v>2208.8222122704883</v>
+      </c>
+      <c r="AD31" s="6">
         <f t="shared" si="2"/>
-        <v>2463.4572324227497</v>
+        <v>2208.8222122704883</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -12368,15 +12719,18 @@
         <v>1968.487163814181</v>
       </c>
       <c r="AB32" s="6">
+        <v>2070.8129584352077</v>
+      </c>
+      <c r="AC32" s="6">
         <f>VLOOKUP(A32,$A$2:$G$20,6,FALSE)</f>
-        <v>2070.8129584352077</v>
-      </c>
-      <c r="AC32" s="6">
+        <v>2169.9908312958437</v>
+      </c>
+      <c r="AD32" s="6">
         <f t="shared" si="2"/>
-        <v>2070.8129584352077</v>
+        <v>2169.9908312958437</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -12459,15 +12813,18 @@
         <v>1638.7077997671711</v>
       </c>
       <c r="AB33" s="6">
+        <v>1700.4656577415599</v>
+      </c>
+      <c r="AC33" s="6">
         <f>VLOOKUP(A33,$A$2:$G$20,6,FALSE)</f>
-        <v>1700.4656577415599</v>
-      </c>
-      <c r="AC33" s="6">
+        <v>1772.3515715948779</v>
+      </c>
+      <c r="AD33" s="6">
         <f t="shared" si="2"/>
-        <v>1700.4656577415599</v>
+        <v>1772.3515715948779</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -12550,15 +12907,18 @@
         <v>1627.6482666988766</v>
       </c>
       <c r="AB34" s="6">
+        <v>1663.2201956758061</v>
+      </c>
+      <c r="AC34" s="6">
         <f>VLOOKUP(A34,$A$2:$G$20,6,FALSE)</f>
-        <v>1663.2201956758061</v>
-      </c>
-      <c r="AC34" s="6">
+        <v>1707.8995047711076</v>
+      </c>
+      <c r="AD34" s="6">
         <f t="shared" si="2"/>
-        <v>1663.2201956758061</v>
+        <v>1707.8995047711076</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12641,15 +13001,18 @@
         <v>1634.0136054421769</v>
       </c>
       <c r="AB35" s="6">
+        <v>1641.2698412698412</v>
+      </c>
+      <c r="AC35" s="6">
         <f>VLOOKUP(A35,$A$2:$G$20,6,FALSE)</f>
-        <v>1641.2698412698412</v>
-      </c>
-      <c r="AC35" s="6">
+        <v>1654.7619047619048</v>
+      </c>
+      <c r="AD35" s="6">
         <f t="shared" si="2"/>
-        <v>1641.2698412698412</v>
+        <v>1654.7619047619048</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -12732,197 +13095,206 @@
         <v>1482.1794099939796</v>
       </c>
       <c r="AB36" s="6">
+        <v>1551.6706803130644</v>
+      </c>
+      <c r="AC36" s="6">
         <f>VLOOKUP(A36,$A$2:$G$20,6,FALSE)</f>
-        <v>1551.6706803130644</v>
-      </c>
-      <c r="AC36" s="6">
+        <v>1635.9422034918725</v>
+      </c>
+      <c r="AD36" s="6">
         <f t="shared" si="2"/>
-        <v>1551.6706803130644</v>
+        <v>1635.9422034918725</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5">
+        <v>174.901185770751</v>
+      </c>
+      <c r="C37" s="5">
+        <v>191</v>
+      </c>
+      <c r="D37">
+        <v>202</v>
+      </c>
+      <c r="E37">
+        <v>226</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>281</v>
+      </c>
+      <c r="H37">
+        <v>371</v>
+      </c>
+      <c r="I37">
+        <v>341</v>
+      </c>
+      <c r="J37">
+        <v>366</v>
+      </c>
+      <c r="K37">
+        <v>398</v>
+      </c>
+      <c r="L37">
+        <v>438</v>
+      </c>
+      <c r="M37">
+        <v>489</v>
+      </c>
+      <c r="N37">
+        <v>550</v>
+      </c>
+      <c r="O37">
+        <v>606</v>
+      </c>
+      <c r="P37">
+        <v>637</v>
+      </c>
+      <c r="Q37">
+        <v>675</v>
+      </c>
+      <c r="R37">
+        <v>712</v>
+      </c>
+      <c r="S37">
+        <v>760</v>
+      </c>
+      <c r="T37">
+        <v>832</v>
+      </c>
+      <c r="U37">
+        <v>903</v>
+      </c>
+      <c r="V37">
+        <v>957</v>
+      </c>
+      <c r="W37">
+        <v>1003</v>
+      </c>
+      <c r="X37">
+        <v>1036</v>
+      </c>
+      <c r="Y37">
+        <v>1082</v>
+      </c>
+      <c r="Z37">
+        <v>1131</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>1178.5573122529645</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>1239.1304347826087</v>
+      </c>
+      <c r="AC37" s="6">
+        <f>VLOOKUP(A37,$A$2:$G$20,6,FALSE)</f>
+        <v>1305.9288537549407</v>
+      </c>
+      <c r="AD37" s="6">
+        <f t="shared" si="2"/>
+        <v>1305.9288537549407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>403.12965722801783</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <v>421.5722801788375</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>474</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>518</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>571</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>628</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>628</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>748</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>758</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>828</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>865</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>909</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>959</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>1000</v>
       </c>
-      <c r="P37">
+      <c r="P38">
         <v>1034</v>
       </c>
-      <c r="Q37">
+      <c r="Q38">
         <v>1059</v>
       </c>
-      <c r="R37">
+      <c r="R38">
         <v>1093</v>
       </c>
-      <c r="S37">
+      <c r="S38">
         <v>1134</v>
       </c>
-      <c r="T37">
+      <c r="T38">
         <v>1126</v>
       </c>
-      <c r="U37">
+      <c r="U38">
         <v>1159</v>
       </c>
-      <c r="V37">
+      <c r="V38">
         <v>1193</v>
       </c>
-      <c r="W37">
+      <c r="W38">
         <v>1194</v>
       </c>
-      <c r="X37">
+      <c r="X38">
         <v>1216</v>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <v>1230</v>
       </c>
-      <c r="Z37">
+      <c r="Z38">
         <v>1234</v>
       </c>
-      <c r="AA37" s="6">
+      <c r="AA38" s="6">
         <v>1266.3934426229507</v>
       </c>
-      <c r="AB37" s="6">
-        <f>VLOOKUP(A37,$A$2:$G$20,6,FALSE)</f>
+      <c r="AB38" s="6">
         <v>1286.3263785394931</v>
       </c>
-      <c r="AC37" s="6">
+      <c r="AC38" s="6">
+        <f>VLOOKUP(A38,$A$2:$G$20,6,FALSE)</f>
+        <v>1292.2876304023844</v>
+      </c>
+      <c r="AD38" s="6">
         <f t="shared" si="2"/>
-        <v>1286.3263785394931</v>
+        <v>1292.2876304023844</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5">
-        <v>174.901185770751</v>
-      </c>
-      <c r="C38" s="5">
-        <v>191</v>
-      </c>
-      <c r="D38">
-        <v>202</v>
-      </c>
-      <c r="E38">
-        <v>226</v>
-      </c>
-      <c r="F38">
-        <v>250</v>
-      </c>
-      <c r="G38">
-        <v>281</v>
-      </c>
-      <c r="H38">
-        <v>371</v>
-      </c>
-      <c r="I38">
-        <v>341</v>
-      </c>
-      <c r="J38">
-        <v>366</v>
-      </c>
-      <c r="K38">
-        <v>398</v>
-      </c>
-      <c r="L38">
-        <v>438</v>
-      </c>
-      <c r="M38">
-        <v>489</v>
-      </c>
-      <c r="N38">
-        <v>550</v>
-      </c>
-      <c r="O38">
-        <v>606</v>
-      </c>
-      <c r="P38">
-        <v>637</v>
-      </c>
-      <c r="Q38">
-        <v>675</v>
-      </c>
-      <c r="R38">
-        <v>712</v>
-      </c>
-      <c r="S38">
-        <v>760</v>
-      </c>
-      <c r="T38">
-        <v>832</v>
-      </c>
-      <c r="U38">
-        <v>903</v>
-      </c>
-      <c r="V38">
-        <v>957</v>
-      </c>
-      <c r="W38">
-        <v>1003</v>
-      </c>
-      <c r="X38">
-        <v>1036</v>
-      </c>
-      <c r="Y38">
-        <v>1082</v>
-      </c>
-      <c r="Z38">
-        <v>1131</v>
-      </c>
-      <c r="AA38" s="6">
-        <v>1178.5573122529645</v>
-      </c>
-      <c r="AB38" s="6">
-        <f>VLOOKUP(A38,$A$2:$G$20,6,FALSE)</f>
-        <v>1239.1304347826087</v>
-      </c>
-      <c r="AC38" s="6">
-        <f t="shared" si="2"/>
-        <v>1239.1304347826087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -13005,15 +13377,18 @@
         <v>1193.0357142857144</v>
       </c>
       <c r="AB39" s="6">
+        <v>1228.3928571428571</v>
+      </c>
+      <c r="AC39" s="6">
         <f>VLOOKUP(A39,$A$2:$G$20,6,FALSE)</f>
-        <v>1228.3928571428571</v>
-      </c>
-      <c r="AC39" s="6">
+        <v>1263.0357142857144</v>
+      </c>
+      <c r="AD39" s="6">
         <f t="shared" si="2"/>
-        <v>1228.3928571428571</v>
+        <v>1263.0357142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -13096,15 +13471,18 @@
         <v>941.21488417939872</v>
       </c>
       <c r="AB40" s="6">
+        <v>961.00295712173488</v>
+      </c>
+      <c r="AC40" s="6">
         <f>VLOOKUP(A40,$A$2:$G$20,6,FALSE)</f>
-        <v>961.00295712173488</v>
-      </c>
-      <c r="AC40" s="6">
+        <v>979.47264662395276</v>
+      </c>
+      <c r="AD40" s="6">
         <f t="shared" si="2"/>
-        <v>961.00295712173488</v>
+        <v>979.47264662395276</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -13187,15 +13565,18 @@
         <v>754.96142591114653</v>
       </c>
       <c r="AB41" s="6">
+        <v>800.90449587656281</v>
+      </c>
+      <c r="AC41" s="6">
         <f>VLOOKUP(A41,$A$2:$G$20,6,FALSE)</f>
-        <v>800.90449587656281</v>
-      </c>
-      <c r="AC41" s="6">
+        <v>849.34823091247665</v>
+      </c>
+      <c r="AD41" s="6">
         <f t="shared" si="2"/>
-        <v>800.90449587656281</v>
+        <v>849.34823091247665</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -13278,15 +13659,18 @@
         <v>205.77035166116184</v>
       </c>
       <c r="AB42" s="6">
+        <v>206.62521857392656</v>
+      </c>
+      <c r="AC42" s="6">
         <f>VLOOKUP(A42,$A$2:$G$20,6,FALSE)</f>
-        <v>206.62521857392656</v>
-      </c>
-      <c r="AC42" s="6">
+        <v>206.97493685642121</v>
+      </c>
+      <c r="AD42" s="6">
         <f t="shared" si="2"/>
-        <v>206.62521857392656</v>
+        <v>206.97493685642121</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -13369,15 +13753,18 @@
         <v>136.69374104156711</v>
       </c>
       <c r="AB43" s="6">
+        <v>146.59818442427138</v>
+      </c>
+      <c r="AC43" s="6">
         <f>VLOOKUP(A43,$A$2:$G$20,6,FALSE)</f>
-        <v>146.59818442427138</v>
-      </c>
-      <c r="AC43" s="6">
+        <v>163.50215002388916</v>
+      </c>
+      <c r="AD43" s="6">
         <f t="shared" si="2"/>
-        <v>146.59818442427138</v>
+        <v>163.50215002388916</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -13460,15 +13847,18 @@
         <v>63.276951294069697</v>
       </c>
       <c r="AB44" s="6">
+        <v>65.885469737110256</v>
+      </c>
+      <c r="AC44" s="6">
         <f>VLOOKUP(A44,$A$2:$G$20,6,FALSE)</f>
-        <v>65.885469737110256</v>
-      </c>
-      <c r="AC44" s="6">
+        <v>70.083554106378642</v>
+      </c>
+      <c r="AD44" s="6">
         <f t="shared" si="2"/>
-        <v>65.885469737110256</v>
+        <v>70.083554106378642</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -13551,15 +13941,18 @@
         <v>59.375901875901874</v>
       </c>
       <c r="AB45" s="6">
+        <v>59.427849927849927</v>
+      </c>
+      <c r="AC45" s="6">
         <f>VLOOKUP(A45,$A$2:$G$20,6,FALSE)</f>
-        <v>59.427849927849927</v>
-      </c>
-      <c r="AC45" s="6">
+        <v>59.68181818181818</v>
+      </c>
+      <c r="AD45" s="6">
         <f t="shared" si="2"/>
-        <v>59.427849927849927</v>
+        <v>59.68181818181818</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -13645,10 +14038,13 @@
         <v>54</v>
       </c>
       <c r="AC61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD61" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -13731,15 +14127,18 @@
         <v>389.4736842105263</v>
       </c>
       <c r="AB62" s="6">
-        <f>VLOOKUP(A62,$A$2:$G$20,7,FALSE)</f>
         <v>426.05263157894734</v>
       </c>
       <c r="AC62" s="6">
         <f>VLOOKUP(A62,$A$2:$G$20,7,FALSE)</f>
-        <v>426.05263157894734</v>
+        <v>452.89473684210526</v>
+      </c>
+      <c r="AD62" s="6">
+        <f>VLOOKUP(A62,$A$2:$G$20,7,FALSE)</f>
+        <v>452.89473684210526</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -13822,15 +14221,18 @@
         <v>403.17188169738534</v>
       </c>
       <c r="AB63" s="6">
+        <v>413.95199314187744</v>
+      </c>
+      <c r="AC63" s="6">
         <f>VLOOKUP(A63,$A$2:$G$20,7,FALSE)</f>
-        <v>413.95199314187744</v>
-      </c>
-      <c r="AC63" s="6">
-        <f t="shared" ref="AC63:AC80" si="3">VLOOKUP(A63,$A$2:$G$20,7,FALSE)</f>
-        <v>413.95199314187744</v>
+        <v>428.67552507501074</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" ref="AD63:AD80" si="3">VLOOKUP(A63,$A$2:$G$20,7,FALSE)</f>
+        <v>428.67552507501074</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -13913,12 +14315,15 @@
         <v>357.88690476190476</v>
       </c>
       <c r="AB64" s="6">
+        <v>366.56746031746036</v>
+      </c>
+      <c r="AC64" s="6">
         <f>VLOOKUP(A64,$A$2:$G$20,7,FALSE)</f>
-        <v>366.56746031746036</v>
-      </c>
-      <c r="AC64" s="6">
+        <v>376.07473544973544</v>
+      </c>
+      <c r="AD64" s="6">
         <f t="shared" si="3"/>
-        <v>366.56746031746036</v>
+        <v>376.07473544973544</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
@@ -14004,12 +14409,15 @@
         <v>256.26212867592182</v>
       </c>
       <c r="AB65" s="6">
+        <v>267.50261233019853</v>
+      </c>
+      <c r="AC65" s="6">
         <f>VLOOKUP(A65,$A$2:$G$20,7,FALSE)</f>
-        <v>267.50261233019853</v>
-      </c>
-      <c r="AC65" s="6">
+        <v>278.86251679355132</v>
+      </c>
+      <c r="AD65" s="6">
         <f t="shared" si="3"/>
-        <v>267.50261233019853</v>
+        <v>278.86251679355132</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
@@ -14095,12 +14503,15 @@
         <v>193.67850692354006</v>
       </c>
       <c r="AB66" s="6">
+        <v>206.63756773028297</v>
+      </c>
+      <c r="AC66" s="6">
         <f>VLOOKUP(A66,$A$2:$G$20,7,FALSE)</f>
-        <v>206.63756773028297</v>
-      </c>
-      <c r="AC66" s="6">
+        <v>219.3859121011439</v>
+      </c>
+      <c r="AD66" s="6">
         <f t="shared" si="3"/>
-        <v>206.63756773028297</v>
+        <v>219.3859121011439</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
@@ -14186,12 +14597,15 @@
         <v>182.42142025611176</v>
       </c>
       <c r="AB67" s="6">
+        <v>192.9569266589057</v>
+      </c>
+      <c r="AC67" s="6">
         <f>VLOOKUP(A67,$A$2:$G$20,7,FALSE)</f>
-        <v>192.9569266589057</v>
-      </c>
-      <c r="AC67" s="6">
+        <v>201.33876600698488</v>
+      </c>
+      <c r="AD67" s="6">
         <f t="shared" si="3"/>
-        <v>192.9569266589057</v>
+        <v>201.33876600698488</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
@@ -14277,12 +14691,15 @@
         <v>144.57409568261377</v>
       </c>
       <c r="AB68" s="6">
+        <v>149.47491248541422</v>
+      </c>
+      <c r="AC68" s="6">
         <f>VLOOKUP(A68,$A$2:$G$20,7,FALSE)</f>
-        <v>149.47491248541422</v>
-      </c>
-      <c r="AC68" s="6">
+        <v>154.84247374562426</v>
+      </c>
+      <c r="AD68" s="6">
         <f t="shared" si="3"/>
-        <v>149.47491248541422</v>
+        <v>154.84247374562426</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
@@ -14368,12 +14785,15 @@
         <v>118.87351778656128</v>
       </c>
       <c r="AB69" s="6">
+        <v>131.71936758893281</v>
+      </c>
+      <c r="AC69" s="6">
         <f>VLOOKUP(A69,$A$2:$G$20,7,FALSE)</f>
-        <v>131.71936758893281</v>
-      </c>
-      <c r="AC69" s="6">
+        <v>138.33992094861662</v>
+      </c>
+      <c r="AD69" s="6">
         <f t="shared" si="3"/>
-        <v>131.71936758893281</v>
+        <v>138.33992094861662</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.2">
@@ -14459,12 +14879,15 @@
         <v>87.191320293398533</v>
       </c>
       <c r="AB70" s="6">
+        <v>105.7976772616137</v>
+      </c>
+      <c r="AC70" s="6">
         <f>VLOOKUP(A70,$A$2:$G$20,7,FALSE)</f>
-        <v>105.7976772616137</v>
-      </c>
-      <c r="AC70" s="6">
+        <v>113.56356968215159</v>
+      </c>
+      <c r="AD70" s="6">
         <f t="shared" si="3"/>
-        <v>105.7976772616137</v>
+        <v>113.56356968215159</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
@@ -14550,12 +14973,15 @@
         <v>58.859043863972403</v>
       </c>
       <c r="AB71" s="6">
+        <v>59.992607195662892</v>
+      </c>
+      <c r="AC71" s="6">
         <f>VLOOKUP(A71,$A$2:$G$20,7,FALSE)</f>
-        <v>59.992607195662892</v>
-      </c>
-      <c r="AC71" s="6">
+        <v>61.089206505667818</v>
+      </c>
+      <c r="AD71" s="6">
         <f t="shared" si="3"/>
-        <v>59.992607195662892</v>
+        <v>61.089206505667818</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
@@ -14641,14 +15067,16 @@
         <v>55.178571428571431</v>
       </c>
       <c r="AB72" s="6">
+        <v>57.321428571428577</v>
+      </c>
+      <c r="AC72" s="6">
         <f>VLOOKUP(A72,$A$2:$G$20,7,FALSE)</f>
-        <v>57.321428571428577</v>
-      </c>
-      <c r="AC72" s="6">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="AD72" s="6">
         <f t="shared" si="3"/>
-        <v>57.321428571428577</v>
-      </c>
-      <c r="AD72" s="5"/>
+        <v>60.000000000000007</v>
+      </c>
       <c r="AR72" s="5"/>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.2">
@@ -14734,12 +15162,15 @@
         <v>45.947578209928729</v>
       </c>
       <c r="AB73" s="6">
+        <v>48.943109071143851</v>
+      </c>
+      <c r="AC73" s="6">
         <f>VLOOKUP(A73,$A$2:$G$20,7,FALSE)</f>
-        <v>48.943109071143851</v>
-      </c>
-      <c r="AC73" s="6">
+        <v>52.566735112936342</v>
+      </c>
+      <c r="AD73" s="6">
         <f t="shared" si="3"/>
-        <v>48.943109071143851</v>
+        <v>52.566735112936342</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
@@ -14825,12 +15256,15 @@
         <v>44.557823129251702</v>
       </c>
       <c r="AB74" s="6">
+        <v>46.485260770975053</v>
+      </c>
+      <c r="AC74" s="6">
         <f>VLOOKUP(A74,$A$2:$G$20,7,FALSE)</f>
-        <v>46.485260770975053</v>
-      </c>
-      <c r="AC74" s="6">
+        <v>48.866213151927433</v>
+      </c>
+      <c r="AD74" s="6">
         <f t="shared" si="3"/>
-        <v>46.485260770975053</v>
+        <v>48.866213151927433</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
@@ -14916,12 +15350,15 @@
         <v>26.868848097898375</v>
       </c>
       <c r="AB75" s="6">
+        <v>31.790369779196592</v>
+      </c>
+      <c r="AC75" s="6">
         <f>VLOOKUP(A75,$A$2:$G$20,7,FALSE)</f>
-        <v>31.790369779196592</v>
-      </c>
-      <c r="AC75" s="6">
+        <v>34.849694067571157</v>
+      </c>
+      <c r="AD75" s="6">
         <f t="shared" si="3"/>
-        <v>31.790369779196592</v>
+        <v>34.849694067571157</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
@@ -15007,12 +15444,15 @@
         <v>27.943368107302533</v>
       </c>
       <c r="AB76" s="6">
+        <v>28.315946348733231</v>
+      </c>
+      <c r="AC76" s="6">
         <f>VLOOKUP(A76,$A$2:$G$20,7,FALSE)</f>
-        <v>28.315946348733231</v>
-      </c>
-      <c r="AC76" s="6">
+        <v>29.992548435171383</v>
+      </c>
+      <c r="AD76" s="6">
         <f t="shared" si="3"/>
-        <v>28.315946348733231</v>
+        <v>29.992548435171383</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
@@ -15098,12 +15538,15 @@
         <v>8.3946488294314374</v>
       </c>
       <c r="AB77" s="6">
+        <v>9.3024366937410417</v>
+      </c>
+      <c r="AC77" s="6">
         <f>VLOOKUP(A77,$A$2:$G$20,7,FALSE)</f>
-        <v>9.3024366937410417</v>
-      </c>
-      <c r="AC77" s="6">
+        <v>10.372670807453416</v>
+      </c>
+      <c r="AD77" s="6">
         <f t="shared" si="3"/>
-        <v>9.3024366937410417</v>
+        <v>10.372670807453416</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.2">
@@ -15189,77 +15632,80 @@
         <v>4.3714785311832136</v>
       </c>
       <c r="AB78" s="6">
+        <v>4.4686224985428407</v>
+      </c>
+      <c r="AC78" s="6">
         <f>VLOOKUP(A78,$A$2:$G$20,7,FALSE)</f>
-        <v>4.4686224985428407</v>
-      </c>
-      <c r="AC78" s="6">
+        <v>4.5074800854866917</v>
+      </c>
+      <c r="AD78" s="6">
         <f t="shared" si="3"/>
-        <v>4.4686224985428407</v>
+        <v>4.5074800854866917</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B79" s="5">
-        <v>0</v>
+        <v>2.3484848484848486</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V79">
         <v>2</v>
@@ -15274,83 +15720,86 @@
         <v>2</v>
       </c>
       <c r="Z79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA79" s="6">
-        <v>2.6696555940493174</v>
+        <v>2.4112554112554112</v>
       </c>
       <c r="AB79" s="6">
+        <v>2.4112554112554112</v>
+      </c>
+      <c r="AC79" s="6">
         <f>VLOOKUP(A79,$A$2:$G$20,7,FALSE)</f>
-        <v>2.9345832484206236</v>
-      </c>
-      <c r="AC79" s="6">
+        <v>3.3419913419913421</v>
+      </c>
+      <c r="AD79" s="6">
         <f t="shared" si="3"/>
-        <v>2.9345832484206236</v>
+        <v>3.3419913419913421</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="5">
         <v>0</v>
       </c>
-      <c r="B80" s="5">
-        <v>2.3484848484848486</v>
-      </c>
       <c r="C80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>2</v>
@@ -15365,23 +15814,26 @@
         <v>2</v>
       </c>
       <c r="Z80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA80" s="6">
-        <v>2.4112554112554112</v>
+        <v>2.6696555940493174</v>
       </c>
       <c r="AB80" s="6">
+        <v>2.9345832484206236</v>
+      </c>
+      <c r="AC80" s="6">
         <f>VLOOKUP(A80,$A$2:$G$20,7,FALSE)</f>
-        <v>2.4112554112554112</v>
-      </c>
-      <c r="AC80" s="6">
+        <v>3.1179947014469125</v>
+      </c>
+      <c r="AD80" s="6">
         <f t="shared" si="3"/>
-        <v>2.4112554112554112</v>
+        <v>3.1179947014469125</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:AB80">
-    <sortCondition descending="1" ref="AB62:AB80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:AC80">
+    <sortCondition descending="1" ref="AC62:AC80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B25:C25"/>
@@ -15411,15 +15863,15 @@
     <hyperlink ref="A40" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{E8933148-C5A5-C049-998E-8A19BCC472EE}"/>
     <hyperlink ref="A31" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{148898F7-DFEC-AD49-AE18-589CAE84737B}"/>
     <hyperlink ref="A42" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{C028FE55-7852-3F41-9817-549C985F7260}"/>
-    <hyperlink ref="A28" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
+    <hyperlink ref="A29" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{B5BDCE1C-B9BF-5D4E-AF41-63D149E1115B}"/>
     <hyperlink ref="A36" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{74AFC393-BAA7-A24A-9C40-9468B146A781}"/>
     <hyperlink ref="A33" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{D6541E56-79D1-DD4C-89C0-B9FE943CF17D}"/>
     <hyperlink ref="A35" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{DB82E052-EA56-4542-B5D9-CDCA3F75C63F}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
-    <hyperlink ref="A37" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
-    <hyperlink ref="A38" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
+    <hyperlink ref="A28" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{B76E0484-5117-5040-B058-D17B21DC5420}"/>
+    <hyperlink ref="A38" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{45694200-AD74-0447-921B-98052D6217F2}"/>
+    <hyperlink ref="A37" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{219CBCE6-9D2C-5146-B0CA-29FE2A0FA513}"/>
     <hyperlink ref="A41" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{A66187B1-4AD9-444B-BCFA-FF8464EDFF33}"/>
-    <hyperlink ref="A80" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
+    <hyperlink ref="A79" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{1DC4F575-6382-4147-ADE9-62EB84FB4A0A}"/>
     <hyperlink ref="A64" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A20FB0CD-F9DA-914E-B2F5-F280E65964E3}"/>
     <hyperlink ref="A63" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{EE62FA68-128F-064D-A4F8-F9BE8B79FC59}"/>
     <hyperlink ref="A70" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{D2FB73FA-EC57-274E-BF29-C09B1AC3DDE2}"/>

--- a/COVID19 calculos.xlsx
+++ b/COVID19 calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rramirez/projects/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E67C8-2B84-5943-9181-1EB8F1CA6D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66033743-9616-0348-A3AE-13275EC7D368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{88028D00-68CA-7A4C-80F7-F9DFC90D5C6B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>China</t>
   </si>
@@ -202,6 +202,9 @@
   <si>
     <t>17 April</t>
   </si>
+  <si>
+    <t>18 April</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,10 +290,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -445,10 +448,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -511,10 +514,10 @@
                   <c:v>270.12924266215725</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>75.526791089705</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>339.22902494331066</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.526791089705</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>174.901185770751</c:v>
@@ -606,10 +609,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -672,10 +675,10 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>405.89569160997729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>191</c:v>
@@ -767,10 +770,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -833,10 +836,10 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>202</c:v>
@@ -928,10 +931,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -994,10 +997,10 @@
                   <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>226</c:v>
@@ -1089,10 +1092,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1155,10 +1158,10 @@
                   <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>250</c:v>
@@ -1250,10 +1253,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1316,10 +1319,10 @@
                   <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>281</c:v>
@@ -1413,10 +1416,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1479,10 +1482,10 @@
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>371</c:v>
@@ -1576,10 +1579,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1642,10 +1645,10 @@
                   <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>928</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>341</c:v>
@@ -1739,10 +1742,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1805,10 +1808,10 @@
                   <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>366</c:v>
@@ -1902,10 +1905,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -1968,10 +1971,10 @@
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>398</c:v>
@@ -2065,10 +2068,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2131,10 +2134,10 @@
                   <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1154</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>438</c:v>
@@ -2228,10 +2231,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2294,10 +2297,10 @@
                   <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1214</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>489</c:v>
@@ -2392,10 +2395,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2458,10 +2461,10 @@
                   <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1262</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>550</c:v>
@@ -2556,10 +2559,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2622,10 +2625,10 @@
                   <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1307</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>606</c:v>
@@ -2720,10 +2723,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2786,10 +2789,10 @@
                   <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>637</c:v>
@@ -2884,10 +2887,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -2950,10 +2953,10 @@
                   <c:v>1209</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>675</c:v>
@@ -3048,10 +3051,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3114,10 +3117,10 @@
                   <c:v>1249</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>712</c:v>
@@ -3212,10 +3215,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3278,10 +3281,10 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1433</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>760</c:v>
@@ -3375,10 +3378,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3441,10 +3444,10 @@
                   <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>832</c:v>
@@ -3538,10 +3541,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3604,10 +3607,10 @@
                   <c:v>1428</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1502</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>903</c:v>
@@ -3701,10 +3704,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3767,10 +3770,10 @@
                   <c:v>1476</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1537</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>957</c:v>
@@ -3864,10 +3867,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -3930,10 +3933,10 @@
                   <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1003</c:v>
@@ -4027,10 +4030,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4093,10 +4096,10 @@
                   <c:v>1544</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1581</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1036</c:v>
@@ -4190,10 +4193,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4256,10 +4259,10 @@
                   <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1592</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1082</c:v>
@@ -4354,10 +4357,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4420,10 +4423,10 @@
                   <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1613</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1413</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1131</c:v>
@@ -4518,10 +4521,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4584,10 +4587,10 @@
                   <c:v>1627.6482666988766</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1482.1794099939796</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1634.0136054421769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1482.1794099939796</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1178.5573122529645</c:v>
@@ -4682,10 +4685,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4735,8 +4738,8 @@
                 <c:pt idx="3">
                   <c:v>2793.3366402116403</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2463.4572324227497</c:v>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2208</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2070.8129584352077</c:v>
@@ -4748,10 +4751,10 @@
                   <c:v>1663.2201956758061</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1551.6706803130644</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1641.2698412698412</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1551.6706803130644</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1239.1304347826087</c:v>
@@ -4846,10 +4849,10 @@
                   <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Sweden</c:v>
@@ -4912,10 +4915,10 @@
                   <c:v>1707.8995047711076</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1635.9422034918725</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1654.7619047619048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1635.9422034918725</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1305.9288537549407</c:v>
@@ -4950,6 +4953,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D7B4-6846-A3B1-AC4150AACE2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$AD$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18 April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculos COVID19'!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iran</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S. Korea</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+    